--- a/df_retrain/datos_val.xlsx
+++ b/df_retrain/datos_val.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>países proceso introducir tic hospitales centros salud embargo mencionó existe definición internacional acordada descripción medición establecimientos salud indicador establecido cercano número camas hospital cada habitantes</t>
+          <t>Muchos países ya estaban en proceso de introducir las TIC en hospitales y centros de salud. Sin embargo, como se mencionó, no existe una definición internacional acordada para la descripción y, por lo tanto, la medición de 'establecimientos de salud'. El indicador establecido más cercano es el número de camas de hospital por cada 10 000 habitantes.</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>country background report señaló proporcionalmente menos estudiantes acceden escuelas smk debido falta información posibles oportunidades laborales ofrecen programas número instituciones smk indonesia aumentado mayoría smk encuentran java sumatra</t>
+          <t>El Country Background Report (2014) señaló que proporcionalmente menos estudiantes acceden a las escuelas SMK debido a la falta de información sobre las posibles oportunidades laborales que ofrecen sus programas. Desde 2012, el número de instituciones SMK en Indonesia ha aumentado de 10 256 a 11 727. La mayoría de los SMK se encuentran en Java (57%) y Sumatra (21%).</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aunque sector atención primaria bien desarrollado ver arriba sección mayoría ebais solo ofrecen citas mañana temprano tarde cierran alrededor p m según informes pacientes levantan temprano comenzar hacer cola cita tales dificultades hacen pacientes acudan directamente servicios urgencias hospitalarios recibir atención primaria</t>
+          <t>Aunque el sector de atención primaria está bien desarrollado (ver arriba en la Sección 1), la mayoría de los EBAIS solo ofrecen citas por la mañana y temprano en la tarde, y cierran alrededor de las 3:00 p. m. Según los informes, los pacientes se levantan muy temprano para comenzar a hacer cola para una cita. Tales dificultades hacen que muchos pacientes acudan directamente a los servicios de urgencias hospitalarios para recibir atención primaria.</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>únicos profesores da opción incorporarse nuevo sistema aquellos falten diez años jubilarse partir formación inicial profesorado nuevos requisitos acceder formación inicial profesorado acreditación obligatoria programas formación inicial profesorado evaluación externa estudiantes magisterio graduación fundamentar mejora programas formación profesorado nueva estructura carrera profesional lanzamiento sistema nacional inducción profesores principiantes creación estructura carrera profesional varias etapas desarrollo proceso evaluación profesorado determinar progresión estructura carrera profesional</t>
+          <t>Los únicos profesores a los que se da la opción de no incorporarse al nuevo sistema son aquellos a los que les falten diez años para jubilarse a partir de 2016. Formación inicial del profesorado: nuevos requisitos para acceder a la formación inicial del profesorado, acreditación obligatoria de los programas de formación inicial del profesorado y evaluación externa de los estudiantes de magisterio antes de su graduación para fundamentar la mejora de los programas de formación del profesorado. Nueva estructura de la carrera profesional: lanzamiento del Sistema Nacional de Inducción para profesores principiantes, creación de una estructura de carrera profesional de varias etapas y desarrollo de un proceso de evaluación del profesorado para determinar la progresión en la estructura de la carrera profesional.</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>enfermedades condiciones definen variedad características patológicas vez relacionan estructura función biológicas características fisiológicas pueden ser complejas medirse nivel órgano varios órganos pueden ser específicas anomalías predisposiciones genéticas medidas enfermedad comunes ejemplos medidas específicas enfermedades disponibles medidas causa muerte incluirían aquí</t>
+          <t>Las enfermedades o condiciones se definen por una variedad de características patológicas que a su vez se relacionan con la estructura y función biológicas. Estas características fisiológicas pueden ser complejas y medirse a nivel del órgano (o de varios órganos) o pueden ser más específicas, como anomalías o predisposiciones genéticas. Las medidas de estados de enfermedad son comunes, y hay muchos ejemplos de medidas específicas de enfermedades disponibles. Las medidas de causa de muerte se incluirían aquí.</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>estudio lleva cabo análisis comparativo cómo enfermedades crónicas factores riesgo relacionados pueden afectar resultados mercado laboral países ocde análisis disponía dos tipos datos encuestas encuestas longitudinales salud jubilación personas mayores años encuestas longitudinales empleo población general ambos grupos población interés estudio</t>
+          <t>El estudio lleva a cabo un análisis comparativo de cómo las enfermedades crónicas y los factores de riesgo relacionados pueden afectar a los resultados del mercado laboral en 14 países de la OCDE. Para el análisis se disponía de dos tipos de datos de encuestas: encuestas longitudinales de salud y jubilación de personas mayores de 50 años, y encuestas longitudinales de empleo de la población general. Ambos grupos de población son de interés para el estudio.</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>siguiente sección expone podría ocurrir familias bajos ingresos edad oro alternativa dos escenarios comparten tendencias comunes ambos mundos futuros espera crecimiento económico lento modesto término medio ambos prevé aumento desigualdades sociales ambos pronostica presión continua gasto público disminución generosidad prestaciones sociales diferencias importantes escenarios distintas implicaciones pobreza cohesión social resultado mientras número personas viven pobreza absoluta disminuido continuo aumento desigualdad significado pobreza relativa seguido creciendo aunque ritmo relativamente lento aunque ingresos aumentado hecho costes particular vivienda educación transporte encuentran parte inferior escala distribución ingresos cada vez excluidos ámbitos</t>
+          <t>La siguiente sección expone lo que podría ocurrir a las familias con bajos ingresos en la "Edad de Oro" alternativa. Estos dos escenarios comparten algunas tendencias comunes. En ambos mundos futuros, se espera que el crecimiento económico sea de lento a modesto (por término medio) hasta 2030, en ambos se prevé un aumento de las desigualdades sociales y en ambos se pronostica una presión continua sobre el gasto público, con una disminución de la generosidad de las prestaciones sociales. Pero hay diferencias importantes entre los escenarios, con distintas implicaciones para la pobreza y la cohesión social. Como resultado, mientras que el número de personas que viven en la pobreza absoluta ha disminuido, el continuo aumento de la desigualdad ha significado que la pobreza relativa ha seguido creciendo, aunque a un ritmo relativamente lento. Aunque los ingresos han aumentado, también lo han hecho los costes, en particular los de vivienda, educación y transporte, y los que se encuentran en la parte inferior de la escala de distribución de los ingresos están cada vez más excluidos en estos ámbitos.</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>disminución constante porcentaje estudiantes afirmaron alto nivel satisfacción vida proporciones bajas niñas comparación niños cada año administración encuesta excepción tendencia notable surgió análisis datos asociación fuerte apoyo social particularmente apoyo familiar alta satisfacción vida hallazgo subraya papel fundamental desempeñan relaciones positivas redes sociales sólidas contribuir mejorar bienestar psicológico estudiantes morrison peterson págs</t>
+          <t>Hubo una disminución constante en el porcentaje de estudiantes que afirmaron un alto nivel de satisfacción con la vida, con proporciones más bajas para las niñas en comparación con los niños para cada año de administración de la encuesta (con la excepción de 2006). Una tendencia notable que surgió del análisis de los datos fue la asociación entre un fuerte apoyo social, particularmente el apoyo familiar, y una alta satisfacción con la vida. Este hallazgo subraya el papel fundamental que desempeñan las relaciones positivas y las redes sociales sólidas para contribuir y mejorar el bienestar psicológico de los estudiantes. (Morrison y Peterson, 2016, págs.</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>portal pne permite comparaciones sofisticadas indicadores calidad atención altamente personalizable hace posible selección parámetros específicos evaluación comparativa embargo solo usuarios registrados pueden acceder sistema través credenciales reservadas resultados pne sido reportados diversas maneras medios comunicación términos comparación desempeño hospitalario dentro regiones</t>
+          <t>El portal PNE permite comparaciones sofisticadas de indicadores de calidad de atención y es altamente personalizable, lo que hace posible la selección de parámetros específicos para la evaluación comparativa. Sin embargo, solo los usuarios registrados pueden acceder al sistema a través de credenciales reservadas. Los resultados del PNE han sido reportados de diversas maneras por los medios de comunicación, en términos de comparación del desempeño hospitalario dentro y entre las regiones.</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>revisión estándares educativos isllc puede apoyarse ia analizar evidencia internacional detectar prácticas exitosas sistemas minería textos permiten procesar miles informes académicos extraer patrones buenas prácticas liderazgo escolar además simulaciones basadas ia pueden anticipar impacto nuevos estándares implementación permite tomar decisiones mejor informadas alineadas retos actuales educación asegurando marcos normativos dinámicos actualizados centrados mejorar desempeño instituciones docentes</t>
+          <t>La revisión de estándares educativos, como los ISLLC, puede apoyarse en IA para analizar evidencia internacional y detectar prácticas exitosas. Sistemas de minería de textos permiten procesar miles de informes académicos y extraer patrones de buenas prácticas en liderazgo escolar. Además, simulaciones basadas en IA pueden anticipar el impacto de nuevos estándares antes de su implementación. Esto permite tomar decisiones mejor informadas y alineadas con los retos actuales de la educación, asegurando que los marcos normativos sean dinámicos, actualizados y centrados en mejorar el desempeño de las instituciones y de los docentes.</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>profesores cualificados escuelas difícil contratar profesores cualificados indicio reconocimiento importante papel profesores contexto inclusión alberta preguntas adicionales encuesta internacional enseñanza aprendizaje ocde relativas comprensión parte profesores líderes escolares cuestiones relacionadas culturas indígenas historia trabajo alumnos indígenas as desarrollo profesional pertinente enfoque holístico pueblos indígenas hace hincapié contribuyen bienestar general niños as demás además factores ventajas desventajas materiales trauma sufrido pueblos indígenas incluso través sistema escuelas residenciales todavía agudamente hecho dijo síntomas trauma pueden aumentar lugar disminuir paso tiempo exacerbados relaciones intergeneracionales frente panorama amplio pueden comprenderse mejor estudios específicos determinadas provincias territorios comparación jóvenes indígenas indígenas freeman king pickett</t>
+          <t xml:space="preserve">Hay muchos profesores no cualificados en las escuelas, ya que es difícil contratar a profesores cualificados. Un indicio del reconocimiento del importante papel de los profesores en este contexto es la inclusión por Alberta de preguntas adicionales en la Encuesta Internacional sobre la Enseñanza y el Aprendizaje de la OCDE de 2018 relativas a la comprensión por parte de los profesores y los líderes escolares de cuestiones relacionadas con las culturas indígenas, la historia y el trabajo con alumnos indígenas, asà como sobre el desarrollo profesional pertinente. El enfoque holístico de los pueblos indígenas hace hincapié en lo mucho que estos contribuyen al bienestar general de los niños, asà como al de todos los demás, además de factores como las ventajas y desventajas materiales. El trauma sufrido por los pueblos indígenas, incluso a través del sistema de escuelas residenciales, todavía es sentido agudamente por muchos. De hecho, se nos dijo que los síntomas del trauma pueden aumentar en lugar de disminuir con el paso del tiempo, exacerbados por las relaciones intergeneracionales. Frente a este panorama más amplio, pueden comprenderse mejor los estudios específicos de determinadas provincias y territorios, y la comparación entre jóvenes indígenas y no indígenas (Freeman, King y Pickett, 2016). </t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>espera porcentaje aumente aproximadamente passel lj jóvenes inmigrantes blancos hispanos grupo mayoritario conjunto población origen hispano alrededor asiáticos pesar aparente reto supone diversificación aulas alumnos canadá destacado gracias diversidad aproximadamente alumnos inmigrantes primera generación alumnos nativos alcanzan nivel académico básico</t>
+          <t>Para 2050, se espera que este porcentaje aumente hasta aproximadamente el 33% (Passel, 201 l[8j). En 2009, el 17% de los jóvenes inmigrantes eran blancos no hispanos (el grupo mayoritario en el conjunto de la población), el 58% eran de origen hispano y alrededor del 16% asiáticos. A pesar del aparente reto que supone la diversificación de las aulas, los alumnos de Canadá han destacado gracias a su diversidad: aproximadamente el 82% de los alumnos inmigrantes de primera generación y el 81% de los alumnos nativos alcanzan un nivel académico básico.</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>si bien existen supuesto diferencias puntos vista parece haber consenso subyacente propósitos evaluación expectativa partes interesadas participar configuración agenda nacional evidente desarrollo marco nacional evaluación valoración escuelas alto grado autonomía respecto políticas escolares desarrollo currículo evaluación valoración</t>
+          <t>Si bien existen, por supuesto, diferencias de puntos de vista, parece haber un consenso subyacente sobre los propósitos de la evaluación y una expectativa entre las partes interesadas de participar en la configuración de la agenda nacional. Esto es evidente en el desarrollo del marco nacional de evaluación y valoración. Las escuelas tienen un alto grado de autonomía con respecto a las políticas escolares, el desarrollo del currículo y la evaluación y valoración.</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>primero programa fortalecimiento gestión escolar invertirá mex millones escuelas busca apoyar líderes escolares gestión recursos escolares gobiemo morelos ambición similar programa escuelas calidad programa escuelas cualidad objetivo fortalecer autonomía instituciones educación básica gestión recursos tiempo apoya cada escuela consejo técnico escolar adopción mejores prácticas pueden ayudarlos cumplir planificación evaluación asignación responsabilidades presupuestarias manera efectiva través inversión mex millones total escuelas benefician programa comparación año anterior representa expansión escuelas nuevas gobiemo morelos componente programa escuelas calidad implica evaluación maestros instrucción salones clase directores capacidad liderar así actividades aumentar participación padres aprendizaje hijos probable costos instrucción niños desfavorecidos altos acomodados morelos tomando medidas positivas paliar necesidades</t>
+          <t>Primero, el programa de Fortalecimiento de la Gestión Escolar, que invertirá MEX 41 millones en 595 escuelas, busca apoyar a los líderes escolares en la gestión de los recursos escolares (Gobiemo de Morelos, 2016a). Con una ambición similar, el programa Escuelas de Calidad (Programa Escuelas de Cualidad) tiene como objetivo fortalecer la autonomía de las instituciones de educación básica en la gestión de los recursos, al tiempo que apoya a cada escuela y su Consejo Técnico Escolar en la adopción de mejores prácticas que pueden ayudarlos a cumplir con la planificación. , evaluación y asignación de responsabilidades presupuestarias de manera efectiva. A través de una inversión de MEX 26.57 millones en 2015-16, un total de 475 escuelas se benefician del programa que, en comparación con el año anterior, representa una expansión a 55 escuelas nuevas (Gobiemo de Morelos, 2016a). Otro componente del programa Escuelas de Calidad implica la evaluación de los maestros en la instrucción de sus salones de clase y de los directores en su capacidad para liderar, así como actividades para aumentar la participación de los padres en el aprendizaje de sus hijos. Es probable que los costos de instrucción de los niños desfavorecidos sean más altos que los de los más acomodados y Morelos está tomando medidas positivas para paliar esas necesidades.</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>muestran beneficiarios chile solidario desempeñado mejor comparación grupo control términos empleo personas adicionales dentro hogares ciento especialmente términos mejoras condiciones vivienda ciento manera similar guardia et datos reportan información condiciones socioeconómicas hogares chilenos años incluyen cuatro regiones representan alrededor ciento población país atacama maule bio bio regiones metropolitanas</t>
+          <t>Muestran que los beneficiarios de Chile Solidario se han desempeñado mejor en comparación con el grupo de control en términos de empleo de personas adicionales dentro de los hogares (+2 por ciento) y especialmente en términos de mejoras en sus condiciones de vivienda (+22 por ciento). De manera similar, de la Guardia et al. ( Los datos reportan información sobre las condiciones socioeconómicas de los hogares chilenos para los años 2001 y 2006, e incluyen cuatro regiones que representan alrededor del 60 por ciento de la población del país: Atacama, Maule, Bio Bio y Regiones Metropolitanas.</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>escuelas proporcionan entorno ideal universal llegar niños problemas salud mental papel prestación apoyo salud aumento toda ocde sección analiza iniciativas recientes curso integran servicios salud mental sistemas educativos áreas clave presupuesto hoja ruta diez años reforma salud mental australia ejemplo mejorar servicios salud mental jóvenes</t>
+          <t>Las escuelas proporcionan un entorno ideal y universal para llegar a los niños con problemas de salud mental y su papel en la prestación de apoyo a la salud en aumento en toda la OCDE. Esta sección analiza iniciativas recientes y en curso que integran los servicios de salud mental con los sistemas educativos. Una de las áreas clave del Presupuesto de 2011 de la Hoja de ruta de diez años para la reforma de la salud mental de Australia, por ejemplo, fue mejorar los servicios de salud mental de los jóvenes.</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tendencia sugiere demanda personas estudios superiores seguido ritmo creciente oferta instituciones enseñanza superior mayoría países ocde informe constata países avanzado ritmos diferentes hora ofrecer educación calidad oportunidades desarrollo competencias personas desfavorecidas desigualdades traducen resultados vitales diferentes adultos</t>
+          <t>Esta tendencia sugiere que la demanda de personas con estudios superiores ha seguido el ritmo de la creciente oferta de instituciones de enseñanza superior en la mayoría de los países de la OCDE. Este informe constata que los países han avanzado a ritmos diferentes a la hora de ofrecer una educación de calidad y oportunidades de desarrollo de competencias a las personas desfavorecidas. Estas desigualdades se traducen en resultados vitales muy diferentes para los adultos.</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>brechas hombres mujeres difieren considerablemente según raza brecha alta hombres mujeres estudiantes afroamericanos casi mujeres graduaron siguiente brecha grande estudiantes nativos alaska casi mujeres nativas alaska graduaron hombres hombres nativos alaska tasa graduación baja grupos étnicos género brian laurent comunicación personal noviembre</t>
+          <t>Las brechas entre hombres y mujeres difieren considerablemente según la raza, la brecha más alta entre hombres y mujeres fue para los estudiantes afroamericanos, con casi un 12,5 % más de mujeres que se graduaron. La siguiente brecha más grande fue entre los estudiantes nativos de Alaska, con casi un 11 % más de mujeres nativas de Alaska que se graduaron que hombres. Los hombres nativos de Alaska tenían la tasa de graduación más baja (47,7 %) de todos los grupos étnicos o de género (Brian Laurent, comunicación personal, 3 de noviembre de 2013).</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>si pobreza relacionada número hijos familia elegibilidad puede relacionada número edad hijos orientación geográfica combinada categorías demográficas puede ser opción países grandes disparidades regionales embargo último requiere datos detallados nivel administrativo gobierno bajo posible</t>
+          <t>Si la pobreza está relacionada con el número de hijos en una familia, la elegibilidad puede estar relacionada con el número y/o la edad de los hijos. La orientación geográfica (combinada con categorías demográficas) puede ser una opción en países con grandes disparidades regionales. Sin embargo, este último requiere datos detallados en el nivel administrativo de gobierno más bajo posible.</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>políticas enfocan directamente desigualdad pueden promover manera similar mayor reducción pobreza mismo tiempo países logrado reducir pobreza absoluta enfrentan nuevos desafíos fomentar inclusión social luego analiza necesidad emergente países convergentes presten atención privación relativa además pobreza absoluta</t>
+          <t>Las políticas que se enfocan directamente en la desigualdad pueden promover de manera similar una mayor reducción de la pobreza. Al mismo tiempo, los países que han logrado reducir la pobreza absoluta enfrentan nuevos desafíos para fomentar la inclusión social. Luego analiza la necesidad emergente de que los países convergentes presten atención a la privación relativa además de la pobreza absoluta.</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>podría llevarse cabo investigación acción propios profesores participen probando evaluando diferentes enfoques ministerio debería explorar embajadas países origen posibilidad adaptar programas alfabetización lenguaje desarrollado uso países necesidades aprendizaje jóvenes adultos ahora viven dinamarca sección ocupa aquellos padres inmigrantes ejemplo hablan danés pueden haber pasado sistema educativo danés bajos niveles educación viven barrios inmigrantes nivel socioeconómico menos favorecido antecedentes pueden desempleados entienden cómo funciona sistema educativo danés</t>
+          <t>Esto podría llevarse a cabo como una investigación de acción, en la que los propios profesores participen probando y evaluando diferentes enfoques. El Ministerio también debería explorar, con las embajadas de los países de origen, la posibilidad de adaptar los programas de alfabetización y lenguaje que se han desarrollado para su uso en esos países, a las necesidades de aprendizaje de los jóvenes y adultos que ahora viven en Dinamarca15. Esta sección se ocupa de aquellos padres inmigrantes que, por ejemplo, no hablan danés, que pueden no haber pasado por el sistema educativo danés o que tienen bajos niveles de educación, que viven en barrios de inmigrantes, que son de un nivel socioeconómico menos favorecido antecedentes, pueden estar desempleados y que no entienden cómo funciona el sistema educativo danés.</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mediante transferencia tecnología debe ayudar países desarrollo desarrollar capacidad producir medicamentos genéricos mercado interno asegurar amplia disponibilidad accesibilidad dichos medicamentos satisfacer aumento sustancial demanda vacunas antibióticos productos próxima década allá comunidad internacional debe fortalecer mecanismos mundiales regionales locales producción control calidad adquisición artículos medida posible países desarrollo comunidad internacional debe facilitar cooperación regional fabricación control calidad distribución vacunas</t>
+          <t>Mediante la transferencia de tecnología, se debe ayudar a los países en desarrollo a desarrollar su capacidad para producir medicamentos genéricos para el mercado interno y asegurar la amplia disponibilidad y accesibilidad de dichos medicamentos. Para satisfacer el aumento sustancial de la demanda de vacunas, antibióticos y otros productos durante la próxima década y más allá, la comunidad internacional debe fortalecer los mecanismos mundiales, regionales y locales para la producción, el control de calidad y la adquisición de esos artículos, en la medida de lo posible, en los países en desarrollo. . La comunidad internacional debe facilitar la cooperación regional en la fabricación, control de calidad y distribución de vacunas.</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>imagen consistente surge variedad indicadores salud mental gran cantidad países embargo análisis empírico presentado documento evidencia mayores necesidades esperadas satisfagan través mayores ingresos hospitalarios consumo farmacéutico salud mental quizás signo mayor estrés sistemas salud mental pueden responder brindar tratamiento adecuado momentos gran necesidad lección clara proveedores necesitan capacidad adicional responder necesidades adicionales salud mental tiempos recesión económica</t>
+          <t>Esta es una imagen consistente que surge para una variedad de indicadores de salud mental y una gran cantidad de países. Sin embargo, en el análisis empírico presentado en este documento, no hay evidencia de que estas mayores necesidades esperadas se satisfagan a través de mayores ingresos hospitalarios o consumo farmacéutico para la salud mental. Este es quizás un signo de mayor estrés en los sistemas de salud mental que no pueden responder y brindar un tratamiento adecuado en momentos de gran necesidad. La lección clara es que los proveedores necesitan capacidad adicional para responder a las necesidades adicionales de salud mental durante tiempos de recesión económica.</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>consumo riesgo adultos jóvenes forma socializar beber alcohol menudo considera forma estándar adaptarse compañeros generaciones jóvenes rodeadas ofertas alcohol ejemplo múltiples puntos entrega ofertas precios nuevos productos búsqueda consumo excesivo alcohol convertido parte experiencia normal edad adulta joven seaman ikegwuonu además generaciones jóvenes diferentes motivaciones beber diferentes patrones consumo comparación generaciones mayores abuso alcohol fin emborracharse rápidamente relajarse divertirse pabst et</t>
+          <t>El consumo de riesgo en adultos jóvenes es una forma de socializar. Beber alcohol a menudo se considera la forma estándar de adaptarse a los compañeros. Para las generaciones más jóvenes rodeadas de "ofertas de alcohol" (por ejemplo, múltiples puntos de entrega, ofertas de precios, nuevos productos), la búsqueda del consumo excesivo de alcohol se ha convertido en parte de una experiencia normal de la edad adulta joven (Seaman e Ikegwuonu, 2010). Además, las generaciones más jóvenes tienen diferentes motivaciones para beber y diferentes patrones de consumo en comparación con las generaciones mayores, como el abuso de alcohol con el fin de emborracharse rápidamente para relajarse y divertirse (Pabst et al, 2010).</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>kenia transferencias ctovc aumentaron participación empresas agrícolas siete puntos porcentuales hogares encabezados mujeres mientras efecto negativo hogares encabezados hombres asfaw et embargo programa bolsa familia brasil solo asoció positivamente inversiones empresariales áreas urbanas mientras observó ningún impacto áreas rurales lichand nicaragua ejemplo participación programa ahora descontinuado red protección social realidad disminuyó participación empresas informales maluccio mientras impactos programas transferencia efectivo ghana lesotho handa et</t>
+          <t>En Kenia, las transferencias CT-OVC aumentaron la participación en empresas no agrícolas en siete puntos porcentuales para los hogares encabezados por mujeres, mientras que el efecto fue negativo para los hogares encabezados por hombres (Asfaw et al., sin embargo, el programa Bolsa Familia de Brasil solo se asoció positivamente con inversiones empresariales en áreas urbanas, mientras que no se observó ningún impacto en las áreas rurales (Lichand, 2010).En Nicaragua, por ejemplo, la participación en el programa (ahora descontinuado) Red de Protección Social en realidad disminuyó la participación en empresas informales (Maluccio, 2010), mientras que no hubo impactos de los programas de transferencia de efectivo en Ghana y Lesotho (Handa et al.,</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>proyecto piloto continuará parlamento implemente cambios necesarios ley educación base evaluación experiencia decidirá si tema convertirá parte permanente plan estudios curso orientado práctica objetivo ayudar estudiantes experimentar vida laboral mediante desarrollo productos servicios</t>
+          <t>El proyecto piloto continuará hasta que el Parlamento implemente los cambios necesarios en la ley de educación. Con base en una evaluación de 2013 de esta experiencia, se decidirá si el tema se convertirá en una parte permanente del plan de estudios. Este curso orientado a la práctica tiene como objetivo ayudar a los estudiantes a experimentar la vida laboral mediante el desarrollo de productos y servicios.</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>comprometen incrementar éxito escolar personal alumnos través proyecto mejora vez autoridades educativas comprometen proporcionar recursos necesarios último informe retención postprimaria muestra tasa promedio retención leaving certificate escuelas deis aumentó estudiantes ingresaron postprimario</t>
+          <t>Se comprometen a incrementar el éxito escolar y personal de los alumnos a través de un proyecto de mejora. A su vez, las autoridades educativas se comprometen a proporcionar los recursos necesarios. El último informe sobre Retención en postprimaria muestra que la tasa promedio de retención del Leaving Certificate en las escuelas del DEIS aumentó de 68.2% a 73.2% para los estudiantes que ingresaron al postprimario entre 2001 y 2004.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>implementación ideas nueva escuela creación clases digitales enfoque aprendizaje auténtico creación plataforma digital maestros cooperen corazón programa abordando cambios relacionados papel docentes directores escuela según análisis figura compara cargas trabajo anuales grecia promedios ocde ue grecia necesitaría aumentar obligaciones docentes semanales aproximadamente cuatro cinco horas semana alcanzar promedio ocde</t>
+          <t>La implementación de las ideas de la "Nueva Escuela", la creación de clases digitales, el enfoque en el aprendizaje auténtico y la creación de una plataforma digital para que los maestros cooperen son el corazón del programa. También se están abordando otros cambios relacionados con el papel de los docentes y directores de escuela. Según el análisis de la Figura 1.3 que compara las cargas de trabajo anuales en Grecia con los promedios de la OCDE y la UE19, Grecia necesitaría aumentar las obligaciones docentes semanales aproximadamente entre cuatro y cinco horas por semana para alcanzar el promedio de la OCDE.</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>diez indicadores presentan tabla marco cubre varias dimensiones atención incluidas eficacia seguridad atención centrada paciente puntualidad equidad eficiencia marco aplicado atención psiquiátrica desarrollo indicadores procesos resultados luego compararon regiones grupos pacientes bjorkenstam et</t>
+          <t>Los diez indicadores se presentan en la Tabla 4.12. El marco cubre varias dimensiones de la atención, incluidas la eficacia, la seguridad, la atención centrada en el paciente, la puntualidad, la equidad y la eficiencia. Este marco se ha aplicado a la atención psiquiátrica con el desarrollo de más de 30 indicadores de procesos y resultados que luego se compararon entre regiones o grupos de pacientes (Bjorkenstam et al.,</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>caribe países empezado desempeñar papel cada vez importante puntos distribución secundarios envíos cocaína europa impunidad corrupción debilidad instituciones socavan esfuerzos control drogas derecho región pesar intentos reformar sistemas judiciales aplicación ley actividades narcotráfico llevan cabo menudo bajo protección bandas locales maras operan zonas fronterizas especialmente salvador guatemala honduras indicios establecido vínculos cárteles droga organizaciones delictivas operan región narcotráfico convertido importante amenaza seguridad contribuyendo aumento consumo drogas subregión</t>
+          <t>En el Caribe, los países han empezado a desempeñar un papel cada vez más importante como puntos de distribución secundarios para los envíos de cocaína a Europa.26 La impunidad, la corrupción y la debilidad de las instituciones socavan los esfuerzos de control de drogas y el Estado de derecho en la región, a pesar de los intentos de reformar los sistemas judiciales y de aplicación de la ley. Las actividades de narcotráfico se llevan a cabo a menudo bajo la protección de bandas locales (maras) que operan en zonas fronterizas, especialmente en El Salvador, Guatemala y Honduras. Hay indicios de que se han establecido vínculos entre los cárteles de la droga y las organizaciones delictivas que operan en la región. El narcotráfico se ha convertido en una importante amenaza para la seguridad y está contribuyendo al aumento del consumo de drogas en la subregión.</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ley anterior serie deficiencias incluidos requisitos reglamentarios procesales inadecuados control gestión drogas sustancias controladas descripción clasificación delitos relacionados drogas claramente definidas ausencia disposiciones penales delitos relacionados drogas delitos falta base determinar magnitud tales delitos ausencia disposiciones necesidad validez requisitos pruebas detección drogas nueva ley integral restableció equilibrio reducción demanda reducción oferta aborda deficiencias ley mejorar seguridad portuaria prevenir uso ilegal contenedores marítimos actividades delictivas organizadas transnacionales incluido tráfico drogas precursores bangladesh nepal unieron programa control contenedores unodc oma</t>
+          <t>La ley anterior tenía una serie de deficiencias, incluidos los requisitos reglamentarios y procesales inadecuados para el control y la gestión de las drogas y sustancias controladas (la descripción y clasificación de los delitos relacionados con las drogas no estaban claramente definidas), la ausencia de disposiciones penales para los delitos relacionados con las drogas. delitos, la falta de una base para determinar la magnitud de tales delitos, y la ausencia de disposiciones sobre la necesidad y validez de los requisitos de las pruebas de detección de drogas. La nueva ley integral restableció el equilibrio entre la reducción de la demanda y la reducción de la oferta y aborda las deficiencias de la Ley de 2005. Para mejorar la seguridad portuaria y prevenir el uso ilegal de contenedores marítimos en actividades delictivas organizadas transnacionales, incluido el tráfico de drogas y precursores, Bangladesh y Nepal se unieron el Programa de Control de Contenedores de la UNODC y la OMA en 2014.</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>umbrales pobreza suelen calcularse criterios rígidos inteligencia artificial puede introducir flexibilidad considerar patrones consumo gasto necesidades locales través análisis big data posible identificar cómo hogares priorizan recursos factores hacen vulnerables modelos solo miden pobreza términos monetarios sino relación acceso servicios oportunidades así logra visión realista contextualizada permitiendo políticas públicas respondan necesidades concretas cada comunidad</t>
+          <t>Los umbrales de pobreza suelen calcularse con criterios rígidos, pero la inteligencia artificial puede introducir flexibilidad al considerar patrones de consumo, gasto y necesidades locales. A través del análisis de big data, es posible identificar cómo los hogares priorizan sus recursos y qué factores los hacen más vulnerables. Estos modelos no solo miden la pobreza en términos monetarios, sino también en relación con el acceso a servicios y oportunidades. Así, se logra una visión más realista y contextualizada, permitiendo que las políticas públicas respondan a las necesidades concretas de cada comunidad.</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>si alto entonces políticas públicas diseñadas combatir pobreza basadas crecimiento económico efectivas tipo situaciones aumentar ingresos efecto proporcionalmente mayor términos reducción pobreza lado si coeficiente elasticidad bajo estrategias reducción pobreza adecuadas aquellas combinen crecimiento económico algún tipo redistribución ingreso marinho araujo resultados indican si nivel ingresos aumentara países bajos niveles desigualdad tasa pobreza reduciría mientras países altos niveles desigualdad mismo aumento ingresos medios llevaría caída tasa pobreza concluyen así último caso crecimiento débil impacto niveles pobreza</t>
+          <t>Si es alto, entonces las políticas públicas diseñadas para combatir la pobreza basadas en el crecimiento económico serán más efectivas ya que, en este tipo de situaciones, aumentar los ingresos tendrá un efecto proporcionalmente mayor en términos de reducción de la pobreza. Por otro lado, si el coeficiente de elasticidad es bajo, las estrategias de reducción de la pobreza más adecuadas serán aquellas que combinen el crecimiento económico con algún tipo de redistribución del ingreso (Marinho y Araujo, 2010). Sus resultados indican que, si el nivel de ingresos aumentara un 1 % en países con bajos niveles de desigualdad, la tasa de pobreza se reduciría un 4,3 %, mientras que, en países con altos niveles de desigualdad, el mismo aumento en los ingresos medios llevaría a una caída del 0,6% en la tasa de pobreza. Concluyen así que, en este último caso, el crecimiento no tiene más que un débil impacto sobre los niveles de pobreza.</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>primera vez pisa incluyó evaluación educación financiera jóvenes opcional países enfatiza dominio procesos comprensión conceptos capacidad funcionar diversos tipos situaciones variedad países economías dedicaron minutos adicionales evaluación computarizada matemáticas lectura resolución problemas ítems organizaron grupos partir pasaje presentaba situación vida real cubrieron total aproximadamente minutos elementos prueba diferentes estudiantes tomando diferentes combinaciones elementos prueba</t>
+          <t>Por primera vez, PISA 2012 también incluyó una evaluación de la educación financiera de los jóvenes, que era opcional para los países. Enfatiza el dominio de los procesos, la comprensión de los conceptos y la capacidad de funcionar en diversos tipos de situaciones. En una variedad de países y economías, se dedicaron 40 minutos adicionales a la evaluación computarizada de matemáticas, lectura y resolución de problemas. Los ítems se organizaron en grupos a partir de un pasaje que presentaba una situación de la vida real. Se cubrieron un total de aproximadamente 390 minutos de elementos de prueba, con diferentes estudiantes tomando diferentes combinaciones de elementos de prueba.</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>estándares calidad indicadores marcos seguimiento menos desarrollados atención primaria puede deberse atención hospitalaria procedimental susceptible estandarización medición fortalezas atención primaria integralidad coordinación continuidad difíciles definir medir</t>
+          <t>Los estándares de calidad, los indicadores y los marcos de seguimiento están mucho menos desarrollados en la atención primaria. Esto puede deberse a que la atención hospitalaria es más procedimental y, por lo tanto, es más susceptible de estandarización y medición. Las fortalezas de la atención primaria (integralidad, coordinación y continuidad) son más difíciles de definir y medir.</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>enseñanza secundaria certificado nacional aprovechamiento escolar ncea establece normas rendimiento alumnos estudiantes evaluados arreglo criterios escritos van acompañados ejemplos muestran niveles esperados rendimiento estudiantes expertos evaluación maoríes desarrollando herramientas evaluación uso entornos maoríes véase ministerio educación nueva zelanda</t>
+          <t>En la enseñanza secundaria, el Certificado Nacional de Aprovechamiento Escolar (NCEA) establece las normas de rendimiento de los alumnos. Los estudiantes son evaluados con arreglo a criterios escritos, que van acompañados de ejemplos que muestran los niveles esperados de rendimiento de los estudiantes. Desde 2008, expertos en evaluación maoríes han estado desarrollando herramientas de evaluación para su uso en entornos maoríes (véase Ministerio de Educación de Nueva Zelanda (2010).</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>probable efecto pequeño considerando baja proporción número total estudiantes trasladan hecho producido mayor inclusión escuelas regulares período disminución general gasto estudiante ahorro general costos resultado menos estudiantes costosas escuelas especiales analizar situación recursos escuelas recursos docentes particular importancia</t>
+          <t>Es probable que este efecto sea pequeño considerando la baja proporción del número total de estudiantes que se trasladan. De hecho, se ha producido una mayor inclusión en las escuelas regulares en un período de disminución general del gasto por estudiante. El ahorro general de costos es el resultado de menos estudiantes en las costosas escuelas especiales. Por lo tanto, al analizar la situación de los recursos en las escuelas, los recursos docentes son de particular importancia.</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>centros constituyen red extendida sistema atención primaria ofreciendo servicios maternidad camas cuidados intermedios evitar hospitalización acelerar alta temprana cirugía ambulatoria rehabilitación clínicas especializadas manejo dolor diagnósticos x rayos cais realizan talleres apoyar ebais locales típicos comparando discutiendo indicadores desempeño ofreciendo telemedicina visitas domiciliarias manteniendo enfoque atención preventiva cais estableció comisión local violencia doméstica mayoría visitas domiciliarias promoción salud atención preventiva</t>
+          <t>Estos centros constituyen una red extendida para el sistema de atención primaria, ofreciendo servicios de maternidad, camas de cuidados intermedios (para evitar la hospitalización o acelerar el alta temprana), cirugía ambulatoria, rehabilitación, clínicas especializadas (como manejo del dolor) y diagnósticos como x- rayos Los CAIS también realizan talleres para apoyar a los EBAIS locales típicos comparando y discutiendo sus indicadores de desempeño, ofreciendo telemedicina y visitas domiciliarias, y manteniendo un enfoque en la atención preventiva. En 2015, uno de los CAIS estableció una comisión local sobre violencia doméstica y la mayoría de sus 15 000 visitas domiciliarias fueron para la promoción de la salud y la atención preventiva.</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>brinda idea recursos atención médica disponibles utilizados diversas agencias atención médica contrario existe acuerdo internacional criterios inclusión clasificación tipos gastos forma sistema cuentas salud sha desarrollado organización cooperación desarrollo económico ocde norte noruega gastos per cápita ciento altos promedio nacional mientras norte suecia finlandia diferencia inferior ciento groenlandia informa nivel bajo gasto salud per cápita dinamarca único caso gastos norte bajos sur</t>
+          <t>Brinda una idea de los recursos de atención médica disponibles y utilizados por las diversas agencias de atención médica. Por el contrario, existe acuerdo internacional sobre los criterios de inclusión y clasificación de tipos de gastos en la forma del Sistema de Cuentas de Salud (SHA) desarrollado por la organización para la Cooperación y el Desarrollo Económico (OCDE). En el norte de Noruega, los gastos per cápita son un 25-30 por ciento más altos que el promedio nacional, mientras que en el norte de Suecia y Finlandia la diferencia es inferior al 10 por ciento. Groenlandia informa un nivel más bajo de gasto en salud per cápita que Dinamarca, el único caso donde los gastos en el norte son más bajos que en el sur.</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>contribución seminal arrow subrayó cómo fallos generalizados mercados asistencia sanitaria hacen fuerzas competitivas restricciones reduzcan bienestar lugar aumentarlo obstante varios países ocde reforzado recientemente competencia introduciendo elección regulada proveedores menor medida aseguradoras reformas basan presunción competencia unida buen marco regulador mejorará calidad servicios sanitarios tiempo limitará efectos adversos fuerzas mercado trabas descremado cobertura selectiva acceso desigual servicios datos recientes abarcan reino unido unidos muestran competencia hospitales si va acompañada regulación fuerte eficaz puede reducir gasto mejorar calidad atención gaynor et primera evaluación reformas iniciadas suecia objetivo aumentar elección médicos atención primaria indica mejorado acceso atención sanitaria anel et panel países ocde maisonneuve et</t>
+          <t>La contribución seminal de Arrow (1963) subrayó cómo los fallos generalizados de los mercados de asistencia sanitaria hacen que las fuerzas competitivas sin restricciones reduzcan el bienestar en lugar de aumentarlo. No obstante, varios países de la OCDE han reforzado recientemente la competencia introduciendo una elección regulada, sobre todo entre los proveedores y, en menor medida, entre las aseguradoras. Estas reformas se basan en la presunción de que la competencia, unida a un buen marco regulador, mejorará la calidad de los servicios sanitarios, al tiempo que limitará los efectos adversos de las fuerzas del mercado sin trabas, sobre todo el descremado, la cobertura selectiva y el acceso desigual a los servicios. Datos recientes, que abarcan sobre todo el Reino Unido y Estados Unidos, muestran que la competencia entre hospitales, si va acompañada de una regulación fuerte y eficaz, puede reducir el gasto y/o mejorar la calidad de la atención (Gaynor et al., Una primera evaluación de las reformas iniciadas en Suecia en 2007 con el objetivo de aumentar la elección de médicos de atención primaria indica que han mejorado el acceso a la atención sanitaria (Anel et al., Para un panel de países de la OCDE, de la Maisonneuve et al. (</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>acceso universal seguro enfermedad logró tiempo través múltiples fondos seguros consolidaron único fondo creado sólido marco institucional ayuda explicar rápido crecimiento gasto sanitario per cápita ritmo medio anual rápido cualquier país ocde doble media ocde anual mismo periodo actualidad corea mercados competitivos atención sanitaria países ocde sector hospitalario expansión asistencia sanitaria dominada proveedores privados poca regulación ámbito práctica hospitales asistencia ambulatoria gobierno apenas interviene influir localización servicios comparación países ocde</t>
+          <t>El acceso universal al seguro de enfermedad se logró en muy poco tiempo a través de múltiples fondos de seguros, que se consolidaron en un único fondo en 2000. Esto ha creado un sólido marco institucional. Esto ayuda a explicar el rápido crecimiento del gasto sanitario per cápita a un ritmo medio del 8% anual desde 2002, más rápido que cualquier otro país de la OCDE y más del doble de la media de la OCDE del 3,6% anual durante el mismo periodo. En la actualidad, Corea es uno de los mercados más competitivos de atención sanitaria entre los países de la OCDE, con un sector hospitalario en expansión. La asistencia sanitaria está dominada por los proveedores privados y hay poca regulación sobre el ámbito de práctica de los hospitales y la asistencia ambulatoria. El gobierno apenas interviene para influir en la localización de los servicios en comparación con otros países de la OCDE.</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>embargo gran carga trabajo médicos hace tiempo consulta corto menos diez minutos media tiempo suficiente abordar cuestiones salud mental promoción salud aspectos sistema atención primaria israel bien situado hacer frente futuros retos sanitarios comunes mayoría países desarrollados incluidos cambios adversos factores determinantes salud obesidad hábitos vida perjudiciales salud tabaquismo envejecimiento población creciente carga enfermedades crónicas fondos disponen historias clínicas electrónicas hce completas atención comunitaria permiten compartir información médicos laboratorios centros diagnóstico pacientes</t>
+          <t>Sin embargo, la gran carga de trabajo de los médicos hace que el tiempo de consulta sea corto (menos de diez minutos de media) y que no haya tiempo suficiente para abordar cuestiones de salud mental y promoción de la salud. Por lo tanto, en muchos aspectos, el sistema de atención primaria de Israel está bien situado para hacer frente a los futuros retos sanitarios comunes a la mayoría de los países desarrollados, incluidos los cambios adversos en los factores determinantes de la salud como la obesidad, los hábitos de vida perjudiciales para la salud como el tabaquismo, el envejecimiento de la población y la creciente carga de enfermedades crónicas. Todos los fondos disponen de historias clínicas electrónicas (HCE) completas en la atención comunitaria, que permiten compartir información entre médicos, laboratorios, centros de diagnóstico y pacientes.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>seguimiento indicadores calidad salud beneficia enormemente inteligencia artificial algoritmos predictivos analizan miles registros médicos identificar visitas especialistas podrían resolverse atención primaria enfermedades crónicas hipertensión diabetes sistemas anticipan complicaciones alertan médicos cabecera intervenir condición agrave ofrecen reportes automatizados facilitan auditorías clínicas reducen carga administrativa personal salud ello mejora eficiencia sistema optimizan recursos garantiza atención proactiva integral centrada bienestar pacientes</t>
+          <t>El seguimiento de indicadores de calidad en salud se beneficia enormemente de la inteligencia artificial. Algoritmos predictivos analizan miles de registros médicos para identificar visitas a especialistas que podrían resolverse en atención primaria. En enfermedades crónicas como hipertensión y diabetes, estos sistemas anticipan complicaciones y alertan a médicos de cabecera para intervenir antes de que la condición se agrave. También ofrecen reportes automatizados que facilitan auditorías clínicas y reducen la carga administrativa del personal de salud. Con ello, se mejora la eficiencia del sistema, se optimizan recursos y se garantiza una atención más proactiva, integral y centrada en el bienestar de los pacientes.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>partes reino unido participación médicos atención primaria escoceses voluntaria aquellos eligen participar qof mide logro variedad indicadores calidad basados evidencia puntos pagos otorgados según nivel logro escrutinio público proporciona incentivo adicional realización prácticas individuales publicadas sitio web</t>
+          <t>Como en otras partes del Reino Unido, la participación de los médicos de atención primaria escoceses es voluntaria. Para aquellos que eligen participar, el QOF mide el logro contra una variedad de indicadores de calidad basados ​​en evidencia, con puntos y pagos otorgados según el nivel de logro. El escrutinio público proporciona un incentivo adicional, con la realización de prácticas individuales publicadas en un sitio web.</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mayores proporciones personal cualificaciones bajo nivel relacionaron resultados menos favorables niños ámbito socioemocional relaciones sociales compañeros cooperación existe relación simple nivel formación personal calidad aulas resultados aprendizaje estudiaron relación resultados niños cualificaciones personal encontraron ninguna asociación ambos encontraron contradictoria</t>
+          <t>Las mayores proporciones de personal con cualificaciones de bajo nivel se relacionaron con resultados menos favorables de los niños en el ámbito socioemocional (relaciones sociales con sus compañeros y cooperación). No existe una relación simple entre el nivel de formación del personal y la calidad de las aulas o los resultados del aprendizaje. Estudiaron la relación entre los resultados de los niños y las cualificaciones del personal y no encontraron ninguna asociación entre ambos, o la encontraron contradictoria.</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>lado trabajo cuenta propia disminuyó mantuvo estable mayoría países enfoque basado tareas ejemplo muestra proporciones empleo trabajos tareas rutinarias tradicionalmente compuestos trabajadores calificación media disminuido mismo tiempo gran aumento participación empleo abstracto menor medida trabajos manuales rutinarios manera similar enfoque basado empleo toma consideración ocupación particular dentro industria particular encuentra evidencia polarización laboral mostrar patrón forma u cambios empleo deciles laborales mitad países</t>
+          <t>Por otro lado, el trabajo por cuenta propia disminuyó o se mantuvo estable en la mayoría de los países. El enfoque basado en tareas, por ejemplo, muestra que las proporciones de empleo de trabajos de tareas rutinarias, tradicionalmente compuestos por trabajadores de calificación media, han disminuido del 53% al 41% entre 1995 y 2010. Al mismo tiempo, ha habido una gran aumento en la participación del empleo abstracto (del 28% al 38%) y, en menor medida, trabajos manuales no rutinarios (del 18% al 21%). De manera similar, el enfoque basado en el empleo, que toma en consideración una ocupación particular dentro de una industria en particular, encuentra evidencia de polarización laboral al mostrar un patrón en forma de U de cambios en el empleo entre los deciles laborales en más de la mitad de los países.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ambas condiciones importantes salud actual aún predictores condiciones médicas futuro sobrepeso obesidad mantuvieron indicadores primarios refieren resultados salud necesariamente graves dado sabe factores riesgo importantes enfermedades graves hipertensión colesterol alto diabetes enfermedades cardiovasculares problemas respiratorios asma enfermedades musculoesqueléticas artritis muchas mantuvieron indicadores secundarios advertencia uso indicadores sobrepeso obesidad asociaciones indicadores porcentajes grasa corporal riesgos salud pueden diferir grupos étnicos poblaciones</t>
+          <t>Ambas condiciones son importantes para el estado de salud actual y, más aún, como predictores de condiciones médicas en el futuro. El sobrepeso y la obesidad no se mantuvieron como indicadores primarios ya que se refieren a resultados de salud que no son necesariamente graves, pero dado que se sabe que son factores de riesgo importantes para enfermedades graves, como hipertensión, colesterol alto, diabetes, enfermedades cardiovasculares, problemas respiratorios (asma ), enfermedades musculoesqueléticas (artritis) y muchas otras, se mantuvieron como indicadores secundarios. Una advertencia sobre el uso de indicadores de sobrepeso y obesidad es que las asociaciones entre estos indicadores, los porcentajes de grasa corporal y los riesgos para la salud pueden diferir para algunos grupos étnicos y poblaciones.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>relación proceso modificó documento curricular año clase preescolar estableciendo metas explícitas estudiantes objetivo fortalecer aún desarrollo habilidades cruciales año mejorar preparación beneficiarse instrucción materias año promover intención elaboraron pautas concretas evaluación relación objetivos aprendizaje incluidos ejemplos específicos disponible profesores junto objetivos comunes portal web urn uiemudk funcionará portal conocimiento brindando orientación inspiración trabajar objetivos comunes portal ofrece sugerencias módulos actividades didácticas concretas herramientas destinadas apoyar comprensión compartida instrucción evaluación orientadas objetivos ayudando así profesores trabajar objetivos comunes manera cualificada</t>
+          <t>En relación con este proceso, también se modificó el documento curricular del Año 0 (la clase de preescolar), estableciendo metas explícitas para los estudiantes. Esto tiene como objetivo fortalecer aún más el desarrollo de habilidades cruciales en el Año 0 y mejorar su preparación para beneficiarse de la instrucción en las materias del Año 1. Para promover esta intención, se elaboraron pautas concretas para la evaluación en relación con todos los objetivos de aprendizaje (incluidos ejemplos específicos). disponible para los profesores junto con los Objetivos Comunes en un portal web (urn, ui.emu.dk), que funcionará como un "portal de conocimiento", brindando orientación e inspiración para trabajar con los Objetivos Comunes. El portal también ofrece sugerencias para módulos y actividades didácticas concretas Estas herramientas están destinadas a apoyar una comprensión compartida de la instrucción y la evaluación orientadas a objetivos, ayudando así a los profesores a trabajar con los Objetivos Comunes de una manera más cualificada.</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dos aspectos principales relación fuerza pendiente gradiente socioeconómico desempeño real estudiante mismo esperaría dado estatus socioeconómico puntos figura lejos línea oscura gradiente socioeconómico considera débil estatus socioeconómico convierte buen predictor desempeño puntos figura cerca línea oscura entonces gradiente considera fuerte</t>
+          <t>Dos aspectos principales de esta relación son la fuerza y ​​la pendiente del gradiente socioeconómico. Cuando el desempeño real de un estudiante no es el mismo que se esperaría dado su estatus socioeconómico (como cuando los puntos en la Figura 1.6.5 están lejos de la línea oscura), el gradiente socioeconómico se considera débil. Cuando el estatus socioeconómico se convierte en un buen predictor del desempeño (y los puntos en la figura están cerca de la línea oscura), entonces el gradiente se considera fuerte.</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>presente estudio demuestra pobres urbanos bangladesh encuentran situación desventaja significativa cuanto acceso servicios básicos salud pública primaria aunque habitantes suburbios entrevistados acceso agua distancia razonable hogares acceso bastante limitado cuanto número hogares fuente agua buen número casos fuente compartida hogares</t>
+          <t xml:space="preserve">El presente estudio demuestra que los pobres urbanos de Bangladesh se encuentran en una situación de desventaja significativa en cuanto al acceso a los servicios básicos de salud pública y primaria. Aunque el 60% de los habitantes de los suburbios entrevistados tenían acceso al agua a una distancia razonable de sus hogares, el acceso era bastante limitado en cuanto al número de hogares por fuente de agua. En un buen número de casos (47%), una fuente era compartida por 76-110 hogares. </t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>si niños entornos desfavorecidos pueden asistir escuelas alto rendimiento debido restricciones financieras entonces sistemas escolares ofrecen padres opciones escuelas hijos necesariamente menos efectivos mejorar rendimiento estudiantes ejemplo análisis países muestra sistemas estudiantes repiten grado impacto estatus socioeconómico estudiantes desempeño fuerte además análisis tendencias muestra estratificación negativamente relacionada desempeño general sistemas alumnos colegios practica agrupamiento habilidades obtuvieron ocho puntos matemáticas homólogos mientras alumnos colegios practica agrupamiento habilidades todas clases obtuvieron puntuaciones bajas pisa homólogos pisa contrario sistemas integrales escuelas deben encontrar formas trabajar estudiantes espectro desempeño diferentes sistemas incentivos pueden ayudar explicar mayor nivel equidad alcanzado sistemas utilizan menos estratificación</t>
+          <t>Si los niños de entornos desfavorecidos no pueden asistir a escuelas de alto rendimiento debido a restricciones financieras, entonces los sistemas escolares que ofrecen a los padres más opciones de escuelas para sus hijos serán necesariamente menos efectivos para mejorar el rendimiento de todos los estudiantes. Por ejemplo, el análisis entre países muestra que en los sistemas donde más estudiantes repiten un grado, el impacto del estatus socioeconómico de los estudiantes en su desempeño es más fuerte. Además, el análisis de tendencias muestra que la estratificación está negativamente relacionada con el desempeño general de los sistemas. Los alumnos de colegios donde no se practica el agrupamiento por habilidades obtuvieron ocho puntos más en matemáticas en 2012 que sus homólogos en 2003, mientras que los alumnos de colegios donde se practica el agrupamiento por habilidades en algunas o todas las clases obtuvieron puntuaciones más bajas en PISA 2012 que sus homólogos en PISA 2003 Por el contrario, en los sistemas integrales, las escuelas deben encontrar formas de trabajar con estudiantes de todo el espectro de desempeño. Estos diferentes sistemas de incentivos pueden ayudar a explicar el mayor nivel de equidad alcanzado en los sistemas que utilizan menos la estratificación.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>solidez compromiso gubernamental escolarización refleja alto nivel sostenido inversión escolarización unas condiciones favorables enseñanza todas escuelas indican tamaño comparativamente bajo clases proporción alumnos profesor recientes cambios sistema distribución subvenciones funcionamiento dotación personal ido consonancia aumentos sustanciales presupuesto global escolarización elección padres respaldada sistema financiación escolar particular compromiso comunidad flamenca gratuidad enseñanza independientemente elección centro escolar padres pagar tasas matrícula escolarización reconocida públicamente existe planteamiento uniforme financiación recurrente centros escolares todas redes</t>
+          <t>La solidez del compromiso gubernamental con la escolarización se refleja en un alto nivel sostenido de inversión en escolarización y en unas condiciones favorables para la enseñanza en todas las escuelas, como indican el tamaño comparativamente bajo de las clases y la proporción de alumnos por profesor. Los recientes cambios en el sistema de distribución de las subvenciones de funcionamiento y la dotación de personal han ido en consonancia con aumentos sustanciales en el presupuesto global para la escolarización. La elección de los padres está respaldada por el sistema de financiación escolar, en particular el compromiso de la Comunidad flamenca con la gratuidad de la enseñanza. Independientemente de la elección del centro escolar, los padres no tienen que pagar tasas de matrícula por la escolarización reconocida públicamente y existe un planteamiento uniforme de financiación recurrente de los centros escolares en todas las redes.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>proporción mujeres bajos ingresos sometido pruebas detección cáncer últimos dos años apenas superior baja países ocde datos muestran personas entornos socioeconómicos bajos menos probabilidades participar pruebas detección cáncer mama cáncer útero mayor riesgo ser readmitidas hospitales afecciones prevenibles datos permiten evaluación comparativa regiones potencial usarse analizar desigualdades salud manera similar datos encuestas nacionales entrevistas salud realizadas instituto nacional danés salud pública podrían usarse medir desigualdades salud ejemplo mientras autoridad danesa salud medicina publicó informe desigualdades salud existe informe regular centre desigualdades salud encuestas periódicas permiten seguimiento regular cambios utilización servicios sanitarios prevalencia enfermedades</t>
+          <t>La proporción de mujeres de bajos ingresos que se han sometido a pruebas de detección del cáncer en los últimos dos años es apenas superior al 10 %, la más baja entre los 15 países de la OCDE. Los datos muestran que las personas de entornos socioeconómicos más bajos tienen menos probabilidades de participar en pruebas de detección de cáncer de mama y cáncer de útero, y tienen un mayor riesgo de ser readmitidas en hospitales por afecciones prevenibles. Los datos permiten la evaluación comparativa entre regiones y tienen el potencial de usarse para analizar las desigualdades en salud. De manera similar, los datos de las Encuestas Nacionales de Entrevistas de Salud realizadas por el Instituto Nacional Danés de Salud Pública podrían usarse para medir las desigualdades en salud. Por ejemplo, mientras que la Autoridad Danesa de Salud y Medicina publicó un informe sobre las desigualdades en salud en 2011, no existe un informe regular que se centre en las desigualdades en salud. Las encuestas periódicas no permiten el seguimiento regular de los cambios en la utilización de servicios sanitarios y la prevalencia de enfermedades.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>colegios universitarios profesores profesores deben matricularse curso pedagógico tarda cuatro años completarse requiere profesores vet postsecundarios calificación nivel alto nivel enseñando decir aquellos enseñan nivel licenciatura profesional necesitan menos maestría aquellos enseñan programas profesionales académicos necesitan menos licenciatura profesional además deben tener experiencia profesional relevante duración mínima experiencia laboral especificada ley</t>
+          <t>En los colegios universitarios, los profesores (profesores) deben matricularse en un curso pedagógico, que tarda cuatro años en completarse. Se requiere que los profesores VET postsecundarios tengan una calificación de nivel más alto que el nivel en el que están enseñando (es decir, aquellos que enseñan a nivel de licenciatura profesional necesitan al menos una maestría, aquellos que enseñan en programas profesionales académicos necesitan al menos una licenciatura profesional) . Además, deben tener una experiencia profesional relevante (la duración mínima de la experiencia laboral no está especificada por ley).</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>paquetes incluyen recomendaciones determinantes subyacentes factores riesgo ejemplo tabaco consumo inadecuado alcohol inactividad física salud mental centran cosas inequidad salud recomendaciones paquetes solo consulta paquetes sido bien recibidos municipios gobierno financiado nuevo centro prevención salud brindará municipios asesoramiento orientación implementación paquetes prevención municipios regiones establecido proyectos ad hoc abordar factores riesgo grupos socioeconómicos bajos enfoque mayoría programas prevención cierto punto apropiado dadas categorías enfermedades contribuyen inequidad mortalidad ver arriba dado tabaquismo obesidad muestran gradientes socioeconómicos similares mortalidad morbilidad mackenbach diderichsen et</t>
+          <t>Los paquetes incluyen recomendaciones sobre los determinantes subyacentes y los factores de riesgo, por ejemplo, el tabaco, el consumo inadecuado de alcohol, la inactividad física y la salud mental, que se centran, entre otras cosas, en la inequidad en la salud. Las recomendaciones de estos paquetes son solo de consulta, pero los paquetes han sido bien recibidos por los municipios y el gobierno ha financiado un nuevo centro de prevención de la salud, que brindará a los municipios asesoramiento y orientación sobre la implementación de los paquetes de prevención. Los municipios y regiones han establecido proyectos ad hoc para abordar los factores de riesgo en grupos socioeconómicos bajos. El enfoque de la mayoría de los programas en la prevención es hasta cierto punto apropiado dadas las categorías de enfermedades que contribuyen a la inequidad en la mortalidad (ver arriba), y dado que el tabaquismo y la obesidad muestran gradientes socioeconómicos similares a los de la mortalidad y la morbilidad (Mackenbach, 2006, Diderichsen et al.,</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>informes anteriores cubierto variedad aspectos escolarización educación estudiantes maoríes pasifikas educación especial planes estudios escolares pedagogía evaluación gestión escolar educación alumnos diversos áreas investigadas informes nacionales evaluación educación reflejan prioridades educativas gobierno así problemas identificados aquellos sector colegios utilizan informes revisar mejorar gestión organización enseñanza rendimiento alumnos</t>
+          <t>Los informes anteriores han cubierto una variedad de aspectos de la escolarización, como la educación de los estudiantes maoríes y pasifikas, la educación especial, los planes de estudios escolares, la pedagogía y la evaluación, la gestión escolar y la educación de alumnos diversos. Las áreas investigadas en los Informes Nacionales de Evaluación de la Educación reflejan las prioridades educativas del gobierno, así como los problemas identificados por aquellos en el sector. Los colegios utilizan los informes para revisar y mejorar su gestión, organización, enseñanza y rendimiento de los alumnos.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>efectividad banphc evalúa través implementaciones reales bangladesh análisis resultados muestra mejoras condiciones salud examinados mayor aceptación salud pública analizamos escalabilidad habilitada máquina máquina mm permitir servicios salud automáticos calificados luego discutimos temas aprendido trabajo banphc</t>
+          <t>La efectividad del BAN-PHC se evalúa a través de implementaciones reales en Bangladesh. El análisis de resultados muestra mejoras en las condiciones de salud de los examinados. Para una mayor aceptación en la salud pública, analizamos la escalabilidad habilitada de máquina a máquina (M2M) para permitir servicios de salud automáticos y calificados. Luego discutimos temas que hemos aprendido del trabajo de BAN-PHC.</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fuente cálculos autores basados base datos povcalnet haughton khandker llegan afirmar solo pueden hacer comparaciones legítimas tasas pobreza país si utiliza misma línea pobreza absoluta ambos países afirmación debe usar misma línea depende crucialmente validez legitimidad línea pobreza ambos países probablemente cumpla ambos países bajos ingresos debajo cierto nivel ingresos líneas pobreza bastante cerca línea dólar día dos países ingresos medios</t>
+          <t>Fuente: Cálculos de los autores basados ​​en la base de datos PovcalNet. Haughton y Khandker (2010) llegan a afirmar que "solo se pueden hacer comparaciones legítimas de las tasas de pobreza entre un país y otro si se utiliza la misma línea de pobreza absoluta en ambos países". La afirmación de que se debe usar la misma línea depende crucialmente de la validez y legitimidad de esa línea de pobreza en ambos países, lo que probablemente se cumpla cuando ambos son países de bajos ingresos, porque por debajo de cierto nivel de ingresos, las líneas de pobreza están bastante cerca. a la línea de un dólar por día, pero no entre dos países de ingresos medios.</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>tasas graduación programas académicos terciario tipo debajo promedio ocde mientras tasas graduación programas técnicos terciario tipo b encima promedio ocde diferencia países ocde hombres mayor tasa graduación educación terciaria mujeres mejorar educación terciaria competitividad estudiantes marco nacional cualificaciones pretende alinear estudios educación superior espacio europeo educación superior acuerdo implementación</t>
+          <t>Con un 23 %, las tasas de graduación de los programas académicos (terciario de tipo A) están por debajo del promedio de la OCDE del 39 %, mientras que las tasas de graduación de programas más técnicos (terciario de tipo B), con un 17 %, están por encima del promedio de la OCDE del 11 %. . A diferencia de muchos países de la OCDE, los hombres tienen una mayor tasa de graduación en educación terciaria que las mujeres. Para mejorar la educación terciaria y la competitividad de los estudiantes, el marco nacional de cualificaciones pretende alinear los estudios de educación superior con el Espacio Europeo de Educación Superior. De acuerdo con la ''implementación.</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>protocolo multilateral plurianual acuerdos educación lenguas minoritarias segundas lenguas consejo ministros educación canadá reestructurado establece parámetros colaboración intergubernamental estudiantes cuidadores obtienen ayuda rápidamente través referencias amplia gama servicios especializados comunitarios incluyen intervención crisis salud mental juvenil programas extracurriculares apoyo padres familias salud sexual cuidado infantil estrategia objetivo apoyar estudiantes pueden riesgo tener éxito alcanzar máximo potencial</t>
+          <t>Un Protocolo multilateral plurianual para Acuerdos para la Educación de Lenguas Minoritarias y Segundas Lenguas con el Consejo de Ministros de Educación de Canadá (1983, reestructurado en 2013) establece los parámetros para esta colaboración intergubernamental. Los estudiantes y sus cuidadores obtienen ayuda más rápidamente, a través de referencias a una amplia gama de servicios especializados y comunitarios, que incluyen intervención en crisis, salud mental juvenil, programas extracurriculares, apoyo para padres y familias, salud sexual y cuidado infantil. La estrategia tiene como objetivo apoyar a los estudiantes que pueden estar en riesgo de no tener éxito y no alcanzar su máximo potencial.</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>tipo ensayo mide efecto tratamiento mediante asignación aleatoria participantes grupo intervención control aleatorización permite investigadores identificar relaciones causales intervención médica resultado elimina sesgo potencial podría contaminar hallazgos estudio diseño eca pretende medir eficacia efectividad</t>
+          <t>Este tipo de ensayo mide el efecto de un tratamiento mediante la asignación aleatoria de participantes a un grupo de intervención o de control. La aleatorización permite a los investigadores identificar las relaciones causales entre una intervención médica y un resultado porque elimina el sesgo potencial que podría contaminar los hallazgos del estudio. El diseño del ECA pretende medir la eficacia y no la efectividad.</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>problema tipo estudios ignoran efectos transferencias precios transferencias efectivo reducen esencialmente coste obtener servicios deberían dar lugar mayor demanda ejemplo educación infantil utilización servicios sociales ejemplo centros atención sanitaria efecto neto transferencias efectivo debería depender tamaño relativo efectos precio ingreso importante conclusiones efectos adversos incentivos efectos negativos ingresos oferta trabajo implican pobres pobres vagos palabras prefieren ocio expectativas bajas palabras trabajan ingresos mínimos bajos</t>
+          <t>Un problema de este tipo de estudios es que ignoran los efectos de las transferencias sobre los precios. Las transferencias de efectivo reducen esencialmente el coste de obtener servicios y, por tanto, deberían dar lugar a una mayor demanda (por ejemplo, de educación infantil) o utilización de servicios sociales (por ejemplo, centros de atención sanitaria). Por lo tanto, el efecto neto de las transferencias de efectivo debería depender del tamaño relativo de los efectos precio e ingreso. Y lo que es más importante, estas conclusiones sobre los efectos adversos de los incentivos (o los efectos negativos de los ingresos) en la oferta de trabajo implican que los pobres son pobres porque son "vagos" (en otras palabras, prefieren más ocio) o porque sus expectativas son "bajas" (en otras palabras, trabajan por unos ingresos mínimos bajos).</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>unidos gran oferta cannabis debe extensa producción ilegal dentro país contrabando gran escala méxico producción gran escala desvío dentro unidos permiten producción cannabis fines médicos fines medicinales programas autoridades quejado efecto indirecto creado territorio desvío fines tráfico cannabis vecinos legalizado droga fines médicos autoridades unidos informado aumento número visitas servicios urgencias relacionadas cannabis</t>
+          <t>En los Estados Unidos, la gran oferta de cannabis se debe a la extensa producción ilegal dentro del país, el contrabando a gran escala desde México y la producción a gran escala y el desvío de los estados dentro de los Estados Unidos que permiten la producción de cannabis con fines no médicos y con fines medicinales. programas Las autoridades de algunos estados se han quejado de un efecto indirecto creado en su territorio por el desvío con fines de tráfico de cannabis de los estados vecinos que han legalizado la droga para fines no médicos. Las autoridades de los Estados Unidos también han informado de un aumento del 62% en el número de visitas a los servicios de urgencias relacionadas con el cannabis entre 2004 y 2011.</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sistemas atención salud comparten objetivo sueco capacitar pacientes ejerzan elección informada existe evidencia monopolios geográficos pueden sofocar innovación competencia atención primaria impulsa calidad análisis empírico relación calidad consultorios médicos cabecera inglaterra grado competencia enfrentan muestra consultorios ubicados cerca brindan atención mayor calidad consultorios carecen competidores pike además investigaciones recientes muestran probable pacientes elijan prácticas ganaron puntos calidad bajo esquema pago desempeño marco calidad resultados qof condición necesaria mayor competencia mejorar calidad elección pacientes práctica influenciada calidad práctica santos et reformas competencia privatización pueden diseñarse promover continuidad coordinación atención incluso través mecanismos pago apropiados principios deben incorporarse regulación cómo implementan políticas práctica estrategias avanzar hacia objetivos analizan continuación</t>
+          <t>Muchos sistemas de atención de la salud comparten el objetivo sueco de capacitar a los pacientes para que ejerzan una elección informada, y existe evidencia de que los monopolios geográficos pueden sofocar la innovación y que la competencia en la atención primaria impulsa la calidad. Un análisis empírico de la relación entre la calidad de los consultorios de médicos de cabecera en Inglaterra y el grado de competencia al que se enfrentan muestra que los consultorios ubicados cerca de otros brindan una atención de mayor calidad que los consultorios que carecen de competidores (Pike, 2010). Además, investigaciones recientes muestran que es más probable que los pacientes elijan prácticas que ganaron más puntos de calidad bajo el esquema de pago por desempeño del Marco de calidad y resultados (QOF), una condición necesaria para una mayor competencia para mejorar la calidad es que la elección de los pacientes de la práctica está influenciada por la calidad de la práctica (Santos et al., Las reformas de competencia y privatización pueden diseñarse para promover la continuidad y coordinación de la atención, incluso a través de mecanismos de pago apropiados, y estos principios deben incorporarse en la regulación de cómo se implementan estas políticas en la práctica Las estrategias para avanzar hacia estos objetivos se analizan a continuación.</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>colaboración instituciones educación superior sigue siendo limitada pocos intentos establecer necesidades colectivas región términos infraestructura innovación coordinar acciones colegios universidades satisfacer dichas necesidades existe necesidad modernizar industria tradicional sector servicios existentes mejorar capacidad innovación inversión gobierno nacional centra componentes investigación sistema incentivos fiscales industria</t>
+          <t>La colaboración entre instituciones de educación superior sigue siendo limitada. Hubo pocos intentos de establecer las necesidades colectivas de la región en términos de infraestructura de innovación o de coordinar las acciones de los colegios o universidades para satisfacer dichas necesidades. Existe la necesidad de modernizar la industria tradicional y el sector de servicios existentes y mejorar su capacidad de innovación. La inversión del gobierno nacional se centra en los componentes de investigación del sistema y en incentivos fiscales para la industria.</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>análisis analiza relación desempleo calidad atención incluidas tasas letalidad después ataque cardíaco accidente cerebrovascular eventos seguridad paciente hospital además examinan variedad indicadores utilización atención médica incluidos ingresos procedimientos hospitalarios consultas médicas consumo productos farmacéuticos indicadores salud tomado estadísticas salud ocde transformado logaritmos naturales</t>
+          <t>El análisis también analiza la relación entre el desempleo y la calidad de la atención, incluidas las tasas de letalidad después de un ataque cardíaco y un accidente cerebrovascular y los eventos de seguridad del paciente en el hospital. Además, se examinan una variedad de indicadores de utilización de la atención médica, incluidos los ingresos y procedimientos hospitalarios, las consultas médicas y el consumo de productos farmacéuticos. Todos los indicadores de salud se han tomado de las Estadísticas de Salud de la OCDE y se han transformado en sus logaritmos naturales.</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>personal atención primaria centros sanitarios públicos privados predominantemente asalariado licencias limitadas tiempo médicos familia volver solicitarlas conservarlas igual ocurre resto personal sanitario existen sistemas nacionales formales formación médica continua desarrollo profesional médicos familia demás personal atención primaria recertificación</t>
+          <t>El personal de atención primaria, tanto en centros sanitarios públicos como privados, es predominantemente asalariado. Las licencias no están limitadas en el tiempo y los médicos de familia no tienen que volver a solicitarlas para conservarlas. Al igual que ocurre con el resto del personal sanitario, no existen sistemas nacionales formales de formación médica continua y desarrollo profesional para los médicos de familia y demás personal de atención primaria, ni de recertificación.</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>general mujeres comienzan consumir sustancias tarde hombres vez iniciado consumo sustancias mujeres tienden aumentar tasa consumo alcohol cannabis opioides cocaína rápidamente hombres pueden progresar rápidamente hombres hacia desarrollo trastornos consumo drogas europa sudoriental casi tres cada cinco personas tratamiento consumo drogas trastornos relacionados consumo opioides tratamiento consumo cocaína sigue siendo importante américa norte américa latina caribe menor medida europa occidental central mientras anfetaminas siguen siendo problema principalmente asia oriental sudoriental cierta medida américa norte nady elguebaly giuseppe carra marc galanter cds milán springer cannabis principal droga busca tratamiento consumo drogas áfrica países mozambique nigeria sudáfrica república unida tanzanía informado número cada vez mayor personas inician tratamiento trastornos relacionados consumo opioides</t>
+          <t>Por lo general, las mujeres comienzan a consumir sustancias más tarde que los hombres, pero una vez que han iniciado el consumo de sustancias, las mujeres tienden a aumentar su tasa de consumo de alcohol, cannabis, opioides y cocaína más rápidamente que los hombres y pueden progresar más rápidamente que los hombres hacia el desarrollo de trastornos por consumo de drogas. En Europa sudoriental, casi tres de cada cinco personas en tratamiento por consumo de drogas lo están por trastornos relacionados con el consumo de opioides. El tratamiento por consumo de cocaína sigue siendo importante en América del Norte, América Latina y el Caribe y, en menor medida, en Europa occidental y central, mientras que las anfetaminas siguen siendo un problema principalmente en Asia oriental y sudoriental y, en cierta medida, en América del Norte. Yo, Nady El-Guebaly, Giuseppe Carra y Marc Galanter, cds. (Milán, Springer, 2015). El cannabis es la principal droga por la que se busca tratamiento por consumo de drogas en África, pero muchos países, sobre todo Mozambique, Nigeria, Sudáfrica y la República Unida de Tanzanía, han informado de un número cada vez mayor de personas que inician tratamiento por trastornos relacionados con el consumo de opioides.</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>revisar políticas retribución promoción jubilación profesorado favorecer circulación profesional escuela trabajo garantizar centros sectoriales formación práctica financieramente sostenibles mejorar accesibilidad centros mediante sistema ayudas estudiantes cubra costes manutención fácilmente accesible estudiantes reúnan requisitos bien publicitado mediante recursos web asesoramiento escuelas mejorar oportunidades estudiantes formación profesional segundo ciclo secundaria aprovechen plenamente vía acceso educación terciaria mediante esfuerzos centrados elevar calidad enseñanza general puesta disposición estudiantes formación profesional segundo ciclo</t>
+          <t>Revisar las políticas de retribución, promoción y jubilación del profesorado para favorecer la circulación profesional entre la escuela y el trabajo. Garantizar que los centros sectoriales de formación práctica sean financieramente sostenibles y mejorar la accesibilidad de los centros mediante un sistema de ayudas a los estudiantes que cubra los costes de manutención, sea fácilmente accesible a todos los estudiantes que reúnan los requisitos y esté bien publicitado mediante recursos web y asesoramiento en las escuelas. Mejorar las oportunidades de los estudiantes de formación profesional de segundo ciclo de secundaria para que aprovechen plenamente la vía de acceso a la educación terciaria mediante esfuerzos centrados en elevar la calidad de la enseñanza general puesta a disposición de los estudiantes de formación profesional de segundo ciclo.</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>prueba habilidades básicas línea tic cubre habilidades básicas docentes necesitan cumplir rol profesional amplio escuelas lugar conocimiento materia requerido enseñar prueba requiere demuestren capacidad realizar cambios diapositivas software presentación usando navegador web usar correo electrónico varias funciones dentro correo electrónico usar editor texto correo electrónico actualizar hoja cálculo descargar recursos internet regístrese recibir boletín docentes formación deben aprobar prueba línea competencia tic pueda otorgar estatus docente calificado plan estudios nacional formación inicial profesores uso tic enseñanza asignaturas introdujo institutos formación profesores inglaterra constaba cien declaraciones competencia tic extendía páginas impresas encontró demasiado burocrático difícil evaluar práctica ahí paso formulación sucinta competencias tic requiere posean docentes formación informe país dedicado inglaterra última actualización revisión octubre</t>
+          <t>La prueba de habilidades básicas en línea para TIC cubre las habilidades básicas que los docentes necesitan para cumplir con su rol profesional más amplio en las escuelas en lugar del conocimiento de la materia requerido para enseñar. La prueba requiere que demuestren la capacidad de realizar cambios en las diapositivas en el software de presentación usando un navegador web, usar el correo electrónico y varias funciones dentro del correo electrónico, usar un editor de texto y correo electrónico, actualizar una hoja de cálculo y descargar recursos de Internet y regístrese para recibir un boletín. Todos los docentes en formación deben aprobar esta prueba en línea de competencia en TIC antes de que se les pueda otorgar el estatus de docente calificado. El "Plan de estudios nacional de formación inicial de profesores en el uso de las TIC en la enseñanza de asignaturas", que se introdujo en los institutos de formación de profesores en 1998 en Inglaterra, constaba de más de cien declaraciones de competencia en TIC y se extendía a 17 páginas impresas, pero se encontró que era demasiado burocrático y difícil de evaluar en la práctica, de ahí el paso a una formulación más sucinta de las competencias en TIC que se requiere que posean los docentes en formación (informe de país24 dedicado a Inglaterra, última actualización y revisión en octubre de 2007).</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>además redujo brecha pobreza general país hogares personas mayores omilola kaniki análisis barrientos indica pensión social reduce probabilidad caer pobreza ciento lugar condiciones programas incluyen mensajes específicos recomiendan cómo deben gastar transferencias</t>
+          <t>Además, redujo la brecha de pobreza general del país en un 21 % y en un 54 % para los hogares con personas mayores (Omilola y Kaniki, 2014). El análisis de Barrientos (2003) también indica que la pensión social reduce la probabilidad de caer en la pobreza en un 12,5 por ciento. En lugar de condiciones, algunos programas incluyen mensajes específicos que recomiendan cómo se deben gastar las transferencias.</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ejemplo datos estudio pisa administrado revelan estudiantes nativos padres nativos suecia alcanzaron menos nivel competencia tres dominios principales pisa matemáticas lectura ciencias contrario solo estudiantes inmigrantes primera segunda generación hizo diferencia estadísticamente significativa puntos porcentuales diferencia mayor diferencia promedio ocde puntos porcentuales</t>
+          <t>Por ejemplo, los datos del estudio PISA administrado en 2015 revelan que el 76% de los estudiantes nativos de padres nativos en Suecia alcanzaron al menos el nivel de competencia 2 en los tres dominios principales de PISA: matemáticas, lectura y ciencias. Por el contrario, solo el 49% de los estudiantes inmigrantes (ya sea de primera o segunda generación) lo hizo, una diferencia estadísticamente significativa de 27 puntos porcentuales. Esta diferencia fue mayor que la diferencia promedio de la OCDE de 18 puntos porcentuales.</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>espera introducción sistema esalud aumente calidad atención médica eficiencia sistema ejemplo proveedores atención médica pueden emitir recetas electrónicas pacientes puedan comprar medicamentos cualquier farmacia país permitirá proveedores monitorear seguridad medicamentos recetan múltiples medicamentos pacientes mismo modo espera mejore coordinación proveedores evitando ejemplo duplicación pruebas diagnóstico informando médicos cabecera paciente dado alta hospital</t>
+          <t>Se espera que la introducción del sistema de eSalud aumente la calidad de la atención médica y la eficiencia del sistema. Por ejemplo, los proveedores de atención médica pueden emitir recetas electrónicas para que los pacientes puedan comprar sus medicamentos en cualquier farmacia del país. Esto también permitirá a los proveedores monitorear la seguridad de los medicamentos cuando se recetan múltiples medicamentos a los pacientes. Del mismo modo, se espera que mejore la coordinación entre proveedores evitando, por ejemplo, la duplicación de pruebas de diagnóstico e informando a los médicos de cabecera cuando su paciente es dado de alta del hospital.</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>aún queda hacer reducir tiempos espera consultas externas hospitales zonas gobierno comprometido construir nuevo bloque consultas externas aumentar capacidad atender demanda llevando cabo ejercicio mejorar eficiencia interna gestión servicios ambulatorios vistas reducir tiempos espera factores ponen prueba capacidad sistema sanitario aumento inmigración trabajadores pensionistas turistas utilizan sistema sanitario cambios comportamientos riesgo población</t>
+          <t>Aún queda mucho por hacer para reducir los tiempos de espera en las consultas externas de los hospitales de otras zonas, y el Gobierno se ha comprometido a construir un nuevo bloque de consultas externas para aumentar la capacidad de atender la demanda. También se está llevando a cabo un ejercicio para mejorar la eficiencia interna en la gestión de los servicios ambulatorios con vistas a reducir los tiempos de espera. Otros factores que ponen a prueba la capacidad del sistema sanitario son el aumento de la inmigración de trabajadores y pensionistas, los turistas que utilizan el sistema sanitario y los cambios en los comportamientos de riesgo de la población.</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>embargo correlación exacta útil estudiar bienestar niñez adolescencia ambos enfoques permite combinar diferentes temas analizar diversas medidas política pública niñez adoptar perspectiva política holística pobreza pobreza extrema redujeron alrededor niños años</t>
+          <t>Sin embargo, la correlación no es exacta. Es útil estudiar el bienestar de la niñez y la adolescencia desde ambos enfoques, porque esto permite combinar diferentes temas y analizar diversas medidas de política pública para la niñez y adoptar una perspectiva de política holística. Entre 1990 y 2010, la pobreza y la pobreza extrema se redujeron en alrededor de un 20% entre los niños de 0 a 5 años.</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>embargo estándares acreditación amplios especifican necesita programa preparación docente alta calidad mnesr criterios admisión programas educación licenciatura futuros maestros primaria mismos programas licenciatura requisitos mínimos admisión módulos formación inicial maestros futuros maestros secundaria candidatos entrevistados ingreso postulan tienden ser admitidos velea istrate</t>
+          <t>Sin embargo, los estándares de acreditación son amplios y no especifican lo que se necesita para un programa de preparación docente de alta calidad (MNESR, 2006). Los criterios de admisión a los programas de educación de licenciatura para futuros maestros de primaria son los mismos que para otros programas de licenciatura y no hay requisitos mínimos de admisión para los módulos de formación inicial de maestros para futuros maestros de secundaria. Los candidatos son entrevistados para el ingreso, pero todos los que postulan tienden a ser admitidos (Velea e Istrate, 2011).</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>nueva gestión pública aborda crecientes demandas rendición cuentas eficiencia sistemas educativos provocadas reformas descentralización afirma completa publicación red eurydice pruebas nacionales alumnos europa últimas dos décadas pruebas nacionales introducido cada vez acompañamiento natural creciente autonomía escolar resultado necesidad sistematizar monitoreo sistemas educativos esfuerzos mejorar calidad educación europa reformas descentralización década dieron autonomía escuelas aumentando asimismo necesidad gestión basada resultados eurydice network ejemplo letonia polonia implementaron herramientas medición nivel nacional luego reformas aumentar autonomía escuelas docentes eurydice network</t>
+          <t>La Nueva Gestión Pública también aborda las crecientes demandas de rendición de cuentas y eficiencia en los sistemas educativos que son provocadas por las reformas de descentralización. Como se afirma en la completa publicación de la Red Eurydice Pruebas Nacionales de Alumnos en Europa, "En las últimas dos décadas, las pruebas nacionales se han introducido cada vez más como un acompañamiento natural a la creciente autonomía escolar, lo que ha resultado en la necesidad de sistematizar la monitoreo de los sistemas educativos, y en los esfuerzos para mejorar la calidad de la educación" (2009: 21). En Europa, las reformas de descentralización de la década de 1990 dieron más autonomía a las escuelas, aumentando asimismo la necesidad de una gestión basada en resultados (Eurydice Network, 2009). Por ejemplo, en Letonia y Polonia se implementaron herramientas de medición a nivel nacional luego de reformas para aumentar la autonomía de las escuelas y los docentes (Eurydice Network, 2009: 19).</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>piloto éxito ahora construyendo plataforma digital permanente mismo ocurre países países mejor desempeño pisa japón singapur corea sur asia estonia finlandia europa canadá américa norte obtuvieron primeros lugares evaluación pisa resolución colaborativa problemas ejemplo estudiantes japoneses bien materias aún mejor resolución colaborativa problemas</t>
+          <t>El piloto tuvo tanto éxito que ahora estamos construyendo una plataforma digital permanente para él. Lo mismo ocurre en todos los países: los países con mejor desempeño en PISA, como Japón, Singapur y Corea del Sur en Asia, Estonia y Finlandia en Europa, y Canadá en América del Norte, también obtuvieron los primeros lugares en la evaluación PISA de resolución colaborativa de problemas. Por ejemplo, a los estudiantes japoneses les fue muy bien en esas materias, pero les fue aún mejor en la resolución colaborativa de problemas.</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>varios ejemplos sugerido nuevas modalidades tratamiento rentables trastornos suelen tener síntomas menos graves debilitantes trastornos mentales ejemplo psicóticos capítulo excluye deliberadamente casos graves trastornos mentales incluidos casos graves trastornos comunes depresión ansiedad gravedad trastorno determinada número gravedad síntomas grado deterioro funcional duración síntomas trastornos leves moderados impiden salud funcionamiento diario calidad vida personas afectadas requieren diagnóstico tratamiento atención adecuados</t>
+          <t>Varios ejemplos han sugerido que las nuevas modalidades de tratamiento son rentables. Estos trastornos suelen tener síntomas menos graves y debilitantes que otros trastornos mentales (por ejemplo, psicóticos), y este capítulo excluye deliberadamente los casos más graves de trastornos mentales, incluidos los casos más graves de trastornos comunes como la depresión y la ansiedad. La gravedad del trastorno está determinada por el número y la gravedad de los síntomas, el grado de deterioro funcional y la duración de los síntomas. Los trastornos de leves a moderados impiden la salud, el funcionamiento diario y la calidad de vida de las personas afectadas y requieren un diagnóstico, tratamiento y atención adecuados.</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>primera mayor apreciación importancia cómo escuelas relacionan comunidades contextos servicios sociales existen escuelas servicio extendido completo cummings et segunda necesidad escuelas interconectadas colaboren maximizar resultados positivos todas comunidades mejorar justicia social hadfield chapman embargo cada vez pruebas aunque controvertidas relación colaboración mejora escolar chapman muijs croft retos colaboración plantea líderes escolares pasar relaciones liderazgo jerárquicas relaciones liderazgo iguales muijs west ainscow creciente demanda liderazgo través sistemas redes escuelas proporciona impulso incluir elementos nuevo tema talis</t>
+          <t>La primera es nuestra mayor apreciación de la importancia de cómo las escuelas se relacionan con sus comunidades, contextos y otros servicios sociales, como los que existen en las escuelas de servicio extendido o completo (Cummings et al., 2009(63]). La segunda es la necesidad de que las escuelas estén interconectadas y colaboren para maximizar los resultados positivos en todas las comunidades y mejorar la justicia social (Hadfield y Chapman, 2009(63]). Sin embargo, cada vez hay más pruebas -aunque controvertidas- de la relación entre la colaboración y la mejora escolar (Chapman y Muijs, 2014|64], Croft, 2015(65]), y de los retos que la colaboración plantea a los líderes escolares, sobre todo al pasar de relaciones de liderazgo jerárquicas a relaciones de liderazgo entre iguales (Muijs, West y Ainscow, 2010(49]). La creciente demanda de liderazgo a través de sistemas y redes de escuelas proporciona impulso para incluir elementos sobre este nuevo tema en TALIS 2018.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ces enfants sont souvent enfrenta múltiples aspectos privación material comprende condiciones mauvaises logement et manque possibilites deducation ce qui appelle une estratégic globale lutte contre pauvrete dans toutes ses dimensiones cambios nivel vida niños familias biparentales bajos ingresos figura ejemplo tasa pobreza infantil baja dinamarca alrededor casi israel turquía</t>
+          <t>Ces enfants sont souvent se enfrenta a los múltiples aspectos de la privación material (y comprende las condiciones de mauvaises de logement et un manque de possibilites d'education), ce qui appelle une estratégic globale de lutte contre la pauvrete dans toutes ses dimensiones. Cambios en el nivel de vida de los niños en familias biparentales de muy bajos ingresos, 2007-2014.58 Figura 21. Por ejemplo, la tasa de pobreza infantil es más baja en Dinamarca con alrededor del 4 %, pero casi el 25 % en Israel y Turquía.</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ejemplo aumento precios alimentos suele ser beneficioso pobres zonas agrorurales mínimo verán ampliadas oportunidades ingresos negativo pobres zonas urbanas gastan parte importante ingresos alimentos ven directamente perjudicados cualquier aumento precios además ganadores perdedores siempre grupos distintos personas podrían ganar aspectos perder pobres encuentran extremo perdedor integración menos capaces hacer frente ajuste efectos pueden ser duraderos ven afectadas inversiones familiares salud educación</t>
+          <t>Por ejemplo, el aumento de los precios de los alimentos suele ser beneficioso para los pobres de las zonas agro-rurales, que como mínimo verán ampliadas sus oportunidades de ingresos, y negativo para los pobres de las zonas urbanas, que gastan una parte muy importante de sus ingresos en alimentos y se ven directamente perjudicados por cualquier aumento de los precios. Además, los ganadores y los perdedores no siempre son grupos distintos y algunas personas podrían ganar en algunos aspectos y perder en otros. Pero cuando los pobres se encuentran en el extremo perdedor de la integración, son menos capaces de hacer frente al ajuste, y los efectos pueden ser duraderos, sobre todo cuando se ven afectadas las inversiones familiares en salud y educación.</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>utilizó modelo panel dinámico estimado sistema método momentos generalizado dos pasos desarrollado blundellbond analizar tres escenarios primero corresponde período cubre estudio ie segundo comprende años período previo plan real tercero período años posteriores puesta marcha plan real resultados indican políticas crecimiento económico promueven aumento ingresos junto reducción disparidades ingresos efectivas combatir pobreza brasil aquellas enfocan solo elevar niveles medios ingresos hallazgos apuntan existencia forma crecimiento favorable pobres período posterior plan real</t>
+          <t>Se utilizó un modelo de panel dinámico, estimado por el sistema de método de momentos generalizado de dos pasos desarrollado por Blundell-Bond (1998), para analizar tres escenarios: el primero corresponde a todo el período que cubre este estudio (i.e. 1981 -2013), el segundo comprende los años 1981 a 1994 (período previo al Plan Real), y el tercero es el período 1995 a 2013 (años posteriores a la puesta en marcha del Plan Real). Los resultados indican que las políticas de crecimiento económico que promueven un aumento de los ingresos junto con una reducción de las disparidades de ingresos son más efectivas para combatir la pobreza en Brasil que aquellas que se enfocan solo en elevar los niveles medios de ingresos. Los hallazgos también apuntan a la existencia de una forma de crecimiento favorable a los pobres en el período posterior al Plan Real.</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>obstante comportamiento inflación países individuales dependerá políticas fiscales monetarias implementen evolución gasto privado factores septiembre inflación total meses anteriores aumentado países excepción índice precios alimentos superado índice general véase gráfico línea caída precios internacionales mediados inflación interna moderó segunda parte año mayoría países</t>
+          <t>No obstante, el comportamiento de la inflación en los países individuales también dependerá de las políticas fiscales y monetarias que se implementen y la evolución del gasto privado, entre otros factores. Hasta septiembre de 2008, la inflación total de los 22 meses anteriores había aumentado en todos los países y, con una excepción, el índice de precios de los alimentos había superado al índice general (véase el gráfico 1.8). En línea con la caída de los precios internacionales desde mediados de 2008, la inflación interna se moderó en la segunda parte del año en la mayoría de los países.</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>escenario contención costos asume disminución gradual crecimiento anual gasto salud relacionado precios tecnología políticas instituciones atención salud cero escenario contención costos asume disminución gradual crecimiento anual gasto salud relacionado precio tecnología políticas instituciones atención salud cero factores demográficos incluyen estructura edad población salud mientras demográficos incluyen ingreso tecnología precios relativos</t>
+          <t>El escenario de contención de costos asume una disminución gradual en el crecimiento anual del gasto en salud relacionado con precios, tecnología y políticas e instituciones de atención de la salud de 1.7% a cero en 2060. El escenario de contención de costos asume una disminución gradual en el crecimiento anual de el gasto en salud relacionado con el precio, la tecnología y las políticas e instituciones de atención de la salud del 1,7 % a cero en 2060. Los factores demográficos incluyen la estructura de edad de la población y su estado de salud, mientras que los no demográficos incluyen el ingreso, la tecnología y los precios relativos.</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>débil capacidad evaluar sistema escolar limita desarrollo políticas nacionales podrían mejorar resultados educativos nivel nacional ejemplo dirigiendo recursos necesitan reconfigurando red escolar da resultado profundas desigualdades sistema escolar limita posibilidades estudiantes desfavorecidos alcancen potencial costa rica tomado medidas prometedoras elevar calidad sistema escolar necesita transformación profunda mejorar aprendizaje estudiantes finalización escuela</t>
+          <t>La débil capacidad para evaluar el sistema escolar limita el desarrollo de políticas nacionales que podrían mejorar los resultados educativos a nivel nacional, por ejemplo, dirigiendo los recursos donde más se necesitan o reconfigurando la red escolar. Esto da como resultado profundas desigualdades en todo el sistema escolar y limita las posibilidades de que los estudiantes más desfavorecidos alcancen su potencial. Costa Rica ha tomado medidas prometedoras para elevar la calidad del sistema escolar, pero se necesita una transformación más profunda para mejorar el aprendizaje de los estudiantes y la finalización de la escuela.</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>asimismo puntos referencia internacionales rendimiento estudiantes proporcionados encuestas internacionales estudiantes pisa timss influido hora impulsar desarrollo políticas nivel sistema además ncese cuyos servicios partir integraron iac realiza encuestas evaluar opiniones sociedad educación incluyen recopilación opiniones perspectivas directores profesores padres estudiantes posibles empleadores contrario existe marco evaluar trabajo departamentos educación rayons oblasts aunque supervisión trabajo pueda seguirse base resultados aprendizaje estudiantes</t>
+          <t>Asimismo, los puntos de referencia internacionales sobre el rendimiento de los estudiantes proporcionados por las encuestas internacionales de estudiantes, como PISA y TIMSS, han influido a la hora de impulsar el desarrollo de políticas a nivel del sistema. Además, el NCESE (cuyos servicios, a partir de 2015, se integraron en el IAC) también realiza encuestas para evaluar las opiniones de la sociedad sobre la educación, que incluyen la recopilación de opiniones y perspectivas de directores, profesores, padres, estudiantes y posibles empleadores. Por el contrario, no existe un marco para evaluar el trabajo de los Departamentos de Educación de los rayons y oblasts, aunque la supervisión de su trabajo pueda seguirse sobre la base de los resultados de aprendizaje de los estudiantes.</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>enfoque plan creación contenido aprendizaje electrónico mejora continua calidad currículo mediante uso tic hecho mayor desafío sistemas educativos poder ofrecer oportunidades capacitación aprendizaje grupos tradicionalmente desatendidos marginados incluye niñas mujeres enfrentan barreras escolarización poblaciones rurales demasiado dispersas poblar escuelas regulares manera rentable tamaños clase razonables niños familias extrema pobreza grupos necesidades especiales personas discapacidades acceso aprendizaje centros lado seguimiento hará seguimiento resultados planes estudio adaptados tic</t>
+          <t>El enfoque del plan 2006-2009 estuvo en la creación de contenido de aprendizaje electrónico y la mejora continua de la calidad del currículo mediante el uso de las TIC. De hecho, el mayor desafío para muchos sistemas educativos es poder ofrecer oportunidades de capacitación o aprendizaje a grupos tradicionalmente desatendidos o marginados. Esto incluye a niñas y mujeres que enfrentan barreras para la escolarización, poblaciones rurales que están demasiado dispersas para poblar escuelas regulares de manera rentable con tamaños de clase razonables, niños de familias en extrema pobreza y grupos con necesidades especiales o personas con discapacidades que no tienen acceso al aprendizaje. centros Por un lado, el seguimiento hará un seguimiento de los resultados de los planes de estudio adaptados a las TIC.</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>india ciento población general oído hablar vihsida comparación solo ciento mujeres tribus registradas recibido dicha información situaciones bangladesh nepal similares ciento población oído hablar alguna vez vihsida solo ciento mujeres información completa transmisión enfermedad bangladesh disparidad pueblos indígenas indígenas nepal respecto conocimiento vihsida sigue siendo motivo preocupación solo mujeres pueblos indígenas viven llanuras sur nepal conocidas tarai oído hablar vihsida sida comparación promedio nacional ciento mujeres indígenas carecen vínculos directos acceso información pública medios comunicación importante comunica lengua materna primera razón menciona frecuencia distancia establecimientos salud mayoría pueblos indígenas asia viven partes remotas país gobierno invertido infraestructura salud mayoría poblaciones indígenas dependen medicinas métodos tradicionales cuidado salud</t>
+          <t>En la India, el 60,9 por ciento de la población en general ha oído hablar del VIH/SIDA, en comparación con solo el 38,6 por ciento de las mujeres de las tribus registradas que han recibido dicha información. Las situaciones de Bangladesh y Nepal también son similares, ya que el 46 por ciento de la población ha oído hablar alguna vez del VIH/SIDA y solo el 13 por ciento de las mujeres tienen información completa sobre la transmisión de la enfermedad en Bangladesh. La disparidad entre los pueblos indígenas y no indígenas de Nepal con respecto al conocimiento sobre el VIH/SIDA sigue siendo motivo de preocupación, ya que solo el 60% de las mujeres de los pueblos indígenas que viven en las llanuras del sur de Nepal conocidas como Tarai han oído hablar del VIH/SIDA. SIDA en comparación con el promedio nacional del 73 por ciento. Las mujeres indígenas carecen de vínculos directos y acceso a la información pública y los medios de comunicación, y lo más importante, no se comunica en su lengua materna. La primera razón, que se menciona con frecuencia, es la distancia a los establecimientos de salud. Como la mayoría de los pueblos indígenas en Asia viven en partes remotas del país donde el gobierno no ha invertido en la infraestructura de salud, por lo tanto, la mayoría de las poblaciones indígenas dependen de las medicinas y métodos tradicionales para el cuidado de la salud.</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>prevé ingresos públicos totales alcancen millones etb escenario ingresos elevados déficit presupuestario descienda millones etb cuatro escenarios corresponden diferentes supuestos relativos nivel gasto protección social relación pib tres cuatro incluyen ayuda humanitaria mientras incluye analizan referencia escenarios bajo alto crecimiento pib</t>
+          <t>Se prevé que los ingresos públicos totales alcancen los 498.000 millones de ETB en 2025/26 en el escenario de ingresos elevados y que el déficit presupuestario descienda a 34.000 millones de ETB. Cuatro escenarios corresponden a diferentes supuestos relativos al nivel de gasto en protección social en relación con el PIB; tres de estos cuatro incluyen la ayuda humanitaria, mientras que uno no la incluye. Se analizan con referencia a escenarios de bajo y alto crecimiento del PIB.</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>utiliza definición desarrollada ravallion chen entonces crecimiento propobre períodos estudiados medido índices recuento pobreza pobreza extrema resultado puede atribuirse estabilidad económica observada años aumento real salario mínimo implementación políticas transferencia directa ingresos franga kakwani neri resultados indican políticas efectivas reducir índice pobreza extrema índice pobreza dado línea pobreza extrema baja línea pobreza sensible medidas política</t>
+          <t>Cuando se utiliza la definición desarrollada por Ravallion y Chen (2003), entonces el crecimiento fue pro-pobre en todos los períodos estudiados, medido tanto por los índices de recuento de pobreza como de pobreza extrema. Este resultado puede atribuirse a la estabilidad económica observada durante esos años, el aumento real del salario mínimo y la implementación de políticas de transferencia directa de ingresos (Franga, 2010, Kakwani, Neri y Son, 2010). Los resultados también indican que estas políticas son más efectivas para reducir el índice de pobreza extrema que el índice de pobreza porque, dado que la línea de pobreza extrema es más baja que la línea de pobreza, es más sensible a las medidas de política.</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>actualmente existen país centros tratamiento rehabilitación privados alrededor públicos según estadísticas oficiales total personas registradas consumidores drogas kazajstán kirguistán tayikistán uzbekistán frente total personas número drogodependientes registrados oficialmente kazajstán situó personas representa disminución significativa comparación personas kirguistán personas registraron oficialmente drogodependientes representa menos</t>
+          <t>Actualmente existen en el país más de 4.500 centros de tratamiento y rehabilitación privados y alrededor de 600 públicos. Según las estadísticas oficiales, en 2014 había un total de 65.216 personas registradas como consumidores de drogas en Kazajstán, Kirguistán, Tayikistán y Uzbekistán, frente a un total de 73.345 personas en 2013. Número de drogodependientes registrados oficialmente en Kazajstán en 2014 se situó en 34.221 personas, lo que representa una disminución significativa en comparación con las 40.224 personas en 2013. En Kirguistán, 9.024 personas se registraron oficialmente como drogodependientes en 2014, lo que representa un 8,8% menos que en 2013.</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>enfoque marco base medición cada contacto sistema salud duración total enfermedad condición salud contacto distinto tratamiento completo comprende contactos tratar condición salud etapa intervenciones objetivo mejorar salud mantener condición bajo riesgo enfermedades trastornos lesiones palabras prevenir aparición hc través vacunas programa prevención lesiones ejemplo</t>
+          <t>El enfoque en este marco es que la base de medición es cada contacto con el sistema de salud, y no la duración total de la enfermedad o condición de salud. Un contacto es distinto del tratamiento completo, que comprende todos los contactos para tratar una condición de salud. En esta etapa, las intervenciones tienen como objetivo mejorar el estado de salud y mantener una condición de bajo riesgo de enfermedades, trastornos o lesiones, en otras palabras, prevenir su aparición (HC.6), a través de vacunas o un programa de prevención de lesiones, por ejemplo.</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>mencionó anteriormente capítulo centrarse resultados brutos problemático ignora factores afectan aprendizaje estudiantes allá control maestro pueden fomentar prácticas enseñar examen reducción plan estudios procesos evaluación involucran observaciones aula asociados mejores resultados estudiantes evaluadores necesitan orientación instrumentos adecuados llevarlos cabo manera efectiva ocde b consejo educación nueva zelanda organismo profesional docentes ofrece programa aprendizaje profesional prácticas evaluación evaluadores docentes puesto disposición serie recursos directrices evaluación sitio web consejo educación nueva zelanda</t>
+          <t>Como se mencionó anteriormente en este capítulo, centrarse en estos resultados brutos es problemático porque ignora los factores que afectan el aprendizaje de los estudiantes que están más allá del control del maestro y pueden fomentar prácticas como "enseñar para el examen" y una reducción del plan de estudios. . Los procesos de evaluación que involucran observaciones en el aula están asociados con mejores resultados de los estudiantes, pero los evaluadores necesitan orientación e instrumentos adecuados para llevarlos a cabo de manera efectiva (OCDE, 2013b). Desde 2013, el Consejo de Educación de Nueva Zelanda, el organismo profesional para docentes, ofrece un programa de aprendizaje profesional sobre prácticas de evaluación para evaluadores y docentes y ha puesto a disposición una serie de recursos y directrices de evaluación en su sitio web (Consejo de Educación de Nueva Zelanda, 2016).</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>aunque donaciones voluntarias fuerte tradición israel instituciones enseñanza superior autoridades parecían tener mecanismos bien desarrollados apoyarlas reconociendo inversión infraestructura captación fondos puede generar tasas reales rentabilidad países ocde ejemplo reino unido tratado estimular actividad mediante planes financiación igualada véase recuadro agosto puso marcha programa financiación partes iguales periodo tres años financiación disponible igualar donaciones elegibles recaudadas instituciones enseñanza superior inglesas centros enseñanza superior financiados directamente</t>
+          <t xml:space="preserve">Aunque las donaciones voluntarias tienen una fuerte tradición en Israel, las instituciones de enseñanza superior o las autoridades no parecían tener mecanismos bien desarrollados para apoyarlas. Reconociendo que la inversión en la infraestructura de captación de fondos puede generar tasas reales de rentabilidad, algunos países de la OCDE, por ejemplo el Reino Unido, han tratado de estimular esta actividad mediante planes de financiación igualada (véase el recuadro 4.4.). En agosto de 2008 se puso en marcha un programa de financiación a partes iguales por un periodo de tres años. La financiación estaba disponible para igualar las donaciones elegibles recaudadas por las instituciones de enseñanza superior inglesas y los centros de enseñanza superior financiados directamente. </t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>actualmente red trabajando crear asociaciones universidades así agregar miembros diversos campos temáticos mayoría miembros profesores alemán estudios sociales universitat paderborn m primer lugar nuevos profesores pueden beneficiarse apoyo ofrecen programas tutoría tutoría integral método comprobado apoyar docentes apoyo tutoría efectivo docentes principiantes luchan logran aprender matices enseñanza efectiva spoonerlane nsj además tutoría esencial docentes escuelas desfavorecidas puede ayudarlos aprender habilidades necesarias rápidamente ocde p</t>
+          <t>Actualmente, la red está trabajando para crear asociaciones con otras universidades, así como para agregar más miembros de diversos campos temáticos, ya que la mayoría de los miembros son profesores de alemán o de estudios sociales (Universitat Paderborn, 2016[m]). En primer lugar, los nuevos profesores pueden beneficiarse del apoyo que ofrecen los programas de tutoría. La tutoría integral es un método comprobado para apoyar a estos docentes, "sin un apoyo de tutoría efectivo, muchos docentes principiantes luchan y no logran aprender los matices de la enseñanza efectiva" (Spooner-Lane, 2017[nsj)- Además, la tutoría es esencial para los docentes. en escuelas desfavorecidas, ya que puede ayudarlos a aprender las habilidades necesarias más rápidamente (OCDE, 2012, p. 132(69]).</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>programa proporcionó financiación adicional atención primaria mediante aumento contratos médicos cabecera enfermeros permitiendo contratación segundo enfermero parte médicos cabecera partir introdujo servicio telefónico asesoramiento ponía contacto pacientes médico consulta además introdujeron exenciones copagos grupos bajos ingresos aunque sido derogadas informe concluyó general impacto favorable eficiencia servicios sanitarios</t>
+          <t xml:space="preserve">El programa también proporcionó financiación adicional para la atención primaria, mediante el aumento de los contratos de los médicos de cabecera con enfermeros, y permitiendo la contratación de un segundo enfermero por parte de los médicos de cabecera. A partir de 2011 también se introdujo un servicio telefónico de asesoramiento que ponía en contacto a los pacientes con un médico en su consulta. Además, se introdujeron algunas exenciones de copagos para los grupos de bajos ingresos, aunque ya han sido derogadas. El informe concluyó que, en general, había tenido un impacto favorable en la eficiencia de los servicios sanitarios. </t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>razón fin incorporar medidas ingreso mismo tiempo presente estudio basó encuestas hogares cuales disponibles países región incluyen datos satisfactorios implementar ambas metodologías realizar estimaciones adaptaron indicadores datos disponibles encuestas hogares solo cumplió criterio disponibilidad datos sino reconoció necesaria pertinencia sociocultural ejercicio derechos especialmente determinar umbrales identificar cuándo niño niña adolescente encontraba situación pobreza infantil extrema pobreza infantil total umbrales privación establecidos medición global basada indicadores bristol limitado situaciones graves privación infantil américa latina decidió seguir criterio anterior definir umbrales identificar situaciones privación moderada reflejan necesidades satisfechas afectan bienestar desarrollo niños</t>
+          <t>Por esta razón y con el fin de incorporar medidas de ingreso al mismo tiempo, el presente estudio se basó en encuestas de hogares, las cuales están disponibles para todos los países de la región e incluyen datos satisfactorios para implementar ambas metodologías. Para realizar estas estimaciones se adaptaron los indicadores a los datos disponibles en las encuestas de hogares. Esto no solo cumplió con el criterio de disponibilidad de datos, sino que también reconoció la necesaria pertinencia sociocultural del ejercicio de los derechos, especialmente para determinar los umbrales para identificar cuándo un niño, niña o adolescente se encontraba en situación de pobreza infantil extrema o pobreza infantil total.2 Los umbrales de privación establecidos en la medición global de 2003 basada en los indicadores de Bristol se había limitado a las situaciones más graves de privación infantil. Para América Latina, se decidió seguir el criterio anterior pero también definir umbrales para identificar situaciones de privación moderada, ya que también reflejan necesidades que, cuando no son satisfechas, afectan el bienestar y el desarrollo de los niños.</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ayudan establecer planes tratamiento monitorear respuestas cada tratamiento evaluar resultados facilitan colaboración personal médico pacientes diferentes entornos ubicaciones geográficamente remotas servicios salud telemedicina teleconsultas facilitan pacientes accedan diagnósticos consejos expertos tratamientos fácilmente disponibles</t>
+          <t>También ayudan a establecer planes de tratamiento, monitorear las respuestas a cada tratamiento y evaluar los resultados. Facilitan la colaboración entre el personal médico y los pacientes en diferentes entornos o ubicaciones geográficamente remotas. Los servicios de salud (telemedicina y teleconsultas) facilitan que los pacientes accedan a diagnósticos y consejos de expertos para tratamientos que no están fácilmente disponibles.</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>naturaleza compleja entornos atención primaria captura daño paciente entornos puede explicar brecha conocimiento identificado estudios medicación errores diagnósticos indonesia estudio identificó ade prescripciones ámbito ambulatorio cuales debió errores prescripción error prescripción incompleta común errores dispensación errores farmacéuticos perwitasari et</t>
+          <t>La naturaleza compleja tanto de los entornos de atención primaria como de la captura del daño del paciente en estos entornos puede explicar la brecha de conocimiento. Se han identificado algunos estudios sobre medicación y errores diagnósticos. En Indonesia, un estudio identificó ADE en 226 de 229 prescripciones en el ámbito ambulatorio, de las cuales el 99,12 % se debió a errores de prescripción (el error de prescripción incompleta es el más común), el 3,66 % a errores de dispensación y el 3,02 % a errores farmacéuticos (Perwitasari et al. , 2010).</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>prestado especial atención expansión oportunidades sociales mediante establecimiento prioridades políticas fomento industrias seleccionadas fomento complementariedades mercado estatal compromiso reformas largo plazo liderazgo político sólido aprendizaje práctico impulso inversión pública acertar políticas prioridades políticas plantea cuestión igualmente importante acertar formulación políticas instituciones políticas gubernamentales profunda inextricablemente vinculadas puede tener éxito importante procesos políticas administrados personas comprometidas estructuras gubernamentales eficaces receptivas políticas cambian diferentes etapas desarrollo primeras etapas ejemplo países priorizan creación empleo reducción pobreza</t>
+          <t>También han prestado especial atención a la expansión de las oportunidades sociales mediante el establecimiento de prioridades políticas, el fomento de industrias seleccionadas, el fomento de las complementariedades del mercado estatal, el compromiso con reformas a largo plazo, el liderazgo político sólido, el aprendizaje práctico y el impulso de la inversión pública. Acertar en las políticas y las prioridades de las políticas plantea la cuestión igualmente importante de acertar en la formulación de políticas. Las instituciones y políticas gubernamentales están profunda e inextricablemente vinculadas, una no puede tener éxito sin la otra. Por lo tanto, es importante que los procesos de políticas sean administrados por personas comprometidas en estructuras gubernamentales eficaces y receptivas. Las políticas también cambian en diferentes etapas de desarrollo: en las primeras etapas, por ejemplo, muchos países priorizan la creación de empleo y la reducción de la pobreza.</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>decisión junio última confirmó rechazo oficina patentes patente glivec negando eficacia significativamente mejorada glivec virtud artículo d molécula previamente conocida ver decisión ipab novartis ag union of india business standard julio además ipab dictaminó debido precio cobrado glivec pacientes pobres cáncer india podrían pagar medicamento vez pondría peligro vida muchas personas crearía así desorden público país pág sentencia</t>
+          <t>En su decisión del 26 de junio de 2009, esta última confirmó el rechazo de la oficina de patentes de una patente para Glivec, negando la "eficacia significativamente mejorada" de Glivec en virtud del Artículo 3 (d) sobre una molécula previamente conocida (ver la decisión IPAB en Novartis AG contra Union of India y otros Business Standard de 5 de julio de 2009). Además, el IPAB dictaminó que debido al precio cobrado por Glivec, los pacientes pobres con cáncer en la India no podrían pagar el medicamento, lo que a su vez pondría en peligro la vida de muchas personas y crearía así el desorden público en el país (pág. . 191 de la sentencia).</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>general entiende trastornos leves moderados requieren tratamientos altamente especializados administrados psiquiatras entornos hospitalarios gran mayoría casos cambio mayoría países ocde médicos atención primaria asumen papel liderazgo tratamiento trastornos leves moderados ver tabla provisión nivel atención primaria trastornos leves moderados respaldada buena capacitación capacitación médica parte educación médica continua apoyo profesionales especialistas atención salud mental redes apoyo buenas opciones derivación si paciente necesita acceder nivel atención especializado puede ser forma eficaz brindar atención gran número pacientes</t>
+          <t>Por lo general, se entiende que los trastornos de leves a moderados no requieren tratamientos altamente especializados administrados por psiquiatras o en entornos hospitalarios en la gran mayoría de los casos. En cambio, en la mayoría de los países de la OCDE, los médicos de atención primaria asumen un papel de liderazgo en el tratamiento de trastornos leves a moderados (ver Tabla 4.2). Cuando la provisión a nivel de atención primaria para los trastornos leves a moderados está respaldada por una buena capacitación (tanto durante la capacitación médica como como parte de la educación médica continua), por el apoyo de profesionales especialistas en atención de la salud mental y redes de apoyo, y por buenas opciones de derivación si un paciente necesita acceder a un nivel de atención más especializado, puede ser una forma muy eficaz de brindar atención a un gran número de pacientes.</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>datos indican ubicación conjunta centros sanitarios multidisciplinares facilita colaboración integración garantiza uso eficiente recursos competencias reed et equipos multidisciplinares consultas infraestructuras clínicas informáticas infraestructuras apoyo capaces ofrecer gama amplia servicios satisfacer necesidades atención crónica forma coordinada goodwin et varios estudios nacionales influencia tamaño consulta procesos asistenciales resultados muestran consultas grandes obtienen mejores resultados cuanto gama calidad servicios gestión seguridad wensing et</t>
+          <t>Hay datos que indican que la ubicación conjunta en centros sanitarios multidisciplinares facilita la colaboración y la integración, y garantiza un uso más eficiente de los recursos y las competencias (Reed et al., Los equipos multidisciplinares de las consultas, con infraestructuras clínicas, informáticas y otras infraestructuras de apoyo, son capaces de ofrecer una gama más amplia de servicios para satisfacer las necesidades de atención crónica de forma coordinada (Goodwin et al., Varios estudios nacionales sobre la influencia del tamaño de la consulta en los procesos asistenciales y los resultados muestran que las consultas más grandes obtienen mejores resultados en cuanto a la gama y la calidad de los servicios y la gestión de la seguridad (Wensing et al.,</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>estableció sistema evaluación desempeño docente conocido docentemas dentro sector escolar municipal luego acuerdo tripartito ministerio educación asociación chilena municipios colegio profesores sistema complementa serie programas recompensas involucran algún tipo evaluación programa asignación variable rendimiento individual solo sector municipal vdi programa acreditación asignación excelencia pedagógica cubre totalidad escuela subvencionada sector aep sistema nacional evaluación desempeño sned otorga premios grupales cuerpos docentes determinadas escuelas públicas subvencionadas además programas formales escuelas privadas subvencionadas subvencionadas organizan forma autónoma propios sistemas evaluación desempeño docente cualquier escuela libre organizar sistemas extra internos evaluación docente</t>
+          <t>También estableció el sistema de evaluación del desempeño docente (también conocido como Docentemas) dentro del sector escolar municipal en 2003 luego de un acuerdo tripartito entre el Ministerio de Educación, la Asociación Chilena de Municipios y el Colegio de Profesores. Este sistema se complementa con una serie de programas de recompensas que involucran algún tipo de evaluación: el Programa de Asignación Variable por Rendimiento Individual (solo sector municipal) (A VDI), el Programa de Acreditación de la Asignación a la Excelencia Pedagógica (que cubre la totalidad de la escuela subvencionada sector) (AEP), y el Sistema Nacional de Evaluación del Desempeño (SNED), que otorga premios grupales a los cuerpos docentes de determinadas escuelas públicas subvencionadas. Además de estos programas formales, las escuelas privadas (tanto subvencionadas como no subvencionadas) organizan de forma autónoma sus propios sistemas de evaluación del desempeño docente y cualquier escuela es libre de organizar sistemas extra internos de evaluación docente.</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>importante continuar esfuerzos establecer prioridades basen alineadas enfoque sistema descentralizado continuar mejorando acceso eficiencia financiación educación terciaria parte estrategia objetivo alinear jardín infantes grado educación postsecundaria necesidades mercado laboral estudiantes puedan adquirir conocimiento habilidades necesarias transición fácil fuerza laboral ejemplo informe aprendizaje profesional isla príncipe eduardo definió áreas mejora aprendizaje docentes gobierno ontario anunció recientemente modernización formación docente provincia impacto estatus socioeconómico rendimiento estudiantes inferior promedio ocde figura</t>
+          <t>Será importante continuar los esfuerzos para establecer prioridades que se basen y estén alineadas con el enfoque del sistema descentralizado y para continuar mejorando el acceso y la eficiencia de la financiación en la educación terciaria. En parte, la estrategia tiene como objetivo alinear el jardín de infantes con el grado 12 y la educación postsecundaria con las necesidades del mercado laboral para que los estudiantes puedan adquirir el conocimiento y las habilidades necesarias para una transición más fácil a la fuerza laboral. Por ejemplo, el Informe de aprendizaje profesional de la Isla del Príncipe Eduardo de 2013 definió áreas de mejora en el aprendizaje de los docentes, y el gobierno de Ontario anunció recientemente una modernización de la formación docente en la provincia. El impacto del estatus socioeconómico en el rendimiento de los estudiantes (9,4 %) es inferior al promedio de la OCDE (14 %) (Figura 1).</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>general si bien estadísticas agregadas sugieren acceso adecuado general grandes variaciones número contactos sistema salud diferentes regiones sugieren menos acceso puede significativamente restringido escasez personal médico zonas rurales servicios transporte deficientes largos tiempos viaje centros atención salud pueden socavar acceso servicios zonas remotas país oms todas regiones mayor uso atención ambulatoria relativamente menos atención hospitalaria fuertemente correlacionados número camas per cápita sugiere estructuras ejemplo infraestructura hospitalaria existente dan forma prestación servicios diferentes maneras regiones hecho mirando allá frecuencia contactos proveedores pregunta fundamental si servicios prestados espejan atención frecuencia prioridad recursos etc sistemas datos kazajstán proporcionan información limitada naturaleza servicios prestados particular cobertura intervenciones relacionadas manejo enfermedades crónicas afectan cada vez población</t>
+          <t>En general, si bien estas estadísticas agregadas sugieren que el acceso es adecuado en general, las grandes variaciones en el número de contactos con el sistema de salud en diferentes regiones sugieren que, al menos en algunas de ellas, el acceso puede estar significativamente restringido. La escasez de personal médico en las zonas rurales, los servicios de transporte deficientes y los largos tiempos de viaje a los centros de atención de la salud también pueden socavar el acceso a los servicios en las zonas remotas de todo el país (OMS, 2011). En todas las regiones, un mayor uso de la atención ambulatoria y relativamente menos de la atención hospitalaria están fuertemente correlacionados con el número de camas per cápita, lo que sugiere que las estructuras (por ejemplo, la infraestructura hospitalaria existente) dan forma a la prestación de servicios de diferentes maneras en las regiones. De hecho, mirando más allá de la frecuencia de los contactos con los proveedores, la pregunta fundamental es si los servicios prestados "espejan en la atención" (frecuencia, prioridad, recursos, etc.) Los sistemas de datos en Kazajstán proporcionan información limitada sobre la naturaleza de los servicios prestados, y en particular sobre la cobertura de intervenciones relacionadas con el manejo de las enfermedades crónicas que afectan cada vez más a la población.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>relación positiva perfil socioeconómico escuelas cantidad calidad recursos significa escuelas favorecidas benefician mejores recursos relación negativa implica centros desfavorecidos benefician mejores recursos ausencia relación ambas implica escuelas asisten alumnos desfavorecidos mismas probabilidades acceder mejores recursos escuelas asisten alumnos aventajados gráfico según informes directores centros paíseseconomías alumnos centros favorecidos acceso mejores recursos materiales educativos compañeros centros desfavorecidos mientras paíseseconomías alumnos centros favorecidos mayor acceso personal educativo alumnos desfavorecidos</t>
+          <t>Una relación positiva entre el perfil socioeconómico de las escuelas y la cantidad o calidad de los recursos significa que las escuelas favorecidas se benefician de más o mejores recursos. Una relación negativa implica que los centros desfavorecidos se benefician de más o mejores recursos. La ausencia de relación entre ambas implica que las escuelas a las que asisten alumnos desfavorecidos tienen las mismas probabilidades de acceder a mejores o más recursos que las escuelas a las que asisten alumnos aventajados (gráfico 3.5). Según los informes de los directores de los centros, en 31 países/economías, los alumnos de los centros favorecidos tienen acceso a mejores recursos materiales educativos que sus compañeros de los centros desfavorecidos, mientras que en 36 países/economías, los alumnos de los centros favorecidos tienen mayor acceso al personal educativo que los alumnos desfavorecidos.</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>además formación especialistas medicina general incluye tareas requieren conocimiento profundo problemas comunes salud pública incluida salud mental cuestionario salud mental ocde dado control atención primaria limitar acceso servicios salud mental especializados pacientes necesitan tratamiento trastornos mentales graves particular pueden buscar atención nivel especializado directamente servicios especialistas psiquiatría brindan principalmente salas ambulatorias psiquiatría ubicadas hospitales generales</t>
+          <t>Además, la formación de especialistas en medicina general también incluye tareas que requieren un conocimiento más profundo de problemas comunes de salud pública, incluida la salud mental (Cuestionario de salud mental de la OCDE, 2013). Dado que no hay control en la atención primaria para limitar el acceso a los servicios de salud (mental) especializados, muchos pacientes que necesitan tratamiento (para trastornos mentales graves en particular) pueden buscar atención de nivel especializado directamente. Los servicios de especialistas en psiquiatría se brindan principalmente en las salas ambulatorias de psiquiatría ubicadas en los hospitales generales.</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>criterio identificación pobres comparó método indirecto tradicional región define pobreza base ingreso per cápita hogar ello tomó base análisis encuestas disponibles condiciones vida hogares región brindó datos implementación ambas metodologías mejorar estudio diagnóstico evaluación américa latina caribe utilizó umbrales privación moderada reflejan necesidades insatisfechas socavan bienestar desarrollo niños</t>
+          <t>Este criterio de identificación de los pobres se comparó con el método indirecto (más tradicional en la región), que define la pobreza sobre la base del ingreso per cápita del hogar. Para ello se tomó como base un análisis de las encuestas disponibles sobre condiciones de vida en los hogares de la región, que brindó datos para la implementación de ambas metodologías. Para mejorar el estudio de diagnóstico, la evaluación de América Latina y el Caribe también utilizó umbrales de privación moderada, que reflejan necesidades insatisfechas que socavan el bienestar y el desarrollo de los niños.</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>república bolivariana devenezuela chile costa rica honduras méxico importancia disminuyó constantemente década considerada refleja mejora provisión métodos tratamiento desechos domésticos embargo encontró contribución dimensión agua potable pobreza infantil total aumentado países caso notable costa rica pasó ver cuadro país dimensión agua potable contribuyó aún pobreza extrema pasando muestra cuadro ii caso jamaica muestra privaciones datos disponibles</t>
+          <t>En la República Bolivariana deVenezuela, Chile, Costa Rica, Honduras y México, su importancia disminuyó constantemente durante la década considerada, lo que refleja una mejora en la provisión de métodos de tratamiento de desechos domésticos. Sin embargo, se encontró que la contribución de la dimensión del agua potable a la pobreza infantil total había aumentado en 11 países. Un caso notable es Costa Rica, donde pasó de 20,8% en 2002 a 40% en 2011 (ver cuadro 11.8). En este país la dimensión agua potable contribuyó aún más a la pobreza extrema, pasando de 42,8% en 2002 a 67,6% en 2011, como muestra el cuadro II.7. En el caso de Jamaica, muestra algunas de las privaciones para las que hay datos disponibles.</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>embargo últimos años observado aumento actividad médicos concertados prestan asistencia ambulatoria así aumento constante número honorarios médicos cabecera especialistas concertados regulados gran medida sólo cubiertos parte seguro social enfermedad véase apartado acceso asistencia ambulatoria basa cada vez capacidad pago necesidad médica puede contribuir disparidades lander así zonas urbanas rurales</t>
+          <t>Sin embargo, en los últimos años se ha observado un aumento de la actividad de los médicos no concertados que prestan asistencia ambulatoria, así como un aumento constante de su número. Como los honorarios de los médicos de cabecera y especialistas no concertados no están regulados en gran medida y sólo están cubiertos en parte por el seguro social de enfermedad (véase el apartado 4), el acceso a la asistencia ambulatoria se basa cada vez más en la capacidad de pago y no en la necesidad médica. Esto también puede contribuir a las disparidades entre Lander, así como entre las zonas urbanas y rurales.</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>operación contó cooperación organismos encargados aplicación ley armenia belarús kazajstán kirguistán federación rusia tayikistán participación organismos afganistán china irán república islámica interpol calidad observadores mismo modo información dispone junta muestra decomisos heroína disminuyeron países oriente próximo incautaciones heroína aumentaron considerablemente varios países región disminuyeron particular orden decreciente cantidades incautadas jordania líbano arabia saudí israel julio operación seguridad conjunta pakistán emiratos árabes unidos saldó desmantelamiento importante red tráfico heroína detención narcotraficantes incautación kg heroína</t>
+          <t>La operación contó con la cooperación de los organismos encargados de la aplicación de la ley de Armenia, Belarús, Kazajstán, Kirguistán, la Federación de Rusia y Tayikistán, y con la participación de los organismos de Afganistán, China e Irán (República Islámica del) y de INTERPOL en calidad de observadores. Del mismo modo, la información de que dispone la Junta muestra que los decomisos de heroína disminuyeron entre los países de Oriente Próximo en 2014. Las incautaciones de heroína, que aumentaron considerablemente en varios países de la región en 2013, disminuyeron en 2014, en particular en, por orden decreciente de las cantidades incautadas, Jordania, Líbano, Arabia Saudí e Israel. En julio de 2015, una operación de seguridad conjunta de Pakistán y los Emiratos Árabes Unidos se saldó con el desmantelamiento de una importante red de tráfico de heroína, la detención de 40 narcotraficantes y la incautación de 150 kg de heroína.</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>tasas mortalidad diabetes altas ue además número muertes alzhéimer demencias casi triplicado año refleja envejecimiento población mejor diagnóstico falta tratamientos efectivos codificación precisa cáncer pulmón sigue siendo principal causa muerte cáncer número personas mueren enfermedad casi duplicó obstante tasas siguen siendo bajas comparación países ue</t>
+          <t>Las tasas de mortalidad por diabetes son las más altas de la UE. Además, el número de muertes por alzhéimer y otras demencias casi se ha triplicado desde el año 2000, lo que refleja el envejecimiento de la población, un mejor diagnóstico, la falta de tratamientos efectivos y una codificación más precisa. El cáncer de pulmón sigue siendo la principal causa de muerte por cáncer, y el número de personas que mueren por esta enfermedad casi se duplicó entre 2004 y 2014. No obstante, las tasas siguen siendo bajas en comparación con otros países de la UE.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mismo modo vendedor puede calificarnos compradores confiables docentes allí juiciosos selectivos uso tecnología aulas adoptan tecnología trata mejorar compartir práctica profesional visité shanghái vi maestros usaban plataforma digital compartir planes lecciones mismo inusual hizo diferente lugares plataforma combinó métricas reputación cuantas lecciones descargaran criticaran mejoraran profesores mayor reputación profesor compartido</t>
+          <t>Del mismo modo, el vendedor puede calificarnos como compradores confiables. Los docentes allí son juiciosos y selectivos en el uso de la tecnología en sus aulas, pero adoptan la tecnología cuando se trata de mejorar y compartir la práctica profesional. Cuando visité Shanghái en 2013, vi maestros que usaban una plataforma digital para compartir planes de lecciones. Eso en sí mismo no es inusual, lo que lo hizo diferente de otros lugares fue que la plataforma se combinó con métricas de reputación. Cuantas más lecciones descargaran, criticaran o mejoraran otros profesores, mayor sería la reputación del profesor que las había compartido.</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>véase j h reichman the international legal status of undisclosed clinical trial data from private to public good embargo competidor pueda comercializar copia genérica medicamento dra local todavía debe hacer juicio eficacia seguridad producto genérico decisión puede requerir autoridad base decisiones regulatorias tomadas dra país originador realmente obtenido aprobación regulatoria vez empresa originadora puede argumentar productor genéricos aprovecha esfuerzos originador aunque dra nacional casos hace uso directo datos prueba cuestión bien utiliza decisión extranjera basa tales datos prueba</t>
+          <t>Véase J. H. Reichman, "The International Legal Status of Undisclosed Clinical Trial Data: From Private to Public Good?†[ Sin embargo, para que un competidor pueda comercializar una copia genérica del medicamento, la DRA local todavía debe hacer una juicio sobre la eficacia y seguridad del producto genérico, y esta decisión puede requerir que la autoridad se base en las decisiones regulatorias tomadas por una DRA en un país donde el originador realmente ha obtenido la aprobación regulatoria. Una vez más, la empresa originadora puede argumentar que el productor de genéricos aprovecha los esfuerzos del originador, aunque la DRA nacional en estos casos no hace uso directo de los datos de prueba en cuestión (más bien, utiliza la decisión extranjera que se basa en tales datos de prueba).</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>uso dichos datos parte ocde perjuicio altos golán jerusalén asentamientos israelíes cisjordania según términos derecho internacional país primeros región lograr inscripción universal escuela primaria garantizar jóvenes adultos habilidades básicas alfabetización progreso temprano sentó bases fuerte desarrollo social económico país último siglo</t>
+          <t>El uso de dichos datos por parte de la OCDE es sin perjuicio del estado de los Altos del Golán, Jerusalén Este y los asentamientos israelíes en Cisjordania según los términos del derecho internacional. El país fue uno de los primeros en la región en lograr la inscripción universal en la escuela primaria y garantizar que todos los jóvenes y adultos tengan habilidades básicas de alfabetización. Este progreso temprano sentó las bases para el fuerte desarrollo social y económico del país durante el último siglo.</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>evaluaciones externas pueden aplicarse toda cohorte alumnos solo centros aulas ejemplo evaluaciones demanda centros pueden utilizar medir propio progreso compararse medias nacionales existen ejemplo formas híbridas evaluación desarrollan externamente propios profesores alumnos aplican califican internamente mejor manera diseñar marcos evaluación basados combinación enfoques internos externos fin alcanzar objetivos formativos sumativos establecidos cuestiones guiarán capítulo términos definen brevemente continuación utilizarán frecuencia largo capítulo</t>
+          <t>Las evaluaciones externas pueden aplicarse a toda una cohorte de alumnos o solo en algunos centros y aulas (por ejemplo, evaluaciones a demanda que los centros pueden utilizar para medir su propio progreso y compararse con las medias nacionales). También existen, por ejemplo, formas híbridas de evaluación que se desarrollan externamente pero que los propios profesores de los alumnos aplican y califican internamente. La mejor manera de diseñar marcos de evaluación basados en una combinación de enfoques internos y externos con el fin de alcanzar los objetivos formativos y sumativos establecidos será otra de las cuestiones que guiarán este capítulo. Estos términos se definen brevemente a continuación, ya que se utilizarán con frecuencia a lo largo del capítulo.</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>clasificación funciones atención salud cont conjunto similar servicios bienes puede consumirse propósito relacionado salud caso atención salud interrelacionada bienestar atención social servicios médicos fin cosmético sanitario apoyo social parte atención largo plazo</t>
+          <t>Clasificación de las funciones de atención de la salud (cont.) Un conjunto similar de servicios y bienes puede consumirse con un propósito no relacionado con la salud. Este es el caso cuando la atención de la salud está interrelacionada con el bienestar o con la atención social, como los servicios médicos con un fin cosmético no sanitario o el apoyo social como parte de la atención a largo plazo.</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>pobreza existe muchas formas surge amplia gama circunstancias causas pueden ser provocadas hombre sistémicas pueden ser ambientales significa personas pueden vivir pobreza parte sistema palabras pobreza puede ser resultado intervenciones políticas eficaces ineficaces políticas tienden ser eficaces existen sistemas interdependientes posible coordinar dirigir racionalmente acción colectiva determinada dirección personas dependen suficiente sistema sentir pellizco</t>
+          <t>La pobreza existe en muchas formas y surge en una amplia gama de circunstancias. Las causas pueden ser provocadas por el hombre y sistémicas o pueden ser ambientales, lo que significa que las personas pueden vivir en la pobreza porque no son parte de un sistema. En otras palabras, la pobreza puede ser el resultado de intervenciones políticas eficaces o ineficaces. Las políticas tienden a ser eficaces cuando existen sistemas interdependientes, es posible coordinar y dirigir racionalmente la acción colectiva en una determinada dirección, y las personas dependen lo suficiente del sistema para "sentir el pellizco".</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>manera similar estudiantes aymaras obtienen puntos menos lectura puntos menos matemáticas puntos menos ciencias estudiantes indígenas ver figura diferencia mantiene quintiles ingreso ver tabla consistente brecha urbanorural resultados matemáticas simce gráfico</t>
+          <t>De manera similar, los estudiantes aymaras obtienen 12 puntos menos en lectura, 4 puntos menos en matemáticas y 13 puntos menos en ciencias que los estudiantes no indígenas (ver Figura 3.2). Esta diferencia se mantiene para todos los quintiles de ingreso (ver Tabla 3.2). Esto es consistente con la brecha urbano-rural en los resultados de matemáticas del SIMCE (Gráfico 3.3).</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>hecho informe demuestra profesionalidad depende aprendizaje diseño colaborativos creación activa redes precisamente través idea profesores diseñadores aprendizaje innovación nivel práctica puede verse vertiente normal profesión docente resolver retos diarios contexto constante cambio marco incorpora filosofía particular preceptos acción holísticos funciona alternativa perspectivas fragmentadas disgregadas investigación política suelen prevalecer hora abordar pedagogía</t>
+          <t>De hecho, este informe demuestra que la profesionalidad depende del aprendizaje y el diseño colaborativos, y de la creación activa de redes. Es precisamente a través de la idea de los profesores como diseñadores del aprendizaje como la innovación a nivel de la práctica puede verse como una vertiente normal de la profesión docente para resolver los retos diarios en un contexto que está en constante cambio. El marco incorpora una filosofía particular y preceptos para la acción que son holísticos, y funciona como alternativa a las perspectivas fragmentadas y disgregadas de la investigación y la política que suelen prevalecer a la hora de abordar la pedagogía.</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>turquía varias prioridades abordar incluida mejora equidad regiones áreas urbanas rurales abordar necesidades estudiantes desfavorecidos preparar maestros líderes escolares calidad mejorar acceso finalización educación secundaria superior educación formación profesional vet educación terciaria fortaleciendo vínculos mercado laboral financiando adecuadamente sistema educativo programa educación básica proyecto secundario ambos banco mundial objetivo mejorar calidad educación diferentes niveles plan maestro implementación incluyó múltiples proyectos unicef mejorar equidad calidad sistema educativo desarrollado iniciativas vet educación terciaria unión europea mejorar alineación estándares europeos</t>
+          <t>Turquía tiene varias prioridades que abordar, incluida la mejora de la equidad entre regiones y áreas urbanas y rurales, abordar las necesidades de los estudiantes desfavorecidos, preparar maestros y líderes escolares de calidad, mejorar el acceso y la finalización de la educación secundaria superior, la educación y formación profesional (VET), y educación terciaria, fortaleciendo los vínculos con el mercado laboral y financiando adecuadamente el sistema educativo. El Programa de Educación Básica (1997) y el Proyecto Secundario (2006-11), ambos con el Banco Mundial, tenían como objetivo mejorar la calidad de la educación en estos diferentes niveles. El Plan Maestro de Implementación (2001-05) incluyó múltiples proyectos de UNICEF para mejorar tanto la equidad como la calidad del sistema educativo. Se han desarrollado iniciativas en VET y educación terciaria con la Unión Europea para mejorar la alineación con los estándares europeos.</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>portafolio prepara nivel educativo determinado área especialización docente según define unidad currículo evaluación ministerio educación docentes proporciona manual portafolio cosas especifica descriptores marco buena enseñanza asocian cada componentes portafolio clase filmada camarógrafo acreditado equipo docentemas</t>
+          <t>El portafolio se prepara para un nivel educativo determinado y un área de especialización docente (según lo define la Unidad de Currículo y Evaluación del Ministerio de Educación). A los docentes se les proporciona un Manual de Portafolio que, entre otras cosas, especifica los descriptores del Marco de Buena Enseñanza que se asocian a cada uno de los componentes del portafolio. La clase es filmada por un camarógrafo acreditado por el equipo de Docentemas.</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>decisión certificación negativa conlleva suspensión licencia escuela informe certificación contiene lista infracciones detectadas veces identifica personas responsables dentro escuela aunque informe centra infracciones normativa suele contener serie recomendaciones mejorar prácticas pedagógicas centro</t>
+          <t>Una decisión de certificación negativa conlleva la suspensión de la licencia de la escuela. El informe de certificación contiene una lista de las infracciones detectadas y a veces identifica a las personas responsables dentro de la escuela. Aunque el informe se centra en las infracciones de la normativa, también suele contener una serie de recomendaciones para mejorar las prácticas pedagógicas del centro.</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>especialista incluye médico general farmacéutico enfermero trabajador social u alguien cualquiertratamiento incluye tratamiento especialista especialista resultado aplica proporción buscó algún tratamiento independientemente proveedor específico así proporción buscó ayuda especialistas salud mental p ej psiquiatras</t>
+          <t>"No especialista" incluye médico general, farmacéutico, enfermero, trabajador social u "alguien más". " Cualquier†tratamiento incluye tratamiento por especialista o no especialista. Este resultado se aplica a la proporción que buscó algún tratamiento, independientemente del proveedor específico, así como a la proporción que buscó ayuda de especialistas en salud mental (p. ej., psiquiatras).</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>chile adaptó pregunta certificación docentes autorizados habilitados ministerio educación momento recopilación datos pisa puede tener impacto respuestas directores pregunta ejemplo si mayoría docentes país economía participado programas desarrollo profesional vacaciones verano recopilación datos pisa realizara vacaciones verano paíseconomía proporción informada subestimación realidad índice equidad asignación recursos personal porcentaje variación índice escasez personal educativo explicado índice escolar pisa estatus económico social cultural escuela multiplicado signo negativo positivo según signo relación</t>
+          <t>En Chile se adaptó la pregunta sobre la certificación de docentes como "autorizados o habilitados por el Ministerio de Educación". El momento de la recopilación de datos de PISA puede tener un impacto en las respuestas de los directores a esta pregunta. Por ejemplo, si la mayoría de los docentes de un país o economía hubieran participado en programas de desarrollo profesional durante las vacaciones de verano y la recopilación de datos de PISA se realizara antes de las vacaciones de verano en este país/economía, la proporción informada sería una subestimación de la realidad. El índice de equidad en la asignación de recursos (personal) es el porcentaje de la variación del índice de escasez de personal educativo explicado por el índice escolar PISA de estatus económico, social y cultural de la escuela multiplicado por un signo negativo o positivo, según el signo de la relación.</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>factores incluyen edad madre residencia urbanarural características clave niño sexo orden nacimiento duración intervalo nacimientos anterior políticas salud enfocan reducir desigualdades propuestas fondo naciones unidas infancia unicef parecen tener probabilidades generar grandes retornos inversiones realizan países evitando muertes infantiles maternas políticas enfocadas mejorar niveles generales salud mortalidad prestar atención papel desigualdades si bien importante invertir nivel mundial salud materna adolescente infantil every woman every child fundamental esfuerzos dirijan niños económicamente vulnerables familias</t>
+          <t>Esos factores incluyen la edad de la madre, la residencia urbana/rural y las características clave del niño, como el sexo, el orden de nacimiento, la duración del intervalo entre nacimientos anterior. Por lo tanto, las políticas de salud que se enfocan en reducir las desigualdades, como las propuestas por el Fondo de las Naciones Unidas para la Infancia (UNICEF), parecen tener más probabilidades de generar grandes retornos de las inversiones que realizan los países, evitando más muertes infantiles y maternas que las políticas enfocadas en mejorar los niveles generales. de la salud y la mortalidad sin prestar atención al papel de las desigualdades. Si bien es importante invertir a nivel mundial en la salud materna, adolescente e infantil (Every Woman Every Child, 2015), es fundamental que estos esfuerzos se dirijan a los niños económicamente más vulnerables y sus familias.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>industria puede contribuir soluciones ejemplo regímenes envases medicamentos simplificados existe posibilidad iniciativas socios múltiples mejorar alfabetización salud pacientes personnes atteintes par lune des principales males chroniques particular courent serieux risques ne pas prendre correctement leurs medicaments</t>
+          <t>La industria puede contribuir con soluciones como, por ejemplo, regímenes o envases de medicamentos simplificados. También existe la posibilidad de iniciativas de socios múltiples para mejorar la alfabetización en salud de los pacientes. Les personnes atteintes par l'une des principales males chroniques, en particular, courent de serieux risques a ne pas prendre correctement leurs medicaments.</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>informe conjunto oms organización mundial médicos familia oms wonca destaca importancia formación previa servicio servicio trabajadores atención primaria salud mental requisito previo esencial integración salud mental reducir brecha tratamiento salud mental inclusión capacitación salud mental profesionales atención primaria común países ocde ocde desarrollo nueva especialidad japón valiosa oportunidad integrar manera efectiva capacitación salud mental generalistas principio específicamente puede fortalecer provisión trastornos leves moderados nivel atención primaria demostrado pautas prescripción tratamiento específicas atención primaria opciones apropiadas derivación especialistas enfoques tratamiento efectivos trastornos leves moderados</t>
+          <t>Un informe conjunto de la OMS y la Organización Mundial de Médicos de Familia (OMS y Wonca, 2008) destaca la importancia de la formación previa al servicio y/o durante el servicio de los trabajadores de atención primaria en salud mental como requisito previo esencial para la integración de la salud mental, y reducir la brecha de tratamiento para la salud mental. La inclusión de capacitación en salud mental para estos profesionales de atención primaria es común en muchos países de la OCDE (OCDE, 2014a), y con el desarrollo de esta nueva especialidad, Japón tiene la valiosa oportunidad de integrar de manera efectiva la capacitación en salud mental para generalistas desde el principio. Específicamente, se puede fortalecer la provisión para los trastornos leves a moderados en el nivel de atención primaria, se ha demostrado que las pautas de prescripción y tratamiento específicas de la atención primaria y las opciones apropiadas de derivación a especialistas son enfoques de tratamiento efectivos para los trastornos leves a moderados.</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sólo puede lograrse liderazgo niveles sistema sanitario mientras poblaciones pacientes individuales atienden sistemas cada vez difíciles punto vista clínico siglos anteriores principales retos atención sanitaria gestión lesiones lucha enfermedades infecciosas medida países desarrollo atraviesan transición epidemiológica enfrentan mismos retos</t>
+          <t>Esto sólo puede lograrse con liderazgo en todos los niveles del sistema sanitario. Mientras tanto, las poblaciones y los pacientes individuales a los que atienden estos sistemas son cada vez más difíciles desde el punto de vista clínico. En siglos anteriores, los principales retos de la atención sanitaria eran la gestión de las lesiones y la lucha contra las enfermedades infecciosas. A medida que los países en desarrollo atraviesan la transición epidemiológica, se enfrentan a los mismos retos.</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>adultos máximo título secundaria inferior título educación formal incluso educación primaria promedio ocde adultos padres bajo nivel educativo posibilidades obtener educación terciaria según cálculos basados encuesta habilidades adultos ocde b contrario adultos padres alto nivel educativo cuatro veces probabilidades obtener título terciario</t>
+          <t>Algunos de estos adultos tienen como máximo un título de secundaria inferior, otros no tienen un título de educación formal o incluso una educación primaria. En promedio en la OCDE, los adultos con padres con bajo nivel educativo tienen un 15 % de posibilidades de obtener educación terciaria, según cálculos basados ​​en la Encuesta de Habilidades de Adultos (OCDE, 2016b). Por el contrario, los adultos con padres con un alto nivel educativo tienen cuatro veces más probabilidades (63 %) de obtener un título terciario.</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sobremedicación motivo preocupación japón ámbito ministerio adoptando medidas basadas baremo honorarios mediante ajuste honorarios prescripción tasas prescripción prescriben medicamentos simultáneamente casos prescriben tres ansiolíticos somníferos cuatro antidepresivos antipsicóticos política general esfuerzos materia calidad verían favorecidos conjunto amplio actividades relacionadas calidad recopilación sistemática datos práctica prescripción buenas directrices clínicas hecho pequeño impresionante grupo hospitales liderado centro nacional neurología psiquiatría desarrollando serie indicadores calidad</t>
+          <t>La sobremedicación es un motivo de preocupación en Japón, y es un ámbito en el que el ministerio está adoptando medidas basadas en el baremo de honorarios mediante el ajuste de los honorarios de prescripción y las tasas de prescripción cuando se prescriben más medicamentos simultáneamente (en los casos en que se prescriben más de tres ansiolíticos o somníferos, o más de cuatro antidepresivos o antipsicóticos). Esta política, y en general los esfuerzos en materia de calidad, se verían muy favorecidos por un conjunto más amplio de actividades relacionadas con la calidad, como la recopilación sistemática de datos sobre la práctica de la prescripción y las buenas directrices clínicas. De hecho, un pequeño pero impresionante grupo de hospitales, liderado por el Centro Nacional de Neurología y Psiquiatría, está desarrollando una serie de indicadores de calidad.</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>persona respetable pobre cualquier sexo avergonzaría aparecer público libro capítulo entiende ingreso familiar ingreso familiar disponible decir después impuestos transferencias públicas luego equivalúa tener cuenta economías escala disponibles diferentes tamaños hogares usando raíz cuadrada tamaño hogar</t>
+          <t>La persona respetable más pobre de cualquier sexo se avergonzaría de aparecer en público sin ellos. Libro 5, Capítulo 2, 1776. Se entiende por ingreso familiar el 'ingreso familiar disponible', es decir, después de impuestos y transferencias públicas. Esto luego se 'equivalúa' para tener en cuenta las economías de escala disponibles para los diferentes tamaños de hogares (usando la raíz cuadrada del tamaño del hogar).</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>proporciona descripción general rendimiento alumnos lectura ciencias describe evolución rendimiento materias respecto evaluaciones pisa anteriores volumen revela diferencias forma equitativa países asignan recursos oportunidades aprender escuelas diferentes perfiles socioeconómicos estudios casos examinan reformas políticas adoptadas países mejorado pisa destacan largo volumen</t>
+          <t>También proporciona una descripción general del rendimiento de los alumnos en lectura y ciencias, y describe la evolución del rendimiento en estas materias con respecto a evaluaciones PISA anteriores. El volumen también revela diferencias en la forma equitativa en que los países asignan recursos y oportunidades para aprender en escuelas con diferentes perfiles socioeconómicos. Los estudios de casos, que examinan las reformas políticas adoptadas por los países que han mejorado en PISA, se destacan a lo largo del volumen.</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>probable poblaciones edad avanzada particularmente vulnerables cambios acceso atención hospitalaria médica reformas hospitalarias actuales probable menos capacidad viajar necesidades salud visitas hospital regulares deben realizar esfuerzos identificar necesidades insatisfechas población adultos mayores incluidos esfuerzos considerar bienestar mental físico poblaciones adultos mayores comunidad entornos cuidado residencial buena atención salud hogares ancianos centros atención largo plazo dimensión equidad acceso atención salud municipios deberían considerar</t>
+          <t>Es probable que las poblaciones de edad avanzada sean particularmente vulnerables a los cambios en el acceso a la atención hospitalaria y médica con las reformas hospitalarias actuales, ya que es probable que tengan menos capacidad para viajar y tengan necesidades de salud y visitas al hospital más regulares. Se deben realizar esfuerzos para identificar las necesidades insatisfechas de la población de adultos mayores, incluidos los esfuerzos para considerar el bienestar mental y físico de las poblaciones de adultos mayores, tanto en la comunidad como en los entornos de cuidado residencial. Una buena atención de la salud en hogares de ancianos y centros de atención a largo plazo es otra dimensión de la equidad en el acceso a la atención de la salud que los municipios deberían considerar.</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>exposición marketing alcohol aumenta probabilidad iniciación consumo alcohol consumo alcohol adolescentes anderson et datos alemania italia países bajos polonia muestran mayor exposición marketing alcohol línea aumenta probabilidades consumo episódico excesivo alcohol adolescentes bruijn fuentes agregadas existentes estimaciones consumo alcohol proporcionan información fiable determinar tendencias nacionales generales trazar perfiles nacionales consumo alcohol</t>
+          <t xml:space="preserve">La exposición al marketing del alcohol aumenta la probabilidad de iniciación en el consumo de alcohol y el consumo de alcohol de los adolescentes (Anderson et al., Los datos de Alemania, Italia, los Países Bajos y Polonia muestran que una mayor exposición al marketing del alcohol en línea aumenta las probabilidades de consumo episódico excesivo de alcohol en adolescentes (de Bruijn, 2012). Las fuentes agregadas existentes y las estimaciones del consumo de alcohol proporcionan la información más fiable para determinar las tendencias nacionales generales y trazar perfiles nacionales de consumo de alcohol. </t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>embargo retroalimentación médicos campañas información podrían mejor enfocadas médicos pacientes objetivo amplio hecho caso reino unido prácticas retroalimentación centradas médicos tasas altas prescripción antibióticos eficaces reducir uso mientras campañas información centradas paciente efectos limitados ocde b hospitales representan alrededor cuarta parte ventas farmacéuticas totales francia proporción uso genéricos allí solo valor ansm baja proporción explica parte diferentes patologías pacientes tratamientos intensivos innovadores hospitales ocde b productores suelen vender medicamentos marca precios reducidos ganar mercado amplio dahan</t>
+          <t>Sin embargo, esta retroalimentación a los médicos y las campañas de información podrían estar mejor enfocadas, ya que los médicos y los pacientes son un objetivo más amplio. De hecho, en el caso del Reino Unido, las prácticas de retroalimentación centradas en los médicos con las tasas más altas de prescripción de antibióticos fueron eficaces para reducir su uso, mientras que las campañas de información centradas en el paciente tuvieron efectos limitados (OCDE, 2017b). Los hospitales representan alrededor de una cuarta parte de las ventas farmacéuticas totales en Francia, y la proporción del uso de genéricos allí fue solo del 2,3 % en valor en 2013 (ANSM, 2014). Esta baja proporción se explica en parte por las diferentes patologías de los pacientes y los tratamientos más intensivos e innovadores de los hospitales (OCDE, 2015b), pero los productores también suelen vender medicamentos de marca a precios reducidos para ganar un mercado más amplio (Dahan, 2016).</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>nuevos estándares docentes véase recomendación deben guiar revisión examen final garantizar evalúa competencias docentes necesitan aula rumania podría considerar agregar preguntas abiertas orientadas práctica examen mejor medida competencias docentes futuro rumania podría reducir peso examen favor medida auténtica competencias docentes inspección basada desempeño nuevos docentes aula</t>
+          <t>Los nuevos estándares docentes (véase la Recomendación 3.1.1) deben guiar la revisión del examen final para garantizar que evalúa las competencias que los docentes necesitan en el aula. Rumania también podría considerar agregar más preguntas abiertas y orientadas a la práctica al examen para que sea una mejor medida de las competencias de los docentes. En el futuro, Rumania podría reducir el peso del examen a favor de una medida más auténtica de las competencias docentes, como una inspección basada en el desempeño de los nuevos docentes en el aula.</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>marco describe profesionalidad profesores través base conocimientos autonomía redes compañeros medir medida sistemas educativos apoyan profesionalidad profesores cada ámbitos talis calcula número medio buenas prácticas según profesores recuadro cada ámbitos profesionalidad docente escala representando máximo teórico observan todas prácticas dentro ámbito</t>
+          <t>Este marco describe la profesionalidad de los profesores a través de su base de conocimientos, autonomía y redes de compañeros. Para medir en qué medida los sistemas educativos apoyan la profesionalidad de los profesores en cada uno de estos ámbitos, TALIS calcula el número medio de buenas prácticas, según los profesores (Recuadro 2.1). Cada uno de los ámbitos de la profesionalidad docente se escala de 0 a 5, representando 5 un máximo teórico en el que se observan todas las prácticas dentro del ámbito.</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>régimen puede ser compatible acuerdo adpic explicará adelante cabe señalar política mercado totalmente libre hacia nuevos usos corre riesgo disminuir significativamente incentivo explorar dichos usos incluso productores locales potenciales razones discutiremos medios protección ofrecen alternativa patentes países desarrollo podrían encontrar particularmente adecuados promover inversión descubrimiento nuevos usos sustancias farmacéuticas conocidas describirá adelante manera gobiernos implementen opciones disponibles virtud acuerdo adpic determinará grado titular patente originador control nuevos usos espacio disponible innovadores seguirán incluidas empresas locales producir producto cuestión tales usos primero refiere medida adpic obligan países proteger nuevos usos sustancias conocidas cuestión jurídica técnica si acuerdo adpic incluye tal requisito segunda pregunta refiere beneficios perjuicios elegir si protegen nuevos usos sustancias conocidas</t>
+          <t>Este régimen puede ser compatible con el Acuerdo sobre los ADPIC, como se explicará más adelante. También cabe señalar que una política de mercado totalmente libre hacia nuevos usos corre el riesgo de disminuir significativamente el incentivo para explorar dichos usos, incluso para los productores locales potenciales. Por esta y otras razones, también discutiremos otros medios de protección que ofrecen una alternativa a las patentes que los países en desarrollo podrían encontrar particularmente adecuados para promover la inversión en el descubrimiento de nuevos usos de sustancias farmacéuticas conocidas. Como se describirá más adelante, la manera en que los gobiernos implementen las opciones disponibles en virtud del Acuerdo sobre los ADPIC determinará tanto el grado en que el titular de la patente originador tendrá control sobre los nuevos usos como el espacio disponible para los innovadores que lo seguirán, incluidas las empresas locales, para producir el producto en cuestión para tales usos. El primero se refiere a la medida en que los ADPIC obligan a los países a proteger los nuevos usos de sustancias conocidas, como una cuestión jurídica técnica. Si el Acuerdo sobre los ADPIC no incluye tal requisito, la segunda pregunta se refiere a los beneficios y perjuicios de elegir si se protegen o no los nuevos usos de sustancias conocidas.</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>educadores políticos investigadores evaluación consideraba herramienta control instrumento monitorear apoyar educación mejor recopilación uso información evaluación permitido ed brasil mejorar calidad eficiencia sistema educativo reformas primero enfocaron construir contexto propicio actividades evaluación incluyó definición marco política general evaluación creación institución adecuada dirigir programas evaluación garantía financiación estable suficiente desarrollo capacidad nacional llevar cabo tareas evaluación</t>
+          <t>Para muchos educadores, políticos e investigadores, la evaluación se consideraba una herramienta de control más que un instrumento para monitorear y apoyar la educación. La mejor recopilación y uso de la información de evaluación ha permitido a ed Brasil mejorar la calidad y la eficiencia de su sistema educativo. Las reformas primero se enfocaron en construir el contexto propicio para las actividades de evaluación. Esto incluyó la definición del marco de política general para la evaluación, la creación de la institución adecuada para dirigir los programas de evaluación, la garantía de una financiación estable y suficiente y el desarrollo de la capacidad nacional para llevar a cabo las tareas de evaluación.</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>puede explicarse aumento demanda vivienda puede satisfacerse caso indígenas brecha privación relativa aumentó veces nivel nacional mientras relación población afroecuatoriana disminuyó mismo periodo primera identifica si individuos seguro salud público privado definen privados si ninguno</t>
+          <t>Esto puede explicarse por el aumento de la demanda de vivienda que no puede satisfacerse. En el caso de los indígenas, la brecha de privación relativa aumentó de 1,7 a 1,8 veces el nivel nacional entre 2006 y 2010, mientras que la relación para la población afroecuatoriana disminuyó de 1,3 a 1,1 en el mismo periodo. La primera identifica si los individuos tienen seguro de salud (público o privado), y se definen como privados si no tienen ninguno.</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>moes responsable desarrollo políticas educativas planes estratégicos aprobados gobierno coordina departamentos educación municipales implementación política educativa estatal coordina distribución financiación escolar presupuesto estatal asignación fondos estructurales ue ministerio responsable garantía calidad acreditación plan estudios educación general exámenes finales ministerio oficina nacional auditoría lituania desempeña papel clave realiza periódicamente auditorías financieras instituciones presupuestarias campo educación revisa actividades moes través auditorías desempeño planificadas</t>
+          <t>El MoES es responsable del desarrollo de políticas educativas y planes estratégicos aprobados por el gobierno y también coordina los departamentos de educación municipales en la implementación de la política educativa estatal. Coordina la distribución de la financiación escolar del presupuesto estatal y la asignación de los fondos estructurales de la UE. El Ministerio también es responsable de la garantía de la calidad, la acreditación del plan de estudios de educación general y los exámenes finales. Fuera del Ministerio, la Oficina Nacional de Auditoría de Lituania desempeña un papel clave, que realiza periódicamente auditorías financieras de las instituciones presupuestarias en el campo de la educación y revisa las actividades del MoES a través de auditorías de desempeño planificadas.</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>países ocde estudiante ventajas socioeconómicas obtiene puntos matemáticas equivalente casi año escolaridad estudiante menos ventajas portugal diferencia rendimiento matemáticas puntos junto chile hungría luxemburgo república eslovaca relación portugal desempeño estatus socioeconómico significativamente encima promedio ocde ocde posición portugal contrasta italia ejemplo mostró nivel desempeño mejora resultados pisa similares portugal ver figura</t>
+          <t>En los países de la OCDE, un estudiante con más ventajas socioeconómicas obtiene 39 puntos más en matemáticas, el equivalente a casi un año de escolaridad, que un estudiante con menos ventajas. En Portugal, la diferencia de rendimiento en matemáticas es de 35 puntos. Junto con Chile, Hungría, Luxemburgo y la República Eslovaca, la relación en Portugal entre desempeño y estatus socioeconómico está significativamente por encima del promedio de la OCDE (OCDE, 2014a). La posición de Portugal contrasta con la de Italia, que, por ejemplo, mostró un nivel de desempeño y una mejora en los resultados de PISA similares a los de Portugal entre 2003 y 2012 (ver Figura 9).</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>reformas aumentaron flexibilidad sistema educativo anteriormente altamente centralizado introducir mayor libertad elección respecto tipos programas selección libros texto métodos enseñanza promovieron participación democrática procesos educativos otorgar mayor responsabilidad municipios padres familia zogla andersone cemova sistema formación profesional inició proceso consolidación</t>
+          <t>Las reformas aumentaron la flexibilidad del sistema educativo anteriormente altamente centralizado al introducir una mayor libertad de elección con respecto a los tipos de programas, la selección de libros de texto y los métodos de enseñanza. También promovieron la participación democrática en los procesos educativos al otorgar mayor responsabilidad a los municipios y padres de familia (Zogla, Andersone y Cemova, 2007). En el sistema de formación profesional se inició un proceso de consolidación.</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ocde elaborando mejores datos resultados asistencia sanitaria nivel sistema particular mortalidad susceptible calidad asistencia sanitaria recuadro dado cobertura aún limitada datos pueden sustituir indicadores salud hora evaluar eficiencia asistencia sanitaria pueden complementarlos primer lugar realizado regresiones datos panel arrojar luz contribución asistencia sanitaria determinantes salud población joumard et trabajo empírico sugiere cambios gasto sanitario factores estilo vida consumo tabaco alcohol así dieta educación contaminación ingresos sido factores importantes detrás mejoras salud</t>
+          <t>La OCDE está elaborando mejores datos sobre los resultados de la asistencia sanitaria a nivel de sistema, en particular sobre la mortalidad susceptible y la calidad de la asistencia sanitaria (Recuadro 2). Dado que su cobertura es aún limitada, estos datos no pueden sustituir a los indicadores del estado de salud a la hora de evaluar la eficiencia de la asistencia sanitaria, pero pueden complementarlos. En primer lugar, se han realizado regresiones de datos de panel para arrojar luz sobre la contribución de la asistencia sanitaria y otros determinantes al estado de salud de la población (Joumard et al., Este trabajo empírico sugiere que los cambios en el gasto sanitario, los factores de estilo de vida (consumo de tabaco y alcohol, así como la dieta), la educación, la contaminación y los ingresos han sido factores importantes detrás de las mejoras en el estado de salud.</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>medida transformación estructural lleva trabajadores zonas agrícolas interior menor calidad productividad sector manufacturero urbano desigualdad agregada aumenta primero desarrollo acabar disminuyendo incluso crecimiento sigue siendo modesto países capacidad financiera administrativa adecuada pueden reducir pobreza mediante redistribución acción pública importante herramienta formas privación relacionadas ingresos través provisión bienes públicos clave atención sanitaria educación agua saneamiento servicios</t>
+          <t>A medida que la transformación estructural lleva a los trabajadores de las zonas agrícolas del interior, de menor calidad y productividad, al sector manufacturero urbano, la desigualdad agregada aumenta primero con el desarrollo antes de acabar disminuyendo17 . Incluso cuando el crecimiento sigue siendo modesto, los países con una capacidad financiera y administrativa adecuada pueden reducir la pobreza mediante la redistribución. La acción pública también es importante como herramienta contra las formas de privación no relacionadas con los ingresos a través de la provisión de bienes públicos clave, como la atención sanitaria, la educación, el agua, el saneamiento y otros servicios.</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>normalmente refiere equidad resultados educativos forma ver comparar rendimiento estudiantes diferentes escuelas sistema educativo ejemplo escala competencia lectora pisa variación desempeño escuelas finlandia comparación variación promedio ocde ocde</t>
+          <t>Esto normalmente se refiere a la equidad de los resultados educativos. Una forma de ver esto es comparar el rendimiento de los estudiantes en diferentes escuelas del sistema educativo. Por ejemplo, en la escala de competencia lectora de PISA de 2009, la variación del desempeño entre las escuelas en Finlandia fue del 7,7 % en comparación con la variación promedio de la OCDE del 42 % (OCDE, 2010a).</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>portugal indicadores experiencia paciente figuran utilizados contratar asistencia sanitaria primaria aunque mayoría sistemas sanitarios ocde cuentan menos encuestas recoger prem menudo hace forma estandarizada observa corea australia suele recoger poca frecuencia japón ejemplo prem recogen vez cada tres años sistema datos prom hacen públicos pueden utilizarse ayudar pacientes tomar decisiones mejor informadas ideal datos prom transmitieran médicos ayudarles mejorar atención resultados pacientes</t>
+          <t>En Portugal, los indicadores de la experiencia del paciente figuran entre los utilizados para contratar la asistencia sanitaria "primaria". Aunque la mayoría de los sistemas sanitarios de la OCDE cuentan al menos con algunas encuestas para recoger las PREM, a menudo no se hace de forma estandarizada (como se observa en Corea y Australia) y se suele recoger con poca frecuencia (en Japón, por ejemplo, las PREM se recogen una vez cada tres años). En un sistema en el que los datos de PROM se hacen públicos, pueden utilizarse para ayudar a los pacientes a tomar decisiones mejor informadas. Lo ideal sería que los datos de PROM se transmitieran a los médicos para ayudarles a mejorar la atención y los resultados de los pacientes.</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>obstante incluso línea relativa cae debajo línea absoluta proporciona información valiosa distribución bienestar pobres propuesta sigue espíritu propuesta atkinson bourguignon hacer operativas medidas pobreza combinan medidas absolutas relativas basa idea pobreza absoluta relativa reflejan fallas diferentes capacidades respectivamente vinculadas supervivencia integración si bien agenda desarrollo centrado gran medida primero últimas décadas segundo debe ocupar lugar corresponde</t>
+          <t>No obstante, incluso cuando esta línea relativa cae por debajo de la línea absoluta, proporciona información valiosa sobre la distribución del bienestar entre los pobres. Esta propuesta sigue el espíritu de la propuesta de Atkinson y Bourguignon (2002) para hacer operativas las medidas de pobreza que combinan medidas absolutas y relativas. Se basa en la idea de que la pobreza absoluta y relativa reflejan fallas en diferentes capacidades, respectivamente vinculadas a la supervivencia y la integración. Si bien la agenda de desarrollo se ha centrado en gran medida en el primero en las últimas décadas, el segundo debe ocupar el lugar que le corresponde.</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>pueden continuar complementarse mayor enfoque reducción desigualdades recientes grupos específicos observan grandes diferencias rendimiento niños niñas estudiantes nativos estudiantes origen inmigrante además cambios demográficos implican menor proporción personas jóvenes finlandia desajustes oferta demanda lugares estudio necesidades mercado laboral combina reconocimiento temprano parte docentes bajo rendimiento apoyo holístico involucra personal escolar bienestar social</t>
+          <t>Estos pueden continuar y complementarse con un mayor enfoque en la reducción de las desigualdades recientes en grupos específicos: se observan grandes diferencias de rendimiento entre niños y niñas y entre estudiantes nativos y estudiantes de origen inmigrante. Además, los cambios demográficos implican una menor proporción de personas más jóvenes en Finlandia y ha habido algunos desajustes entre la oferta y la demanda de lugares de estudio y las necesidades del mercado laboral. Combina el reconocimiento temprano por parte de los docentes del bajo rendimiento con un apoyo holístico que involucra tanto al personal escolar como al de bienestar social.</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lerner et encontraron resultados similares autores indican posible requieran antidepresivos empleados depresión leve recetan medicación debe comenzar posible embargo sigue siendo hecho efectos positivos empleo bajos efectos clínicos frank koss decir mejora clínica traduce automática completamente mejor funcionamiento laboral medido escalas funcionamiento aumento empleo remunerado ingresos sustanciales eliminación listas beneficios discapacidad mejora síntomas siempre va mano mejora productividad</t>
+          <t>Lerner et al. 1 encontraron resultados similares. (Los autores indican que es posible que no se requieran antidepresivos para todos los empleados con depresión leve, pero cuando se recetan, la medicación debe comenzar lo antes posible. Sin embargo, sigue siendo un hecho que los efectos positivos en el empleo son más bajos que los efectos clínicos (Frank y Koss, 2005), es decir, la mejora clínica no se traduce automática ni completamente en un mejor funcionamiento laboral (medido con escalas de funcionamiento) y un aumento del empleo remunerado con ingresos sustanciales, o en la eliminación de las listas de beneficios por discapacidad. , la mejora de los síntomas no siempre va de la mano con la mejora de la productividad.</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>pobre gran bretaña londres allen unwin implicaciones políticas medición pobreza multidimensional marruecos minujin s nandy eds global child poverty and wellbeing medición conceptos política acción unión europea inclusión social enfrentando desafíos the policy press bristol</t>
+          <t>Pobre Gran Bretaña, Londres: Allen y Unwin. Implicaciones políticas de la medición de la pobreza multidimensional en Marruecos', en A. Minujin y S. Nandy (eds.), Global Child Poverty and Well-being - Medición, conceptos, política y acción. La Unión Europea y la Inclusión Social: Enfrentando los Desafíos, The Policy Press, Bristol.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>eliminaría sesgo padres pobres resulta difícil encontrar dinero efectivo evitaría estudiantes malgasten dinero tarifa autobús artículos debe proporcionar transporte gratuito casa escuela estudiantes secundaria superior familias bajos ingresos modo participación educación secundaria superior vea inhibida costos transporte organización transporte casa escuela debería coordinarse mejor facilitar consolidación escuelas participen varios municipios necesario proporcionar autobuses escolares exclusivos alternativa económica ausencia transporte público adecuado opción contratar operadores autobuses privados brinden servicios hogar escuela</t>
+          <t>Esto eliminaría un sesgo contra los padres pobres a quienes les resulta difícil encontrar dinero en efectivo y también evitaría que los estudiantes malgasten el dinero de la tarifa del autobús en otros artículos. También se debe proporcionar transporte gratuito de casa a la escuela para los estudiantes de secundaria superior de familias de bajos ingresos, de modo que su participación en la educación secundaria superior no se vea inhibida por los costos de transporte. La organización del transporte de la casa a la escuela debería coordinarse mejor para facilitar la consolidación de las escuelas en las que participen varios municipios. No es necesario proporcionar autobuses escolares exclusivos como una alternativa más económica, pero, en ausencia de un transporte público adecuado, una opción es contratar operadores de autobuses privados para que brinden servicios desde el hogar hasta la escuela.</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>debe haber fuertes vínculos servicios públicos apoyo técnicopedagógico atp nuevo marco mejoramiento escolar así consultorías técnicopedagógicas ate privadas segundo lugar respecto proceso evaluación escolar mismo agencia debe seguir centrándose dimensión formativa evaluaciones escolares conduce cambios duraderos práctica evaluación escolar significativa debe implicar evaluación precisa eficacia escuelas evaluación fortalezas áreas desarrollo seguida retroalimentación entrenamiento apoyo oportunidades desarrollo oportunidad celebrar reconocer recompensar trabajo escuelas identificar mejores prácticas oportunidad identificar escuelas bajo rendimiento tercer lugar autoevaluación escolar debe ser central cualquier enfoque nacional mejora escolar medida sistemas escolares maduran escuelas deben asumir papel importante impulsar propia mejora</t>
+          <t>También debe haber fuertes vínculos con los servicios públicos de apoyo técnico-pedagógico (ATP) y su nuevo marco de mejoramiento escolar, así como con las consultorías técnico-pedagógicas (ATE) privadas. En segundo lugar, con respecto al proceso de evaluación escolar en sí mismo, la Agencia debe seguir centrándose en la dimensión formativa de las evaluaciones escolares que conduce a cambios duraderos en la práctica. Una evaluación escolar que sea significativa debe implicar: una evaluación precisa de la eficacia de las escuelas, una evaluación de las fortalezas y áreas de desarrollo, seguida de retroalimentación, entrenamiento, apoyo y oportunidades de desarrollo, una oportunidad para celebrar, reconocer y recompensar el trabajo de las escuelas y para identificar las mejores prácticas, y una oportunidad para identificar las escuelas de bajo rendimiento. En tercer lugar, la autoevaluación escolar debe ser central en cualquier enfoque nacional para la mejora escolar y, a medida que los sistemas escolares maduran, las escuelas deben asumir un papel más importante para impulsar su propia mejora.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>gobierno adoptado amplia gama medidas restringir promoción bebidas alcohólicas venta dentro establecimiento ejemplo menores gasolineras embargo comparación países ocde francia mantiene niveles bajos impuestos alcohol particular vino ocde c cabe destacar fiscalidad independiente grado alcohol panel b</t>
+          <t>El gobierno ha adoptado una amplia gama de medidas para restringir la promoción de bebidas alcohólicas y su venta dentro y fuera del establecimiento (por ejemplo, a menores y en gasolineras). Sin embargo, en comparación con otros países de la OCDE, Francia mantiene niveles más bajos de impuestos sobre el alcohol, en particular sobre el vino (OCDE, 2015c). También cabe destacar que la fiscalidad es independiente del grado de alcohol desde 1990 (Panel B).</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>medida propiedad vivienda vuelve inaccesible familias extremo inferior distribución socioeconómica intervenciones políticas vivienda deben centrarse resultados protejan inquilinos bajos ingresos aumentos alquiler dirigir beneficios vivienda hacia familias bajos ingresos aumentar stock viviendas sociales priorizar ubicación familias mayores necesidades opciones pueden ayudar mejor satisfacer necesidades vivienda familias pobres reducción pobreza infantil podría identificarse objetivo específico estrategia reducción pobreza lanzada recientemente desarrollo medidas exposición niños pobreza ingresos necesidades insatisfechas términos alimentación salud educación vivienda permitiría establecer metas niños monitorear progreso grupo población particular número plazas cuidado infantil creadas acceso niños bajos ingresos calidad servicios prestados métricas importantes monitorear medir resultados gasto público reducción pobreza caso salir pobreza consecuencias presupone superen barreras empleo eliminen obstáculos limitan acceso atención vivienda calidad puedan otorgar ayudas económicas</t>
+          <t>A medida que la propiedad de la vivienda se vuelve más inaccesible para las familias en el extremo inferior de la distribución socioeconómica, las intervenciones de políticas de vivienda deben centrarse en resultados que protejan a los inquilinos de bajos ingresos de los aumentos de alquiler. Dirigir los beneficios de vivienda hacia las familias de bajos ingresos, aumentar el stock de viviendas sociales y priorizar la ubicación de las familias con mayores necesidades son opciones que pueden ayudar mejor a satisfacer las necesidades de vivienda de las familias pobres. La reducción de la pobreza infantil podría identificarse como un objetivo específico de la estrategia de reducción de la pobreza lanzada recientemente. El desarrollo de medidas de la exposición de los niños a la pobreza de ingresos y de las necesidades insatisfechas en términos de alimentación, salud, educación y vivienda permitiría establecer metas para los niños y monitorear el progreso de este grupo de población en particular. El número de plazas de cuidado infantil creadas, el acceso de los niños de bajos ingresos y la calidad de los servicios prestados serán métricas importantes a monitorear para medir los resultados del gasto público en la reducción de la pobreza. En este caso, salir de la pobreza y sus consecuencias presupone que se superen las barreras al empleo, que se eliminen los obstáculos que limitan el acceso a la atención, a una vivienda de calidad y que se puedan otorgar ayudas económicas.</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>gran parte cambio siendo impulsado políticas públicas distintos países actúan unilateralmente objetivos erradicación pobreza plantean pues desafío hora lograr nivel adecuado coherencia internacional políticas alimentarias energéticas error anteriores enfoques globales desarrollo generalizar exceso sugerir casi conjunto común políticas países dejando margen variación personalización</t>
+          <t>Gran parte de este cambio está siendo impulsado por las políticas públicas de los distintos países que actúan unilateralmente. Los objetivos de erradicación de la pobreza plantean, pues, un desafío a la hora de lograr un nivel adecuado de coherencia internacional en las políticas alimentarias y energéticas. Un error de algunos de los anteriores enfoques "globales" del desarrollo fue generalizar en exceso y sugerir lo que era casi un conjunto común de políticas para todos los países, dejando poco margen para la variación y la personalización. "</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>medicina reconocer osteoporosis enfermedad masculina retrasa diagnóstico tratamiento hombres planificación urbana recopilar datos trabajo cuidados conduce sistemas transporte ineficientes fundada objetivo mejorar revitalizar economía regional tras colapso industria textil regional objetivo principal ut inicio sido dedicarse investigación útil sociedad estudiantes ut deben adquirir competencias emprendimiento finalizar estudios</t>
+          <t>En medicina, no reconocer la osteoporosis como una enfermedad masculina retrasa el diagnóstico y el tratamiento en los hombres. En la planificación urbana, no recopilar datos sobre el trabajo de cuidados conduce a sistemas de transporte ineficientes. (Fundada en 1961, con el objetivo de mejorar y revitalizar la economía regional tras el colapso de la industria textil regional, el objetivo principal de la UT desde el inicio ha sido dedicarse a la investigación útil para la sociedad. Todos los estudiantes de la UT deben adquirir competencias de emprendimiento al finalizar sus estudios).</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>caso programas educación secundaria inferior noruega programas educación secundaria superior finlandia ambos tipos programas reino unido canadá estudiantes secundaria inferior superior generalmente repiten solo cursos reprobado grados completos mientras estudiantes primaria generalmente repiten grados alcanza programas generales secundaria inferior excluye estudiantes adultos aumenta niveles educativos altos repetición grado relativamente común programas generales secundaria inferior debajo mayoría países</t>
+          <t>Este es el caso de los programas de educación secundaria inferior en Noruega, de los programas de educación secundaria superior en Finlandia y de ambos tipos de programas en el Reino Unido. En Canadá, los estudiantes de secundaria inferior y superior generalmente repiten solo los cursos que han reprobado y no grados completos, mientras que los estudiantes de primaria generalmente no repiten grados. Alcanza el 2 % en los programas generales de secundaria inferior (esto excluye a los estudiantes adultos) y aumenta con los niveles educativos más altos. La repetición de grado es relativamente poco común en los programas generales de secundaria inferior y está por debajo del 5% en la mayoría de los países.</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>lado adultos daneses informan consumo excesivo alcohol regular alto ue casi adolescentes daneses informan haber borrachos menos dos veces vida tasas obesidad debajo media ue van aumento adultos daneses obesos frente</t>
+          <t>Por otro lado, el 37% de los adultos daneses informan un consumo excesivo de alcohol regular, el más alto de la UE. Casi el 40% de los adolescentes daneses informan haber estado borrachos al menos dos veces en su vida. Las tasas de obesidad están por debajo de la media de la UE, pero van en aumento: el 14,0 % de los adultos daneses eran obesos en 2014, frente al 9,5 % en 2000.</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>claro mantuvieron variables ficticias incluidas modelos anteriores representar directamente organización sistema sanitario expansión morbilidad largo tiempo aumento esperanza vida resultados regresión aunque muestran modelos anteriores muestran último modelo discuten razones eligió modelo final</t>
+          <t xml:space="preserve">No está claro por qué no se mantuvieron las variables ficticias incluidas en modelos anteriores para representar directamente la organización del sistema sanitario. Por lo tanto, habría una expansión de la morbilidad a lo largo del tiempo con el aumento de la esperanza de vida. Los resultados de la regresión, aunque se muestran para todos los modelos anteriores, no se muestran para este último modelo. No se discuten las razones por las que se eligió este modelo final. </t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>incluyó funcionarios gubernamentales finanzas salud nivel nacional provincial expertos políticas salud sector privado académico después visita llevaron cabo reuniones conferencias telefónicas adicionales resultados salud población mejorado conjunto gracias parte aumentos graduales gasto salud largo tiempo</t>
+          <t>Esto incluyó funcionarios gubernamentales de finanzas y salud, a nivel nacional y provincial, y expertos en políticas de salud del sector privado y académico. Después de esta visita se llevaron a cabo reuniones y conferencias telefónicas adicionales. Los resultados de salud de la población han mejorado en conjunto, gracias en parte a los aumentos graduales en el gasto en salud a lo largo del tiempo.</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>hombres hospitalizados anualmente psicosis especialmente esquizofrenia tasa ligeramente alta mujeres número aproximadamente hospitalizaciones hombres frente mujeres datos encontraron pacientes hospitalizados esquizofrenia rehospitalizados dentro días posteriores alta ocde</t>
+          <t>Los hombres son hospitalizados anualmente por psicosis (especialmente esquizofrenia) a una tasa ligeramente más alta que las mujeres. En 2007, este número fue de aproximadamente 3 000 hospitalizaciones entre hombres, frente a 2 600 mujeres. Los datos de 2011 encontraron que el 15,1% de los pacientes hospitalizados con esquizofrenia fueron rehospitalizados dentro de los 30 días posteriores al alta (OCDE, 2014a).</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>aunque llama cautela interpretar resultados pobreza dominio apunta hacia resultados gran medida consistentes términos recursos financieros pesar cantidad comparativamente grande indicadores incluidos errores estándar calculan cuenta diseño muestreo encuesta niveles pobreza dimensional monetaria generalmente altos reino unido aunque privación respecto acceso servicios básicos menor país</t>
+          <t>Aunque llama a la cautela al interpretar los resultados de la pobreza por dominio, también apunta hacia los resultados en gran medida consistentes en términos de recursos financieros a pesar de la cantidad comparativamente grande de indicadores incluidos. Los errores estándar se calculan teniendo en cuenta el diseño de muestreo de la encuesta. Los niveles de pobreza dimensional y monetaria son generalmente más altos en el Reino Unido, aunque la privación con respecto al acceso a los servicios básicos es menor en este país.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>nacimientos prematuros mundo dan sólo países cuales encuentran región asia pacífico bangladesh china india indonesia pakistán filipinas países región mayores tasas nacimientos prematuros pakistán cada nacidos vivos indonesia cada nacidos vivos filipinas cada nacidos vivos bangladesh cada nacidos vivos nepal cada nacidos vivos estimaciones indicador elaboran partir datos recogidos encuestas demográficas salud indicadores múltiples conglomerados interpretación debe considerarse cautela</t>
+          <t>El 60% de los nacimientos prematuros del mundo se dan en sólo 10 países, 6 de los cuales se encuentran en la región de Asia y el Pacífico: Bangladesh, China, India, Indonesia, Pakistán y Filipinas. Los países de la región con mayores tasas de nacimientos prematuros en 2010 fueron Pakistán (16 por cada 100 nacidos vivos), Indonesia (15 por cada 100 nacidos vivos), Filipinas (15 por cada 100 nacidos vivos), Bangladesh (14 por cada 100 nacidos vivos) y Nepal (14 por cada 100 nacidos vivos). Las estimaciones de este indicador se elaboran a partir de datos recogidos en encuestas como las demográficas y de salud y las de indicadores múltiples por conglomerados. Por tanto, la interpretación debe considerarse con cautela.</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>federación rusa siguió apoyando provisión capacitación policial materia antinarcóticos instituciones nacionales policía antinarcóticos afganistán parte programa regional unodc afganistán países vecinos cooperación conjunta extenderá ampliará incluir asistencia cinco países asia central además federación rusia informó junta serie iniciativas fortalecer esfuerzos conjuntos abordar problema mundial drogas incluida conferencia internacional diálogo rusoafricano drogas celebrada banjul julio conferencia regional drogas operación drogas operación canal período</t>
+          <t>En 2014, la Federación Rusa siguió apoyando la provisión de capacitación policial en materia antinarcóticos en sus instituciones nacionales a la Policía Antinarcóticos de Afganistán como parte del programa regional de la UNODC para Afganistán y los países vecinos. Esa cooperación conjunta se extenderá hasta 2016 y se ampliará para incluir asistencia a los cinco países de Asia Central. Además, la Federación de Rusia informó a la Junta sobre una serie de iniciativas para fortalecer los esfuerzos conjuntos para abordar el problema mundial de las drogas, incluida la conferencia internacional del Diálogo ruso-africano contra las drogas, celebrada en Banjul el 23 de julio de 2015, y la conferencia regional contra las drogas. -Operación Drogas, "Operación Canal", para el período 2014-2015.</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>fundamental garantizar información desigualdades salud utilice manera efectiva abordar desigualdades nivel local regional través orientación central continua según corresponda acordando objetivos difundiendo fomentando ampliación iniciativas locales exitosas hacer frente desigualdades medidas incentivar exigir médicos jóvenes ejerzan áreas desatendidas primeros años práctica puede ser forma abordar disparidades geográficas parece ocurrir sistemáticamente actualidad hecho sigue existiendo preocupación especializarse ciertos servicios hospitalarios nivel superior pacientes viajar lejos recibir atención</t>
+          <t>Será fundamental garantizar que la información sobre las desigualdades en salud se utilice de manera efectiva para abordar las desigualdades a nivel local y regional, a través de una orientación central continua según corresponda, acordando objetivos, difundiendo y fomentando la ampliación de iniciativas locales exitosas. para hacer frente a las desigualdades y otras medidas. Incentivar o exigir que los médicos jóvenes ejerzan en áreas desatendidas durante sus primeros años de práctica puede ser una forma de abordar las disparidades geográficas. Esto no parece ocurrir sistemáticamente en la actualidad. De hecho, sigue existiendo la preocupación de que al especializarse ciertos servicios hospitalarios a un nivel superior, los pacientes tendrán que viajar más lejos para recibir atención.</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>personas educación terciaria probabilidades empleadas aquellas educación secundaria superior vez posibilidades empleadas aquellas educación secundaria superior gráfico proporción población alcanzado menos educación secundaria superior aumentó generación años generación años mismo año educación secundaria inferior ahora prácticamente universal tasas matriculación años aumentaron ocde b resultados aprendizaje estudiantes chile medidos pisa aunque aún considerablemente debajo promedio ocde mejorado notablemente última década</t>
+          <t>Las personas con educación terciaria tienen más probabilidades de estar empleadas que aquellas con educación secundaria superior, quienes a su vez tienen más posibilidades de estar empleadas que aquellas sin educación secundaria superior (Gráfico 1.8). La proporción de la población que ha alcanzado al menos la educación secundaria superior aumentó del 56 % para la generación de 55 a 64 años en 2011 al 88 % para la generación de 25 a 34 años en el mismo año. La educación secundaria inferior es ahora prácticamente universal y las tasas de matriculación entre los 15 y los 19 años aumentaron del 64 % en 1995 al 76 % en 2011 (OCDE, 2011b). Los resultados de aprendizaje de los estudiantes en Chile, medidos por PISA, aunque aún están considerablemente por debajo del promedio de la OCDE, han mejorado notablemente durante la última década.</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>distribución diferente especializaciones nivel alto satisfacción empleadores habilidades técnicas básicas registrado sector médico tabla egipto habilidades básicas graduados evaluadas fuertes empleadores según encuesta presentada informe antecedentes spumohe adaptado unidad planificación estratégica ministerio educación superior egipto spumohe educación formación profesional postsecundaria egipto dos factores emergen evidencia internacional abogan detección sistemática dificultades lectoescritura aritmética estudiantes fp muchas personas desconocen problemas conocen pueden ser reacios admitirlos</t>
+          <t>Hay una distribución diferente entre las especializaciones, una con el nivel más alto de satisfacción entre los empleadores (tanto para habilidades técnicas como básicas) registrado en el sector médico (Tabla 5.1). En Egipto, las habilidades básicas de los graduados no fueron evaluadas como "fuertes" por los empleadores según la encuesta presentada en el informe de antecedentes (SPU-MoHE, 2012). Adaptado de la Unidad de Planificación Estratégica del Ministerio de Educación Superior de Egipto (SPU-MoHE) (2012), Educación y formación profesional postsecundaria en Egipto. Dos factores que emergen de la evidencia internacional abogan por una detección sistemática de las dificultades en lectoescritura y aritmética entre los estudiantes de FP: muchas personas desconocen sus problemas, y algunos de los que los conocen pueden ser reacios a admitirlos.</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>países bajos asociaciones nacionales profesionales salud mental desarrollado pautas nacionales multidisciplinarias tratamiento varias enfermedades mentales evaluación lleva cabo acuerdo calificación desempeño positivo negativo según aspectos servicios si bien trastornos mentales comprenden gran carga morbilidad general tratan adecuadamente parte personas trastornos mentales adecuadamente identificadas genera gran brecha tratamiento</t>
+          <t>En los Países Bajos, las asociaciones nacionales de profesionales de la salud mental han desarrollado pautas nacionales (multidisciplinarias) para el tratamiento de varias enfermedades mentales. La evaluación se lleva a cabo de acuerdo con la calificación de desempeño positivo o negativo según los aspectos de los servicios. Si bien los trastornos mentales comprenden una gran carga de morbilidad, por lo general no se tratan adecuadamente, en parte porque las personas con trastornos mentales no están adecuadamente identificadas, lo que genera una gran brecha en el tratamiento.</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>mujeres embarazadas exentas copago servicios parto normal mujeres embarazadas exentas copagos atención ambulatoria copago promedio atención primaria brindada prácticas ordinarias nzd usd niños seis diecisiete años nzd niños menores seis años atención primaria proporcionada prácticas vlca copagos respectivamente nzd usd nzd</t>
+          <t>Las mujeres embarazadas están exentas de copago por servicios de parto normal. Las mujeres embarazadas también están exentas de copagos en atención ambulatoria. El copago promedio por atención primaria brindada en "prácticas ordinarias" es NZD 28,20 (USD 19,06)_para niños de seis a diecisiete años y NZD 2,60 para niños menores de seis años. Para la atención primaria proporcionada en las prácticas de VLCA, estos copagos son, respectivamente, de NZD 7,65 (USD 5,17) y NZD 0.</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ue comprendía siguientes países austria bélgica dinamarca finlandia francia alemania grecia irlanda italia luxemburgo países bajos portugal españa suecia reino unido fuente oecd health data rosstat tomadas individualmente diferentes categorías ent lesiones constituyen diez principales causas muerte federación rusa representan muertes población rusa conjunto rosstat tasas mortalidad estandarizadas smr siglas inglés enfermedades cerebrovasculares cardiopatías isquémicas doble promedio ocde diez veces mayores países ocde mejor desempeño figura</t>
+          <t>La UE15 comprendía los siguientes 15 países: Austria, Bélgica, Dinamarca, Finlandia, Francia, Alemania, Grecia, Irlanda, Italia, Luxemburgo, Países Bajos, Portugal, España, Suecia y el Reino Unido. Fuente: OECD Health Data 2010 y Rosstat. Tomadas individualmente, las diferentes categorías de ENT y lesiones constituyen las diez principales causas de muerte en la Federación Rusa y representan el 90% de las muertes en la población rusa en su conjunto (Rosstat, 2008). Las tasas de mortalidad estandarizadas (SMR, por sus siglas en inglés) por enfermedades cerebrovasculares y cardiopatías isquémicas son el doble del promedio de la OCDE y diez veces mayores que las de los países de la OCDE con mejor desempeño (Figura 3.3).</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>encontrado resultados similares estudios epidemiológicos atención primaria diferentes países ejemplo kessler et tasas tratamiento aumentan edad datos encuestas nacionales australia unidos suiza muestran tratamiento frecuente edad años particularmente bajo menores datos eurobarómetro confirman patrón mostrando aumento continuo tasas tratamiento grupos edad figura promedio países ocde personas jóvenes años adultos años personas mayores años fuente cálculos ocde basados encuestas nacionales salud prevalencia trastornos eurobarómetro tasas tratamiento</t>
+          <t>Se han encontrado resultados similares en estudios epidemiológicos y de atención primaria en diferentes países (por ejemplo, Kessler et al., Las tasas de tratamiento aumentan con la edad. Los datos de las encuestas nacionales de Australia, los Estados Unidos y Suiza muestran que el tratamiento es más frecuente en la edad 45 años y más, y particularmente bajo entre los menores de 35. Los datos del Eurobarómetro confirman este patrón, mostrando un aumento continuo de las tasas de tratamiento en todos los grupos de edad (Figura 3.4).El promedio de los 21 países de la OCDE es del 9% para las personas más jóvenes (15 -24 años), 14% para adultos (25-54 años) y 17% para personas mayores (55-64 años) Fuente: Cálculos de la OCDE basados ​​en encuestas nacionales de salud para prevalencia de trastornos y Eurobarómetro 2005 para tasas de tratamiento.</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>alemania irlanda letonia noruega eslovenia ofrecen atención oncológica centros oncológicos integrales instituciones especializadas ofrecen tratamiento cánceres específicos países canadá chile inglaterra francia hungría israel países bajos polonia portugal singapur turquía cuentan instituciones especializadas determinados tratamientos radioterapia quimioterapia cirugía dada variedad estructuras organizativas número instituciones prestan asistencia oncológica difiere país</t>
+          <t>Alemania, Irlanda, Letonia, Noruega y Eslovenia también ofrecen atención oncológica en centros oncológicos integrales y también en instituciones especializadas que ofrecen tratamiento para cánceres específicos. Otros países, como Canadá, Chile, Inglaterra, Francia, Hungría, Israel, los Países Bajos, Polonia, Portugal, Singapur y Turquía cuentan con instituciones especializadas en determinados tratamientos, como radioterapia, quimioterapia o cirugía. Dada la variedad de estructuras organizativas, el número de instituciones que prestan asistencia oncológica difiere mucho de un país a otro.</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>potencial economías frágiles producir asignar distribuir regenerar ve significativamente comprometido presencia vihsida literatura experiencia países recorrido camino dibujan panorama sombrío caribe altas tasas prevalencia sólo perjudican economía sino estancamiento económico constituye caldo cultivo ideal propagación enfermedad investigación efectos vihsida revela impacto términos costes sociales humanos económicos quizás significativo pensaba bell et</t>
+          <t>El potencial de estas economías ya frágiles para producir, asignar, distribuir y regenerar se ve significativamente comprometido en presencia del VIH/SIDA. La literatura y la experiencia de otros países que ya han recorrido este camino dibujan un panorama muy sombrío para el Caribe. Las altas tasas de prevalencia no sólo perjudican a la economía, sino que el estancamiento económico constituye un caldo de cultivo ideal para la propagación de la enfermedad. La investigación sobre los efectos del VIH/SIDA revela que su impacto en términos de costes sociales, humanos y económicos es quizás mucho más significativo de lo que se pensaba (Bell et al.,</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>si bien generalización fallas graves mercado sector atención médica significa mercados solos pueden producir resultados eficientes introducción competencia regulada áreas suministro atención médica puede mejorar elección eficiencia innovación usuario establecer separación funciones comprador proveedor centro creación mecanismos tipo mercado tales entornos comprador puede principio maximizar relación calidadprecio residentes comprando servicios médicos proveedores competidores públicos privados aunque requiere tamaño experiencia suficientes brindan opciones usuarios aunque control opciones pacientes sigue siendo estricto sistemas basados seguros opciones individuales realizadas organizaciones compras</t>
+          <t>Si bien la generalización de las fallas graves del mercado en el sector de la atención médica significa que los mercados por sí solos no pueden producir resultados eficientes, la introducción de una competencia regulada en algunas áreas del suministro de atención médica puede mejorar la elección, la eficiencia y la innovación del usuario. Establecer una separación entre las funciones de comprador y proveedor está en el centro de la creación de mecanismos de tipo mercado. Con tales entornos, el comprador puede, en principio, maximizar la relación calidad-precio para sus residentes comprando servicios médicos de proveedores competidores, ya sean públicos o privados, aunque esto requiere tamaño y experiencia suficientes. Se brindan más opciones a los usuarios, aunque el control sobre las opciones de los pacientes sigue siendo más estricto que en los sistemas basados ​​en seguros, donde las opciones son individuales y no realizadas por organizaciones de compras.</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>suma importancia determinar efectos cada factores ejerce pobreza dado crecimiento solo puede explicar alteraciones niveles pobreza tratamos desigualdad ingresos factor buscando evaluar hipótesis cuanto desigual país menos efectivo crecimiento económico reducir pobreza bourguignon últimas variables estiman aplicando modelo econométrico dinámico datos panel desarrollado arellano bond arellano bover blundel bond</t>
+          <t>Por lo tanto, es de suma importancia determinar los efectos que cada uno de estos factores ejerce sobre la pobreza. Dado que el crecimiento por sí solo no puede explicar las alteraciones en los niveles de pobreza, tratamos la desigualdad de ingresos como un factor en estos, buscando evaluar la hipótesis de que cuanto más desigual es un país, menos efectivo será el crecimiento económico para reducir la pobreza (Bourguignon, 2003). Estas últimas variables se estiman aplicando un modelo econométrico dinámico de datos de panel desarrollado por Arellano y Bond (1991), Arellano y Bover (1995) y Blundel y Bond (1998).</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>educación cuidado primera infancia eapi alta calidad pueden generar mejores resultados etapas posteriores vida ejemplo número años pasados eapi fuerte predictor nivel desempeño dentro escuelas alcanzado etapas posteriores mismo modo niños origen inmigrante niños desfavorecidos nivel mundial pueden beneficiarse máximo asistir eapi alta calidad embargo beneficios asistir ecec limitan resultados aprendizaje</t>
+          <t>Por lo tanto, la educación y el cuidado de la primera infancia (EAPI) de alta calidad pueden generar mejores resultados en las etapas posteriores de la vida. Por ejemplo, el número de años pasados ​​en la EAPI es un fuerte predictor del nivel de desempeño dentro y fuera de las escuelas alcanzado en etapas posteriores. Del mismo modo, los niños de origen inmigrante y los niños más desfavorecidos a nivel mundial pueden beneficiarse al máximo de asistir a una EAPI de alta calidad. Sin embargo, los beneficios de asistir a ECEC no se limitan a los resultados del aprendizaje.</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>estudios indican niños calle usan drogas probabilidades haber sido abusados padres tener historial arrestos ejercer trabajo sexual exponiéndolos enfermedades transmisión sexual uso indebido drogas afecta niños zonas conflicto regiones drogas utilizan instrumento involucrar retener niños jóvenes niños soldados guerras civiles conflictos armados conflictos regionales actividades terroristas</t>
+          <t>Los estudios indican que los niños de la calle que usan drogas tenían más probabilidades de haber sido abusados ​​por sus padres, tener un historial de arrestos y ejercer el trabajo sexual, exponiéndolos a enfermedades de transmisión sexual. El uso indebido de drogas también afecta a los niños en las zonas de conflicto. En algunas regiones, las drogas se utilizan como instrumento para involucrar y retener a niños y jóvenes como niños soldados en guerras civiles, conflictos armados y conflictos regionales y en actividades terroristas.</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cómo mejorar pertinencia calidad educación cómo reforzar diversificar industrias existentes mejorar capacidad absorción economía basada pyme necesario equilibrar gran atención presta actualmente atracción talentos fomento talentos país origen mejora acceso nuevos inmigrantes educación terciaria</t>
+          <t>¿Cómo mejorar la pertinencia y la calidad de la educación? ¿Cómo reforzar y diversificar las industrias existentes y mejorar la capacidad de absorción de la economía basada en las PYME? Es necesario equilibrar la gran atención que se presta actualmente a la atracción de talentos con el fomento de los talentos en el país de origen y la mejora del acceso de los nuevos inmigrantes a la educación terciaria.</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>inicio conflicto prolongada crisis siria graves consecuencias sistema educativo recursos humanos infraestructura mayo millones niños años escolarizados mientras miembros personal educativo incluidos maestros abandonaron escuelas aulas</t>
+          <t>Desde el inicio del conflicto en 2011, la prolongada crisis en Siria ha tenido graves consecuencias para el sistema educativo, tanto para los recursos humanos como para la infraestructura. Para mayo de 2018, más de 2 millones de niños de entre 5 y 17 años no estaban escolarizados, mientras que más de 180 000 miembros del personal educativo, incluidos los maestros, abandonaron las escuelas y las aulas.</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>siguiendo propuesta sen anthony shorrocks modificó índice ajustando condición normalización satisfacer axioma transferencia dar continuidad shorrocks autores propusieron índice descomposición aditiva basado índice sen índices foster greer thorbecke fgt pobreza agrega usando carencias hogares pesos privación relativa lugar orden clasificación foster greer thorbecke embargo importante señalar índice pobreza común índice recuento pobreza satisface axiomas monotonicidad transferencia mientras índice brecha pobreza satisface axioma transferencia sen axiomas importantes pobreza cuestión grado intensidad dicotomía simplificada pobreno pobre significa verdadera medida pobreza debe tener cuenta distribución pobres gravedad pobreza crisis sido ampliamente analizada efectos pobreza desigualdad larrea banco mundial</t>
+          <t>Siguiendo la propuesta de Sen, Anthony Shorrocks modificó el índice, ajustando la condición de normalización para satisfacer el axioma de transferencia y dar continuidad (Shorrocks, 1995). Estos autores propusieron un índice de descomposición aditiva basado en el índice de Sen, pero en los índices de Foster, Greer y Thorbecke (fgt) la pobreza se agrega usando las carencias de los hogares como pesos (privación relativa) en lugar de un orden de clasificación (Foster, Greer y Thorbecke , 1984). Sin embargo, es importante señalar que el índice de pobreza más común (el índice de recuento de la pobreza) no satisface los axiomas de monotonicidad y transferencia, mientras que el índice de brecha de pobreza no satisface el axioma de transferencia (Sen, 1976).3 Estos axiomas son importantes porque la pobreza es una cuestión de grado o intensidad y no una dicotomía simplificada pobre/no pobre, lo que significa que una verdadera medida de la pobreza debe tener en cuenta la distribución entre los pobres o la gravedad de la pobreza. La crisis de 1999 ha sido ampliamente analizada por sus efectos sobre la pobreza y la desigualdad (Larrea, 2004, Banco Mundial, 2005).</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>si bien esperar cambios pib per cápita ingreso promedio tiendan moverse juntos muestran encuestas importante recordar variables relacionan conceptos diferentes además existen diferencias metodológicas pueden ampliar discrepancias tipo flujos ingresos realmente miden cobertura geográfica encuestas cubren solo áreas urbanas mencionar solo deficiencias importantes ello analizó grupo hogares menores ingresos surge patrón predominante largo episodios analizados ingreso grupo disminuyó grupo total hogares</t>
+          <t>Si bien es de esperar que los cambios en el PIB per cápita y el ingreso promedio tiendan a moverse juntos, como lo muestran las encuestas, es importante recordar que estas variables se relacionan con conceptos diferentes. Además, existen diferencias metodológicas que pueden ampliar las discrepancias, como el tipo de flujos de ingresos que realmente se miden y la cobertura geográfica (algunas encuestas cubren solo áreas urbanas), por mencionar solo las deficiencias más importantes. Para ello, se analizó el grupo de hogares de menores ingresos. Surge un patrón predominante a lo largo de los episodios analizados: el ingreso de este grupo disminuyó más que el del grupo total de hogares.</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>deben informarse pruebas solidez ver si comparaciones relevantes políticas sólidas rango ponderaciones plausibles aportes estructura ponderación final incluyen políticas nacionales menudo tal presentan planes desarrollo así ejercicios participativos comunidades pobres cuestión ponderación desafiante ipm indicadores pobreza imputación precios bienes comerciales ajuste líneas pobreza rural urbana medidas pobreza monetaria</t>
+          <t>Deben informarse las pruebas de solidez, para ver si las comparaciones relevantes para las políticas son sólidas en un rango de ponderaciones plausibles. Otros aportes a la estructura de ponderación final incluyen políticas nacionales, a menudo tal como se presentan en los planes de desarrollo, así como ejercicios participativos con comunidades pobres. La cuestión de la ponderación no es más desafiante para el IPM que para otros indicadores de pobreza, como la imputación de precios de bienes no comerciales o el ajuste de las líneas de pobreza rural y urbana para medidas de pobreza monetaria.</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>estudiante pobre costa rica menos diez posibilidades llegar universidad brecha oportunidades mayor mayoría países ocde impulsores clave mejora sistemas educativos mejoran rápidamente impulso concertado expandir educación primeros años altas expectativas profesionales maestros liderazgo mejora parte escuelas sólidos sistemas información evaluación pueden guiar reforma aún logrado ganó impulso necesario costa rica papel nivelación campo juego niños familias desfavorecidas particularmente crítico</t>
+          <t>Un estudiante pobre en Costa Rica tiene menos de uno en diez posibilidades de llegar a la universidad, una brecha de oportunidades mucho mayor que en la mayoría de los países de la OCDE. Pero los impulsores clave de la mejora en los sistemas educativos que mejoran más rápidamente (un impulso concertado para expandir la educación en los primeros años, altas expectativas profesionales para los maestros, liderazgo para la mejora por parte de las escuelas y sólidos sistemas de información y evaluación que pueden guiar la reforma) aún no se han logrado. ganó el impulso necesario en Costa Rica. Su papel en la nivelación del campo de juego para los niños de las familias más desfavorecidas es particularmente crítico.</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>aumentar gasto público salud alentar participación trabajadores informales dependientes ampliará cobertura seguro salud ayudará aliviar restricciones financieras largo plazo documento organizado siguiente manera siguiente sección brindaremos descripción general desarrollo sistema atención médica vietnamita discusión actual desafíos financiamiento prestación servicios</t>
+          <t>Aumentar el gasto público en salud para alentar la participación de los trabajadores informales y sus dependientes ampliará la cobertura del seguro de salud y ayudará a aliviar las restricciones financieras a largo plazo. El documento está organizado de la siguiente manera. En la siguiente sección, brindaremos una descripción general del desarrollo del sistema de atención médica vietnamita, con una discusión sobre su estado actual y los desafíos en el financiamiento y la prestación de servicios.</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>respecto puede fortalecer marco verificar idoneidad medidas bajo rsi puede buscar coordinación actores sectores omc acuerdo sanitario fitosanitario msf omc establece normas nacionales adoptan normas estrictas internacionales normas nacionales deben justificarse científicamente ejemplo caso europa instituyó restricciones comerciales brote cólera áfrica comité msf omc deliberó restricciones incluido debate científico riesgo medidas representan salud pública resultó eliminación restricciones comerciales levantado oms omc colaboración iniciativas agenda seguridad sanitaria mundial ghsa marcha incluida herramienta evaluación externa conjunta rsi formulada oms ghsa marco multilateral liderado unidos declarado logrará objetivos menos países próximos cinco años declarado invertirá mil millones dólares países esfuerzo</t>
+          <t>Con respecto a esto, se puede fortalecer un marco para verificar la idoneidad de las medidas bajo el RSI, y se puede buscar la coordinación con actores en otros sectores, como la OMC.10 El Acuerdo Sanitario y Fitosanitario (MSF) de la OMC establece que cuando las normas nacionales se adoptan normas más estrictas que las internacionales, las normas nacionales deben justificarse científicamente. Por ejemplo, en el caso en el que Europa instituyó restricciones comerciales durante un brote de cólera en África, el Comité MSF de la OMC deliberó sobre las restricciones, incluido un debate científico sobre el riesgo que estas medidas representan para la salud pública, lo que resultó en la eliminación de las restricciones comerciales. levantado (OMS y OMC, 2002). La colaboración con iniciativas, como la Agenda de Seguridad Sanitaria Mundial (GHSA), ya está en marcha, incluida la herramienta de evaluación externa conjunta para el RSI formulada por la OMS con GHSA, un marco multilateral liderado por los Estados Unidos, que ha declarado que logrará sus objetivos en al menos 30 países durante los próximos cinco años, y ha declarado que invertirá mil millones de dólares en 17 países para este esfuerzo.</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>debe exigir profesores instituciones otorgan certificados enseñanza contacto estrecho escuelas apoyen asesoren futuros docentes práctica docente primer año escolaridad debe pedir instituciones enseñan educadores revisen periódicamente programas actualizados relevantes escuelas trabajan graduados reflejar prioridades educativas nacionales gobierno lanzó programa promover calidad formación inicial docente programa fomento calidad formación inicial docente pfid</t>
+          <t>Se debe exigir a los profesores de las instituciones que otorgan certificados de enseñanza que tengan un contacto más estrecho con las escuelas y que apoyen y asesoren a sus futuros docentes en su práctica docente y en el primer año de escolaridad. También se debe pedir a las instituciones que enseñan a los educadores que revisen periódicamente sus programas para que estén actualizados y sean relevantes para las escuelas en las que trabajan sus graduados, y para reflejar las prioridades educativas nacionales. En 2008, el gobierno lanzó su Programa para Promover la Calidad de la Formación Inicial Docente (Programa de Fomento de la Calidad de la Formación Inicial Docente, PFID).</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>medidas sector salud incluyeron reducción salarios trabajadores salud recortes gasto farmacéutico público revisión precios proveedores privados prácticas médicas objeto introducción directrices clínicas esfuerzos recientes centrado cambios mecanismos pago proveedores desarrollo evaluación tecnologías sanitarias definición lista nacional productos farmacéuticos pautas prescripción</t>
+          <t>Las medidas en el sector de la salud incluyeron una reducción en los salarios de los trabajadores de la salud, recortes en el gasto farmacéutico público y una revisión de los precios de los proveedores privados. Las prácticas médicas también fueron objeto de la introducción de directrices clínicas. Esfuerzos recientes se han centrado en cambios en los mecanismos de pago a proveedores, el desarrollo de la Evaluación de Tecnologías Sanitarias y la definición de una lista nacional de productos farmacéuticos y pautas de prescripción.</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>hogares ancianos encabezados jóvenes familias monoparentales familias fragmentadas familias numerosas corren riesgo especial pobreza países miembros ocde tendencias pronosticadas estructura familiar sugieren futuro verá mayor crecimiento tipo familias tendencias proyectadas sugieren probable continúen tasas matrimonio descenso tasas divorcio aumento aumento cohabitación mientras número nacimientos matrimonio preponderancia niños viven hogares monoparentales monoparentales parece probable aumente longevidad seguirá aumentando</t>
+          <t>Los hogares de ancianos, los encabezados por jóvenes, las familias monoparentales, las familias fragmentadas y las familias numerosas corren un riesgo especial de pobreza en muchos países miembros de la OCDE. Las tendencias pronosticadas en la estructura familiar sugieren que el futuro verá un mayor crecimiento en este tipo de familias: las tendencias proyectadas sugieren que es probable que continúen las tasas de matrimonio en descenso, las tasas de divorcio en aumento y el aumento de la cohabitación, mientras que el número de nacimientos fuera del matrimonio y la preponderancia de niños que viven en los hogares monoparentales o monoparentales parece probable que aumente. La longevidad también seguirá aumentando.</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>dos países montañosos kirguistán tayikistán vivir área gran altitud correlaciona riesgo significativamente mayor pobreza banco mundial banco mundial b posible aumento precios alimentos beneficiado hogares rurales obtienen ingresos agricultura decir aquellos productores netos alimentos embargo datos recientes tayikistán kirguistán muestran pobreza redujo menor medida zonas rurales zonas urbanas slay</t>
+          <t>En los dos países más montañosos, Kirguistán y Tayikistán, vivir en un área de gran altitud también se correlaciona con un riesgo significativamente mayor de pobreza (Banco Mundial 2009a, Banco Mundial 2009b). Es posible que el aumento de los precios de los alimentos haya beneficiado a los hogares rurales que obtienen sus ingresos de la agricultura, es decir, a aquellos que son productores netos de alimentos. Sin embargo, datos recientes sobre Tayikistán y Kirguistán muestran que entre 2007 y 2009 la pobreza se redujo en menor medida en las zonas rurales que en las zonas urbanas (Slay 2011).</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>cada vez reconocen repercusiones medio ambiente degradado salud reducción considera principales objetivos política programas normativa protección medioambiental avanzado control calidad principales medios ambientales vigilancia enfermedades infecciosas reforzado capacidad profesional materia salud pública medioambiental métodos avanzados vigilancia sanitaria evaluación riesgos</t>
+          <t xml:space="preserve">Cada vez se reconocen más las repercusiones de un medio ambiente degradado sobre la salud y su reducción se considera uno de los principales objetivos de la política, los programas y la normativa de protección medioambiental. Se ha avanzado en el control de la calidad de los principales medios ambientales y en la vigilancia de las enfermedades infecciosas. Se ha reforzado la capacidad profesional en materia de salud pública y medioambiental con métodos avanzados de vigilancia sanitaria y evaluación de riesgos. </t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>embargo resultado hospitales contrasta resultados indicadores farmacéuticos pruebas menor consumo países recortes elevados gasto indicaría países recortes elevados gasto sido capaces proteger volúmenes productos farmacéuticos consumidos documento proporcionado visión general literatura reciente examina vínculos recesiones económicas resultados sanitarios uso asistencia sanitaria resumido principales instrumentos políticos países ocde utilizado reformar sistemas sanitarios reducir gasto sanitario</t>
+          <t>Sin embargo, el resultado de los hospitales contrasta con los resultados de los indicadores farmacéuticos, en los que no hay pruebas de un menor consumo en los países con recortes elevados del gasto. Esto indicaría que los países con recortes elevados del gasto han sido capaces de proteger los volúmenes de productos farmacéuticos consumidos. Este documento ha proporcionado una visión general de la literatura reciente que examina los vínculos entre las recesiones económicas y los resultados sanitarios y el uso de la asistencia sanitaria. También ha resumido algunos de los principales instrumentos políticos que los países de la OCDE han utilizado para reformar sus sistemas sanitarios y reducir el gasto sanitario.</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>australia retos futuros modelo desglosa gasto sanitario total varios subcomponentes correspondientes combinación agentes funciones financiación función naturaleza subcomponentes cihi emplea diversas técnicas previsión van uso presupuestos públicos provisionales pura extrapolación tendencias pasadas</t>
+          <t>Australia hasta 2050: retos futuros. El modelo desglosa el gasto sanitario total en varios subcomponentes, correspondientes a una combinación de agentes y funciones de financiación. En función de la naturaleza de los subcomponentes, el CIHI emplea diversas técnicas de previsión, que van desde el uso de presupuestos públicos provisionales hasta la pura extrapolación de tendencias pasadas.</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ubicación centro escolar factores influyen distribución personal distintos niveles experiencia cualificación unidos ejemplo distritos escolares urbanos atienden poblaciones desfavorecidas enfrentan especial escasez profesores aunque existe gran variación distritos papay et menudo traduce proporción inferior media profesores experimentados altamente cualificados monk m gagnon mattingly n áreas curriculares cubiertas solo profesor profesores escasa formación específica materia</t>
+          <t xml:space="preserve">La ubicación de un centro escolar es uno de los factores que influyen en la distribución del personal con distintos niveles de experiencia y cualificación. En Estados Unidos, por ejemplo, los distritos escolares urbanos que atienden a poblaciones desfavorecidas se enfrentan a una especial escasez de profesores, aunque existe una gran variación entre distritos (Papay et al., Esto a menudo se traduce en una proporción inferior a la media de profesores experimentados y altamente cualificados (Monk, 2007(m], Gagnon y Mattingly, 2012[n4]), y en áreas curriculares cubiertas por un solo profesor y profesores con escasa formación específica en la materia. </t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>masificación internacionalización así diversificación educación superior influyen define efectivo enseñanza eficaz implica cada vez gestión exitosa contexto complejo lleva cabo aprendizaje enseñanza devlin samarawickrema criterio enseñanza efectiva ampliamente aceptado fecha aprendizaje estudiantes criterio aprendizaje estudiantes ampliamente aceptado investigación efectividad instrucción desempeño exámenes estandarizados marsh p</t>
+          <t>La masificación, la internacionalización así como la diversificación de la educación superior influyen también en lo que se define como efectivo. Por lo tanto, la enseñanza eficaz implica cada vez más la gestión exitosa del contexto complejo en el que se lleva a cabo el aprendizaje y la enseñanza (Devlin y Samarawickrema, 2010). El criterio de enseñanza efectiva más ampliamente aceptado hasta la fecha es el aprendizaje de los estudiantes y el criterio de aprendizaje de los estudiantes más ampliamente aceptado en la investigación de la efectividad de la instrucción es el desempeño en exámenes estandarizados (Marsh, 2007, p. 338).</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>tasa alfabetización adultos mide alfabetización personas años tasa alfabetización jóvenes mide alfabetización personas años cálculos agregados tasas alfabetización adultos uis recopilados registros escolares tasa supervivencia encuestas censos escolares censos nacionales población encuestas hogares fuerza laboral datos obtenidos mayo junio</t>
+          <t>La tasa de alfabetización de adultos mide la alfabetización entre personas de 15 años o más, y la tasa de alfabetización de jóvenes mide la alfabetización entre personas de 15 a 24 años. Cálculos agregados para tasas de alfabetización de adultos: UIS. Recopilados de registros escolares de tasa de supervivencia, encuestas o censos escolares, censos nacionales de población y encuestas de hogares y fuerza laboral. Datos obtenidos: mayo y junio de 2013.</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>capítulo revisa evolución educación superior chile actualidad así propuestas recientes paquetes reformas ocde recomienda capítulo chile identifique visión estrategia nivel sistema educación superior establezca infraestructura eficaz dirigir sistema educación superior refuerce equidad acceso educación superior alta calidad fortalezca calidad relevancia educación superior universidades instituciones enseñanza superior sitúan nexo creación conocimiento educación innovación crecimiento económico instituciones esenciales construir mantener capital humano cultural chile necesita transformar economía alejándose dependencia bienes primarios hacia sistema diversificado fomente inclusión social boulton lucas</t>
+          <t>Este capítulo revisa la evolución de la educación superior en Chile desde 2004 hasta la actualidad, así como las propuestas de los recientes paquetes de reformas. La OCDE recomienda en este capítulo que Chile: 1) identifique una visión y estrategia a nivel de sistema para la educación superior, 2) establezca una infraestructura eficaz para dirigir el sistema de educación superior, 3) refuerce la equidad en el acceso a una educación superior de alta calidad, y, 4) fortalezca la calidad y relevancia de la educación superior. Las universidades y otras instituciones de enseñanza superior se sitúan en el nexo entre la creación de conocimiento, la educación, la innovación y el crecimiento económico. Por lo tanto, estas instituciones son esenciales para construir y mantener el capital humano y cultural que Chile necesita para transformar su economía alejándose de la dependencia de los bienes primarios hacia un sistema diversificado que fomente la inclusión social (Boulton y Lucas, 2008).</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>atributos requeridos amplían ocasiones incluir liderazgo motivación disciplina confianza mismo autoconciencia creación redes espíritu empresarial capacidad aceptar cambio habilidades consideran genéricas transferibles considera amplia aplicación amplia gama contextos laborales trascienden materias individuales argumenta base enfoque flexible mano obra multicalificada keep payne uso promedio años escolaridad medida educativa asume implícitamente año escolaridad genera mismo incremento conocimientos habilidades independientemente sistema educativo ejemplo supone año escolaridad papua nueva guinea crea mismo aumento capital humano productivo año escolaridad japón</t>
+          <t>Estos atributos requeridos también se amplían en ocasiones para incluir liderazgo, motivación, disciplina, confianza en uno mismo, autoconciencia, creación de redes, espíritu empresarial y capacidad para aceptar el cambio. Estas habilidades se consideran genéricas o transferibles, ya que "se considera que tienen una amplia aplicación en una amplia gama de contextos laborales y que trascienden las materias individuales" y se argumenta que son la base para un enfoque "flexible" y " mano de obra "multicalificada" (Keep y Payne, 2004: 57). El uso del promedio de años de escolaridad como medida educativa asume implícitamente que un año de escolaridad genera el mismo incremento en conocimientos y habilidades, independientemente del sistema educativo. Por ejemplo, se supone que un año de escolaridad en Papua Nueva Guinea crea el mismo aumento en el capital humano productivo que un año de escolaridad en Japón.</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>dado aumento enfermedades crónicas diabetes enfoque haga hincapié prevención abordar cambiantes factores riesgo salud clave ayudar reducir ingresos hospitalarios relativamente caros futuro ideal pacientes contaran asesor confianza ayudara navegar complejo número servicios disponibles objetivo gatekeeping reforzar relación proveedores atención primaria pacientes mejorando as capacidad últimos seleccionar forma atención adecuada</t>
+          <t>Dado el aumento de enfermedades crónicas como la diabetes, un enfoque que haga hincapié en la prevención para abordar los cambiantes factores de riesgo para la salud será clave para ayudar a reducir los ingresos hospitalarios relativamente más caros en el futuro. Lo ideal sería que los pacientes contaran con un asesor de confianza que les ayudara a navegar por el complejo número de servicios disponibles. El objetivo del gatekeeping es reforzar la relación entre los proveedores de atención primaria y los pacientes, mejorando asà la capacidad de estos últimos para seleccionar la forma de atención más adecuada.</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>análisis pobreza multidimensional requiere integrar datos financieros sociales culturales ia pueden construir modelos combinen información nutrición vivienda salud educación detectando privaciones simultáneas diferentes ámbitos sistemas permiten clasificación precisa hogares pobres facilitan intervenciones adaptadas cada realidad inteligencia artificial ayuda evaluar efectividad políticas distintos territorios aportando evidencia objetiva mejorar programas sociales ello avanza hacia enfoque dinámico eficiente lucha pobreza</t>
+          <t>El análisis de la pobreza multidimensional requiere integrar datos financieros, sociales y culturales. Con IA, se pueden construir modelos que combinen información sobre nutrición, vivienda, salud y educación, detectando privaciones simultáneas en diferentes ámbitos. Estos sistemas permiten una clasificación más precisa de los hogares pobres y facilitan intervenciones adaptadas a cada realidad. La inteligencia artificial también ayuda a evaluar la efectividad de políticas en distintos territorios, aportando evidencia objetiva para mejorar los programas sociales. Con ello, se avanza hacia un enfoque más dinámico y eficiente en la lucha contra la pobreza.</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>pueden dar coherencia sistémica consolidar visión país considera buen maestro estándares profesionales describen conjunto común competencias espera buenos docentes desarrollen largo carreras oportunidad miembros profesión vinculen aún investigación práctica construyendo comprensión colegiada objetivos largo plazo medios responsabilidad basada práctica además comprensión compartida constituye buen docente puede ayudar alinear mejor aulas escuelas organizaciones nivel sistema mismo tiempo proporciona recursos necesarios docentes apoyar mejor aprendizaje estudiantes ocde kleinhenz ingvarson toledo figueroa revai guerriero</t>
+          <t>Pueden dar coherencia sistémica y consolidar la visión de lo que el país considera un buen maestro. Los estándares profesionales describen un conjunto común de competencias que se espera que los buenos docentes tengan o desarrollen a lo largo de sus carreras. Son una oportunidad para que los miembros de la profesión vinculen aún más la investigación y la práctica, construyendo una comprensión colegiada de los objetivos a largo plazo, los medios y la responsabilidad basada en la práctica. Además, esta comprensión compartida de lo que constituye un buen docente puede ayudar a alinear mejor las aulas, las escuelas y las organizaciones a nivel del sistema, al mismo tiempo que proporciona los recursos necesarios a los docentes para apoyar mejor el aprendizaje de los estudiantes (OCDE, 2010, Kleinhenz e Ingvarson, 2007, Toledo Figueroa, Revai y Guerriero, 2017).</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>estudio demostró centrarse exclusivamente imagen transversal incidencia pobreza infantil puede presentar imagen engañosa desventaja económica niños embargo bradbury et analizaron predictores transiciones pobreza infantil excepto registrar tasas salida pobreza bajas tasas entrada altas niños familias monoparentales embargo identificación determinantes clave transiciones pobreza ayuda orientar políticas mayor eficacia</t>
+          <t>El estudio demostró por qué centrarse exclusivamente en la imagen transversal de la incidencia de la pobreza infantil puede presentar una imagen engañosa de desventaja económica entre los niños. Sin embargo, Bradbury et al no analizaron los predictores de las transiciones de la pobreza infantil, excepto para registrar tasas de salida de la pobreza más bajas y tasas de entrada más altas para niños en familias monoparentales. Sin embargo, la identificación de los determinantes clave de las transiciones de la pobreza ayuda a orientar las políticas con mayor eficacia.</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>educación técnica vocacional debe fortalecerse beneficio industria regional grupos subrepresentados modelos vincular estudiantes posgrado industria local incluyen esquema asociación transferencia conocimiento reino unido mejorado competitividad empresas través introducción alguna forma innovación nueva tecnología alrededor asociados posgrado obtienen trabajos empresas universidades colegios deben concentrar esfuerzos concertados innovación impulsada desafíos temas clave región agua salud desafíos sociales derivados población multicultural utilizar región laboratorio investigación conocimiento transferir</t>
+          <t>La educación técnica y vocacional debe fortalecerse en beneficio de la industria regional y los grupos subrepresentados. Los modelos para vincular a los estudiantes de posgrado con la industria local incluyen el Esquema de Asociación de Transferencia de Conocimiento en el Reino Unido que ha mejorado la competitividad de las empresas a través de la introducción de alguna forma de innovación o nueva tecnología y alrededor del 75% de los asociados de posgrado obtienen trabajos en las empresas. . Las universidades y colegios deben concentrar sus esfuerzos concertados en la innovación impulsada por desafíos en los temas clave de la región, como el agua, la salud y los desafíos sociales derivados de la población multicultural y utilizar la región como un "laboratorio" para la investigación y el conocimiento. transferir.</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>mayoría personas años alemania obtenido cualificación profesional nivel secundario superior postsecundario cuarta proporción grande países datos disponibles promedio ocde debido alta incidencia cualificaciones profesionales hecho título general principalmente abitur dedica educación superior entrada directa mercado laboral solo adultos obtienen cualificación general secundaria superior postsecundaria grado alto proporciones bajas países ocde promedio ocde tabla tasas desempleo redujeron puntos porcentuales adultos educación secundaria superior puntos porcentuales educación secundaria superior postsecundaria terciaria puntos porcentuales título terciario</t>
+          <t>La mayoría de las personas de 25 a 64 años en Alemania (55 %) han obtenido una cualificación profesional en el nivel secundario superior o postsecundario, la cuarta proporción más grande entre los países con datos disponibles (el promedio de la OCDE es del 33 %). Debido a la alta incidencia de cualificaciones profesionales y al hecho de que un título general (principalmente Abitur) se dedica a la educación superior y no a la entrada directa en el mercado laboral, solo el 3 % de los adultos obtienen una cualificación general de secundaria superior o postsecundaria como grado más alto, una de las proporciones más bajas entre los países de la OCDE (el promedio de la OCDE es del 12 %) (Tabla Al. Entre 2005 y 2012, las tasas de desempleo se redujeron en 7 puntos porcentuales entre los adultos sin educación secundaria superior (del 20,1 % al 12,8 %) , en 6 puntos porcentuales entre los que tienen educación secundaria superior o postsecundaria no terciaria (del 11,0 % al 5,3 %) y en 3 puntos porcentuales entre los que tienen un título terciario (del 5,6 % al 2,4 %).</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>número muertes infantiles estimadas región millones representa alrededor número total muertes infantiles mundo medida disminuido mortalidad niños mayores mortalidad neonatal aumentado proporción todas muertes menores años términos mortalidad neonatal seis países tasas superiores muertes cada nacidos vivos saber afganistán pakistán india myanmar nepal bangladesh</t>
+          <t>En 2011, el número de muertes infantiles estimadas en la región fue de 2,36 millones, lo que representa alrededor del 46% del número total de muertes infantiles en todo el mundo. A medida que ha disminuido la mortalidad entre los niños mayores, la mortalidad neonatal ha aumentado como proporción de todas las muertes de menores de 5 años. En términos de mortalidad neonatal, seis países tienen tasas superiores a 25 muertes por cada 1.000 nacidos vivos, a saber, Afganistán (36,2), Pakistán (35,6), India (32,3), Myanmar (29,9), Nepal (27,0) y Bangladesh (26,4).</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>científico francés siglo xix claude bernard escribió ciencia salón soberbio deslumbrante solo puede llegar atravesando cocina larga espantosa osborne simon collins escribiendo siglo después comenta ironía esencial disciplina ofrece liberación intelectual cadenas sabiduría recibida educación ofrece autoritaria dogmática reflexiva diferencias países enseñanza ciencias asociación desempeño estudiantes interés carrera relacionada ciencias presentan capítulo volumen ii mayoría países economías probable estudiantes entornos aventajados esperen carrera ciencias incluso estudiantes desempeñan manera similar ciencias reportaron disfrute similar aprender ciencias sugerido varias acciones cerrar brecha género manera general alentar jóvenes especialmente aquellos grupos ahora subrepresentados campos relacionados ciencia participar estudios trabajos relacionados ciencia</t>
+          <t>El científico francés del siglo XIX, Claude Bernard, escribió que la ciencia es un "salón soberbio y deslumbrante, pero al que solo se puede llegar atravesando una cocina larga y espantosa".2 Osborne, Simon y Collins (2003), escribiendo más de un siglo después, comenta que "La ironía esencial de una disciplina que ofrece la liberación intelectual de las cadenas de la sabiduría recibida es que la educación que ofrece es autoritaria, dogmática y no reflexiva". (Las diferencias entre países en la enseñanza de las ciencias y su asociación con el desempeño de los estudiantes y el interés en una carrera relacionada con las ciencias se presentan en el Capítulo 2 del Volumen II.) En la mayoría de los países y economías, es más probable que los estudiantes de entornos aventajados esperen una carrera en ciencias, incluso entre los estudiantes que se desempeñan de manera similar en ciencias y que reportaron un disfrute similar de aprender ciencias. Se han sugerido varias acciones para cerrar esta brecha de género y, de manera más general, para alentar a más jóvenes, especialmente aquellos de grupos que ahora están subrepresentados en campos relacionados con la ciencia, a participar en más estudios y trabajos relacionados con la ciencia.</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>comienza revisando actual familias bajos ingresos cómo cambiado últimas décadas factores impulsado cambios luego analiza influencia política familias bajos ingresos variaciones países examinando papel impuestos transferencias instituciones políticas hacia familias niños luego analiza tres temas específicos familias pobres persistencia pobreza experiencia jóvenes migración</t>
+          <t>Comienza revisando el estado actual de las familias de bajos ingresos, cómo han cambiado en las últimas décadas y los factores que han impulsado estos cambios. Luego analiza la influencia que la política ha tenido en las familias de bajos ingresos y las variaciones entre países, examinando el papel de los impuestos y las transferencias, las instituciones y las políticas hacia las familias con niños. Luego analiza tres temas específicos para las familias pobres: la persistencia de la pobreza, la experiencia de los jóvenes y la migración.</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>introdujo nuevo objetivo relacionado lograr empleo pleno productivo trabajo decente incluidas mujeres jóvenes propósito definieron cuatro indicadores oficiales implican medir tasa crecimiento productividad trabajador porcentaje población empleada porcentaje trabajadores extrema pobreza proporción trabajadores empleos inestables inseguros trabajadores vulnerables además hizo explícita recomendación monitorear tendencias pobreza utilizando líneas nacionales pobreza indicador anterior reemplazado mide supervivencia último grado educación primaria proporción alumnos comienzan primer grado llegan último grado primaria</t>
+          <t>Se introdujo un nuevo objetivo, relacionado con “Lograr empleo pleno y productivo y trabajo decente para todos, incluidas mujeres y jóvenes”. Para ese propósito se definieron cuatro indicadores oficiales, que implican medir la tasa de crecimiento de la productividad por trabajador, el porcentaje de la población empleada, el porcentaje de trabajadores en extrema pobreza y la proporción de trabajadores con empleos inestables e inseguros (“trabajadores vulnerables”). Además, se hizo explícita la recomendación de monitorear las tendencias de pobreza utilizando las líneas nacionales de pobreza. El indicador anterior fue reemplazado por uno que mide la supervivencia hasta el último grado de la educación primaria (proporción de alumnos que comienzan primer grado y llegan al último grado de primaria).</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>además reciente estrategia educar nueva ciudadanía educar nueva ciudadanía objetivo garantizar competencias clave ejemplo desarrollo sostenible digitalización ciudadanía global local aborden transversalmente todas materias plan estudios embargo ambicioso contexto sistema escolar costa rica currículo completo solo puede aplicar escuelas abiertas día completo docentes recibido poca capacitación cambiar estilo enseñanza aprender evaluar competencias momento proporcionado recursos enseñanza aprendizaje limitados ayudarlos tareas ver capítulo</t>
+          <t>Además, la reciente estrategia Educar para una Nueva Ciudadanía (Educar para una Nueva Ciudadanía) tiene como objetivo garantizar que las competencias clave (por ejemplo, desarrollo sostenible, digitalización, ciudadanía global y local) se aborden transversalmente en todas las materias del plan de estudios. Sin embargo, también es muy ambicioso en el contexto del sistema escolar de Costa Rica. El currículo completo solo se puede aplicar en las escuelas que están abiertas durante un día completo, los docentes han recibido poca capacitación para cambiar su estilo de enseñanza o aprender a evaluar competencias hasta el momento, y se han proporcionado recursos de enseñanza y aprendizaje limitados para ayudarlos en estos tareas (ver Capítulo 4).</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>programas diseñados específicamente aumentar habilidades sociales emocionales escuelas mostrado resultados positivos corto plazo rara vez evaluaciones rigurosas largo plazo pocos disponibles principalmente dirigidos niños desfavorecidos mostrado efectos duraderos desarrollo habilidades sociales emocionales programas exitosos intervención primera infancia involucran directamente niños padres tienden incluir capacitación padres sesiones asesoramiento tutoría</t>
+          <t>Los programas diseñados específicamente para aumentar las habilidades sociales y emocionales en las escuelas han mostrado resultados positivos a corto plazo, pero rara vez hay evaluaciones rigurosas a largo plazo. Los pocos disponibles, principalmente dirigidos a niños desfavorecidos, han mostrado efectos duraderos en el desarrollo de habilidades sociales y emocionales. Los programas exitosos de intervención en la primera infancia involucran directamente a niños y padres, y tienden a incluir capacitación para padres, sesiones de asesoramiento y tutoría.</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>membresía refleja actores relevantes sistema educativo inspectores escolares organizadores escolares investigadores sindicatos docentes representantes padres participación profesionales docentes personal educativo sindicatos producción interpretación traducción evidencia investigación políticas puede dar profesionales fuerte propiedad fortalecer confianza proceso reforma interacciones regulares ayudan generar confianza aumentar conciencia preocupaciones demás creando clima compromiso</t>
+          <t>Su membresía refleja a todos los actores relevantes en el sistema educativo: inspectores escolares, organizadores escolares, investigadores, sindicatos de docentes y representantes de los padres. La participación de los profesionales (docentes, otro personal educativo y sus sindicatos) en la producción, interpretación y traducción de la evidencia de la investigación en políticas puede dar a estos profesionales un fuerte sentido de propiedad y fortalecer su confianza en el proceso de reforma. Las interacciones regulares ayudan a generar confianza y aumentar la conciencia sobre las preocupaciones de los demás, creando un clima de compromiso.</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>marco objeto fortalecer capacidad liderazgo directores escuela docentes puede utilizar varias formas p autoevaluación revisiones desempeño desarrollo selección líderes escolares entrenamiento tutoría inducción planificación liderazgo marco liderazgo victoria abre nuevos caminos ser aplicable liderazgo toda escuela niveles escuela mostrando dónde encuentra maestro líder escolar continuo liderazgo necesitan saber poder hacer mejorar</t>
+          <t>El marco tiene por objeto fortalecer la capacidad de liderazgo de los directores de escuela y los docentes. Se puede utilizar de varias formas, p. para la autoevaluación, las revisiones de desempeño y desarrollo, la selección de líderes escolares, el entrenamiento y la tutoría y la inducción y planificación del liderazgo. El marco de liderazgo de Victoria abre nuevos caminos al ser aplicable al liderazgo en toda la escuela en todos los niveles de la escuela, mostrando dónde se encuentra un maestro o líder escolar en un continuo de liderazgo y lo que necesitan saber y poder hacer para mejorar. .</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>impulsores aumentos costos diferenciales productividad efecto baumol avances tecnología médica expectativas público cierto punto control formuladores políticas falta contención costos daría lugar impuestos contribuciones sociales altos reducción oferta servicios públicos deterioro calidad servicios salud mayores pagos bolsillo parte hogares combinación resultados indeseables remuneraciones personal salud pública bajas según estándares internacionales relaciona hecho gran mayoría asalariada sector público compresión remuneraciones modelo social nórdico gráfico panel c d fuerte reducción número estudiantes medicina principios década medida aumentaba desempleo médicos provocó escasez posterior reduciendo lentamente escasez general médicos centros salud municipales estimó frente región afectada fma</t>
+          <t>Algunos impulsores de los aumentos de costos, como los diferenciales de productividad (efecto Baumol), los avances en tecnología médica y las expectativas del público están, hasta cierto punto, fuera del control de los formuladores de políticas. La falta de contención de costos daría lugar a impuestos o contribuciones sociales más altos, una reducción en la oferta de otros servicios públicos, un deterioro de la calidad de los servicios de salud, mayores pagos de bolsillo por parte de los hogares o una combinación de estos resultados indeseables. Las remuneraciones del personal de salud pública son bajas según los estándares internacionales, lo que se relaciona con el hecho de que la gran mayoría es asalariada del sector público y con la compresión de las remuneraciones en el modelo social nórdico (Gráfico 2.9, Panel C y D). Una fuerte reducción del número de estudiantes de medicina a principios de la década de 1990, a medida que aumentaba el desempleo entre los médicos, provocó una escasez posterior, que se está reduciendo lentamente. La escasez general de médicos en los centros de salud municipales se estimó en un 6% en 2011 (frente al 11% en 2008), pero hasta un 22% en la región más afectada (FMA, 2011).</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ayudar niñas niños desarrollar hábito leer placer da frutos largo años escolares estudiantes allá embargo niños leen placer malos lectores iniciativas objetivo mejorar habilidades lectura desafiando animando estudiantes leer mientras centran concienciar padres beneficios lectura animarlos participar actividades lectura hijos</t>
+          <t>Ayudar a niñas y niños a desarrollar el hábito de leer por placer da sus frutos a lo largo de los años escolares de los estudiantes y mucho más allá. Sin embargo, muchos niños no leen por placer y son malos lectores. Algunas de estas iniciativas tienen como objetivo mejorar las habilidades de lectura desafiando y animando a los estudiantes a leer más, mientras que otras se centran en concienciar a los padres sobre los beneficios de la lectura y animarlos a participar en actividades de lectura con sus hijos.</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>debido mayor cantidad material encuesta prueba campo talis implementó diseño cuestionario rotativo requería tamaño muestra país docentes directores escuelas muestreadas nivel básico cine cada opción internacional cada participante debía realizar prueba campo incluida administración todas versiones idiomas acordadas acuerdo procedimientos estandarizados implementaron estándares técnicos correspondientes medidas control calidad basadas implementadas talis garantizar implementación estudio produzca datos comparables datos</t>
+          <t>Debido a la mayor cantidad de material de la encuesta de prueba de campo en TALIS 2018, se implementó un diseño de cuestionario rotativo que requería un tamaño de muestra por país de 600 docentes y 30 directores de 30 escuelas muestreadas para el nivel básico de CINE 2 y cada opción internacional. Cada participante debía realizar esta prueba de campo, incluida la administración de todas las versiones de idiomas acordadas de acuerdo con los procedimientos estandarizados. Se implementaron estándares técnicos y las correspondientes medidas de control de calidad basadas en las implementadas en TALIS 2013 para garantizar que la implementación del estudio de 2018 produzca datos comparables con los datos de 2013.</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>así sólo importancia indicadores identificar pobres sino indicadores fácilmente disponibles encuestas realizadas región cierto medición pobreza multidimensional integral requiere datos aspectos nutricional salud situación laboral personas propuesta aspectos bienestar deberían capturarse medición pobreza multidimensional véase santos información disponible número suficiente países región significa lado vivienda proporciona protección frente diversos factores ambientales ejemplo lluvia humedad etc así observa vivienda deficiente garantiza aislamiento suficiente frente factores naturales sociales elementos</t>
+          <t>Esto es así no sólo por la importancia de estos indicadores para identificar a los pobres, sino también porque son los indicadores más fácilmente disponibles en las encuestas realizadas en la región. Es cierto que una medición de la pobreza multidimensional más integral requiere datos sobre otros aspectos, como el estado nutricional, el estado de salud y la situación laboral de las personas (para una propuesta sobre los aspectos del bienestar que deberían capturarse en una medición de la pobreza multidimensional, véase Santos , 2013), pero esta información no está disponible para un número suficiente de países de la región. Esto significa, por un lado, que la vivienda no proporciona protección frente a diversos factores ambientales (por ejemplo, lluvia, humedad, etc.). Así, se observa que una vivienda es deficiente cuando no garantiza un aislamiento suficiente frente a los factores naturales y sociales. elementos.</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>importante contar sólidos estándares enseñanza concentrar acreditación factores contribuyen educación inicial alta calidad incluye solo sólido conocimiento específico materia sino formación pedagógica oportunidades práctica reflexión ocde mínimo requisito acreditación debe ser instituciones publiquen proporción graduados obtienen puestos permanentes podría ayudar estudiantes tomar decisiones informadas universidad asistir reducir demanda eventualmente oferta proveedores baja calidad mep debe trabajar proveedores elevar nivel ingreso programas fin identificar estudiantes habilidades básicas altas motivados enseñar diferencia países ocde costa rica cuenta ningún programa incentivar estudiantes talentosos ingresar profesión docente</t>
+          <t>Será importante contar con sólidos estándares de enseñanza para concentrar la acreditación en los factores que contribuyen a una educación inicial de alta calidad, lo que incluye no solo un sólido conocimiento específico de la materia, sino también una formación pedagógica con oportunidades para la práctica y la reflexión (OCDE, 2005). Como mínimo, un requisito de acreditación debe ser que las instituciones publiquen la proporción de graduados que obtienen puestos permanentes. Esto podría ayudar a los estudiantes a tomar decisiones más informadas sobre a qué universidad asistir y reducir la demanda y, eventualmente, la oferta de proveedores de baja calidad. El MEP también debe trabajar con los proveedores para elevar el nivel de ingreso a los programas a fin de identificar a los estudiantes con habilidades básicas más altas y que estén motivados para enseñar. A diferencia de muchos países de la OCDE, Costa Rica no cuenta con ningún programa para incentivar a los estudiantes talentosos a ingresar a la profesión docente.</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>explicando razón comían alimentos inseguros encuestado dijo barato comer bollo comprado hacerlo casa pobres vivir alimentos deberían preocuparse frescura higiene buen número personas admitió haber diarrea mientras declaró haber vomitado declaró haber diarrea vómitos causados comida comprada hecho privaciones pobres urbanos peores pobres rurales</t>
+          <t>Explicando la razón por la que comían alimentos inseguros, un encuestado dijo que era más barato comer un bollo comprado que hacerlo en casa y que los pobres tenían que vivir con estos alimentos y no deberían preocuparse por su frescura o higiene. Un buen número de personas (23%) también admitió haber tenido diarrea, mientras que el 8% declaró haber vomitado y otro 8% declaró haber tenido tanto diarrea como vómitos causados por la comida comprada. De hecho, las privaciones de los pobres urbanos son peores que las de los pobres rurales.</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>proyecto implantación epict sistema educativo austriaco lleva cabo otoño informe nacional dedicado austria actualizado revisado última vez agosto especifica implantación afecta formación inicial permanente profesorado sistema basará procesos existentes acreditación cursos funcionan estableciendo procesos comunes acreditación estándares nacionales graduados especificando conocimientos competencias necesitan graduados incluidas competencias conocimiento tic así tecnologías enseñanza universidad tasmania unidad usos educativos tecnología información forma parte titulaciones magisterio</t>
+          <t>El proyecto de implantación de la EPICT en el sistema educativo austriaco se lleva a cabo desde el otoño de 2007. El informe nacional dedicado a Austria2 (actualizado y revisado por última vez en agosto de 2008) especifica que esta implantación afecta tanto a la formación inicial como a la permanente del profesorado. Este sistema se basará en los procesos existentes de acreditación de cursos que funcionan en algunos estados, estableciendo procesos comunes de acreditación y estándares nacionales para los graduados, y especificando los conocimientos y competencias que necesitan los graduados, incluidas las competencias de conocimiento de las TIC, así como otras tecnologías en la enseñanza. En la Universidad de Tasmania, una unidad sobre los usos educativos de la tecnología de la información forma parte de las titulaciones de magisterio.</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ministerio educación bangladesh fines década gobierno puso gran énfasis mejora sistema educación primaria intento aumentar tasa alfabetización momento emprendió plan importante establecer escuela primaria cada personas bangladesh educación superior asimismo tres corrientes general ciencias puras aplicadas artes negocios ciencias sociales madraza educación tecnológica incluye agricultura ingeniería medicina tecnología textil cuero tecnología información comunicación tic ministerio educación bangladesh</t>
+          <t>Ministerio de Educación de Bangladesh, 2012). A fines de la década de 1980, el gobierno puso gran énfasis en la mejora del sistema de educación primaria en un intento por aumentar la tasa de alfabetización; en ese momento se emprendió un plan importante para establecer una escuela primaria por cada 2000 personas en Bangladesh. La educación superior, asimismo, tiene tres corrientes: general (ciencias puras y aplicadas, artes, negocios y ciencias sociales), Madraza y educación tecnológica, que incluye agricultura, ingeniería, medicina, tecnología textil, del cuero y tecnología de la información y la comunicación (TIC). (Ministerio de Educación de Bangladesh, 2004).</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>resultados modelos costos atención salud utilizan pronosticar gastos salud futuros función características salud futura población anciana proyectada dos componentes modelo fem gastos per cápita calculan cada cuatro categorías pago gastos proyectados términos reales corresponden dólares</t>
+          <t>Los resultados de los modelos de costos de atención de la salud se utilizan para pronosticar los gastos de salud futuros en función de las características y el estado de salud de la futura población anciana proyectada de los otros dos componentes del modelo FEM. Los gastos per cápita también se calculan para cada una de estas cuatro categorías de pago. Todos los gastos proyectados son en términos reales que corresponden a dólares de 1998.</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>siguiendo ejemplos austria podrían ofrecer campamentos idiomas niños años dado hijos padres inmigrantes refugiados beneficiarían considerablemente centros ocio acceso padres útil importante hacer campamentos verano municipios accesibles estudiantes independientemente situación económica dado hijos padres inmigrantes refugiados beneficiarían considerablemente centros ocio acceso padres beneficioso independientemente situación familia</t>
+          <t>Siguiendo los ejemplos de Austria, se podrían ofrecer campamentos de idiomas a niños de 6 años o más. Dado que los hijos de padres inmigrantes y refugiados se beneficiarían considerablemente de los centros de ocio, el acceso a todos los padres sería útil. Es importante hacer que los campamentos de verano en todos los municipios sean accesibles para todos los estudiantes, independientemente de su situación económica. Dado que los hijos de padres inmigrantes y refugiados se beneficiarían considerablemente de los centros de ocio, el acceso a todos los padres sería beneficioso independientemente de la situación de la familia.</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>medicina moderna sido llamada medicina convencional mm medicina alopática medicina convencional medicina moderna medicina ortodoxa medicina tradicional medicina occidental medicina clínica implica enfoque atención salud practicado países desarrollados basado datos científicos diagnosticar tratar enfermedades mm supone fenómenos fisiológicos patológicos pueden explicar términos concretos herramientas mm incluyen sistemas modelo humanos estudios ciegos estadísticas análisis asegurar resultados reproducibles</t>
+          <t>La medicina moderna también ha sido llamada medicina convencional (MM), medicina alopática, medicina convencional, medicina moderna, medicina ortodoxa, medicina tradicional. Medicina occidental o medicina clínica. Implica el enfoque de la atención de la salud practicado en los países desarrollados, basado en datos científicos para diagnosticar y tratar enfermedades, MM supone que todos los fenómenos fisiológicos y patológicos se pueden explicar en términos concretos, las herramientas de MM incluyen sistemas modelo no humanos, estudios ciegos y estadísticas análisis para asegurar resultados reproducibles.</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>lado proveedor proceso aumento autonomía local debería emprenderse pasos incrementales dependerá sólida gestión desempeño podría comenzar transformación hospitales seleccionados organizaciones financiadas prospectivamente gerentes cierta autonomía decisiones día día digamos principalmente gestión financiera bajo objetivos desempeño acordados monitoreados pagador repss ejemplo sistema podría evolucionar tarde hacia modelo organizaciones corporatizadas mayor autonomía hospitales mantienen estatus público similar foundation trusts creadas reino unido hospitales públicos operan empresas estatales sistemas salud</t>
+          <t>Por el lado del proveedor, el proceso de aumento de la autonomía local debería emprenderse en pasos incrementales y dependerá de una sólida gestión del desempeño. Podría comenzar con la transformación de hospitales seleccionados en organizaciones financiadas prospectivamente, donde los gerentes tienen cierta autonomía para las decisiones del día a día (digamos, principalmente gestión financiera) bajo objetivos de desempeño acordados monitoreados por el pagador (REPSS, por ejemplo). Este sistema podría evolucionar más tarde hacia un modelo de organizaciones corporatizadas con mayor autonomía pero donde los hospitales mantienen su estatus público, similar a las Foundation Trusts creadas en el Reino Unido, o los hospitales públicos que operan como empresas estatales en otros sistemas de salud.</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>buscar apoyo comunidad general incluidas iglesias empleadores clubes deportivos grupos servicio social trabajando agencias gubernamentales incluidos ministerios desarrollo social salud asuntos islas pacífico puni kokiri desarrollo maorí trabajar escuelas áreas socioeconómicas bajas identificar llegar niños participan ecec</t>
+          <t>Buscar el apoyo de la comunidad en general, incluidas las iglesias, los empleadores, los clubes deportivos y los grupos de servicio social. Trabajando con otras agencias gubernamentales, incluidos los Ministerios de Desarrollo Social, Salud, Asuntos de las Islas del Pacífico y Te Puni Kokiri (Desarrollo Maorí). Trabajar con escuelas en áreas socioeconómicas bajas para identificar y llegar a los niños que no participan en ECEC.</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>asignaciones presupuestarias salarios maestros personal administrativo apoyo escolar cubren año incluidos meses vacaciones escolares maestros personal administrativo apoyo escolar contratan realizar responsabilidades educativas días año educativo actual posible año escolar prolongado genere costos instrucción directos adicionales necesitaría gasto público adicional respaldar año instrucción prolongado incluido mantenimiento transporte costos educativos sufragados principalmente municipios dado niños seis años reciben educación cuidados primera infancia proporcionados gráfico opción afectaría negativamente vida familiar</t>
+          <t>Las asignaciones presupuestarias para los salarios de los maestros, personal administrativo y de apoyo escolar cubren todo el año, incluidos los meses de vacaciones escolares, y los maestros y el personal administrativo y de apoyo escolar se contratan para realizar sus responsabilidades educativas durante más días que el año educativo actual. Por lo tanto, es posible que un año escolar prolongado no genere costos de instrucción directos adicionales. Se necesitaría un gasto público adicional para respaldar un año de instrucción prolongado, incluido el mantenimiento, el transporte y otros costos no educativos, y estos serían sufragados principalmente por los municipios. Dado que el 96 % de los niños de seis años ya reciben educación y cuidados de la primera infancia proporcionados por el Estado (gráfico 2.8), esta opción no afectaría negativamente a la vida familiar.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>embargo gracias proyecto servicios médicos ahora responden presentan síntomas mejorado accesibilidad médica prescribe tratamiento pacientes cambios contribuyendo así mejora salud general ver figura según encuesta final proyecto participantes mostró satisfecho servicio general ciento dijo servicio ayudó mejorar salud brindó atención calidad posible respuesta emergencia médicos medio tiempo respondiendo lejos través dispositivos telemedicina seguimiento pacientes proyecto piloto amplió nivel nacional fines hogares ancianos camas hyun yang proyecto investigó efectos estilos vida promueven salud personas mayores salud sentimientos depresión calidad vida</t>
+          <t>Sin embargo, gracias a este proyecto, los servicios médicos ahora responden cuando se presentan síntomas, se ha mejorado la accesibilidad médica y se prescribe tratamiento a los pacientes cuando hay cambios en su estado, contribuyendo así a la mejora de su salud en general (ver figura 8). Según la encuesta final del proyecto, el 87,9 % de los participantes se mostró satisfecho con el servicio en general. Y el 90,0 por ciento dijo que el servicio ayudó a mejorar su salud. Se brindó atención de calidad y fue posible la respuesta de emergencia, con los médicos de medio tiempo respondiendo desde lejos a través de los dispositivos de telemedicina y el seguimiento de sus pacientes. El proyecto piloto se amplió a nivel nacional a fines de 2016 a hogares de ancianos con más de 70 camas (Hyun y Yang, 2004). El proyecto investigó los efectos de los estilos de vida que promueven la salud de las personas mayores en su estado de salud, sentimientos de depresión y calidad de vida.</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>usando enfoque basado computadora sido posible registrar sentimientos reacciones decisiones estudiantes largo curso tarea aprendizaje evidente software interactivo brinda gran potencial investigación educativa investigue profundamente forma estudiantes interactúan tareas estudios demuestran capacidad tic proporcionar información secuencias siguen estudiantes completan tarea</t>
+          <t>Usando el enfoque basado en computadora, ha sido posible registrar los sentimientos, reacciones y decisiones de los estudiantes a lo largo del curso de la tarea de aprendizaje. Es evidente que el software interactivo como este brinda un gran potencial para que la investigación educativa investigue más profundamente la forma en que los estudiantes interactúan con las tareas. Estos estudios demuestran la capacidad de las TIC para proporcionar información sobre las secuencias que siguen los estudiantes cuando completan una tarea.</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>mismo modo dinamarca prevé mayor mejor coherencia formación educación inicial docentes personal eapi enfoque común garantizará coherencia mejores oportunidades cooperación eapi escuela véase capítulo embargo equipos trabajo siempre garantizan cooperación señala informe inspección escolar sueca inspección escolar sueca mismos celos profesionales falta comprensión descritos anteriormente pueden obstruir cooperación incluso dentro equipos trabajo</t>
+          <t>Del mismo modo, Dinamarca prevé una mayor y mejor coherencia en la formación y educación inicial de los docentes y el personal de EAPI. Este enfoque común garantizará tanto la coherencia como mejores oportunidades de cooperación entre la EAPI y la escuela (véase el Capítulo 3). Sin embargo, los equipos de trabajo no siempre garantizan la cooperación (como se señala en el informe de la inspección escolar sueca (Inspección Escolar Sueca, 2015)). Los mismos celos profesionales y la falta de comprensión descritos anteriormente pueden obstruir la cooperación, incluso dentro de los equipos de trabajo.</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>personas gastos bolsillo suponen media ingresos medios anuales zonas rurales incluso nuevo sistema seguros mayor parte década número visitas centros médicos hospitales municipios ido disminuyendo mientras zonas urbanas existía institución similar dos nuevos regímenes basados seguro acompañaron estrategia orientar población hacia centros existentes municipios crear nuevos centros sanitarios comunitarios urbanos nivel comité barrio</t>
+          <t xml:space="preserve">Para esas personas, los gastos de bolsillo suponen una media del 78% de los ingresos medios anuales en las zonas rurales, incluso con el nuevo sistema de seguros. Durante la mayor parte de la década hasta 2003, el número de visitas a los centros médicos (hospitales) de los municipios había ido disminuyendo, mientras que en las zonas urbanas no existía una institución similar. Los dos nuevos regímenes basados en el seguro se acompañaron de una estrategia para orientar a la población hacia los centros existentes en los municipios y crear nuevos centros sanitarios comunitarios urbanos a nivel de comité de barrio. </t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>además transferencias efectos beneficiosos aunque pequeños tasas participación escolar laboral niños además además política transferencias monetarias subsidio comedores escolares costo relativamente bajo trae beneficios bastante considerables frente crisis especialmente alivio pobreza calórica mientras dos políticas bastante ineficaces independientemente dimensión pobreza considera traducción inglés nathan weatherdon</t>
+          <t>Además, estas transferencias tienen efectos beneficiosos, aunque pequeños, en las tasas de participación escolar y laboral de los niños. Además, además de la política de transferencias monetarias, el subsidio a los comedores escolares tiene un costo relativamente bajo pero trae beneficios bastante considerables frente a la crisis, especialmente en el alivio de la pobreza calórica, mientras que las otras dos políticas son bastante ineficaces, independientemente de la dimensión de la pobreza. se considera. Traducción al inglés de Nathan Weatherdon.</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>momento reformas sistema salud principios década esperaba nuevo sistema seguro conduciría mejor acceso atención datos disponibles sugieren nivel agregado gasto privado ido aumento capítulo señaló tales problemas pueden surgir ejemplo necesita nivel mínimo provisión áreas rurales aunque costo calidad atenderían mejor hospitales grandes unidades policlínicas</t>
+          <t>En el momento de las reformas al sistema de salud a principios de la década de 1990, se esperaba que el nuevo sistema de seguro conduciría a un mejor acceso a la atención. Los datos disponibles sugieren que el nivel agregado de gasto privado ha ido en aumento (Capítulo 1). Como se señaló, tales problemas pueden surgir, por ejemplo, cuando se necesita un nivel mínimo de provisión en áreas rurales, aunque el costo y la calidad se atenderían mejor en hospitales más grandes o unidades policlínicas.</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>según datos ministerio infancia educación igualdad género número pedagogos folkeskole aumentó ministerio infancia educación igualdad género dinamarca b maestros escuelas privadas organizados sindicato separado toman parte negociaciones maestros trabajan folkeskole históricamente condiciones laborales docentes folkeskole determinado negociaciones sindicato docentes lgdk</t>
+          <t>Según datos del Ministerio de Infancia, Educación e Igualdad de Género, el número de pedagogos en la Folkeskole aumentó de 3 961 en 2010/11 a 5 785 en 2013/14 (Ministerio de Infancia, Educación e Igualdad de Género de Dinamarca, 2016b). Los maestros de escuelas privadas están organizados en un sindicato separado y no toman parte en las negociaciones para los maestros que trabajan en la Folkeskole. Históricamente, las condiciones laborales de los docentes en la Folkeskole se han determinado en negociaciones entre el sindicato de docentes y la LGDK.</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>documentos políticas nacionales directrices curriculares nacionales eapi escuela primaria seguimiento transiciones parte inspecciones pueden respaldar calidad prácticas transición garantizar calidad uniforme diferentes entornos escuelas encuestas padres herramienta común seguidas métodos seguimiento niños ejemplo carpetas informes desarrollo infantil evaluaciones desarrollo</t>
+          <t>Los documentos de políticas nacionales (como las directrices curriculares nacionales tanto para la EAPI como para la escuela primaria) o el seguimiento de las transiciones como parte de las inspecciones pueden respaldar la calidad de las prácticas de transición y garantizar que la calidad sea más uniforme en diferentes entornos o escuelas. Las encuestas a los padres son la herramienta más común, seguidas de los métodos de seguimiento de los niños (por ejemplo, carpetas, informes de desarrollo infantil o evaluaciones del desarrollo).</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>iniciativas contribuido gran medida sensibilizar opinión pública evaluación desarrollar cultura evaluación sistemas escolares incluye evaluaciones nacionales alumnos etapas educativas clave serie encuestas usuarios portal escolar internet serie herramientas autoevaluación centros escolares ejemplo pruebas mapeo diagnóstico creación desarrollo nkvs responsables políticos pretendían desplazar atención políticas insumos procesos centrarse resultados educación nusche et</t>
+          <t>Estas iniciativas han contribuido en gran medida a sensibilizar a la opinión pública sobre la evaluación y a desarrollar una cultura de la evaluación en los sistemas escolares. Incluye evaluaciones nacionales de los alumnos en etapas educativas clave, una serie de encuestas a los usuarios, un portal escolar en Internet y una serie de herramientas para la autoevaluación de los centros escolares (por ejemplo, "pruebas de mapeo" de diagnóstico). Con la creación y el desarrollo de la NKVS, los responsables políticos pretendían desplazar la atención de las políticas de los insumos y los procesos para centrarse más en los resultados de la educación (Nusche et al...,</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>manera similar turquía logrado reducción promedio alta anual mortalidad infantil seguida ocde corea anual portugal anual protección financiera mejorado gasto público salud ahora representa gasto total salud ligeramente encima promedio ocde</t>
+          <t>De manera similar, Turquía ha logrado la reducción promedio más alta del 6,9 % anual en la mortalidad infantil entre 1970 y 2011, seguida en la OCDE por Corea (6,4 % anual) y Portugal (6,8 % anual). La protección financiera también ha mejorado mucho. El gasto público en salud ahora representa el 73% del gasto total en salud, ligeramente por encima del promedio de la OCDE del 72%.</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>países bajos presentan tasas incidencia bajas cuanto pobreza monetaria tensiones financieras problemas vivienda proporciones ligeramente elevadas niños experimentan problemas vecindad dificultades acceso servicios básicos demás países patrones privación alemania francia heterogéneos clasificación respecto países depende gran medida ámbito considerado presión económica problema frecuente países tasas incidencia oscilan países bajos francia reino unido</t>
+          <t>Los Países Bajos presentan las tasas de incidencia más bajas en cuanto a pobreza monetaria, tensiones financieras y problemas de vivienda, pero proporciones ligeramente más elevadas de niños que experimentan problemas de vecindad o dificultades de acceso a los servicios básicos que los demás países. Los patrones de privación en Alemania y Francia también son heterogéneos y su clasificación con respecto a otros países depende en gran medida del ámbito considerado. La presión económica es el problema más frecuente en todos los países, con tasas de incidencia que oscilan entre el 22% en los Países Bajos y el 41% en Francia y el Reino Unido.</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>panel utiliza medidas gasto social serie transferencias sociales efectivo prestaciones vivienda prestaciones desempleo prestaciones incapacidad prestaciones jubilación serie prestaciones familiares además medida proporción gasto social dirigido pobre hogares panel b utiliza medidas tasas pago transferencias sociales efectivo abarcan prestaciones vivienda asistencia social suplementos hijos todas medidas tasa media pago familia biparental porcentaje salario medio casos estimaciones condicionadas tasa pobreza infantil previa transferencia decir tasa pobreza infantil relativa previa transferencia incluye modelos variable independiente tener cuenta demás posibles determinantes pobreza infantil varían tiempo tabla muestra resultados basados cambio dentro país</t>
+          <t>El panel A utiliza medidas del gasto social en una serie de transferencias sociales en efectivo - prestaciones de vivienda, prestaciones de desempleo, prestaciones de incapacidad, prestaciones de jubilación, una serie de prestaciones familiares - además de una medida de la proporción del gasto social dirigido al 10% más pobre de los hogares. El panel B utiliza medidas de las tasas de pago de las transferencias sociales en efectivo, que abarcan las prestaciones de vivienda, la asistencia social y los suplementos por hijos, todas ellas medidas como la tasa media de pago para una familia biparental como porcentaje del salario medio. En todos los casos, las estimaciones están condicionadas a la tasa de pobreza infantil previa a la transferencia (es decir, la tasa de pobreza infantil relativa previa a la transferencia se incluye en todos los modelos como variable independiente), para tener en cuenta todos los demás posibles determinantes de la pobreza infantil que varían con el tiempo. La Tabla 2 muestra los resultados basados en el cambio dentro del país.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>docentes reciben formación medida contenidos tiempos adaptados superen mejor debilidades hora ayudar eficazmente alumnos alcanzar objetivos educativos escuelas financiadas fondos públicos comparables maestros parecen tener mucha libertad enseñar forma sientan cómodos henriquez et sned otorga escuelas según clasificación prueba nacional rendimiento estudiantil según si maestros ayudado estudiantes alcanzar metas aprendizaje</t>
+          <t>Los docentes reciben formación a medida con contenidos y tiempos adaptados para que superen mejor sus debilidades a la hora de ayudar eficazmente a sus alumnos a alcanzar sus objetivos educativos. En escuelas financiadas con fondos públicos comparables, los maestros parecen tener mucha más libertad para "enseñar de la forma en que se sientan más cómodos" (Henriquez et al., El SNED se otorga a las escuelas según su clasificación en la prueba nacional de rendimiento estudiantil, pero no según sobre si los maestros han ayudado o no a los estudiantes a alcanzar sus metas de aprendizaje.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>conceptos definiciones relacionados salud pertinentes empleados nota analizan continuación desigualdad implica disparidades estatus oportunidad trato mientras inequidad incorpora evaluación equidad distinción particularmente importante salud igualdad individuos grupos significa necesariamente alcanzar mismo salud desigualdades naturales salud pueden ser consideradas injustas</t>
+          <t>Los conceptos y definiciones relacionados con la salud y otros pertinentes empleados en esta Nota se analizan a continuación. La desigualdad implica disparidades en el estatus, la oportunidad o el trato, mientras que la inequidad incorpora una evaluación de la equidad. Esta distinción es particularmente importante en salud, donde la igualdad entre individuos o grupos no significa necesariamente alcanzar el mismo estado de salud. Hay desigualdades naturales en salud que no pueden ser consideradas injustas.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>reducen producción económica mundial nacional ejercen presión gobiernos sistemas salud nacionales sobrecargan hogares vulnerables ponen riesgo derechos humanos socavan gravemente progreso desarrollo pnud b banco mundial pérdida productividad debido enfermedad discapacidad muerte ent puede impedir crecimiento macroeconómico desviar presupuestos públicos objetivos importantes salud desarrollo oms bloom et contraste muertes enfermedades transmisibles mismo período redujeron ciento alrededor millones personas millones mientras muertes diversas formas lesiones aumentaron ciento alrededor millones personas millones gbd</t>
+          <t>Reducen la producción económica mundial y nacional, ejercen presión sobre los gobiernos y los sistemas de salud nacionales, sobrecargan a los hogares vulnerables, ponen en riesgo los derechos humanos y socavan gravemente el progreso del desarrollo (PNUD 2013b, Banco Mundial 2014). La pérdida de productividad debido a enfermedad, discapacidad o muerte por ENT puede impedir el crecimiento macroeconómico y desviar los presupuestos públicos de otros objetivos importantes de salud y desarrollo (OMS 2010, Bloom et al. En contraste, las muertes por enfermedades transmisibles durante el mismo período se redujeron en un 27 por ciento de alrededor de 16,1 millones de personas en 1990 a 11,8 millones en 2013, mientras que las muertes por diversas formas de lesiones aumentaron en un 10 por ciento de alrededor de 4,3 millones de personas en 1990 a 4,8 millones en 2013 (GBD 2013).</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>afecciones crónicas cáncer cardiopatías diabetes conocidas enfermedades transmisibles ent suponen actualmente mayor demanda sistema salud colombiano representan todas defunciones figura mismo tiempo muertes afecciones transmisibles maternas perinatales nutricionales muertes traumatismos siguen siendo considerables cánceres segunda causa muerte frecuente total fallecimientos</t>
+          <t>Las afecciones crónicas como el cáncer, las cardiopatías o la diabetes (también conocidas como enfermedades no transmisibles, ENT) suponen actualmente la mayor demanda para el sistema de salud colombiano, ya que representan el 71% de todas las defunciones (figura 1.5). Al mismo tiempo, las muertes por afecciones transmisibles, maternas, perinatales o nutricionales (12%) y las muertes por traumatismos (17%) siguen siendo considerables. Los cánceres fueron la segunda causa de muerte más frecuente, con un 17% del total de fallecimientos en 2012.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>beneficios potenciales aprendizaje contextualizado integración académicos cte ampliamente reconocidos enfoque integrado usa ampliamente programas cte serie instrumentos política diseñados garantizar sólidas habilidades académicas estudiantes evaluación conocimientos habilidades texas datos utilizan monitorear desempeño diferentes grupos estudiantes enfocar intervenciones escuelas desempeño insatisfactorio</t>
+          <t>Los beneficios potenciales del aprendizaje contextualizado y la integración de académicos y CTE son ampliamente reconocidos y el enfoque integrado se usa ampliamente en los programas de CTE. Una serie de instrumentos de política están diseñados para garantizar sólidas habilidades académicas entre todos los estudiantes, como la Evaluación de conocimientos y habilidades de Texas. Los datos se utilizan para monitorear el desempeño entre diferentes grupos de estudiantes y enfocar las intervenciones en las escuelas con un desempeño insatisfactorio.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>actividades operativas relacionadas educación vocacional formal formal bajo responsabilidad gobiernos distritales municipales idealmente distrito podría amalgamar provisión vocacional smk super ofrezca variedad materias embargo casi todas escuelas smk revisadas equipo permanecieron gran medida enfocadas ofertas históricas materias dada alta inversión capital requerida educación vocacional muchas escuelas visto limitadas cursos pueden ofrecer instalaciones equipos heredados innovación adoptada ministerio introducción iniciativa escuela modelo vocacional establece súper escuela smk escuela modelo recursos puede actuar centro escuelas satélite actualmente escuelas tipo intención crear</t>
+          <t>Las actividades operativas relacionadas con la educación vocacional formal y no formal están bajo la responsabilidad de los gobiernos distritales o municipales. Idealmente, un distrito podría amalgamar la provisión vocacional en un SMK "super" que ofrezca una variedad de materias. Sin embargo, casi todas las escuelas SMK revisadas por el equipo permanecieron en gran medida enfocadas en sus ofertas históricas de materias. Dada la alta inversión de capital requerida para la educación vocacional, muchas escuelas se han visto limitadas en los cursos que pueden ofrecer por sus instalaciones y equipos heredados. Otra innovación adoptada por el ministerio en 2014 fue la introducción de la Iniciativa de Escuela Modelo Vocacional, que establece una "súper" escuela SMK como escuela modelo, con más recursos, que puede actuar como un centro para escuelas satélite. Actualmente hay 90 escuelas de este tipo, pero la intención es crear 1 650 para 2020.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>método solo costoso público sino carece continuidad tratamiento paciente puede ver diferentes médicos diferentes visitas general puede dañar calidad general clínica debido discontinuidad mientras difíciles condiciones trabajo pueden hecho desalentar personas interesadas buscar carrera psiquiatría hecho funcionaría remediar causa raíz dificultades plan acción salud mental reciente suecia objetivo abordar problemas aumentando lugares capacitación psicología creando puestos investigación psiquiatría ocde terapia cognitiva conductual tcc basada internet desarrollo utiliza forma limitada suecia intento proporcionar servicios pesar escasez personal estudios demostrado pacientes trastorno pánico reciben tipo tratamiento va tan bien reciben tratamiento tradicional</t>
+          <t>Este método no solo es más costoso para el público, sino que también carece de continuidad del tratamiento (ya que un paciente puede ver a diferentes médicos en diferentes visitas) y, en general, puede dañar la calidad general de la clínica debido a la discontinuidad. Mientras tanto, estas difíciles condiciones de trabajo pueden de hecho desalentar a las personas interesadas en buscar una carrera en psiquiatría, que de hecho funcionaría para remediar la causa raíz de estas dificultades. El Plan de Acción de Salud Mental más reciente de Suecia (2012-2016) tiene como objetivo abordar estos problemas aumentando los lugares de capacitación en psicología y creando puestos de investigación en psiquiatría (OCDE, 2013). La terapia cognitiva conductual (TCC) basada en Internet es un desarrollo que se utiliza de forma limitada en Suecia en un intento de proporcionar servicios a pesar de la escasez de personal. Los estudios han demostrado que a los pacientes con trastorno de pánico que reciben este tipo de tratamiento les va tan bien como a los que reciben un tratamiento más tradicional.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>comprometidos brindar mejor salud posible ciudadanos commonwealth implementa programas abordan problemas salud mundial enfermedades transmisibles salud maternoinfantil vih sida enfermedades transmisibles salud mental deporte ofrece beneficios directos salud puede proporcionar contexto eficaz impartir educación sanitaria mayoría ciento ocurren países bajos medianos ingresos convierte ent prioridad salud global crítica limita naciones ricas</t>
+          <t>Por lo tanto, están comprometidos a brindar la mejor salud posible a todos sus ciudadanos. El Commonwealth implementa programas que abordan problemas de salud mundial, como: enfermedades no transmisibles, salud maternoinfantil, VIH y SIDA, enfermedades transmisibles y salud mental. El deporte ofrece beneficios directos para la salud y puede proporcionar un contexto eficaz para impartir educación sanitaria. La mayoría (80 por ciento) de estos ocurren en países de bajos y medianos ingresos, lo que convierte a las ENT en una prioridad de salud global crítica que no se limita a las naciones 'ricas'.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>mayor parte esfuerzos deben dirigirse subsanar lagunas datos atención primaria ejemplo debe reforzarse recogida datos variación enfermedades crónicas práctica general enfermedades contribuyen desigualdad danesa carga morbilidad diabetes depresión tratan cada vez centros atención primaria véanse capítulo cuadro ello recopilación datos atención primaria forma adecuada supervisar resultados sanitarios equitativos informar iniciativas abordar desigualdades existentes excelencia atención personas mayores prioridad dinamarca seguimiento datos resultados sanitarios prestación atención sanitaria grupos población edades contribuiría garantizar prioridad</t>
+          <t>La mayor parte de los esfuerzos deben dirigirse a subsanar las lagunas de datos en la atención primaria; por ejemplo, debe reforzarse la recogida de datos sobre la variación de las enfermedades crónicas en la práctica general. Las enfermedades que más contribuyen a la desigualdad danesa en la carga de morbilidad, como la diabetes y la depresión, se tratan cada vez más en los centros de atención primaria (véanse el capítulo 2 y el cuadro 4.2). Por ello, la recopilación de datos en la atención primaria es una forma adecuada de supervisar los resultados sanitarios equitativos e informar las iniciativas para abordar las desigualdades existentes. La excelencia en la atención a las personas mayores es una prioridad en Dinamarca, y el seguimiento de datos sobre los resultados sanitarios y la prestación de atención sanitaria a grupos de población por edades contribuiría a garantizar esta prioridad.</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>proporción menor chicas años chicos embargo actividad física adultos dinamarca alta mayoría demás países ue casi adultos informan realizan menos actividad física moderada cada semana excepción consumo excesivo alcohol adultos parece ser igualmente frecuente diferentes grupos socioeconómicos tasas tabaquismo personas nivel educativo bajo doble tasas personas educadas</t>
+          <t>Esta proporción es mucho menor entre las chicas de 15 años (7%) que entre los chicos (16%). Sin embargo, la actividad física entre los adultos en Dinamarca es más alta que en la mayoría de los demás países de la UE, con casi el 80% de los adultos que informan que realizan al menos una actividad física moderada cada semana. La excepción es el consumo excesivo de alcohol entre los adultos, que parece ser igualmente frecuente en los diferentes grupos socioeconómicos. Las tasas de tabaquismo entre las personas con el nivel educativo más bajo son más del doble de las tasas entre las personas más educadas.</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>tabla ilustra tamaño sesgo subregistro mostrando tasas bebedores peligrosos después corrección países ocde estimaciones corroboran hallazgos canadienses muestran proporción adultos beben gramos alcohol puro día aumenta después corrección hombres mujeres shield rehm permite limitar difusión datos fuentes sesgo</t>
+          <t>La Tabla 3 ilustra el tamaño del sesgo de subregistro, mostrando las tasas de bebedores peligrosos antes y después de la corrección en 10 países de la OCDE. Estas estimaciones corroboran los hallazgos canadienses que muestran que la proporción de adultos que beben más de 40 gramos de alcohol puro al día aumenta del 5 % al 20 % después de la corrección en los hombres y del 1 % al 6 % en las mujeres (Shield y Rehm, 2012). Esto permite limitar la difusión de datos con otras fuentes de sesgo.</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>después accidente nuclear fukushima notó ningún impacto valores medidos nfa registra plaguicidas agroquímicos medicamentos veterinarios nfa responsable controlar tipo establecimientos productores alimentospiensos acuerdo ley calidad inocuidad alimentos</t>
+          <t>Después del accidente nuclear de Fukushima no se notó ningún impacto en los valores medidos. La NFA registra plaguicidas y agroquímicos, y medicamentos veterinarios. La NFA es responsable de controlar todo tipo de establecimientos productores de alimentos/piensos desde 2011, de acuerdo con la Ley de Calidad e Inocuidad de los Alimentos.</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>núcleo modelo arquímedes cientos ecuaciones representan fisiología humana efectos enfermedades adjuntas ecuaciones cientos ecuaciones algoritmos simulan sistema atención médica incluidos procesos pruebas tratamientos admisiones comportamientos médicos junto datos población ecuaciones integran único modelo simulación gran escala</t>
+          <t>El núcleo del modelo de Arquímedes son cientos de ecuaciones que representan la fisiología humana y los efectos de las enfermedades. Adjuntas a estas ecuaciones hay cientos de ecuaciones y algoritmos más que simulan el sistema de atención médica, incluidos procesos como pruebas, tratamientos, admisiones y comportamientos médicos. Junto con los datos de población, las ecuaciones se integran en un único modelo de simulación a gran escala.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>hogares diferentes cantidades niños etapas escolarización potencialmente diferentes hogares pobres involucran trabajos manuales extenuantes requieren gasto energía generada dietas base cuales construye línea pobreza promedio gastos salud reconociendo cada vez causa común familias caen pobreza</t>
+          <t>Los hogares tienen diferentes cantidades de niños en etapas de escolarización potencialmente diferentes. Muchos hogares pobres también se involucran en trabajos manuales extenuantes que requieren el gasto de más energía que la generada por las dietas sobre la base de las cuales se construye la línea de pobreza promedio. Los gastos de salud se están reconociendo cada vez más como una causa común de las familias que caen en la pobreza.</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>malasia escuelas especiales unidades integración clases separadas estudiantes discapacidad visual auditiva estudiantes dificultades aprendizaje mayoría ofrecen internados alumnos asistieron otoño alumnos discapacidades físicas integran educación ordinaria si pueden gestionar sistema tal contrario quedan casa</t>
+          <t>Malasia tiene 32 escuelas especiales y 1282 unidades de integración que tienen clases separadas para estudiantes con discapacidad visual y auditiva y para estudiantes con dificultades de aprendizaje. La mayoría de estos ofrecen internados y 29.169 alumnos asistieron a ellos en el otoño de 2008. Los alumnos con discapacidades físicas se integran en la educación ordinaria si pueden gestionar el sistema tal como es; de lo contrario, se quedan en casa.</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>israel podría establecer fondo inversión regional especial financiado recursos públicos privados proporcionar fondos desarrollar capacidad hei participación regional proporcionar fondos incentivos instituciones profesores individuales iniciativas regionales podrían enfatizar aumento acceso educación terciaria oportunidades población región especialmente poblaciones objetivo involucrando profesores estudiantes proyectos enseñanzaaprendizaje investigación aplicada relacionados prioridades regionales kentucky regional stewardship varios programas proporcionados consejo financiamiento educación superior inglaterra hefce brindan ejemplos enfoque debe educación médica basada comunidad nuevas formas prestación atención médica así generación innovaciones vinculen liderazgo israel prestación efectiva atención médica telemedicina sistemas registros médicos individualizados basados computadoras</t>
+          <t>Israel podría establecer un fondo de inversión regional especial (financiado con recursos públicos y privados) para proporcionar fondos para desarrollar la capacidad de HEI para la participación regional y proporcionar fondos de incentivos a instituciones y profesores individuales para iniciativas regionales. Estos podrían enfatizar el aumento del acceso a la educación terciaria y las oportunidades para la población de la región (especialmente las poblaciones objetivo), involucrando a los profesores y estudiantes en proyectos de enseñanza/aprendizaje e investigación aplicada relacionados con las prioridades regionales. Kentucky Regional Stewardship y varios programas proporcionados por el Consejo de Financiamiento de la Educación Superior en Inglaterra (HEFCE) brindan ejemplos. Su enfoque debe estar en la educación médica basada en la comunidad y las nuevas formas de prestación de atención médica, así como en la generación de innovaciones que vinculen el liderazgo de TI de Israel con la prestación efectiva de atención médica (telemedicina y sistemas de registros médicos individualizados basados ​​en computadoras).</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>tendencia clara principales países destino mayoría trabajadoras domésticas migrantes madres segunda mitad década varios países emprendieron esfuerzos sistemáticos mejorar programas sociales especialmente destinados combatir pobreza primer punto inflexión patrones gasto social embargo repunte gasto social cierto punto contraposición tendencias económicas debido principalmente políticas implementaron largo tiempo hacer frente choques externos i aumento precios alimentos combustibles espiral precios materias primas exportación partir ii crisis financiera mundial peor cuales produjo finales finales iii recientemente incertidumbre internacional crecimiento económico lento mundo</t>
+          <t>Otra tendencia clara es que en los principales países de destino, la mayoría de las trabajadoras domésticas migrantes son madres. Durante la segunda mitad de la década, varios países emprendieron esfuerzos sistemáticos para mejorar los programas sociales, especialmente los destinados a combatir la pobreza. Este fue un primer punto de inflexión en los patrones de gasto social. Sin embargo, el repunte del gasto social (hasta cierto punto, en contraposición a las tendencias económicas) se ha debido principalmente a las políticas que se implementaron a lo largo del tiempo para hacer frente a los choques externos: (i) el aumento de los precios de los alimentos y los combustibles en 2008 y la espiral precios de las materias primas de exportación a partir de 2003, (ii) la crisis financiera mundial, la peor de las cuales se produjo desde finales de 2008 hasta finales de 2009, y (iii) más recientemente, la incertidumbre internacional y un crecimiento económico más lento en todo el mundo.</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>países aumentando relevancia servicios orientación profesional mediante desarrollo indicadores resultados alumnos mercado laboral parte instituciones programas recuadro indicadores deben ser buena calidad fáciles entender garantizar transparencia deben existir nivel institución programa</t>
+          <t>Algunos países están aumentando la relevancia de los servicios de orientación profesional mediante el desarrollo de indicadores de los resultados de los alumnos en el mercado laboral por parte de las instituciones y los programas (recuadro 3.12). Estos indicadores deben ser de buena calidad y fáciles de entender. Para garantizar la transparencia, deben existir a nivel de institución y de programa.</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>uso eficiente recursos educativos puede mejorar equidad inteligencia artificial ofrece nuevas herramientas lograrlo sistemas análisis permiten identificar escuelas comunidades mayores necesidades optimizando asignación incentivos financieros programas apoyo mismo tiempo ia facilita diseño políticas intervención temprana reducen desigualdades socioeconómicas intergeneracionales plataformas solo proporcionan evidencia empírica nivel nacional internacional sino simulan escenarios impacto ayudando gobiernos autoridades educativas tomar decisiones informadas equitativas</t>
+          <t>El uso eficiente de los recursos educativos puede mejorar la equidad, y la inteligencia artificial ofrece nuevas herramientas para lograrlo. Sistemas de análisis permiten identificar escuelas y comunidades con mayores necesidades, optimizando la asignación de incentivos financieros y programas de apoyo. Al mismo tiempo, la IA facilita el diseño de políticas de intervención temprana que reducen desigualdades socioeconómicas intergeneracionales. Estas plataformas no solo proporcionan evidencia empírica a nivel nacional e internacional, sino que también simulan escenarios de impacto, ayudando a gobiernos y autoridades educativas a tomar decisiones más informadas y equitativas.</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>declaraciones establecen universidades colegios ofrecen estudiantes apoyar empleabilidad transición empleo allá httpwwwhefceacuk sistema evaluación centra esencialmente medir punto logran resultados aprendizaje previstos términos tres conceptos principales i conocimiento comprensión ii competencia habilidades iii juicio descripción resultados aprendizaje cualificaciones profesionales surgen estrecha cooperación asociaciones profesionales</t>
+          <t>Estas declaraciones establecen lo que las universidades y colegios ofrecen a sus estudiantes para apoyar su empleabilidad y transición al empleo y más allá (http://www.hefce.ac.uk/). El sistema de evaluación se centra esencialmente en medir hasta qué punto se logran los resultados de aprendizaje previstos en términos de tres conceptos principales: i) conocimiento y comprensión; ii) competencia y habilidades, y iii) juicio. La descripción de los resultados del aprendizaje y las cualificaciones profesionales surgen en estrecha cooperación con las asociaciones profesionales.</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>mayoría inmigrantes viven trabajan legalmente chipre seguro privado paquete prestaciones completo únicos servicios explícitamente excluidos odontológicos ortodoncia mayores años prótesis fijas servicios disponibles sector público largas listas espera ministerio sanidad subvenciona atención prestada beneficiarios sector privado extranjero raras circunstancias elegibilidad subvenciones basa necesidades económicas médicas individuo propuestas inclusión servicio paquete prestaciones realiza departamento pertinente ministerio sanidad decisión final toma ministro sanidad casos requiere aprobación ministro finanzas incluso aprobación consejo ministros</t>
+          <t>La mayoría de los inmigrantes que viven y trabajan legalmente en Chipre tienen un seguro privado. El paquete de prestaciones es completo; los únicos servicios explícitamente excluidos son algunos odontológicos, como la ortodoncia para los mayores de 18 años y las prótesis fijas. Cuando los servicios no están disponibles en el sector público o hay largas listas de espera, el Ministerio de Sanidad subvenciona la atención prestada a los beneficiarios en el sector privado o en el extranjero en raras circunstancias; la elegibilidad para estas subvenciones se basa en las necesidades económicas y médicas del individuo. Las propuestas sobre la inclusión de un servicio en el paquete de prestaciones las realiza el departamento pertinente del Ministerio de Sanidad y la decisión final la toma el Ministro de Sanidad, en algunos casos se requiere la aprobación del Ministro de Finanzas o incluso la aprobación del Consejo de Ministros.</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>magnitud diferencias sugiere nuevos profesores pueden necesitar apoyo desarrollar estrategias pedagógicas eficaces enseñanza contenidos países posiblemente debido limitada formación previa puesto trabajo países república checa islandia suecia diferencias proporción profesores nuevos experimentados sienten bien preparados práctica aula asignaturas superiores puntos porcentuales embargo francia puntos porcentuales japón puntos porcentuales diferencias grupos menores diferencias estadísticamente significativas finlandia corea</t>
+          <t>La magnitud de algunas de estas diferencias sugiere que los nuevos profesores pueden necesitar más apoyo para desarrollar estrategias pedagógicas eficaces para la enseñanza de contenidos en algunos países que en otros, posiblemente debido a una limitada formación previa o en el puesto de trabajo. En países como la República Checa, Islandia y Suecia, las diferencias entre la proporción de profesores nuevos y experimentados que se sienten "muy bien" preparados para la práctica en el aula en la(s) asignatura(s) son superiores a 30 puntos porcentuales. Sin embargo, en Francia (4 puntos porcentuales) y Japón (7 puntos porcentuales), las diferencias entre los grupos son mucho menores, y no hay diferencias estadísticamente significativas en Finlandia y Corea.</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>cuenta resultados ilustrativos nivel salarial específico trabajadores solteros tiempo parcial pagan impuestos reciben prestaciones eslovenia caída renta disponible sitúa solteros debajo umbral pobreza países irlanda nueva zelanda japón parejas hijos pagan menos impuestos reciben prestaciones mayoría países ocurre contrario países austria italia suecia suiza familias desechables ingreso cae debajo línea pobreza mayoría países padres solteros dos hijos trabajan tiempo parcial reciben beneficios pagan impuestos países aumento resultante ingreso disponible lleva hogar encima línea pobreza</t>
+          <t>Teniendo en cuenta que los resultados son ilustrativos de un nivel salarial específico, los trabajadores solteros a tiempo parcial pagan más impuestos de lo que reciben en prestaciones: en Eslovenia, la caída de la renta disponible sitúa a los solteros por debajo del umbral de la pobreza. En algunos países, como Irlanda, Nueva Zelanda y Japón, las parejas sin hijos pagan menos en impuestos de lo que reciben en prestaciones, pero en la mayoría de los países ocurre lo contrario, y en algunos países (Austria, Italia, Suecia y Suiza), las familias desechables ingreso cae por debajo de la línea de pobreza. En la mayoría de los países, los padres solteros que tienen dos hijos y trabajan a tiempo parcial reciben más beneficios de lo que pagan en impuestos, y en muchos de estos países el aumento resultante en el ingreso disponible lleva al hogar por encima de la línea de pobreza.</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>estimaciones sugieren tasas pobreza indigencia podrían aumentar puntos porcentuales respectivamente elevaría número pobres región casi nueve millones mitad cuales indigentes crisis mexicana pib per cápita cayó nivel regional menos argentina méxico uruguay</t>
+          <t>Las estimaciones para 2009 sugieren que las tasas de pobreza e indigencia podrían aumentar en 1,1 y 0,8 puntos porcentuales, respectivamente. Esto elevaría el número de pobres en la región en casi nueve millones, más de la mitad de los cuales serían indigentes. Durante la crisis mexicana de 1995, el PIB per cápita cayó 1,2% a nivel regional y al menos 2% en Argentina, México y Uruguay.</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>palabras estudiantes aprendiendo meses estudiantes tardando año aprender trata aumentos bastante sustanciales productividad educativa especialmente si pueden escalar sistema nacional ejemplo encontrar retroalimentación diferenciada impacto dirección aprendizaje futuro estudiantes calificaciones puede mostrar sistemas generalmente hacen efectivamente aquellas cosas diseñados aquellas diseñados</t>
+          <t>En otras palabras, los estudiantes estaban aprendiendo en 8 meses lo que otros estudiantes estaban tardando un año en aprender. Por lo tanto, se trata de aumentos bastante sustanciales en la productividad educativa, especialmente si se pueden escalar en todo un sistema nacional. Por ejemplo, encontrar que la retroalimentación diferenciada tiene más impacto en la dirección del aprendizaje futuro de los estudiantes que en las calificaciones puede mostrar nada más que los sistemas generalmente hacen más efectivamente aquellas cosas para las que están diseñados que aquellas para las que no están diseñados.</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>todas funciones necesarias torno seguridad paciente desarrollo establecimiento estándares seguimiento control apoyo mejoras seguridad práctica implementadas dinamarca embargo formalmente espera hospitales israelíes recopilen información infecciones informen ministerio salud ministerio responsable analizar datos luego desarrollar planes prevención mejora información proporciona público informes resumidos anuales revelar identidad hospital</t>
+          <t>Todas las funciones necesarias en torno a la seguridad del paciente, como el desarrollo, el establecimiento de estándares, el seguimiento y el control y el apoyo a las mejoras de seguridad en la práctica, están implementadas en Dinamarca. Sin embargo, formalmente, se espera que todos los hospitales israelíes recopilen información sobre infecciones y lo informen al Ministerio de Salud. El Ministerio es responsable de analizar los datos para luego desarrollar planes de prevención o mejora. Esta información se proporciona al público en informes resumidos anuales sin revelar la identidad del hospital.</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>debilidad notoria marco qich actualmente incluye medidas calidad epoc icc tabaquismo medidas relacionadas incentivar acción preventiva dejar fumar profesionales atención primaria deberían ser activos general promoción salud prevención enfermedades fomento estilos vida saludables dejar fumar particular servicios atención primaria operan contexto amplio atención salud imperativo servicios prevención salud pública administrados gobierno complementen esfuerzos fortaleciendo enfoque modificación factores riesgo promoviendo alfabetización salud si bien qich programa monitoreo calidad atención primaria países podrían aprender emular puede desarrollar tiempo explotando potencial ofrece uso emr atención primaria</t>
+          <t>En este sentido, una debilidad notoria del marco QICH es que actualmente no incluye medidas de calidad para EPOC, ICC, tabaquismo y medidas relacionadas para incentivar la acción preventiva para dejar de fumar. Los profesionales de atención primaria deberían ser más activos en general en la promoción de la salud, la prevención de enfermedades y el fomento de estilos de vida saludables (dejar de fumar en particular). Los servicios de atención primaria operan en un contexto más amplio de atención de la salud, y es imperativo que los servicios de prevención y salud pública administrados por el gobierno complementen estos esfuerzos fortaleciendo el enfoque en la modificación de los factores de riesgo y promoviendo la alfabetización en salud. Si bien QICH es un programa de monitoreo de calidad para la atención primaria del que muchos países podrían aprender y emular, se puede desarrollar más con el tiempo, explotando el potencial que ofrece el uso de EMR en la atención primaria.</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>presenta públicamente breve resumen informe escuelas preparan plan mejora basado informe moes nase responsables monitorear progreso implementación recomendaciones cuya frecuencia depende desempeño escuela evaluación externa comisión europeaeacea euydice si bien todas escuelas lituania debían haber sujetas evaluación externa escuelas sometido evaluación externa nao lituania gastó pib educación básica debajo media ocde ue debajo vecinos letonia estonia polonia ocde b</t>
+          <t>También se presenta públicamente un breve resumen de este informe. Las escuelas preparan un plan de mejora basado en este informe, y el MoES y NASE son responsables de monitorear el progreso en la implementación de las recomendaciones, cuya frecuencia depende del desempeño de la escuela en la evaluación externa (Comisión Europea/EACEA / Euydice, 2015). Si bien todas las escuelas de Lituania debían haber estado sujetas a una evaluación externa para 2014, en 2016 el 55 % de las escuelas no se habían sometido a una evaluación externa (NAO, 2016). En 2013, Lituania gastó el 1,9 % de su PIB en educación básica, por debajo de la media de la OCDE (2,5 %) y la UE-22 (2,4 %), y por debajo de sus vecinos Letonia (2,2 %), Estonia (2,2 %) y Polonia (2,4 %). ) (OCDE, 2016b).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>unas políticas justas integradoras materia educación atención primera infancia aepi contribuyen sistema educativo equitativo guarderías educación preescolar mitad niños años asisten niños años pueden acceder educación preescolar prepararse primer curso educación básica gratuita voluntaria casi niños años cursan</t>
+          <t>Unas políticas justas e integradoras en materia de educación y atención a la primera infancia (AEPI) contribuyen a un sistema educativo equitativo. Hay guarderías y educación preescolar, y más de la mitad de los niños de 4 años asisten a ellas. Desde 2001, los niños de 6 años pueden acceder a la educación preescolar para prepararse para el primer curso de la educación básica, es gratuita y voluntaria, y casi todos los niños de 6 años la cursan (98%).</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>amplia participación universitaria produce través servicio comunitario estudiantes programas voluntariado ejemplo programa perach involucra estudiantes todas instituciones educación superior israelíes niños entornos socioeconómicos desfavorecidos aumentar aspiraciones ocho programas perach funcionamiento galilea involucran aproximadamente estudiantes educación superior autoridades deben abordar desafíos periferia manera integral movilizar niveles apropiados recursos financieros apoyar educación pública niveles grupos población deben establecerse objetivos medibles instituciones educación superior respecto tasas matriculación graduación grupos minoritarios deben adoptarse medidas toda institución mejorar tasas retención estudiantes primera generación existe necesidad aumentar esfuerzos divulgación instituciones educación superior compartir buenas prácticas manera sistemática</t>
+          <t>La amplia participación universitaria se produce a través del servicio comunitario de los estudiantes y los programas de voluntariado, por ejemplo, el programa Perach, que involucra a estudiantes de todas las instituciones de educación superior israelíes con niños de entornos socioeconómicos desfavorecidos para aumentar las aspiraciones. Los ocho programas Perach en funcionamiento en Galilea involucran a aproximadamente 1 000 estudiantes de educación superior. Las autoridades deben abordar estos desafíos en la periferia de manera integral y movilizar niveles apropiados de recursos financieros para apoyar la educación pública en todos los niveles y para todos los grupos de población. Deben establecerse objetivos medibles para las instituciones de educación superior con respecto a las tasas de matriculación y graduación de los grupos minoritarios. Deben adoptarse medidas en toda la institución para mejorar las tasas de retención de los estudiantes de primera generación. También existe la necesidad de aumentar los esfuerzos de divulgación de las instituciones de educación superior y compartir buenas prácticas entre ellas de manera sistemática.</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>realiza pago anual aus cada paciente habitual registrado años enfermedad crónica ofrecido control salud consultorios pueden recibir pagos resultados aus paciente año brindó nivel objetivo atención mayoría atención embargo puede ser difícil establecer comparaciones directas salud resultados personas viven áreas remotas viven principales ciudades</t>
+          <t>Se realiza un pago anual de AUS 250 por cada paciente habitual registrado de 15 años o más que tenga una enfermedad crónica y se le haya ofrecido o haya tenido un control de salud. Los consultorios también pueden recibir pagos por "resultados" de hasta AUS 250 por paciente por año, cuando se brindó un nivel objetivo de atención y/o la mayoría de la atención. Sin embargo, puede ser difícil establecer comparaciones directas sobre el estado de salud y los resultados entre las personas que viven en áreas muy remotas y las que viven en las principales ciudades.</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>obstante enfrentan limitaciones administrativas base id reducida países ocde cuanto calidad investigación universidades malasias rinden debajo principales competidoras singapur taiwán hong kong gobierno preocupado sólo inversión ied aceleración comercialización tecnología impulso gasto empresarial id sino necesidad aumentar capacidades locales innovación concentrado intervenciones elaboración incentivos fiscales id fomento inversión estratégica puesto marcha numerosos planes ahora volumen subvenciones canalizadas investigación universitaria seguido siendo modesto</t>
+          <t>No obstante, se enfrentan a limitaciones administrativas y su base de I+D es más reducida que la de los países de la OCDE. En cuanto a la calidad de la investigación, las universidades malasias rinden por debajo de sus principales competidoras de Singapur, Taiwán y Hong Kong. El gobierno se ha preocupado no sólo de la inversión en IED, la aceleración de la comercialización de tecnología y el impulso del gasto empresarial en I+D, sino también de la necesidad de aumentar las capacidades locales de innovación y ha concentrado sus intervenciones en la elaboración de incentivos fiscales a la I+D y el fomento de la inversión estratégica. Se han puesto en marcha numerosos planes, pero hasta ahora el volumen de subvenciones canalizadas a la investigación universitaria ha seguido siendo modesto.</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>países iniciado programas objetivo reformas sido mejorar inclusión social personas trastornos mentales aunque situación actual calidad vida pacientes trastornos mentales graves comparable situación vida menudo precaria centros larga estancia hace décadas desinstitucionalización llevado general mejora inclusión social empleo</t>
+          <t>Algunos países han iniciado programas en este sentido. El objetivo de estas reformas ha sido mejorar la inclusión social de las personas con trastornos mentales. Aunque la situación actual y la calidad de vida de los pacientes con trastornos mentales graves no es comparable a su situación de vida, a menudo muy precaria, en los centros de larga estancia hace algunas décadas, la desinstitucionalización no ha llevado en general a una mejora en la inclusión social y el empleo.</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>luego analiza formas políticas educativas pueden influir factores mejorar oportunidades educativas estudiantes inmigrantes segunda parte analiza políticas nivel sistema asignar recursos fin apoyar estrategias educación migrantes finalmente tercera parte trata políticas nivel escolar buscan moldear ambientes escuela salón clases así relaciones escuela hogar</t>
+          <t>Luego analiza las formas en que las políticas educativas pueden influir en estos factores para mejorar las oportunidades educativas de los estudiantes inmigrantes. La segunda parte analiza las políticas a nivel del sistema para asignar recursos con el fin de apoyar las estrategias de educación de los migrantes. Finalmente, la tercera parte trata de las políticas a nivel escolar que buscan moldear los ambientes de la escuela y el salón de clases, así como las relaciones entre la escuela y el hogar.</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>tercer lugar subvenciones públicas programas investigación deberían ampliarse sectores prioritarios distintos industria ee biotecnología penang programas investigación colaboración deberían reunir universiti sains malaysia universiti teknologi mara universiti malaysia perlis instituciones regionales enseñanza superior programas colaboración aprovechen complementariedades universiti malaysia perlis universiti teknologi mara ingeniería universiti teknologi petronas podrían aprovechar potencial innovación interdisciplinar región</t>
+          <t>En tercer lugar, las subvenciones públicas a programas de investigación deberían ampliarse a sectores prioritarios distintos de la industria E&amp;E y la biotecnología. En Penang, los programas de investigación en colaboración deberían reunir a la Universiti Sains Malaysia, la Universiti Teknologi MARA, la Universiti Malaysia Perlis y otras instituciones regionales de enseñanza superior. Los programas de colaboración que aprovechen las complementariedades entre la Universiti Malaysia Perlis, la Universiti Teknologi MARA (ingeniería) y la Universiti Teknologi Petronas podrían aprovechar el potencial de innovación interdisciplinar de la región.</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>índice construido ser comparable internacionalmente ver informe técnico pisa ocde considera estudiantes ventajas socioeconómicas si encuentran estudiantes escs alto país economía estudiantes desventajas socioeconómicas aquellos encuentran estudiantes escs bajo escuelas definen aventajadas desfavorecidas socioeconómicamente si escs promedio estudiantes escuela estadísticamente significativamente superior inferior escuela promedio patrones reflejan parte ventajas inherentes recursos proporciona estatus socioeconómico relativamente alto</t>
+          <t>El índice está construido para ser comparable internacionalmente (ver el Informe Técnico PISA 2012, OCDE, 2014a). Se considera que los estudiantes tienen ventajas socioeconómicas si se encuentran entre el 25 % de los estudiantes con el ESCS más alto en su país o economía; los estudiantes con desventajas socioeconómicas son aquellos que se encuentran entre el 25 % de los estudiantes con el ESCS más bajo. Las escuelas se definen como aventajadas (desfavorecidas) socioeconómicamente si el ESCS promedio de los estudiantes en la escuela es estadísticamente significativamente superior (inferior) al de la escuela promedio. Estos patrones reflejan, en parte, las ventajas inherentes a los recursos que proporciona un estatus socioeconómico relativamente alto.</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>razón niños pobres adultos pobres aumentó países región excepto salvador mantuvo constante mayores aumentos brasil panamá uruguay deben realizarse esfuerzos garantizar derechos niño facilitar acceso niños bienes servicios básicos hogares pueden adquirir solos cada indicador definieron umbrales necesidades severas moderadas resultados indican casi mitad niños región pobres menos necesidades básicas insatisfechas moderada extremadamente</t>
+          <t>La razón de niños pobres a adultos pobres aumentó en todos los países de la región (excepto en El Salvador, donde se mantuvo constante), con los mayores aumentos en Brasil, Panamá y Uruguay. Deben realizarse esfuerzos para garantizar los derechos del niño y facilitar el acceso de los niños a los bienes y servicios básicos que los hogares no pueden adquirir por sí solos. Para cada indicador, se definieron umbrales para necesidades severas y moderadas. Los resultados indican que casi la mitad de todos los niños de la región son pobres, con al menos una de las necesidades básicas insatisfechas, ya sea moderada o extremadamente.</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sector servicios especialmente países menos adelantados enfrenta desafíos creados naturaleza informal muchas actividades servicios podrían perpetuar pobreza aumentar vulnerabilidad pobres país superó umbrales ingreso nacional bruto per cápita índice activos humanos revisión si país mantiene avances desarrollo cumple criterios nuevamente calificará ser eliminado lista contexto transformación estructural república democrática popular lao puede tener enfrentar competencia intensa excedentes mano obra países producción ensamblaje gama baja enfrentaron primeros industrializadores especialmente economía globalizada</t>
+          <t>El sector de los servicios, especialmente en los países menos adelantados, también enfrenta los desafíos creados por la naturaleza informal de muchas actividades de servicios, que podrían perpetuar la pobreza y aumentar la vulnerabilidad de los pobres. El país superó los umbrales de ingreso nacional bruto per cápita y el índice de activos humanos en la revisión de 2018. Si ese país mantiene sus avances en desarrollo y cumple los criterios nuevamente en 2021, calificará para ser eliminado de la lista en 2024. En el contexto de la transformación estructural, la República Democrática Popular Lao puede tener que enfrentar una competencia más intensa de otros excedentes de mano de obra. países con una producción de ensamblaje de gama baja que la que enfrentaron los primeros industrializadores, especialmente en una economía más globalizada.</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>reformas recomendadas sistema salud méxico cont vez establezca mínimo esencial registro nacional pacientes enfoque debe centrarse consolidación interoperabilidad diversas bases datos adicionales utilizadas institutos sp ss crucial garantizar marco legal torno privacidad datos respalde intercambio registros brinde garantías adecuadas</t>
+          <t>Reformas recomendadas al sistema de salud de México (cont.) Una vez que se establezca el mínimo esencial de un registro nacional de pacientes, el enfoque debe centrarse en la consolidación e interoperabilidad de las diversas bases de datos adicionales utilizadas por los institutos de SP y SS. También será crucial garantizar que el marco legal en torno a la privacidad de los datos respalde el intercambio de registros y brinde las garantías adecuadas.</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>establece hoja ruta general tres próximos años centrándose prioridades clave planes acción escuela concibe documento vivo personal escuela utilizará punto referencia evaluar desarrollar mejorar trabajo deber consejo escolar cada centro garantizar necesidades formación desarrollo identificadas través prsd reflejen sdp personal docente disponga correspondientes oportunidades desarrollo profesional ejemplo república checa estonia israel corea polonia establecido procesos evaluación específicamente diseñados tomar decisiones promoción chile corea méxico desarrollado sistemas recompensa explícitos compensar profesores alto rendimiento mediante recompensas aumentos salariales puntuales</t>
+          <t>Establece la "hoja de ruta" general para los tres próximos años, centrándose en las prioridades clave y los planes de acción de la escuela. Se concibe como un documento vivo que todo el personal de la escuela utilizará como punto de referencia para evaluar, desarrollar y mejorar su trabajo. Es deber del Consejo Escolar de cada centro garantizar que las necesidades de formación y desarrollo identificadas a través del PRSD se reflejen en el SDP y que todo el personal docente disponga de las correspondientes oportunidades de desarrollo profesional. Por ejemplo, la República Checa, Estonia, Israel, Corea y Polonia han establecido procesos de evaluación específicamente diseñados para tomar decisiones de promoción, y Chile, Corea y México han desarrollado sistemas de recompensa explícitos para compensar a los profesores de alto rendimiento mediante recompensas o aumentos salariales puntuales.</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>modelos atención colaborativa utilizan enfoque atención escalonada aún rentables ocurre intensidad incrementa únicamente demostrado necesario pacientes primero ofrece intervención aunque probablemente eficaz relativamente fácil implementar conlleva costo efectos secundarios relativamente bajos</t>
+          <t>Los modelos de atención colaborativa que utilizan el enfoque de atención escalonada son aún más rentables. Esto ocurre cuando la intensidad se incrementa únicamente cuando se ha demostrado necesario. A los pacientes primero se les ofrece una intervención que, aunque probablemente eficaz, es relativamente fácil de implementar y conlleva un costo o efectos secundarios relativamente bajos.</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>hecho grupos indígenas consideren educación lujo supone reto profesores atender necesidades niños profesores recurren sistema educación básica alternativa responde necesidades limitaciones especiales vida pastoril sistema ofrece horario escolar flexible permite niños pastores cumplir responsabilidad doméstica arrear ganado hacia agua pastos mismo tiempo tener tiempo ir escuela sewunet además matriculación continua año medio animar niños asistir escuela así campañas destinadas convencer padres envíen hijos escuela</t>
+          <t>El hecho de que algunos grupos indígenas consideren la educación un lujo supone un reto para los profesores. Para atender las necesidades de los niños, los profesores recurren al sistema de educación básica alternativa, que responde a las necesidades y limitaciones especiales de la vida pastoril. El sistema ofrece un horario escolar flexible, que permite a los niños pastores cumplir con su responsabilidad doméstica de arrear el ganado hacia el agua y los pastos y, al mismo tiempo, tener tiempo para ir a la escuela (Sewunet, 2014). Además, hay una matriculación continua durante todo el año como medio para animar a los niños a asistir a la escuela, así como campañas destinadas a convencer a los padres de que envíen a sus hijos a la escuela.</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>creado mediante fusión tres subvenciones anteriores financia amplia gama proyectos infraestructura salud incluidos grandes proyectos modernizar infraestructura equipo hospitalario proyectos generales mantenimiento infraestructura hospitales pequeños renovación mejora facultades escuelas enfermería permite trasladar actividades docentes hospitales centrales regionales distritales subvenciones condicionales diseñadas reflejar necesidades diferenciales provincias</t>
+          <t>Fue creado en 2013/14 mediante la fusión de tres subvenciones anteriores. Se financia una amplia gama de proyectos de infraestructura de salud, incluidos grandes proyectos para modernizar la infraestructura y el equipo hospitalario, proyectos generales de mantenimiento e infraestructura en hospitales más pequeños, y la renovación y mejora de las facultades y escuelas de enfermería. Permite trasladar las actividades docentes de los hospitales centrales a los regionales y distritales. Las subvenciones condicionales están diseñadas para reflejar las necesidades diferenciales entre provincias.</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>si tasas crecimiento económico observadas años mantienen próximos probable tasa mundial pobreza extrema descienda suponiendo crecimiento beneficie igual grupos renta pobreza sigue extendida áfrica subsahariana población vivía menos dólares estadounidenses día</t>
+          <t>Si las tasas de crecimiento económico observadas durante esos 10 años se mantienen durante los próximos 15, es probable que la tasa mundial de pobreza extrema descienda al 4% en 2030, suponiendo que el crecimiento beneficie por igual a todos los grupos de renta. La pobreza sigue estando muy extendida en el África subsahariana, donde más del 40% de la población vivía con menos de 1,90 dólares estadounidenses al día en 2012.</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>deficiencias mercado derivan asimetría información aseguradoras proveedores asistencia sanitaria éstos pacientes crea margen demanda inducida proveedor sobrecodificación clasificación pacientes códigos diagnóstico precio elevado análisis empíricos sugieren ningún sistema sanitario funciona sistemáticamente mejor hora abordar fallos prestar asistencia sanitaria rentable joumard et países bajos optado sistema competencia regulada seguros privados amplias reformas aplicadas mediados década reforzar papel mecanismos mercado</t>
+          <t>Las deficiencias del mercado se derivan de la asimetría de la información entre las aseguradoras y los proveedores de asistencia sanitaria y entre éstos y los pacientes, lo que crea un margen para la demanda inducida por el proveedor y la sobrecodificación (clasificación de los pacientes en códigos de diagnóstico de precio más elevado). Los análisis empíricos sugieren que ningún sistema sanitario funciona sistemáticamente mejor a la hora de abordar estos fallos y prestar una asistencia sanitaria rentable (Joumard et al., Los Países Bajos han optado por un sistema de competencia regulada y seguros privados, con amplias reformas aplicadas desde mediados de la década de 2000 para reforzar el papel de los mecanismos de mercado.</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>atención desarrollo emocional motivacional estudiantes convierte parte cualquier diseño pedagógico conclusión veces extrae cambio tecnológico nuevas tecnologías reducen requisito dominar conocimientos habilidades mantenimiento información muchas tareas básicas pueden ser tercerizadas dispositivos posición va demasiado lejos descuidar importancia conocimiento habilidades aprendidas base habilidades complejas debe reconocerse fácil disponibilidad información cambia necesidades aprendizaje querer simplificar demasiado pasado mediados siglo pasado mayoría personas sociedades industriales enfrentaban gama relativamente limitada opciones cuanto dónde vivir trabajo harían si casarían quién</t>
+          <t>Por lo tanto, la atención al estado y desarrollo emocional y motivacional de los estudiantes se convierte en parte de cualquier diseño pedagógico. Una conclusión que a veces se extrae del cambio tecnológico es que las nuevas tecnologías reducen el requisito de dominar los conocimientos y las habilidades, ya que el mantenimiento de la información y muchas tareas básicas pueden ser 'tercerizadas' a los dispositivos. Esta posición va demasiado lejos al descuidar la importancia del conocimiento y las habilidades aprendidas como base para habilidades más complejas, pero debe reconocerse que la fácil disponibilidad de información cambia nuestras necesidades de aprendizaje. Sin querer simplificar demasiado el pasado, hasta mediados del siglo pasado, la mayoría de las personas en las sociedades industriales se enfrentaban a una gama relativamente limitada de opciones en cuanto a dónde vivir, qué trabajo harían, si se casarían o no. , y quién.</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>preferencias políticas reflejan condiciones ambientales diferenciales debido personas sensación compartir destino personas propia comunidad tienden decepcionarse gobierno da piden debe compartir escasos recursos personas comunidades demostrado ser serio desafío tratar implementar manera efectiva presupuestación participativa abajo hacia arriba destinada empoderar pobres</t>
+          <t>Las preferencias políticas reflejan condiciones ambientales diferenciales. Debido a que las personas no tienen la sensación de compartir su destino con otras personas fuera de su propia comunidad, tienden a decepcionarse cuando el gobierno no les da todo lo que piden porque debe compartir los escasos recursos con personas de otras comunidades. Esto ha demostrado ser un serio desafío al tratar de implementar de manera efectiva la presupuestación participativa o "de abajo hacia arriba" destinada a empoderar a los pobres.</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>embargo serie estudios tema planteado preguntas respecto autores argumentan hipótesis relación lineal crecimiento desigualdad pobreza puede producir especificación errónea sesga estimaciones relaciones pueden hecho ser lineales caso estimaciones mco tenderán ser sesgadas inconsistentes sobreestimando coeficiente variable puede hacer esfuerzo corregir sesgo utilizando estimador efectos fijos dentro grupos genera desviaciones estándar coeficientes ligeramente pequeñas</t>
+          <t>Sin embargo, una serie de estudios sobre el tema han planteado preguntas al respecto, y sus autores argumentan que la hipótesis de una relación lineal entre crecimiento, desigualdad y pobreza puede producir una especificación errónea que sesga las estimaciones porque estas relaciones pueden, de hecho, no ser lineales. . En ese caso, las estimaciones de MCO tenderán a ser sesgadas e inconsistentes, sobreestimando el coeficiente de esa variable. Se puede hacer un esfuerzo para corregir este sesgo utilizando el estimador de efectos fijos (dentro de grupos), que genera desviaciones estándar de los coeficientes ligeramente más pequeñas.</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>cribado debe considerarse forma aislada sino necesario prestar atención calidad atención largo proceso tratamiento cáncer cuanto cribado cardiovascular debe evaluarse rentabilidad chequeo general bienal república checa si puede demostrarse forma convincente rentabilidad debe desinvertirse destinar fondos iniciativas basadas pruebas reducir tabaquismo obesidad consumo nocivo alcohol cuanto cáncer prevención diagnóstico precoz deben aislarse modelo holístico atención enfermedades larga duración particular necesaria mejor prevención secundaria enfermedades cardiovasculares</t>
+          <t>Por lo tanto, el cribado no debe considerarse de forma aislada, sino que es necesario prestar atención a la calidad de la atención a lo largo de todo el proceso de tratamiento del cáncer. En cuanto al cribado cardiovascular, debe evaluarse la rentabilidad del chequeo general bienal de la República Checa y, si no puede demostrarse de forma convincente la rentabilidad, debe desinvertirse y destinar los fondos a iniciativas basadas en pruebas para reducir el tabaquismo, la obesidad y el consumo nocivo de alcohol. En cuanto al cáncer, la prevención y el diagnóstico precoz no deben aislarse de un modelo holístico de atención a las enfermedades de larga duración; en particular, es necesaria una mejor prevención secundaria de las enfermedades cardiovasculares.</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>representación participación indígenas toma decisiones políticas planificación evaluación sanitarias nivel nacional derecho participar toma decisiones gestión centros sanitarios locales fundamentales mejorar acceso indígenas servicios sanitarios pueblos indígenas parecen rezagados principales indicadores salud empleados políticas programas salud generales existentes incluso realizado progresos significativos materia crecimiento económico desarrollo social independientemente idh país tasa crecimiento pueblos indígenas menor tasa esperanza vida mayor mortalidad infantil niñez peores resultados salud materna niveles bajos acceso servicios salud proporcionados gobierno incluido desarrollo acceso información salud servicios salud indígenas</t>
+          <t>La representación y participación de los indígenas en la toma de decisiones sobre políticas, planificación y evaluación sanitarias a nivel nacional y su derecho a participar en la toma de decisiones sobre la gestión de los centros sanitarios locales son fundamentales para mejorar el acceso de los indígenas a los servicios sanitarios. Los pueblos indígenas parecen estar rezagados en todos los principales indicadores de salud empleados por las políticas y programas de salud generales existentes, incluso cuando el Estado ha realizado progresos significativos en materia de crecimiento económico y desarrollo social. Independientemente del IDH del país y de la tasa de crecimiento, los pueblos indígenas tienen una menor tasa de esperanza de vida, una mayor mortalidad infantil y en la niñez, peores resultados en salud materna y niveles más bajos de acceso a los servicios de salud proporcionados por el gobierno, incluido el desarrollo y el acceso a la información sobre la salud y los servicios de salud indígenas.</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ejemplos recursos estándares profesionales australianos docentes estándar profesional australiano directores acreditación programas formación docente inicial australia standards and procedures australian teaching practice and development framework australia charter for the professional learning of teachers and school leaders aitsl elaboración normas gobierno debe definir cuáles objetivos profesores diferentes momentos carreras cómo profesores pueden alcanzar objetivos deberían hacerlo estándar ofrece profesores oportunidad progresar enriquecer desarrollar mejorar práctica experiencia conocimientos habilidades valores profesionales objetivo apoyar profesores desarrollo profesionales reflexivos competentes inquisitivos capaces comprometerse complejidades enseñanza aprendizaje cambiante mundo contemporáneo alumnos mundo allá profesión instituciones fin mejorar experiencias aprendizaje alumnos</t>
+          <t>Algunos ejemplos de estos recursos son: los Estándares Profesionales Australianos para Docentes, el Estándar Profesional Australiano para Directores, la Acreditación de Programas de Formación Docente Inicial Australia: Standards and Procedures, Australian Teaching Practice and Development Framework, y Australia Charter for the Professional Learning of Teachers and School Leaders (AITSL, 2016). En la elaboración de estas normas, el gobierno debe definir cuáles son los objetivos para los profesores en diferentes momentos de sus carreras, cómo los profesores pueden alcanzar estos objetivos y por qué deberían hacerlo. El estándar ofrece a los profesores la oportunidad de progresar, enriquecer, desarrollar y mejorar su práctica, experiencia, conocimientos, habilidades y valores profesionales. Su objetivo es apoyar a los profesores en su desarrollo como profesionales reflexivos, competentes e inquisitivos, capaces de comprometerse con las complejidades de la enseñanza y el aprendizaje, el cambiante mundo contemporáneo de sus alumnos y el mundo más allá de la profesión y sus instituciones, con el fin de mejorar las experiencias de aprendizaje de todos los alumnos.</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>dice cualquier persona cuyos ingresos inferiores ingresos medios equivalentes riesgo pobreza unión europea utiliza umbral gastos vivienda mientras umbrales bajos dan lugar veces denomina medidas pobreza severa brewer et headcount ratio in the late s revealed that of the overs were poor in the oecd area figure</t>
+          <t>Se dice que cualquier persona cuyos ingresos sean inferiores al 50% de los ingresos medios equivalentes está "en riesgo de pobreza". La Unión Europea utiliza un umbral del 60% (antes de los gastos de vivienda)12 , mientras que umbrales más bajos dan lugar a lo que a veces se denomina medidas de "pobreza severa" (Brewer et al., A headcount ratio in the late 2000s revealed that 12.8% of the over-65s were poor in the OECD area (Figure 2.8).</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>educación puede proporcionar niños conocimientos aptitudes necesitan triunfar vida asociada aumento ingresos reducción pobreza mejora salud educación desempeñe papel debe comenzar desarrollo primera infancia continuar oportunidades aprendizaje calidad ofrezcan niños especialmente desfavorecidos oportunidad justa prosperar buena educación aumenta conocimientos estimula innovación crea competencias impulsan crecimiento prosperidad fomenta sociedades integradoras</t>
+          <t>La educación puede proporcionar a los niños los conocimientos y las aptitudes que necesitan para triunfar en la vida. Está asociada al aumento de los ingresos, la reducción de la pobreza y la mejora de la salud. Pero para que la educación desempeñe este papel, debe comenzar con el desarrollo de la primera infancia y continuar con oportunidades de aprendizaje de calidad que ofrezcan a todos los niños, especialmente a los más desfavorecidos, una oportunidad justa de prosperar. Una buena educación aumenta los conocimientos, estimula la innovación, crea competencias que impulsan el crecimiento y la prosperidad y fomenta sociedades integradoras.</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>disponibilidad resultados evaluaciones nacionales dinamarca quién acceso resultados consecuencia estudiantes padres maestros pueden usar resultados evaluación seguir adquisición conocimientos habilidades estudiante individual municipalidades escuelas pueden usar resultados compararse promedio nacional ayudar toma decisiones resultados puede utilizar base evaluación comparativa sistemática intercambio mejores prácticas diferentes escuelas municipios clasificar municipios escuelas houlberg et evaluaciones nacionales concebidas i proporcionar herramienta pedagógica maestros áreas comprobables objetivos comunes ii proporcionar herramienta monitorear progreso nacional largo tiempo través perfil desempeño nacional muestre resultados promedio pruebas nacionales permitir municipios monitoreen escuelas perfil nacional</t>
+          <t>Disponibilidad de los resultados de las evaluaciones nacionales en Dinamarca: ¿quién tiene acceso a los resultados? ( En consecuencia, los estudiantes, padres y maestros pueden usar los resultados de la evaluación para seguir la adquisición de conocimientos y habilidades de un estudiante individual, y las municipalidades y las escuelas pueden usar los resultados para compararse con el promedio nacional y para ayudar en la toma de decisiones, pero los resultados no se puede utilizar como base para la evaluación comparativa sistemática y el intercambio de mejores prácticas entre diferentes escuelas y municipios o para clasificar municipios o escuelas (Houlberg et al., Las evaluaciones nacionales fueron concebidas i) para proporcionar una herramienta pedagógica para maestros contra áreas comprobables del Objetivos Comunes, y ii) proporcionar una herramienta para monitorear el progreso nacional a lo largo del tiempo a través de un perfil de desempeño nacional que muestre los resultados promedio de las pruebas nacionales y permitir que los municipios monitoreen sus escuelas contra este perfil nacional.</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>espera complete palabras hacer seguro salud obligatorio vietnamitas particular últimos años pocas personas trabajan sector informal unido voluntariamente sistema seguro salud basándose únicamente alcanzar meta cobertura universal seguro salud requerirá cambio mentalidad trabajadores informales miembros familia trabajan seguro salud</t>
+          <t>Se espera que esto se complete en 2015. En otras palabras, hacer que el seguro de salud sea obligatorio para todos los vietnamitas. En particular, en los últimos años, pocas de las personas que trabajan en el sector informal se han unido voluntariamente al sistema de seguro de salud y, basándose únicamente en esto, alcanzar la meta de la cobertura universal de seguro de salud para 2015 requerirá un cambio de mentalidad entre los trabajadores informales y miembros de la familia que no trabajan para el seguro de salud.</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>tercio niños aún benefician dos años educación preescolar aunque obligatorio pocos niños menores años acceso centros atención u formas asistencia pública servicios disponibles centran principalmente salud nutrición prestan atención inadecuada fomento habilidades cognitivas lingüísticas emocionales sociales esenciales niños necesitan desarrollar primeros años niños familias pobres probabilidades enfrentarse entorno aprendizaje familiar débil menos probabilidades acceder servicios públicos</t>
+          <t>Más de un tercio de los niños (37%) aún no se benefician de los dos años de educación preescolar, aunque es obligatorio desde 1997, y muy pocos niños menores de 4 años tienen acceso a centros de atención u otras formas de asistencia pública. Los servicios que están disponibles se centran principalmente en la salud y la nutrición, y prestan una atención inadecuada al fomento de las habilidades cognitivas, lingüísticas, emocionales y sociales esenciales que los niños necesitan desarrollar en los primeros años. Los niños de familias pobres, que tienen más probabilidades de enfrentarse a un entorno de aprendizaje familiar débil, tienen menos probabilidades de acceder a los servicios públicos.</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>millones adultos mundo desempleados empleo vulnerable representa mitad empleo total particularmente alto sudeste asiático ciento asia meridional ciento áfrica subsahariana ciento incluso aquellos empleados pueden ganando estimó millones personas mayores años empleadas vivían hogares menos persona día empleo especialmente empleo decente asociado dignidad estatus comunidades sociedades estables cohesionadas</t>
+          <t>En 2012, más de 200 millones de adultos en todo el mundo estaban desempleados. El empleo vulnerable representa más de la mitad del empleo total y es particularmente alto en el Sudeste Asiático (61 por ciento), Asia Meridional (77 por ciento) y África Subsahariana (77 por ciento).67 Incluso aquellos empleados pueden estar ganando muy poco. En 2011, se estimó que 397 millones de personas mayores de 15 años estaban empleadas pero vivían en hogares con menos de $1,25 por persona al día. El empleo, especialmente el empleo decente, está asociado con la dignidad y el estatus, y con comunidades y sociedades estables y cohesionadas.</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>mayor acceso información debe complementarse apoyo padres cómo interpretar información cómo seleccionar escuela adecuada hijos información podría disponible idiomas extranjeros seleccionados ser accesible padres alfabetización limitada ocde ii implica capacidad tomar decisión informada individuo quiere así gusta valor elección relacionado ciertos grupos sociedad padres clase media allen reay allen existe necesidad gestionar admisión estudiantes acuerdo nivel socioeconómico económico criterios admisión selectivos ocde requiere garantizar adopten criterios equidad escuelas den prioridad estudiantes desfavorecidos arreglos financiación hagan estudiantes desfavorecidos atractivos escuelas alto rendimiento ocde</t>
+          <t>Un mayor acceso a la información debe complementarse con apoyo a los padres sobre cómo interpretar la información y cómo seleccionar la escuela más adecuada para sus hijos. La información podría estar disponible en idiomas extranjeros seleccionados y ser accesible para padres con alfabetización limitada (OCDE, 2010(ii4]). Esto implica la capacidad de tomar una decisión informada sobre lo que un individuo no quiere, así como sobre lo que le gusta y El valor de la elección está muy relacionado con ciertos grupos de la sociedad, como los padres de clase media (Allen, 2007(32], Reay y Allen, 1997(33]). Existe la necesidad de gestionar la admisión de estudiantes de acuerdo con el nivel socioeconómico. -estado económico y criterios de admisión no selectivos (OCDE, 2015(22]). Esto requiere garantizar que se adopten criterios de equidad para que las escuelas den prioridad a los estudiantes desfavorecidos o que los arreglos de financiación hagan que los estudiantes desfavorecidos sean más atractivos para las escuelas de alto rendimiento (OCDE, 2015(22) ]).</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>compuesto ocho miembros altos representantes comunidad educativa internacional tres analistas ocde talleres sirven difundir mensajes clave prácticas internacionales méxico fomentar mayor reflexión cambio seminario desarrollo capacidades formuladores políticas mexicanos alto nivel combinó programa capacitación activo visitas países chile enero estudiar política docente canadá ontario mayo estudiar liderazgo escolar módulo final implementación méxico junio</t>
+          <t>Está compuesto por ocho miembros, todos ellos altos representantes de la comunidad educativa internacional y tres analistas de la OCDE. Estos talleres también sirven para difundir mensajes clave y prácticas internacionales en México para fomentar una mayor reflexión y cambio. Este seminario de desarrollo de capacidades para formuladores de políticas mexicanos de alto nivel combinó un programa de capacitación activo con visitas a países a Chile (enero de 2010) para estudiar la política docente, a Canadá, Ontario (mayo de 2010) para estudiar liderazgo escolar y un módulo final sobre implementación. en México (junio de 2010).</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>embargo países deberían reducir morbilidad mortalidad materna niveles constituyan problema salud pública deben reducirse disparidades mortalidad materna dentro países regiones geográficas grupos socioeconómicos étnicos países apoyo sectores comunidad internacional deben ampliar prestación servicios salud materna contexto atención primaria salud servicios basados concepto elección informada deben incluir educación maternidad segura atención prenatal focalizada eficaz programas nutrición materna asistencia adecuada parto evite recurso excesivo cesáreas prevea emergencias obstétricas servicios referencia embarazo complicaciones parto aborto atención posnatal planificación familiar</t>
+          <t>Sin embargo, todos los países deberían reducir la morbilidad y la mortalidad materna a niveles en los que ya no constituyan un problema de salud pública. Deben reducirse las disparidades en la mortalidad materna dentro de los países y entre regiones geográficas, grupos socioeconómicos y étnicos. Todos los países, con el apoyo de todos los sectores de la comunidad internacional, deben ampliar la prestación de servicios de salud materna en el contexto de la atención primaria de la salud. Estos servicios, basados ​​en el concepto de elección informada, deben incluir educación sobre maternidad segura, atención prenatal focalizada y eficaz, programas de nutrición materna, asistencia adecuada en el parto que evite el recurso excesivo a las cesáreas y prevea emergencias obstétricas, servicios de referencia para el embarazo , complicaciones del parto y del aborto, atención posnatal y planificación familiar.</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>demostrado depresión aumenta comportamientos riesgo saludables incluido tabaquismo naylor et work in scotland barnett et descubierto personas trastornos mentales especialmente trastornos ansiedad probabilidades divorciarse casadas menos tiempo poblaciones trastornos mentales kessler et demostrado enfermedades mentales leves moderadas fuerte relación mayor desempleo mayor absentismo menor productividad lugar trabajo aumento carga solicitudes prestaciones discapacidad alonso et</t>
+          <t>También se ha demostrado que la depresión aumenta los comportamientos de riesgo y poco saludables, incluido el tabaquismo (Naylor et al., Work in Scotland de Barnett et al. ( Se ha descubierto que las personas con trastornos mentales, especialmente con trastornos de ansiedad, tienen más probabilidades de divorciarse y de estar casadas durante menos tiempo que las poblaciones sin trastornos mentales (Kessler et al., Se ha demostrado que las enfermedades mentales de leves a moderadas tienen una fuerte relación con un mayor desempleo, un mayor absentismo, una menor productividad en el lugar de trabajo y un aumento de la carga de solicitudes de prestaciones por discapacidad (Alonso et al.,</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>además odm dejan claro alianza mundial esencial asegurar progreso hacia erradicación pobreza tales odm sido poderosa herramienta impulsar opinión pública torno ideal central importancia tal consenso conciencia debe subestimarse considerando gobernabilidad democrática mundo plenamente integrado requiere compromisos compartidos prioridades globales solo gobiernos sino público general ayuda asignada países miembros comité asistencia desarrollo cad organización cooperación desarrollo económicos ocde servicios sociales básicos aumentó mil millones mil millones luego redujo mil millones vista ajuste fiscal países proporción asignación ayuda servicios sociales básicos mostró aumento constante disminuyó</t>
+          <t>Además, los ODM dejan claro que la alianza mundial es esencial para asegurar el progreso hacia la erradicación de la pobreza. Como tales, los ODM han sido una poderosa herramienta para impulsar a la opinión pública en torno a un ideal central. La importancia de tal consenso y conciencia no debe subestimarse, considerando que la gobernabilidad democrática de un mundo plenamente integrado requiere compromisos compartidos con las prioridades globales, no solo entre los gobiernos sino también entre el público en general. La ayuda asignada por los países miembros del Comité de Asistencia para el Desarrollo (CAD) de la Organización para la Cooperación y el Desarrollo Económicos (OCDE) a los servicios sociales básicos aumentó de $ 6,1 mil millones a $ 17,4 mil millones en 2009, pero luego se redujo a $ 13,8 mil millones en 2010 en vista del ajuste fiscal en estos países. La proporción de la asignación de ayuda a los servicios sociales básicos también mostró un aumento constante del 15,5 % en 2000 al 21,2 % en 2009, pero disminuyó al 15,6 % en 2010.</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>considera niños debajo umbral pobreza relativa japón letonia bulgaria dinamarca españa rumanía niveles ingresos medios debajo umbral pobreza figura arroja sorpresas suecia dinamarca enorgullecen razón índices tradicionalmente bajos pobreza infantil ambos encuentran mitad inferior clasificación juzga profundidad pobreza relativa permite caigan niños pobres brecha pobreza relativa niños mayor dinamarca suecia mayor suecia reino unido mayor reino unido francia mayor francia finlandia</t>
+          <t>Se considera que los niños por debajo del umbral de pobreza relativa en Japón, Letonia, Bulgaria, Dinamarca, España y Rumanía tienen niveles de ingresos medios que están por debajo del umbral de pobreza en un 30 % o más. La figura 7 también arroja algunas sorpresas. Suecia y Dinamarca se enorgullecen con razón de sus índices tradicionalmente bajos de pobreza infantil, pero ambos se encuentran en la mitad inferior de la clasificación cuando se los juzga por la profundidad de la pobreza relativa en la que se permite que caigan los niños pobres. La 'brecha de pobreza' relativa para los niños es mayor en Dinamarca que en Suecia, mayor en Suecia que en el Reino Unido, mayor en el Reino Unido que en Francia y mayor en Francia que en Finlandia.</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>momento realizar prácticas anna gromada terminando máster desarrollo internacional institut dfctudes politiques paris sciences po documento forma parte trabajo realizado revisión políticas mejorar eficacia uso recursos escuelas revisión recursos escolares ocde incluye revisiones luz debate versión anterior eduedpcsrll primera reunión grupo expertos nacionales recursos escolares mayo revisión proporciona análisis asesoramiento político ayudar gobiernos escuelas alcanzar objetivos eficacia eficiencia educación</t>
+          <t>En el momento de realizar las prácticas, Anna Gromada estaba terminando su máster en Desarrollo Internacional en el Institut d'fctudes Politiques de Paris (Sciences Po). El documento forma parte del trabajo realizado por la Revisión de las políticas para mejorar la eficacia del uso de los recursos en las escuelas (Revisión de los recursos escolares) de la OCDE e incluye revisiones a la luz del debate de una versión anterior [EDU/EDPC/SR(20l4)3l en la primera reunión del Grupo de expertos nacionales en recursos escolares (14-15 de mayo de 2014). La Revisión proporciona análisis y asesoramiento político para ayudar a los gobiernos y a las escuelas a alcanzar los objetivos de eficacia y eficiencia en la educación.</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>embargo scn auxiliares refiere servicios básicos rutinarios apoyar actividades producción requieren todas empresas proporcionan internamente denominan actividades auxiliares p limpieza instalaciones gestión nómina personal suministro infraestructura tecnología información empresa etc espera emedicina incluya recursos contabilizados emedicina uso sistema salud datos digitales transmitidos almacenados recuperados electrónicamente apoyo atención médica sitio local distancia</t>
+          <t>Sin embargo, en el SCN, auxiliares se refiere a los servicios básicos y rutinarios para apoyar las actividades de producción que requieren todas las empresas. Cuando se proporcionan internamente, se denominan actividades auxiliares, p. la limpieza de las instalaciones, la gestión de la nómina del personal o el suministro de la infraestructura de tecnología de la información para la empresa, etc. Se espera que la e-medicina se incluya en los recursos contabilizados. La e-medicina es el uso, en el sistema de salud, de datos digitales, transmitidos, almacenados y recuperados electrónicamente, en apoyo de la atención médica, tanto en el sitio local como a distancia.</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>parte millones libras esterlinas comprometidos mejorar acceso terapias psicológicas ayudará específicamente personas comunidades dificultades acceder servicios time to change departamento salud financió programa salud mental estigma discriminación centrado trabajar comunidades africanas caribeñas destinar fondo subvenciones trabajar comunidades bme crear asociaciones bme organizaciones parte nuevo acuerdo gran alcance policía fideicomisos salud mental paramédicos concordato reconoce existen dificultades particulares lograr mejores resultados salud mental personas comunidades negras minorías étnicas bme</t>
+          <t>Parte de los 400 millones de libras esterlinas comprometidos para mejorar el acceso a las terapias psicológicas ayudará específicamente a personas de comunidades que tienen dificultades para acceder a estos servicios. En 2012/13 Time to Change, el Departamento de Salud financió un programa de salud mental contra el estigma y la discriminación centrado en trabajar con las comunidades africanas y caribeñas, destinar el 25 % del fondo de subvenciones para trabajar con las comunidades de BME y crear asociaciones con BME. organizaciones Es parte de un nuevo acuerdo de gran alcance entre la policía, los fideicomisos de salud mental y los paramédicos. El Concordato reconoce que existen dificultades particulares para lograr mejores resultados de salud mental para las personas en comunidades negras y de minorías étnicas (BME).</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>abordar desafío político rea pueden actuar silos conocimiento plotkin independientemente si derivan diferencias instituciones educativas países entornos aprendizaje formales informales formales cada caso intercambio recursos hecho posible rea valioso recursos liberan rea completos permiten solo reutilizar sino remezclar reutilizar</t>
+          <t>Al abordar este desafío político, los REA pueden actuar contra los "silos de conocimiento" (Plotkin, 2010:5), independientemente de si estos se derivan de las diferencias entre las instituciones educativas, los países o los entornos de aprendizaje formales, informales y no formales. En cada caso, el intercambio de recursos hecho posible por REA es más valioso cuando los recursos se liberan como REA completos que permiten no solo reutilizar sino también remezclar y reutilizar.</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>trabajan luxemburgo automáticamente asegurados cns comprensiblemente buscan atención principalmente país residencia grupo representa mayor parte pacientes transfronterizos segundo grupo pequeño comprende residentes luxemburgo buscan servicios salud especializados disponibles luxemburgo ejemplo atención oncológica pediátrica trasplante órganos</t>
+          <t>Como trabajan en Luxemburgo, están automáticamente asegurados con el CNS pero, comprensiblemente, buscan atención principalmente en su país de residencia. Este grupo representa la mayor parte de los pacientes transfronterizos. El segundo grupo, mucho más pequeño, comprende a los residentes de Luxemburgo que buscan servicios de salud especializados que no están disponibles en Luxemburgo (por ejemplo, atención oncológica pediátrica, trasplante de órganos).</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>encuentran corto plazo mayor desempleo asocia mortalidad general baja alto desempleo períodos tiempo largos asocia mayor mortalidad datos pensilvania revelan impacto pérdida trabajo tasas mortalidad persiste años después evento pérdida estimada esperanza vida años trabajador desplazado cuarenta años sullivan von wachter lado recesiones económicas pueden conducir mayores necesidades atención médica particularmente áreas salud mental vez puede conducir mayor utilización atención médica</t>
+          <t>Encuentran que, a corto plazo, un mayor desempleo se asocia con una mortalidad general más baja, pero un alto desempleo durante períodos de tiempo más largos se asocia con una mayor mortalidad. Los datos del estado de Pensilvania revelan que el impacto de la pérdida de un trabajo en las tasas de mortalidad persiste durante 20 años después del evento con una pérdida estimada en la esperanza de vida de 1,0 a 1,5 años para un trabajador desplazado a los cuarenta años (Sullivan y Von Wachter). Por un lado, las recesiones económicas pueden conducir a mayores necesidades de atención médica, particularmente en áreas como la salud mental que, a su vez, puede conducir a una mayor utilización de la atención médica.</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>siguiendo ejemplo países bajos suecia podría crear centros conocimiento escuelas mixtas municipios fin ayudar cambiar preferencias ideas erróneas extranjeros mediante visitas escuelas locales organizadas municipios visitas ofrecerían padres oportunidad discutir opciones matriculación conocer mejor escuelas zona ayudarles tomar decisiones conocimiento causa hijos ejemplo principio primero llega primero atiende discrimina estudiantes recién llegados padres recién inmigrados posibilidad padres nativos inscribir hijos lista espera escuela años antelación</t>
+          <t>Siguiendo el ejemplo de los Países Bajos, Suecia podría crear centros de conocimiento para escuelas mixtas en los municipios con el fin de ayudar a cambiar las preferencias y las ideas erróneas de los extranjeros mediante visitas a las escuelas locales organizadas por los municipios. Estas visitas ofrecerían a los padres la oportunidad de discutir las opciones de matriculación, conocer mejor las escuelas de su zona y ayudarles a tomar decisiones con conocimiento de causa para sus hijos. Por ejemplo, el principio de "el primero que llega es el primero que se atiende" discrimina a los estudiantes recién llegados porque los padres recién inmigrados no tienen la posibilidad, como los padres nativos, de inscribir a sus hijos en la lista de espera de una escuela con muchos años de antelación.</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>objetivo documento realizar análisis superposición privación infantil ue obtener información amplitud pobreza infantil grado superposición medidas pobreza monetaria multidimensional prestará especial atención investigación diferencias países dominios general hallazgos documento ofrecen fuerte llamado necesidad adoptar enfoque multidimensional hacia medición pobreza infantil contexto ue</t>
+          <t>El objetivo de este documento es realizar un análisis de superposición de la privación infantil en la UE para obtener información sobre la amplitud de la pobreza infantil y el grado de superposición entre las medidas de pobreza monetaria y multidimensional. Se prestará especial atención a la investigación de las diferencias entre países y entre dominios. En general, los hallazgos del documento ofrecen un fuerte llamado a la necesidad de adoptar un enfoque multidimensional hacia la medición de la pobreza infantil en el contexto de la UE.</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>últimos años sido testigos actividades pioneras nivel internacional relacionadas seguridad paciente programa danés hospitales seguros componente importante sistema danés notificación eventos adversos coordinado agencia nacional derechos quejas paciente naprc hacerlo actores panorama atención médica coincidido hacer calidad atención prioridad clave</t>
+          <t>Los últimos años han sido testigos de otras actividades pioneras a nivel internacional relacionadas con la seguridad del paciente, como el Programa Danés de Hospitales Más Seguros. Otro componente importante es el sistema danés para la notificación de eventos adversos, coordinado por la Agencia Nacional para los Derechos y Quejas del Paciente (NAPRC). Al hacerlo, muchos actores en todo el panorama de la atención médica han coincidido en hacer de la calidad de la atención una prioridad clave.</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>promedio ocde disminuido período dinamarca noruega suecia obtenido puntajes torno promedio ocde mientras resultados islandia disminuido ahora significativamente debajo promedio ocde fortalecimiento metas conocimiento habilidades condujo cambios evaluación alumnos</t>
+          <t>El promedio de la OCDE también ha disminuido durante este período. Dinamarca, Noruega y Suecia han obtenido puntajes en torno al promedio de la OCDE, mientras que los resultados de Islandia han disminuido y ahora están significativamente por debajo del promedio de la OCDE. El fortalecimiento de las metas de conocimiento y habilidades también condujo a cambios en la evaluación de los alumnos.</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>actualmente asistentes médicos capacitados atención emergencia ambulatoria diagnóstico prescripción desempeñan papel médicos enfermeras llenando brecha recursos especialmente zonas rurales datos refieren todas enfermeras licencia ejercer austria informa solo enfermeras empleadas hospital embargo número médicos atención primaria bajo cada habitantes comparación promedio ocde</t>
+          <t>Actualmente, los asistentes médicos, que están capacitados en atención de emergencia y ambulatoria para el diagnóstico y la prescripción, desempeñan un papel entre los médicos y las enfermeras, llenando la brecha de recursos, especialmente en las zonas rurales. Los datos se refieren a todas las enfermeras con licencia para ejercer. Austria informa solo enfermeras empleadas en el hospital. Sin embargo, el número de médicos de atención primaria es bajo, 0,7 por cada 1 000 habitantes, en comparación con el 1,0 del promedio de la OCDE.</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>educación atención primera infancia casi universales países ue nueve países europeos menos niños años edad escolarización obligatoria participan educación infantil logrado avances significativos aumentar alcance educación terciaria adultos</t>
+          <t>La educación y la atención a la primera infancia son casi universales en los países de la UE22. En nueve países europeos, al menos el 95% de los niños (desde los 4 años hasta la edad de escolarización obligatoria) participan en la educación infantil. Entre 2005 y 2015 se han logrado avances significativos para aumentar el alcance de la educación terciaria entre los adultos.</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>importante rápido deterioro situación humanitaria países región sigue suponiendo grave riesgo paz seguridad diversas implicaciones tras desplazamiento millones habitantes difícil traumática situación refugiados huyen zonas conflicto particular irak república árabe siria hace especialmente vulnerables expone alto riesgo tráfico drogas adicción falta control gubernamental ambiente general anarquía muchas zonas hacen prácticamente imposible supervisar actividades control drogas</t>
+          <t>El importante y rápido deterioro de la situación humanitaria en algunos países de la región sigue suponiendo un grave riesgo para la paz y la seguridad, con diversas implicaciones, tras el desplazamiento de millones de habitantes. La difícil y traumática situación de los refugiados que huyen de las zonas de conflicto, en particular en Irak y la República Árabe Siria, los hace especialmente vulnerables y los expone a un alto riesgo de tráfico de drogas y adicción. La falta de control gubernamental y un ambiente general de anarquía en muchas zonas hacen prácticamente imposible supervisar las actividades de control de drogas.</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>mente revisión recursos escolares aconsejó ministerio comunidad educativa general completen trabajo borrador marco competencias docentes marco propuso podría servir base común guiar formación inicial docentes evaluación regular docentes procesos certificación desarrollo profesional docente avance profesional embargo revisión identificó falta supervisión brindada ministerio proceso aunque señaló amplia consulta partes interesadas señaló falta debate entendimiento común sistema respecto constituye buena enseñanza shewbridge et</t>
+          <t>Con esto en mente, la Revisión de Recursos Escolares aconsejó al Ministerio ya la comunidad educativa en general que completen el trabajo en el borrador del 'Marco de Competencias Docentes' de 2014. Este marco, propuso, podría servir como una base común "para guiar la formación inicial de docentes, la evaluación regular de docentes, los procesos de certificación, el desarrollo profesional docente y el avance profesional". Sin embargo, la revisión identificó la "falta de supervisión" brindada por el Ministerio a este proceso y, aunque señaló una amplia consulta con las partes interesadas, también señaló "la falta de debate o entendimiento común en todo el sistema con respecto a lo que constituye una buena enseñanza" (Shewbridge et al.,</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>planes originales preveían médicos generales existentes ganarían progresivamente reconocimiento médicos familia siempre completaran diez días orientación preliminar seguidos programa dos años formación especializada embargo realizando esfuerzos aumentar número médicos atención primaria reducir tamaño lista cada médico niveles actuales cada servicio hospital público paga mediante tarifas paqueteque agrupan precios servicios ambulatorios hospitalización establecidos instituto seguridad social dentro presupuesto global negocia instituto seguridad social ssi ministerio salud pago personal implica salario componente basado desempeño</t>
+          <t>Los planes originales preveían que los médicos generales existentes ganarían progresivamente el reconocimiento como médicos de familia siempre que completaran diez días de orientación preliminar, seguidos de un programa de dos años de formación especializada. Sin embargo, se están realizando esfuerzos para aumentar el número de médicos de atención primaria y reducir el tamaño de la lista para cada médico de los niveles actuales. Cada servicio de hospital público se paga mediante "tarifas de paquete†que agrupan los precios de los servicios ambulatorios y de hospitalización establecidos por el Instituto de Seguridad Social, dentro de un presupuesto global que se negocia entre el Instituto de Seguridad Social (SSI) y el Ministerio de Salud. El pago del personal implica un salario y un componente basado en el desempeño.</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>estudio kings fund center for mental health naylor et enfermedad mental responsable carga total enfermedades inglaterra recibe solo gastos salud nhs centro economic performance organismos puesta marcha regionales pct sido reemplazados grupos puesta marcha clínica parte reformas nhs detalladas sección tras reformas actuales nhs porcentaje presupuesto atención salud destinará public health england ser utilizado autoridades locales encargar servicios salud pública</t>
+          <t>Un estudio del King's Fund y el Center for Mental Health (Naylor et al., La enfermedad mental es responsable del 23 % de la carga total de enfermedades en Inglaterra, pero recibe solo el 13 % de los gastos de salud del NHS (Centro de Economic Performance, 2012). Estos organismos de puesta en marcha regionales eran PCT, pero han sido reemplazados por grupos de puesta en marcha clínica como parte de las reformas del NHS detalladas en la sección 3.1. Tras las reformas actuales del NHS, un porcentaje del presupuesto de atención de la salud se destinará a Public Health England, para ser utilizado por las autoridades locales para encargar los servicios de salud pública.</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>desempeño estudiantes comenzó caer década parece probable amplias reformas emprendidas década contribuyeron declive holmlund et decentralization from box delegó responsabilidad escuelas primarias secundarias gobierno central municipios mala organización falta experiencia responsabilidades claras siguen siendo problemas importantes nivel municipal dos décadas después reforma snae asignación subóptima recursos significa escuelas débiles reciben suficiente apoyo</t>
+          <t>El desempeño de los estudiantes comenzó a caer ya en la década de 1980, pero parece probable que las amplias reformas emprendidas en la década de 1990 contribuyeron al declive (Holmlund et al., Decentralization from 1991-93 (Box 2.2) delegó la responsabilidad de las escuelas primarias y secundarias de los gobierno central a los municipios La mala organización, la falta de experiencia y las responsabilidades poco claras siguen siendo problemas importantes a nivel municipal, dos décadas después de la reforma (SNAE, 2011), y la asignación subóptima de recursos significa que las escuelas más débiles no reciben suficiente apoyo.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>además nueva línea pobreza banco mundial parece haber considerado tasa inflación unidos si utilizado línea dólar día luego día debería haberse convertido día implicaciones obvias estimaciones pobreza correspondientes reddy argumenta línea pobreza banco solo defectuosa sino tampoco útil propósitos política argumenta debe dar menos peso estimaciones pobreza banco seguimiento odm reducir pobreza hambre mitad</t>
+          <t>Además, la nueva línea de pobreza del Banco Mundial no parece haber considerado la tasa de inflación de los Estados Unidos, si se hubiera utilizado, la línea del dólar por día (luego $ 1,08 por día) debería haberse convertido en $ 1,45 por día en 2005, con implicaciones obvias para estimaciones de pobreza correspondientes. Reddy argumenta que la línea de pobreza del Banco no solo es defectuosa, sino que tampoco es muy útil para propósitos de política. Argumenta que se debe dar mucho menos peso a las estimaciones de pobreza del Banco en el seguimiento del ODM 1 para reducir la pobreza y el hambre a la mitad entre 1990 y 2015.</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>detalla conjunto integral políticas prácticas educativas políticas prácticas diseñadas abordar desafíos específicos enfrentan inmigrantes llegar nuevo país diseñadas fomentar integración largo plazo inmigrantes hijos estudiantes origen inmigrante sistemas educativos corren mayor riesgo bajo rendimiento académico reportar sentimientos alienación alta ansiedad relacionada trabajo escolar baja satisfacción vida</t>
+          <t>También detalla un conjunto integral de políticas y prácticas educativas. Algunas de estas políticas y prácticas están diseñadas para abordar los desafíos específicos que enfrentan los inmigrantes al llegar a un nuevo país, otras están diseñadas para fomentar la integración a largo plazo de los inmigrantes y sus hijos. Los estudiantes de origen inmigrante en muchos sistemas educativos corren un mayor riesgo de bajo rendimiento académico, de reportar sentimientos de alienación, alta ansiedad relacionada con el trabajo escolar y baja satisfacción con la vida.</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>mayoría países ingreso familiar incluye valor alquiler imputado viviendas ocupadas propietarios chile pobreza disminuyó levemente tasa indigencia permaneció básicamente cambios tasas pobreza indigencia salvador cambiaron chile cifras aquí presentadas difieren primera vez estimaciones oficiales país mideplan</t>
+          <t>En la mayoría de los países, el ingreso familiar también incluye el valor de alquiler imputado de las viviendas ocupadas por sus propietarios. En Chile, la pobreza disminuyó levemente entre 2006 y 2009, y la tasa de indigencia permaneció básicamente sin cambios.3 Las tasas de pobreza e indigencia en El Salvador no cambiaron entre 2004 y 2009. Para Chile, las cifras aquí presentadas difieren por primera vez de las estimaciones oficiales del país (MIDEPLAN.</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ministerio planea ahora implicarse través proyecto implantación guías práctica clínica asistencia cubierta seguro médico público financiado ue puesto marcha finales sistema auditoría interna calidad sistema supervisión seguridad pacientes obligatorios ley siguen aplicarse claro punto auditorías traducen procesos reales mejora atención paciente</t>
+          <t>El Ministerio planea ahora implicarse más a través del proyecto "Implantación de Guías de Práctica Clínica en la asistencia cubierta por el seguro médico público", financiado por la UE y puesto en marcha a finales de 2013. El sistema de auditoría interna de la calidad y el sistema de supervisión de la seguridad de los pacientes son obligatorios por ley, pero siguen sin aplicarse. No está claro hasta qué punto estas auditorías se traducen en procesos reales de mejora de la atención al paciente.</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>países alumnos segregados diferentes vías edades tempranas reflejando noción sólo niños pueden alcanzar niveles clase mundial pisa muestra selección relacionada grandes disparidades sociales contrario países tan diferentes estonia canadá finlandia japón padres profesores comprometidos creencia alumnos pueden alcanzar altos niveles</t>
+          <t>En algunos países, los alumnos son segregados en diferentes vías a edades tempranas, reflejando la noción de que sólo algunos niños pueden alcanzar niveles de clase mundial. Pero PISA muestra que esa selección está relacionada con grandes disparidades sociales. Por el contrario, en países tan diferentes como Estonia, Canadá, Finlandia y Japón, padres y profesores están comprometidos con la creencia de que todos los alumnos pueden alcanzar altos niveles.</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>embargo colaboración nacional salud mental nsph actor notable influyente ámbito atención salud mental suecia aunque elabora directamente política nacional objetivo promover desarrollo mejor tratamiento psiquiátrico mediante capacitación autoridades pertinentes beneficiarse experiencias empoderamiento propugnados través participación pacientes usuarios familiares nsph trabajan apoyar voces pacientes mejorar accesibilidad desarrollar prevención enfermedades mentales difundir información influir opinión pública proporcionar apoyo recursos organizaciones interesadas cooperar autoridades organizaciones salud mental nivel nacional</t>
+          <t>Sin embargo, la Colaboración Nacional para la Salud Mental (NSPH) es un actor notable e influyente en el ámbito de la atención a la salud mental en Suecia. Aunque no elabora directamente la política nacional, su objetivo es promover el desarrollo de un mejor tratamiento psiquiátrico mediante la capacitación de las autoridades pertinentes para "beneficiarse de las experiencias y el empoderamiento propugnados a través de la participación de pacientes, usuarios y familiares" (NSPH). También trabajan para apoyar las voces de los pacientes, mejorar la accesibilidad, desarrollar la prevención de las enfermedades mentales, difundir información e influir en la opinión pública, proporcionar apoyo y recursos a las organizaciones interesadas y cooperar con las autoridades y otras organizaciones de salud mental a nivel nacional.</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>centro realiza seguimiento rutinario cifras tasas prevalencia vihsida región parte proceso planificación mayoría países región establecido organismo separado responsabilidad coordinar actividades multisectoriales diversas respuestas nivel micro nivel nacional organismo generalmente establece bajo ministerio salud caso jamaica veces establece parte oficina primer ministro bahamas barbados trinidad tobago ocuparemos adelante</t>
+          <t>El centro realiza un seguimiento rutinario de las cifras y las tasas de prevalencia del VIH/SIDA en la región. Como parte del proceso de planificación, la mayoría de los países de la región también han establecido un organismo separado con la responsabilidad de coordinar las actividades multisectoriales y las diversas respuestas a nivel micro a nivel nacional. Este organismo generalmente se establece bajo el Ministerio de Salud, como en el caso de Jamaica, pero a veces se establece como parte de la oficina del Primer Ministro, como en las Bahamas, Barbados y Trinidad y Tobago. Nos ocuparemos de esto más adelante.</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>salarios profesionales salud bajos comparación internacional múltiplos salario medio salarios médicos cabecera especialistas enfermeras hospitales encontraban bajos ocde proporción médicos mayores años alrededor encima promedio ocde alrededor figura agregado ocde promedio ponderado datos países ocde</t>
+          <t>Los salarios de los profesionales de la salud son bajos en comparación internacional. En 2009, como múltiplos del salario medio, los salarios de médicos de cabecera (1,4), especialistas (1,6) y enfermeras de hospitales (0,8) se encontraban entre los más bajos de la OCDE. La proporción de médicos mayores de 55 años era de alrededor del 40% en 2009, muy por encima del promedio de la OCDE de alrededor del 30% (Figura 4.8). El agregado de la OCDE es un promedio no ponderado de datos de 27 países de la OCDE.</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>nuevo sistema evaluación calidad aspectos mercado laboral bastante destacados manifiesta creciente importancia encuestas ex alumnos composición paneles evaluación externos hogskoleverket ejemplo ranking times higherqs world university adopta empleabilidad graduados indicadores embargo representa solo ranking general impacto insignificante comparación alto peso otorgado calidad investigación weert percepción demanda habilidades cambiando rápidamente países ocde estimulado intentos predecir sectores ocupaciones probabilidades expandirse próximos años</t>
+          <t>En el nuevo sistema de evaluación de la calidad, los aspectos del mercado laboral son bastante destacados, lo que se manifiesta en la creciente importancia de las encuestas de ex alumnos y la composición de paneles de evaluación (externos) (Hogskoleverket, 2011). Por ejemplo, el ranking Times Higher-QS World University adopta la empleabilidad de los graduados como uno de los indicadores, sin embargo, esto representa solo el 10% del ranking general, un impacto que es insignificante en comparación con el alto peso otorgado a la calidad de la investigación (De Weert, 2011). La percepción de que la demanda de habilidades está cambiando rápidamente en los países de la OCDE ha estimulado los intentos de predecir qué sectores y ocupaciones tienen más probabilidades de expandirse en los próximos años.</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ninguno mujeres alcanzan nivel mayoría participa mercado laboral demás grupos asalariados representan mayor parte pobres indigentes vulnerables vulnerables demuestra empleo asalariado protege personas riesgo caer pobreza aquí brecha género mujeres particularmente pobres indigentes indigentes porcentaje mayor trabajadoras familiares remuneradas trabajadoras domésticas</t>
+          <t>En ninguno de ellos las mujeres alcanzan ese nivel, porque la mayoría no participa en el mercado laboral. En los demás grupos, los asalariados representan la mayor parte (50% de los pobres no indigentes, 57% de los vulnerables y 64% de los no vulnerables), lo que demuestra que el empleo asalariado no protege a las personas del riesgo de caer en pobreza. Aquí también hay una brecha de género, entre las mujeres (particularmente entre las pobres indigentes y no indigentes), un porcentaje mayor son trabajadoras familiares no remuneradas y trabajadoras domésticas.</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>hace veinte años ejemplo lista incluido conexión internet retrocedamos tiempo comer menos vez día carne pollo pescado considerado normal hecho cuanto larga visión histórica evidente resulta pobreza concepto esencialmente relativo</t>
+          <t>Hace veinte años, por ejemplo, esa lista no habría incluido una conexión a Internet. Retrocedamos un poco más en el tiempo y "comer al menos una vez al día carne, pollo o pescado" no se habría considerado normal. De hecho, cuanto más larga es la visión histórica, más evidente resulta que la pobreza es un concepto esencialmente relativo.</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>dichas estrategias política implican cambios forma organizan actualmente roles comprador proveedor supervisión cómo produce compra bienes servicios reembolso proveedor cómo establece infraestructura información sistema salud alternativas política identifican luz experiencias internacionales ocde lugares evalúa factibilidad específicamente contexto colombiano sección presenta problemas relacionados calidad prestación atención salud mientras sección trata mayores preocupaciones colombia sostenibilidad financiera sistema salud</t>
+          <t>Dichas estrategias de política implican cambios en la forma en que se organizan actualmente los roles de comprador, proveedor y supervisión, cómo se produce la compra de bienes y servicios y el reembolso del proveedor, y cómo se establece la infraestructura de información del sistema de salud. Algunas de estas alternativas de política se identifican a la luz de las experiencias internacionales en la OCDE y en otros lugares, y se evalúa su factibilidad específicamente en el contexto colombiano. La sección 2.3 presenta problemas relacionados con la calidad de la prestación de atención de la salud, mientras que la sección 2.4 trata sobre las mayores preocupaciones en Colombia sobre la sostenibilidad financiera del sistema de salud.</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>embargo posible aunque codificadas causa subyacente muertes sido precipitadas afección influenza ecv ho hendi ejemplo inglaterra gales informa tercio todas muertes causa subyacente demencia enfermedad alzheimer enfermedad respiratoria mencionada certificado defunción ons aunque razones patrón estacional muertes demencia enfermedad alzheimer claras puede relacionado mayor vulnerabilidad personas condiciones enfermedades respiratorias</t>
+          <t>Sin embargo, es posible que, aunque codificadas como la causa subyacente, algunas de estas muertes hayan sido precipitadas por otra afección, como la influenza o las ECV (Ho y Hendi, 2018). Por ejemplo, en Inglaterra y Gales, se informa que más de un tercio de todas las muertes con una causa subyacente de demencia o enfermedad de Alzheimer también tienen una enfermedad respiratoria mencionada en el certificado de defunción (ONS, 2016a). Aunque las razones del patrón estacional en las muertes por demencia y enfermedad de Alzheimer no están claras, puede estar relacionado con la mayor vulnerabilidad de las personas con estas condiciones a las enfermedades respiratorias.</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>niños pequeños bebés niños pequeños capacitación especializada práctica parece fuertemente asociada calidad pedagógica resultados cognitivos sociales educadores primera infancia encuentran entornos sociales cada vez complejos encuentran multiplicidad antecedentes experiencias familiares factores crean imperativos adoptar nuevas pedagogías prácticas organizacionales acomodar pluralismo elliott</t>
+          <t>Para los niños más pequeños (bebés y niños pequeños), la capacitación especializada y práctica parece estar más fuertemente asociada con la calidad pedagógica y los resultados cognitivos y sociales. Los educadores de la primera infancia se encuentran con entornos sociales cada vez más complejos y se encuentran con una multiplicidad de antecedentes y experiencias familiares. Estos factores crean imperativos para adoptar nuevas pedagogías y prácticas organizacionales para acomodar este pluralismo (Elliott, 2006).</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>implementaron dos reformas elección escuela permitieron apertura escuelas privadas independientes otorgaron alumnos derecho elegir escuelas públicas privadas abolieron reglas evaluación calificaciones docentes implementaron nuevo plan estudios nuevo sistema calificación pensó si decisiones tomaban localmente escuelas adaptarían fácilmente necesidades individuales alumnos además previó escuelas adaptarían mejor contexto local personal escuela mayor discreción comunicación influencia padres partes interesadas locales mejorarían decisiones tomaran localmente costo alumno redujo consecuencia mayor número alumnos maestro</t>
+          <t>En 1992 se implementaron dos reformas de elección de escuela, que permitieron la apertura de escuelas privadas independientes y también otorgaron a los alumnos el derecho a elegir entre escuelas públicas y privadas. En 1993 se abolieron las reglas para la evaluación de las calificaciones de los docentes y en 1994 se implementaron un nuevo plan de estudios y un nuevo sistema de calificación. Se pensó que si las decisiones se tomaban localmente, las escuelas se adaptarían más fácilmente a las necesidades individuales de los alumnos. Además, se previó que las escuelas se adaptarían mejor a su contexto local cuando el personal de la escuela tuviera mayor discreción y que la comunicación y la influencia de los padres y otras partes interesadas locales mejorarían cuando las decisiones se tomaran localmente. El costo por alumno se redujo como consecuencia de un mayor número de alumnos por maestro.</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>posible enfoque empezando explorar colocación estaciones cebo bolas algodón empapadas azúcar bacterias colocadas tarros arcilla alrededor aldeas prevalece malaria temas importantes deben abordarse resolución problemas normativos éticos sociales relacionados liberación naturaleza bacterias modificadas genéticamente first results of phase trial of rtssas malaria vaccine in african children new england journal of medecineno</t>
+          <t>Un posible enfoque que se está empezando a explorar es la colocación de estaciones de cebo (bolas de algodón empapadas con azúcar y bacterias y colocadas en tarros de arcilla) alrededor de las aldeas donde prevalece la malaria. Otros temas importantes que deben abordarse son la resolución de los problemas normativos, éticos y sociales relacionados con la liberación en la naturaleza de bacterias modificadas genéticamente. First results of Phase 3 trial of RTS,S/AS01 malaria vaccine in African childrenâ€, New England Journal of Medecine,No.</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>embargo alcance mayores ganancias productividad disminuirá tiempo medida tasa urbanización acerque economías avanzadas tasas brutas matriculación nivel primario superado tiempo países ocde mientras niveles preescolar secundario superior terciario todavía brecha llenar figura d embargo alentador matriculación nivel preescolar aumentado rápidamente superando meta cuadro anterior reforma estructura salarial determinaba administrativamente sector estatal proporcionaba mayor parte empleo rendimientos educación bajos</t>
+          <t>Sin embargo, el alcance de mayores ganancias de productividad en este sentido disminuirá con el tiempo, a medida que la tasa de urbanización se acerque a la de las economías más avanzadas. Las tasas brutas de matriculación en el nivel primario han superado durante mucho tiempo las de los países de la OCDE, mientras que en los niveles preescolar, secundario superior y terciario todavía hay una brecha por llenar (Figura 1.2.D). Sin embargo, es alentador que la matriculación en el nivel preescolar haya aumentado rápidamente, al 67,5 % en 2013, superando la meta del 60 % para 2015 (Cuadro 1.1). En la era anterior a la reforma, cuando la estructura salarial se determinaba administrativamente y el sector estatal proporcionaba la mayor parte del empleo, los rendimientos de la educación eran bajos.</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>tesoro neozelandés estableció siguientes principios clave gestión pública organismos estatales claridad objetivos libertad gestión responsabilidad evaluación eficaz rendimiento flujos información adecuados tesoro neozelandés cook sector educación significa distintos organismos educativos deben coordinar dirección estratégica garantizar supervisión calidad educación relacionada objetivos alto nivel rendimiento sistema marco management for outcomes ofrece modelo común ciclo gestión calidad departamentos estatales</t>
+          <t>El Tesoro neozelandés estableció los siguientes principios clave para la gestión pública en todos los organismos estatales: claridad de objetivos, libertad de gestión, responsabilidad, evaluación eficaz del rendimiento y flujos de información adecuados (Tesoro neozelandés, 1987, Cook, 2004). En el sector de la educación, esto significa que los distintos organismos educativos deben coordinar su dirección estratégica para garantizar que la supervisión de la calidad de la educación esté relacionada con los objetivos de alto nivel del rendimiento del sistema. El marco Management for Outcomes ofrece un modelo común de ciclo de gestión de la calidad para todos los departamentos estatales.</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>aspecto clave aspiraciones agenda dejar nadie atrás frecuencia desagregación implica diseño encuestas permitan recolección análisis datos edad sexo nivel educativo ocupación lugar residencia desagregación situación laboral salud etnia puede ser gran importancia</t>
+          <t>Este es un aspecto clave de las aspiraciones de la Agenda 2030 de “no dejar a nadie atrás”. Con frecuencia, la desagregación implica el diseño de encuestas que permitan la recolección y el análisis de datos sobre edad, sexo, nivel educativo, ocupación y lugar de residencia. La desagregación por situación laboral y de salud, y por etnia, también puede ser de gran importancia.</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>crisis económica frenado descenso gradual largo plazo desigualdad pobreza número hogares pobres aumentando siendo niños jóvenes afectados desempleo principales razones descenso ingresos familiares sistema fiscal prestaciones sociales alivia considerablemente desigualdad pobreza</t>
+          <t>La crisis económica ha frenado un descenso gradual a largo plazo tanto de la desigualdad como de la pobreza, y el número de hogares pobres está aumentando, siendo los niños y los jóvenes los más afectados. El desempleo es una de las principales razones del descenso de los ingresos familiares. El sistema fiscal y de prestaciones sociales alivia considerablemente tanto la desigualdad como la pobreza.</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>costa rica estudiando ejemplo si impuestos locales podrían financiar servicios sanitarios atención primaria debatiendo impuestos pecado alcohol tabaco productos tasas copagos definidos formalmente pueden ser opción margen sustituir orientar mejor crecientes niveles gasto usuarios fomentando uso servicios alto valor desalentando atención innecesaria</t>
+          <t>Costa Rica está estudiando, por ejemplo, si los impuestos locales podrían financiar algunos servicios sanitarios, como la atención primaria. También se están debatiendo los "impuestos del pecado" sobre el alcohol, el tabaco y otros productos. Las tasas o copagos definidos formalmente también pueden ser una opción al margen, para sustituir y orientar mejor los crecientes niveles de gasto de los usuarios, fomentando el uso de servicios de alto valor y desalentando la atención innecesaria.</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>probable padres abusan drogas vivan hogares familiares amigos extraños consumen drogas expone niños posibles daños emocionales físicos además niños ser retirados tales entornos probabilidades participar delitos consumo drogas delincuencia uso indebido drogas motivo especial preocupación niños calle mundo</t>
+          <t>Es más probable que los padres que abusan de las drogas vivan en hogares en los que familiares, amigos y extraños también consumen drogas, lo que expone a los niños a posibles daños emocionales y físicos. Además, los niños que tienen que ser retirados de tales entornos tienen más probabilidades de participar en delitos, consumo de drogas y delincuencia. El uso indebido de drogas es motivo de especial preocupación entre los niños de la calle en todo el mundo.</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>abuso alcohol causa presentismo secuelas consumo excesivo alcohol incluyen incapacidad concentrarse trabajo deterioro rendimiento laboral relaciones compañeros mayores riesgos seguridad reducción rendimiento global vez puede dar lugar conflictos quejas pérdida tiempo trabajo reducción productividad oit</t>
+          <t>El abuso del alcohol es una causa de presentismo. Las secuelas del consumo excesivo de alcohol incluyen incapacidad para concentrarse en el trabajo, deterioro del rendimiento laboral y de las relaciones con los compañeros, mayores riesgos para la seguridad y reducción del rendimiento global. Esto, a su vez, puede dar lugar a conflictos, quejas, pérdida de tiempo de trabajo y reducción de la productividad (OIT, 2012).</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>mil millones personas salieron pobreza extrema embargo lograr ods fácil millones personas siguen luchando pobreza extrema viven menos dólares día población mundial sigue creciendo esfuerzos erradicación pobreza exigirán lleguemos comunidades marginadas dentro vías desarrollo actuales carecen capacidades productivas viven áreas remotas acceso servicios enfrentan discriminación muchas personas escapan pobreza ingresos pueden seguir siendo relativamente pobres contexto local enfrentar privaciones salud educación vivienda</t>
+          <t>Desde 1990 hasta 2015, más de mil millones de personas salieron de la pobreza extrema. Sin embargo, lograr el ODS 1 no será fácil. Más de 700 millones de personas siguen luchando contra la pobreza extrema y viven con menos de 1,90 dólares al día. La población mundial sigue creciendo. Los esfuerzos de erradicación de la pobreza exigirán que lleguemos a las comunidades marginadas dentro de las vías de desarrollo actuales porque carecen de capacidades productivas, viven en áreas remotas sin acceso a servicios o enfrentan discriminación. Muchas personas que escapan de la pobreza de ingresos pueden seguir siendo relativamente pobres en su contexto local o enfrentar privaciones en salud, educación y vivienda.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>pobreza personas tres menos años estudios superior media población general mientras superior personas cuatro seis años siete nueve años estudios respectivamente cuanto tipo empleo tasas pobreza altas desempleados altas inactivos altas trabajadores autónomos población total tasas pobreza trabajadores asalariados término medio inferiores población general prueba papel crucial empleo eludir pobreza indigencia aunque pobreza disminuyó alrededor población sigue sufriendo privaciones simultáneas diferentes dimensiones bienestar</t>
+          <t>La pobreza entre las personas con tres o menos años de estudios es un 66% superior a la media de la población general, mientras que es un 34% y un 15% superior entre las personas con cuatro a seis años y siete a nueve años de estudios, respectivamente. En cuanto al tipo de empleo, las tasas de pobreza son un 90% más altas entre los desempleados, un 23% más altas entre los inactivos y un 18% más altas entre los trabajadores autónomos que en la población total. Las tasas de pobreza entre los trabajadores asalariados son, por término medio, un 41 % inferiores a las de la población general, una prueba más del papel crucial del empleo para eludir la pobreza y la indigencia. Aunque la pobreza disminuyó entre 2005 y 2012, alrededor del 28 % de la población sigue sufriendo privaciones simultáneas en diferentes dimensiones del bienestar.</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>embargo comparación promedio internacional doble maestros primaria méxico participan programas formales inducción si acceso incluso caso profesores acceso pocos participan tutorías mayoría países maestros primaria reciben apoyo colegas</t>
+          <t>Sin embargo, en comparación con el promedio internacional, el doble de los maestros de primaria en México participan en programas formales de inducción si tienen acceso a ellos. Incluso en el caso de los profesores que sí tienen acceso, muy pocos participan en tutorías. En la mayoría de los países, los maestros de primaria reciben apoyo de otros colegas.</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>debe disponible infraestructura ecosistema educativo completo apoyar mejora prácticas docentes docentes necesitan recursos rúbricas planes lecciones ejemplos nuevos conocimientos colegas hablar expertos den retroalimentación espacio reflexión apoyo jerarquía oportunidades probar nuevos enfoques enseñanza alumnos etc desarrollo profesional planes adoptaron muchas formas según estándares enseñanza creencias docentes apoyo líderes escolares sistemas mayoría incluía tres elementos clave sesiones capacitación seguimiento individual docentes oportunidades aprendizaje pares consulte capítulo</t>
+          <t>Debe estar disponible una infraestructura o ecosistema educativo completo para apoyar la mejora de las prácticas docentes. Los docentes necesitan recursos (rúbricas, planes de lecciones, ejemplos), nuevos conocimientos, colegas con quienes hablar, expertos que les den retroalimentación, espacio para la reflexión, apoyo de su jerarquía, oportunidades para probar estos nuevos enfoques de enseñanza con sus alumnos, etc. Ese desarrollo profesional Los planes adoptaron muchas formas, según los estándares de enseñanza, las creencias de los docentes y el apoyo de los líderes escolares y de los sistemas, pero la mayoría incluía tres elementos clave: sesiones de capacitación, seguimiento individual con los docentes y oportunidades de aprendizaje entre pares (consulte el Capítulo 5). .</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ley enmienda incluía disposiciones mejorar tratamiento atención personas drogodependientes permitió gestión drogodependencia contexto legitimó sustitución opiáceos mantenimiento servicios terciarios ley modificación derogó imposición obligatoria pena muerte caso reincidencia tráfico grandes cantidades drogas</t>
+          <t>La ley de enmienda incluía disposiciones para mejorar el tratamiento y la atención de las personas drogodependientes. Permitió la gestión de la drogodependencia y, en ese contexto, legitimó la sustitución de opiáceos, el mantenimiento y otros servicios terciarios. La ley de modificación también derogó la imposición obligatoria de la pena de muerte en caso de reincidencia por tráfico de grandes cantidades de drogas.</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>actualidad acceso servicios atención salud parece ser equitativo términos generales todas regiones aunque informes limitados regiones municipios desigualdades inhiben comprensión análisis profundos creciente centralización servicios hospitalarios especializados podría exacerbar pequeñas desigualdades distribución geográfica actual médicos dinamarca municipios deberán asegurarse pacientes edad avanzada vean perjudicados posibles problemas acceso causados cierre hospitales locales pequeños incentivos reclutar profesionales salud comunidades locales necesidades altas podrían tener mejores beneficios retención áreas desatendidas largo plazo</t>
+          <t>En la actualidad, el acceso a los servicios de atención de la salud parece ser equitativo en términos generales en todas las regiones, aunque los informes limitados de las regiones y los municipios sobre las desigualdades inhiben una comprensión y un análisis más profundos. La creciente centralización de los servicios hospitalarios especializados podría exacerbar las pequeñas desigualdades en la distribución geográfica actual de los médicos en Dinamarca. Los municipios deberán asegurarse de que los pacientes de edad avanzada no se vean perjudicados por posibles problemas de acceso causados ​​por el cierre de hospitales locales más pequeños. Los incentivos para reclutar profesionales de la salud de las comunidades locales donde las necesidades son más altas podrían tener mejores beneficios en la retención en áreas desatendidas a largo plazo.</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>acuerdo aboga políticas integrales enfoque centrado atención segmentos pobres vulnerables excluidos sociedad acuerdo necesidades características contextos particulares ciencia cultura oei ministros educación aprobaron proyecto integral primera infancia eje proyecto metas educación queremos generación bicentenario cepaloeisegib tal caso países asistencia generalizada uruguay años méxico</t>
+          <t>El acuerdo aboga por políticas integrales y un enfoque centrado en la atención a los segmentos pobres, vulnerables y excluidos de la sociedad, de acuerdo con sus necesidades, características y contextos particulares. Ciencia y Cultura (OEI), los ministros de Educación aprobaron un proyecto integral para la primera infancia que es el eje del proyecto "Metas 2021: La Educación que Queremos para la Generación del Bicentenario" (CEPAL/OEI/SEGIB, 2010). Tal es el caso de países con asistencia más generalizada, como Uruguay (4 años) y México (3).</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>cuarto lugar mortalidad susceptible igual indicadores longevidad cuenta intervenciones sanitarias destinadas mejorar calidad vida prolongarla ejemplo terapias aliviar dolor atención mental reducir carencia datos proyecto indicadores calidad atención sanitaria hcqi ocde comenzó desarrollando conjunto indicadores garcía armesto et edición health at glance presenta selección hcqi incluyen tasas cribado supervivencia mortalidad cánceres seleccionados tasas vacunación tasas ingresos hospitalarios evitables varias enfermedades crónicas</t>
+          <t>En cuarto lugar, la mortalidad susceptible, al igual que los indicadores de longevidad, no tiene en cuenta las intervenciones sanitarias destinadas a mejorar la calidad de vida sin prolongarla (por ejemplo, terapias para aliviar el dolor y atención mental). Para reducir esta carencia de datos, el proyecto de Indicadores de Calidad de la Atención Sanitaria (HCQI) de la OCDE, que comenzó en 2001, está desarrollando un conjunto de indicadores (García Armesto et al., La edición de 2009 de Health at a Glance presenta una selección de 23 HCQI, entre los que se incluyen las tasas de cribado, supervivencia y mortalidad de cánceres seleccionados, las tasas de vacunación y las tasas de ingresos hospitalarios evitables para varias enfermedades crónicas.</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ejemplo polonia transferencia familiar promedio proporción reciben dirigir transferencia niños pobres aumentaría gran medida tasa aceptación niños pobres así cantidad niño pobre ayudaría sacar niños pobreza impacto adverso mínimo niños encima línea pobreza proporción recibía beneficio baja igual cantidad mismo modo proporción recibe prestaciones familiares comparativamente baja canadá república checa grecia lituania especialmente méxico</t>
+          <t>Por ejemplo, en Polonia la transferencia familiar promedio es de $799 y la proporción de quienes la reciben es del 39%. Dirigir esta transferencia a los niños pobres aumentaría en gran medida la tasa de aceptación entre los niños pobres, así como la cantidad por niño pobre a $ 2969.9, lo que ayudaría a sacar a estos niños de la pobreza y tendría un impacto adverso mínimo en los niños por encima de la línea de pobreza. , ya que la proporción que recibía el beneficio ya era baja, al igual que la cantidad. Del mismo modo, la proporción que recibe prestaciones familiares es comparativamente baja en Canadá (48 %), República Checa (47 %), Grecia (48,8 %), Lituania (45 %) y especialmente México (6,2 %).</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>define solo factor géneros grupos edad datos agregados apc disponibles género edad rango percentil ponderado calcula cada individuo distribución original si dos personas misma cantidad alcohol atribuye mismo rango percentil vez aplica corrección personas asigna nuevo corregido consumo peligroso alcohol calculan nuevos ic</t>
+          <t>Se define un solo factor para todos los géneros y grupos de edad, ya que los datos agregados de APC no están disponibles por género y edad. El rango percentil ponderado se calcula para cada individuo en la distribución original. Si dos o más personas tienen la misma cantidad de alcohol, se les atribuye el mismo rango percentil. Una vez que se aplica la corrección, a las personas se les asigna un nuevo estado corregido de consumo peligroso de alcohol y se calculan nuevos IC.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cada ciclo pisa evalúa tres dominios centrales lectura matemáticas ciencias cuales constituye dominio principal ciclo determinado lectura matemáticas ciencias dominio principal recibe mayor parte tiempo prueba elementos cuestionario tienden centrarse compromiso actitudes disposiciones estudiantes hacia dominio materia principal evaluación entrega computadora material prueba pisa generalmente organiza torno grupos específicos materias diseñados tomar alrededor minutos completarse cada folleto contiene cuatro grupos elementos prueba</t>
+          <t>Cada ciclo de PISA evalúa tres dominios centrales (lectura, matemáticas y ciencias), uno de los cuales constituye el dominio principal en un ciclo determinado (lectura en 2000 y 2009, matemáticas en 2003 y 2012 y ciencias en 2006 y 2015). El dominio principal recibe una mayor parte del tiempo de prueba y los elementos del cuestionario tienden a centrarse en el compromiso, las actitudes y las disposiciones de los estudiantes hacia el dominio de la materia principal. Desde 2015 la evaluación se entrega por computadora. El material de prueba en PISA generalmente se organiza en torno a grupos específicos de materias diseñados para tomar alrededor de 30 minutos en completarse y cada folleto contiene cuatro grupos de elementos de prueba.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ahora elección pedagogía menudo hecho ad hoc basado maestro encontrado formación docente propia educación lortie docentes cuentan apoyo formación docente alta calidad sólidas infraestructuras profesionales permite tomar decisiones concertadas pedagogía actuando diseñadores aprendizaje seleccionar enfoques claro impacto deseado jensen et but developing selección pedagogías implica determinar eficazcomo indica impacto diversas medidas aprendizaje</t>
+          <t>Hasta ahora, la elección de la pedagogía a menudo se ha hecho ad hoc o se ha basado en lo que un maestro haya encontrado en su formación docente o en su propia educación (Lortie, 2002). Pero cuando los docentes cuentan con el apoyo de una formación docente de alta calidad y sólidas infraestructuras profesionales, se les permite tomar decisiones concertadas sobre la pedagogía, actuando como diseñadores de aprendizaje al seleccionar enfoques con un sentido claro del impacto deseado (Jensen et al., But, Developing y la selección de pedagogías implica más que determinar qué es "eficaz†como lo indica el impacto en diversas medidas de aprendizaje.</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>así informe comisión atkinson monitoring global poverty banco mundial observa acertadamente ipm menos intensivo datos medidas monetarias creación medida pobreza superpuesta medidas generales multidimensionalidad desarrolladas alkire foster cierto aumenta apuestas respecto requisitos datos determinar grado superposición privación dimensiones necesario tener fuente datos nivel individuo hogar cubra todas dimensiones relevantes mismo tiempo número preguntas requeridas dimensión puede ser considerablemente menor caso indicadores monetarios caso medición consumo indicador política monetariala información requerida calcular consumo suele ser extensa</t>
+          <t>Así, el Informe de la Comisión Atkinson "Monitoring Global Poverty" (Banco Mundial, 2017) observa acertadamente que el IPM es menos intensivo en datos que las medidas monetarias: "La creación de la medida de pobreza superpuesta, o de las medidas más generales de multidimensionalidad desarrolladas por Alkire y Foster (2011a), en cierto sentido, aumenta las apuestas con respecto a los requisitos de datos Para determinar el grado de superposición de la privación entre las dimensiones, es necesario tener una fuente de datos a nivel del individuo o del hogar que cubra todas las dimensiones relevantes. Al mismo tiempo, el número de preguntas requeridas por dimensión puede ser considerablemente menor en el caso de indicadores no monetarios que en el caso de la medición del consumo para el indicador de política monetaria.La información requerida para calcular el consumo suele ser mucho más extensa.</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>supuesto refleja parte respuestas comportamiento provisión prestaciones sociales si pensionistas desempleados enfermos saben recibirán prestaciones estatales reducen incentivos mantenerse mismos asegurarse riesgo pérdida ingresos unas prestaciones sociales generosas pueden dar lugar gran número personas ingresos mercado mayores niveles desigualdad ingresos mercado segundo punto destacar tabla políticas redistributivas efectos diferentes resultados finales pobreza distintos países</t>
+          <t>Por supuesto, esto refleja en parte respuestas de comportamiento a la provisión de prestaciones sociales: si los pensionistas, los desempleados y los enfermos saben que recibirán prestaciones estatales, se reducen sus incentivos para mantenerse a sí mismos o para asegurarse contra el riesgo de pérdida de ingresos. Por lo tanto, unas prestaciones sociales generosas pueden dar lugar a un gran número de personas sin ingresos de mercado y a mayores niveles de desigualdad de los ingresos de mercado. El segundo punto a destacar de la Tabla 2.2 es que las políticas redistributivas tienen efectos muy diferentes sobre los resultados finales de la pobreza en los distintos países.</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>incluso pasado expectativa menudo infundada ahora totalmente desfasada progreso técnico aumenta modifica demanda competencias nivel superior pesar ello países siguen siendo limitadas oportunidades titulados programas formación profesional secundaria superior profundizar actualizar competencias preocupante falta tales oportunidades disuade jóvenes seguir ruta profesional inicial veces favor trayectorias profesionales menos adecuadas</t>
+          <t>Incluso en el pasado, esta expectativa era a menudo infundada, y ahora está totalmente desfasada, ya que el progreso técnico aumenta y modifica la demanda de competencias de nivel superior. A pesar de ello, en muchos países siguen siendo limitadas las oportunidades de los titulados en programas de formación profesional de secundaria superior para profundizar y actualizar sus competencias. Esto es preocupante, porque más que nada, la falta de tales oportunidades disuade a los jóvenes de seguir una ruta profesional inicial, a veces en favor de trayectorias profesionales menos adecuadas.</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>definición privación evolucionado años hoy inteligencia artificial permite enriquecerla integrar datos distintas fuentes censos imágenes satelitales registros administrativos algoritmos aprendizaje automático posible identificar patrones invisibles exclusión infantil anticipar riesgos privación agraven así sistemas ia convierten aliados estratégicos garantizar niños acceso oportuno educación salud alimentación cumpliendo manera efectiva principios convención derechos niño</t>
+          <t>La definición de privación ha evolucionado con los años, y hoy la inteligencia artificial permite enriquecerla al integrar datos de distintas fuentes: censos, imágenes satelitales y registros administrativos. Con algoritmos de aprendizaje automático, es posible identificar patrones invisibles de exclusión infantil y anticipar riesgos de privación antes de que se agraven. Así, los sistemas de IA se convierten en aliados estratégicos para garantizar que los niños tengan acceso oportuno a educación, salud y alimentación, cumpliendo de manera más efectiva los principios de la Convención sobre los Derechos del Niño.</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>inversión evitaría aproximadamente millones muertes infantiles millones muertes mortinatos millones muertes maternas embargo países desarrollo carecen sistemas registro civil estadísticas vitales crvs necesarios generar datos precisos nacimientos defunciones cifra incluye ciento niños áfrica subsahariana ciento niños sur asia ausencia datos confiables estimaciones mortalidad infantil países carecen sistemas crvs basan modelo estadístico sofisticado utiliza respuestas encuestas información censos fuentes</t>
+          <t>Entre 2013 y 2035, esta inversión evitaría aproximadamente 147 millones de muertes infantiles, 32 millones de muertes por mortinatos y 5 millones de muertes maternas. Sin embargo, más de 100 países en desarrollo carecen de los sistemas de registro civil y estadísticas vitales (CRVS) necesarios para generar datos precisos de nacimientos y defunciones. Esa cifra incluye el 39 por ciento de los niños en el África subsahariana y el 44 por ciento de los niños en el sur de Asia. En ausencia de datos confiables, las estimaciones de mortalidad infantil en países que carecen de sistemas CRVS se basan en un modelo estadístico sofisticado que utiliza respuestas de encuestas, información de censos y otras fuentes.</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>suiza reino unido duraciones hospitalización comparativamente largas experimentado fuerte disminución últimos años convergiendo promedios países países p noruega dinamarca estancias extremadamente cortas duración media inferior cinco días indica diferencias fundamentales países cuanto estrategias atención salud mental además metanálisis cochrane encontró mayores riesgos reingreso ingresos planificados corto plazo pacientes enfermedades mentales graves johnstone zolese</t>
+          <t>Suiza y el Reino Unido, con duraciones de hospitalización comparativamente largas, también han experimentado una fuerte disminución en los últimos años, convergiendo con los promedios de otros países. Algunos países, p. Noruega o Dinamarca tienen estancias extremadamente cortas con una duración media inferior a cinco días, lo que indica diferencias fundamentales entre países en cuanto a sus estrategias de atención de la salud mental. Además, un metanálisis de Cochrane en 2000 no encontró mayores riesgos de reingreso de los ingresos planificados a corto plazo de pacientes con enfermedades mentales graves (Johnstone y Zolese, 2000).</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>tal visión debe construirse conocimiento queda trabajo hacer alcanzar excelencia equidad sistema educativo chile gobierno chileno debe continuar desafiando prácticas estructuras obsoletas circunscriben potencial gente debe continuar esfuerzo fomentar oportunidades aprendizaje cambien vida</t>
+          <t>Tal visión debe construirse con el conocimiento de que queda mucho trabajo por hacer para alcanzar la excelencia y la equidad en todo el sistema educativo de Chile. El gobierno chileno debe continuar desafiando las prácticas y estructuras obsoletas que circunscriben el potencial de su gente, y debe continuar su esfuerzo por fomentar oportunidades de aprendizaje que cambien la vida de todos.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>fortalecimiento capacidades analíticas regiones ciudades puede transformarse ia sistemas big data permiten integrar información matrículas resultados aprendizaje recursos escolares generando tableros control tiempo real tomadores decisiones tableros ayudan planificar mayor precisión asignar recursos manera equitativa medir impacto políticas locales además ia facilita entrenamiento actores educativos herramientas análisis promoviendo cultura gestión basada datos refuerza autonomía regional mejora calidad sistema educativo conjunto</t>
+          <t>El fortalecimiento de capacidades analíticas en regiones y ciudades puede transformarse con IA. Los sistemas de big data permiten integrar información de matrículas, resultados de aprendizaje y recursos escolares, generando tableros de control en tiempo real para tomadores de decisiones. Estos tableros ayudan a planificar con mayor precisión, asignar recursos de manera equitativa y medir el impacto de las políticas locales. Además, la IA facilita el entrenamiento de actores educativos en herramientas de análisis, promoviendo una cultura de gestión basada en datos. Esto refuerza la autonomía regional y mejora la calidad del sistema educativo en su conjunto.</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>estudios aceptación beneficios encuentran regularmente tasas aceptación orden indica efecto disuasorio combinado significativo diversas barreras dado beneficios sa destinados aliviar pobreza menudo utilizan útil observar cerca fracción personas pobres llegan beneficios ilustrar órdenes magnitud figura combina datos administrativos beneficiarios beneficios totales basados encuestas número hogares pobres ingresos proporciones resultantes pseudotasas cobertura expresan tamaños relativos dos grupos superponen sólo parcialmente hogares pobres pueden recibir beneficios sa</t>
+          <t>Los estudios sobre la aceptación de los beneficios encuentran regularmente tasas de no aceptación del orden del 40% o más, lo que indica un efecto disuasorio combinado significativo de las diversas barreras. (Dado que los beneficios de SA están destinados a aliviar la pobreza, pero a menudo no se utilizan, es útil observar más de cerca la fracción de personas pobres a las que llegan estos beneficios. Para ilustrar órdenes de magnitud, la Figura 2 combina datos administrativos sobre beneficiarios de beneficios con totales basados ​​en encuestas del número de hogares pobres en ingresos. Las proporciones resultantes son 'pseudotasas de cobertura', en el sentido de que expresan los tamaños relativos de dos grupos que se superponen sólo parcialmente (algunos hogares no pobres pueden recibir beneficios SA).</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>continuación examina evolución desigualdad grupos países definidos clasificación mundial cuatro velocidades presentada capítulo casos crecimiento rápido ido acompañado aumento desigualdad complica aún reto reducción pobreza capítulo examina además esfuerzos realizados crecimiento favorezca pobres argumenta medida términos relativos pobreza sigue siendo obstáculo importante incluso países convergentes logrado reducir pobreza absoluta</t>
+          <t>A continuación, examina la evolución de la desigualdad en los grupos de países definidos por la clasificación mundial de cuatro velocidades presentada en el Capítulo 1. En muchos casos, el crecimiento rápido ha ido acompañado de un aumento de la desigualdad, lo que complica aún más el reto de la reducción de la pobreza. El capítulo examina además los esfuerzos realizados para que el crecimiento favorezca a los pobres y argumenta que, medida en términos relativos, la pobreza sigue siendo un obstáculo importante incluso en los países convergentes que han logrado reducir la pobreza absoluta.</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>andriopoulou tsakloglou utilizaron echp eusilc analizar efectos empleo ingresos decir cambios ingresos eventos demográficos movimientos entrada salida pobreza adultos países ue datos válidos descubrieron cambios ingresos laborales cabeza familia predictor consistente transiciones pobreza países aún mediterráneos eventos laborales importantes salidas pobreza entradas eventos demográficos importantes países escandinavos primer lugar utiliza niños lugar adultos oa hogares unidades análisis</t>
+          <t>Andriopoulou y Tsakloglou (2015) utilizaron tanto el ECHP 1994-2001 como el EU-SILC 2005-2008 para analizar los efectos del empleo, los ingresos (es decir, los cambios en los ingresos) y los eventos demográficos en los movimientos de entrada y salida de la pobreza de los adultos en todos los países de la UE. que tenía datos válidos. Descubrieron que los cambios en los ingresos laborales del cabeza de familia son un predictor consistente de las transiciones de pobreza en todos los países, pero más aún en los mediterráneos, los eventos laborales son más importantes para las salidas de la pobreza que para las entradas, y los eventos demográficos son algo más importantes en los países escandinavos. . En primer lugar, utiliza a los niños, en lugar de a los adultos oa los hogares, como unidades de análisis.</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>tutoría carrera diseñada apoyar estudiantes consecución objetivos postsecundarios incluso través conexiones formales graduados escuela secundaria dos años después escuela secundaria cada estudiante asigna trabajador apoyo estudiante studentrjrent support worker spsw supervisa asistencia escuela progreso académico participación programa tiempo ayuda estudiante establecer relaciones estables padres profesores estudiantes ayuda financiera pathways billetes autobús vales almuerzo diseñó eliminar barreras financieras dificultan participación escolar</t>
+          <t>La tutoría de carrera está diseñada para apoyar a los estudiantes en la consecución de sus objetivos postsecundarios, incluso a través de conexiones formales con los graduados de la escuela secundaria durante dos años después de la escuela secundaria. A cada estudiante se le asigna un trabajador de apoyo al estudiante (Student-Rjrent Support Worker, SPSW), que supervisa la asistencia a la escuela, el progreso académico y la participación en el programa, al tiempo que ayuda al estudiante a establecer relaciones estables con sus padres, profesores y otros estudiantes. La ayuda financiera de Pathways, como billetes de autobús y vales de almuerzo, se diseñó para eliminar las barreras financieras que dificultan la participación escolar.</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>familias tres hijos mayor riesgo pobreza unicef isae familias jóvenes mayor probabilidad vivir pobreza puede relacionado falta opciones asequibles guardería jardín infantes vez nace niño familia general madre reducir empleo poder cuidar niño ingresos familiares reducen mientras mismo tiempo ingresos disponibles deben compartirse miembros kazajstán ejemplo hogares cuyo cabeza familia años mayor riesgo pobreza banco mundial b</t>
+          <t>Las familias con tres o más hijos tienen el mayor riesgo de pobreza (UNICEF e ISAE, 2009). Las familias jóvenes también tienen una mayor probabilidad de vivir en la pobreza. Esto puede estar relacionado con la falta de opciones asequibles de guardería y jardín de infantes. Una vez que nace un niño en una familia, por lo general la madre tiene que reducir su empleo para poder cuidar al niño.1 Los ingresos familiares se reducen mientras que, al mismo tiempo, los ingresos disponibles deben compartirse con más miembros. En Kazajstán, por ejemplo, los hogares cuyo cabeza de familia tiene entre 30 y 44 años tienen el mayor riesgo de pobreza (Banco Mundial, 2009b).</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>gracias avances clínicos salud pública reducido enormemente tasas enfermedades infecciosas ocho países observan reducciones similares países ocde distintos periodos tiempo obsérvese número muertes enfermedades infecciosas incluye sida medida disminuía prevalencia enfermedades infecciosas prestó atención enfermedades agudas mayoría países ocde cinco componentes sistema sanitario centraron prevención tratamiento enfermedades agudas enfermedades agudas convirtieron principal preocupación segunda mitad siglo xx</t>
+          <t>Gracias a los avances clínicos y de salud pública, se han reducido enormemente las tasas de enfermedades infecciosas en los ocho países. Se observan reducciones similares en otros países de la OCDE en distintos periodos de tiempo. Obsérvese que el número de muertes por enfermedades infecciosas incluye el SIDA. A medida que disminuía la prevalencia de las enfermedades infecciosas, se prestó más atención a las enfermedades agudas. En la mayoría de los países de la OCDE, los cinco componentes del sistema sanitario se centraron en la prevención y el tratamiento de las enfermedades agudas. Las enfermedades agudas se convirtieron en la principal preocupación de la segunda mitad del siglo XX.</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>centros educación básica alternativa eba ofrecen tres años plan estudios alternativo sustitución cuatro años dura primer ciclo ordinario primaria nivel secundario consta dos ciclos dos años cada completan diez años escolaridad pueden acceder segundo ciclo prepararse enseñanza superior ingresar centros eftp recibir formación empleo productivo véase figura</t>
+          <t xml:space="preserve">Los centros de educación básica alternativa (EBA) ofrecen tres años con un plan de estudios alternativo en sustitución de los cuatro años que dura el primer ciclo ordinario de primaria. El nivel secundario consta de dos ciclos de dos años cada uno: 9 "10 y 11-12. Los que completan diez años de escolaridad pueden acceder al segundo ciclo para prepararse para la enseñanza superior, o ingresar en centros de EFTP para recibir formación para un empleo productivo (véase la figura 8.1). </t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>intención garantizar empleadores idea clara mezcla competencias necesidades desarrollo profesional escuelas expedientes competencias deberían ayudar crear mayor transparencia desarrollo profesional potencial cada profesor garantizar profesores cumplen requisitos mínimos competencias indicios calidad oferta educativa centro puede peligro inspección examina si consejo escolar cumplido obligación basado idea colegas profesores mejor situados evaluar práctica docente proporcionar opinión constructiva proyecto evaluación colegas comprende equipos profesores visitan centros demás desarrollan herramientas observar evaluar práctica docente</t>
+          <t>La intención es garantizar que los empleadores tengan una idea clara de la mezcla de competencias y las necesidades de desarrollo profesional en sus escuelas. Los expedientes de competencias también deberían ayudar a crear una mayor transparencia sobre el desarrollo profesional y el potencial de cada profesor, y garantizar que todos los profesores cumplen unos requisitos mínimos de competencias. Cuando hay indicios de que la calidad de la oferta educativa de un centro puede estar en peligro, la Inspección examina si el consejo escolar ha cumplido esta obligación. Basado en la idea de que los colegas profesores son los mejor situados para evaluar la práctica docente y proporcionar una opinión constructiva, el proyecto de evaluación entre colegas comprende equipos de profesores que visitan los centros de los demás y desarrollan herramientas para observar y evaluar la práctica docente.</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>entonces maestros saben enfoque fácil puede ser simplemente esperar pasen intentos reforma importante existe brecha sustancial momento incurre costo inicial reforma momento evidente si beneficios reforma realmente materializarán si bien tiempo complica política reforma dominios parece tener mayor impacto reforma educativa retrasos suelen implicar años largo camino hacia implementación exitosa reforma fracaso menudo solo pequeño paso distancia resultado ciclo político puede tener impacto directo momento alcance contenido reforma educativa reforma educativa convierte tarea ingrata realizan elecciones realicen beneficios reforma</t>
+          <t>Entonces los maestros saben que el enfoque más fácil para ellos puede ser simplemente esperar a que pasen los intentos de reforma. Lo que es más importante, existe una brecha sustancial entre el momento en que se incurre en el costo inicial de la reforma y el momento en que es evidente si los beneficios de la reforma realmente se materializarán. Si bien el tiempo complica la política de reforma en muchos dominios, parece tener un mayor impacto en la reforma educativa, donde los retrasos suelen implicar muchos años. Es un largo camino hacia la implementación exitosa de la reforma, el fracaso a menudo está a solo un pequeño paso de distancia. Como resultado, el ciclo político puede tener un impacto directo en el momento, alcance y contenido de la reforma educativa. La reforma educativa se convierte en una tarea ingrata cuando se realizan elecciones antes de que se realicen los beneficios de la reforma.</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>acceso educación primaria prácticamente universal margen mejora progresión finalización oportuna inclusión grupos sociales desatendidos acceso progresión oportuna educación secundaria sustancialmente menores difieren países brechas tasas finalización escuela secundaria exacerban desigualdades socioeconómicas área geográfica origen étnico</t>
+          <t>El acceso a la educación primaria es prácticamente universal, con margen de mejora en la progresión y finalización oportuna y en la inclusión de los grupos sociales más desatendidos. El acceso y la progresión oportuna en la educación secundaria son sustancialmente menores y difieren más entre países. Las brechas en las tasas de finalización de la escuela secundaria exacerban las desigualdades socioeconómicas por área geográfica y origen étnico.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>embargo país beneficiaría enormemente tener configuración flexible traducir iniciativas documento presupuestario principio subvención condicional vihsida basa principalmente carga enfermedad debería ayudar garantizar distribución equitativa fondos gubernamentales ejemplo aunque provincia mpumalanga segunda prevalencia alta vih gobierno provincial ocupa puesto gasto per cápita vihsida</t>
+          <t>Sin embargo, el país se beneficiaría enormemente de tener una configuración más flexible para traducir estas iniciativas en el documento presupuestario. En principio, la subvención condicional para el VIH/SIDA, que se basa principalmente en la carga de la enfermedad, debería ayudar a garantizar una distribución equitativa de los fondos gubernamentales. Por ejemplo, aunque la provincia de Mpumalanga tiene la segunda prevalencia más alta de VIH, su gobierno provincial ocupa el puesto 7 de 9 en gasto per cápita en VIH/SIDA.</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>detalles véase recuadro comparación pobreza redujo puntos porcentuales mientras pobreza extrema disminuyó puntos variaciones posteriores alcanzadas años anteriores sitúan tasas pobreza pobreza extrema puntos porcentuales debajo cifras supone avance significativo</t>
+          <t>Para más detalles, véase el recuadro 1.1. En comparación con 2006, la pobreza se redujo en 2,2 puntos porcentuales, mientras que la pobreza extrema disminuyó en 0,7 puntos. Estas variaciones, posteriores a las alcanzadas en años anteriores, sitúan las tasas de pobreza y pobreza extrema 9,9 y 6,8 puntos porcentuales por debajo de las cifras de 2002, lo que supone un avance significativo.</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>marco evalúa autoridades sanitarias locales través indicadores dominios acceso continuidad eficacia eficiencia satisfacción paciente competencia organizativa indicadores reflejan procesos cobertura vacunación detección cáncer cada cinco indicadores eficacia refleja resultados control adecuado lípidos presión arterial personas diabetes consulte anexo c ver lista completa indicadores cada indicador establece meta nacional</t>
+          <t>El marco evalúa a las autoridades sanitarias locales a través de 30 indicadores en los dominios de acceso, continuidad, eficacia, eficiencia, satisfacción del paciente y competencia organizativa. Muchos indicadores reflejan procesos (como la cobertura de vacunación o la detección del cáncer), pero cada uno de los cinco indicadores de eficacia refleja resultados, como un control adecuado de los lípidos y la presión arterial en personas con diabetes (consulte el Anexo C para ver la lista completa de indicadores). Para cada indicador, se establece una meta nacional.</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>pedagogías innovadoras pueden desempeñar papel importante evaluación competencias exige uso tareas complejas auténticas lugar centrarse excesivamente conocimientos discretos modelado demostraciones presentación información parte profesor siguen siendo pertinentes objetivo último fomentar rendimiento alumnos papel activo resolución tareas</t>
+          <t>Las pedagogías innovadoras pueden desempeñar un papel importante en este sentido. La evaluación de estas competencias exige el uso de tareas complejas y auténticas en lugar de centrarse excesivamente en conocimientos discretos. El modelado, las demostraciones y la presentación de información por parte del profesor siguen siendo muy pertinentes, pero con el objetivo último de fomentar el rendimiento de los alumnos y su papel activo en la resolución de las tareas.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>generalmente complementa oportunidades adicionales aprender ser evaluado países repetición puede aplicar grados transición bajo rendimiento estudiantes puede deberse falta adaptación corto plazo repetición podrá limitarse grados consideren fundamentales consolidar competencias básicas</t>
+          <t>Esto generalmente se complementa con oportunidades adicionales para aprender y ser evaluado. En muchos países, la repetición no se puede aplicar en los grados de transición, cuando el bajo rendimiento de los estudiantes puede deberse a una falta de adaptación a corto plazo. La repetición podrá limitarse a los grados que se consideren fundamentales para consolidar las competencias básicas.</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>informe finalización resultados proyecto logró parcialmente objetivos revisión implementación planes estudio generales vocacionales disponibilidad pública resultados logros estudiantes distribución materiales maestros mejora habilidades maestros vocacionales introducción sistema información carreras línea capacitación equipos gestión escolar planes desarrollo escolar distribución subvenciones escuelas áreas baja matrícula según ley básica educación nacional ministerio educación nacional mone responsable sistema educativo direcciones generales unidades responsables diferentes aspectos educación cumplimiento políticas educación básica educación secundaria educación vocacional educación especial orientación asesoramiento direcciones provinciales distritales educación nacional provincias turcas apoyan implementación política educativa dirección educación servicio orientación inspección unidad inspección</t>
+          <t>Informe de Finalización y Resultados", el proyecto logró parcialmente sus objetivos: revisión e implementación de planes de estudio generales y vocacionales, disponibilidad pública de los resultados de los logros de los estudiantes, distribución de materiales para maestros, mejora de las habilidades de los maestros vocacionales, introducción de un Sistema de Información de Carreras en línea, Capacitación de los equipos de gestión escolar sobre los planes de desarrollo escolar y distribución de subvenciones a las escuelas en áreas de baja matrícula Según la Ley Básica de Educación Nacional de 1973, el Ministerio de Educación Nacional (MoNE) es responsable del sistema educativo, y las direcciones generales y sus Las unidades son responsables de diferentes aspectos de la educación y el cumplimiento de las políticas, como la educación básica, la educación secundaria, la educación vocacional, la educación especial y la orientación y el asesoramiento. Las direcciones provinciales y distritales de educación nacional en 81 provincias turcas apoyan la implementación de la política educativa. La Dirección de Educación Servicio de Orientación e Inspección es como la unidad de inspección.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>desarrollo estándares culturalmente competentes atención médica puede potenciarse inteligencia artificial mediante sistemas análisis lenguaje natural ia puede interpretar historias clínicas lenguas indígenas traducirlas automáticamente proveedores salud además plataformas aprendizaje automático permiten integrar conocimientos medicina tradicional protocolos médicos modernos creando bases datos multiculturales respetan cosmovisiones diversas forma fortalece atención intercultural mejora confianza comunidades sistemas salud reduciendo barreras históricas acceso</t>
+          <t>El desarrollo de estándares culturalmente competentes de atención médica puede potenciarse con la inteligencia artificial. Mediante sistemas de análisis de lenguaje natural, la IA puede interpretar historias clínicas en lenguas indígenas y traducirlas automáticamente para los proveedores de salud. Además, plataformas de aprendizaje automático permiten integrar conocimientos de medicina tradicional con protocolos médicos modernos, creando bases de datos multiculturales que respetan cosmovisiones diversas. De esta forma, se fortalece la atención intercultural y se mejora la confianza de las comunidades en los sistemas de salud, reduciendo barreras históricas de acceso.</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>caída ingresos común estonia trabajadores temporales persistentes experimentaron caída ingresos muestra pasar quintil bajo preocupación relacionada si diferencial salarial impacto duradero salarios largo carrera si trabajadores temporales pueden ponerse día contrapartes comenzaron trabajos permanentes rachas trabajos mal pagados pueden conducir depreciación capital humano puede comprometer posibilidad encontrar trabajos mejor pagados generar persistencia empleo mal pagado lado falta empleo puede conducir mayor pérdida capital humano menudo efecto devastador empleo posterior conseguir cualquier trabajo incluso mal pagado menos estable implica horario limitado menudo considera forma mejorar perspectivas laborales salariales futuro</t>
+          <t>Una caída en los ingresos es más común en Estonia, donde más del 41 % de los trabajadores temporales persistentes experimentaron una caída en los ingresos, como se muestra al pasar a un quintil más bajo. Una preocupación relacionada es si este diferencial salarial tiene un impacto duradero en los salarios a lo largo de la carrera, o si los trabajadores temporales pueden ponerse al día con sus contrapartes que comenzaron trabajos permanentes antes. Las rachas de trabajos mal pagados pueden conducir a la depreciación del capital humano, lo que puede comprometer la posibilidad de encontrar trabajos mejor pagados y, por lo tanto, generar persistencia en el empleo mal pagado. Por otro lado, la falta de empleo puede conducir a una mayor pérdida de capital humano y, a menudo, tiene un efecto devastador en el empleo posterior, por lo que conseguir cualquier trabajo, incluso uno mal pagado, menos estable o uno que implica un horario limitado, por lo tanto, a menudo se considera como una forma de mejorar las perspectivas laborales y salariales en el futuro.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>marco define imagen general prioridades transversales currículo niveles educación mientras plan estudios especifica contenido detallado instrucción cada grado tabla proporciona descripción general marcos disponibles cada país cubren educación primaria secundaria inferior anexo detalles</t>
+          <t>El marco define una imagen general de las prioridades transversales del currículo en todos los niveles de educación, mientras que el plan de estudios especifica el contenido detallado de la instrucción para cada grado. La Tabla 5.2 proporciona una descripción general de estos marcos disponibles en cada país, que cubren la educación primaria y secundaria inferior (Anexo 5A para más detalles).</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>mayoría escuelas emiten informes progreso tres veces año escuelas eligen si darán calificaciones indicarán rendimiento estudiantes manera ejemplo descriptiva muchas escuelas adoptado sistemas seguimiento registrar progreso individual estudiantes manera sistemática identificar mejor necesidades individuales estudiantes adaptar enseñanza</t>
+          <t>La mayoría de las escuelas emiten informes de progreso tres veces al año. Las escuelas eligen si darán calificaciones o indicarán el rendimiento de los estudiantes de otra manera (por ejemplo, descriptiva). Muchas escuelas han adoptado sistemas de seguimiento para registrar el progreso individual de los estudiantes de manera sistemática y para identificar mejor las necesidades individuales de los estudiantes y adaptar la enseñanza.</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>italia creación instituto nacional evaluación sistema educativo invalsi condujo desarrollo evaluaciones nacionales estudiantes manera similar ontario canadá creación oficina calidad responsabilidad educación asoció desarrollo evaluación estandarizada estudiantes brindar responsabilidad indicador calidad sistema educativo financiado fondos públicos ontario funciones agencias evaluación evaluación pueden incluir liderazgo técnico p ej desarrollo instrumentos evaluación directrices indicadores educativos implementación procedimientos evaluación valoración p ej evaluaciones nacionales estudiantes seguimiento sistema educativo introducción innovaciones base resultados investigación desarrollo capacidad evaluación evaluación sistema gestión conocimiento resultados producidos actividades evaluación evaluación promoción cultura evaluación aunque evaluación educativa dentro sistemas escolares preocupación reciente tradicionalmente centrado principalmente evaluación estudiantes</t>
+          <t>En Italia, la creación en 2004 del Instituto Nacional para la Evaluación del Sistema Educativo (INVALSI) condujo al desarrollo de evaluaciones nacionales de estudiantes desde 2008. De manera similar, en Ontario (Canadá), la creación de la Oficina de Calidad y Responsabilidad de la Educación en 1996 se asoció con el desarrollo de una evaluación estandarizada de los estudiantes para brindar responsabilidad y un indicador de calidad en el sistema educativo financiado con fondos públicos de Ontario. Las funciones de las agencias de evaluación y evaluación pueden incluir el liderazgo técnico (p. ej., en el desarrollo de instrumentos de evaluación, directrices, indicadores educativos), la implementación de procedimientos de evaluación y valoración (p. ej., evaluaciones nacionales de estudiantes), el seguimiento del sistema educativo, la introducción de innovaciones sobre la base de los resultados de la investigación, el desarrollo de la capacidad de evaluación y evaluación en todo el sistema, la gestión del conocimiento (de los resultados producidos por las actividades de evaluación y evaluación) y la promoción de una cultura de evaluación. Aunque la evaluación educativa dentro de los sistemas escolares no es una preocupación reciente, tradicionalmente se ha centrado principalmente en la evaluación de los estudiantes.</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>datos nivel sistema derivan cuestionario estudiantes escuelas pisa extraen publicación anual ocde panorama educación aquellos países economías participan recopilación periódica datos países economías llevó cabo recopilación datos nivel sistema especial colaboración miembros junta gobierno pisa directores proyectos nacionales</t>
+          <t>Los datos a nivel del sistema que no se derivan del cuestionario para estudiantes o escuelas de PISA 2015 se extraen de la publicación anual de la OCDE. Panorama de la educación, para aquellos países y economías que participan en esa recopilación periódica de datos. Para otros países y economías, se llevó a cabo una recopilación de datos a nivel de sistema especial en colaboración con los miembros de la Junta de Gobierno de PISA y los directores de proyectos nacionales.</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>vez estudiantes comienzan comprenderse mismos seres culturales vuelven receptivos aceptar cultura raza origen étnico estudiantes gay programa etutor objetivo crear entorno futuros maestros pudieran interrogar propias culturas manera segura solidaria inclusiva desafiante atractiva carr experiencia interactuar niños múltiples culturas entorno línea resultó actitud positiva cambio mayoría participantes maestros formación cuales comenzado visión etnocéntrica terminaron visión etnorrelativa demostrando empatía cuidado niños diferentes culturas</t>
+          <t>Una vez que los estudiantes comienzan a comprenderse a sí mismos como seres culturales, se vuelven más receptivos a aceptar la cultura, la raza y el origen étnico de sus estudiantes (Gay, 2010(159]). El programa eTutor tenía como objetivo crear un entorno en el que los futuros maestros pudieran para interrogar sus propias culturas y las de otros de manera segura, solidaria, inclusiva, desafiante y atractiva (Carr, 2016(160]). La experiencia de interactuar con niños de múltiples culturas en un entorno en línea resultó en una actitud positiva. cambio para la mayoría de los participantes, los maestros en formación, muchos de los cuales habían comenzado con una visión etnocéntrica, terminaron con una visión etnorrelativa, demostrando empatía y cuidado por los niños de diferentes culturas. (</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>establecieron modelo intervención tres etapas intervención primaria implica reformas toda escuela distrito destinadas brindar instrucción alta calidad ambiente escolar fomente asistencia regular comportamientos positivos sugieren puede hacer equipando maestros brinden instrucción alta calidad asegurando plan estudios relevante mantenga estudiantes interesados sugieren cultura ambiente aprendizaje personalizado ordenado fuerte conexión familia corresponde varias medidas preventivas preventivas visto dirigidas nivel educación preescolar primaria</t>
+          <t>Establecieron un modelo de intervención en tres etapas. La intervención primaria implica reformas en toda la escuela y el distrito destinadas a brindar instrucción de alta calidad en un ambiente escolar que fomente la asistencia regular y otros comportamientos positivos. Sugieren que esto se puede hacer equipando a los maestros para que brinden instrucción de alta calidad y asegurando un plan de estudios relevante que mantenga a los estudiantes interesados. También sugieren una cultura de ambiente de aprendizaje personalizado y ordenado y una fuerte conexión con la familia. Esto corresponde a varias de las medidas preventivas y preventivas que hemos visto dirigidas al nivel de educación preescolar y primaria.</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>probar pronto medicina rural puede crear deseo permanecer lugares después graduarse universidad sydney dice aproximadamente graduados programa rural ocupan puestos capacitación posgrado rural disponibles mason surgimiento especialistas particularmente cirugía contribuido problemas mano obra zonas rurales australia programa generalista rural comenzó hace años queensland permite médicos cabecera capaciten puedan desempeñar funciones especializadas anestesistas obstetricia entonces programa ampliado</t>
+          <t>Probar pronto la medicina rural puede crear el deseo de permanecer en estos lugares después de graduarse. La Universidad de Sydney dice que aproximadamente el 20% de los graduados de su programa rural ocupan puestos de capacitación de posgrado rural, donde están disponibles (Mason, 2013). El surgimiento de especialistas, particularmente en cirugía, ha contribuido a los problemas de mano de obra en las zonas rurales de Australia. Un programa generalista rural comenzó hace unos años en Queensland, lo que permite que los médicos de cabecera se capaciten para que puedan desempeñar algunas funciones especializadas, como anestesistas y obstetricia. Desde entonces, el programa se ha ampliado a otros estados.</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>actualidad suelen premiar episodios discretos atención futuro cada vez probable mecanismos pago recompensen paquetes atención incluso año completo atención personas necesidades complejas interesante ver si sistemas salud pueden responder nuevas presiones si surgirán organizaciones apropiadas manejar desafíos integrar atención pacientes experiencia ee uu nuevas accountable care organisations responsables costos calidad atención médica población definida tamaño mínimo personas gran interés shortell et</t>
+          <t>En la actualidad, estos suelen premiar episodios discretos de atención. En el futuro, es cada vez más probable que los mecanismos de pago recompensen "paquetes" de atención, o incluso un año completo de atención, para personas con necesidades complejas. Será interesante ver si los sistemas de salud pueden responder a estas nuevas presiones y si surgirán organizaciones apropiadas para manejar los desafíos de integrar la atención de estos pacientes. La experiencia en EE. UU. con las nuevas 'Accountable Care Organisations', responsables de los costos y la calidad de la atención médica para una población definida (con un tamaño mínimo de 5 000 personas), será de gran interés en este sentido (Shortell et al.,</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>involucrar líder escolar par proceso evaluación corresponde desarrollo modelos liderazgo escolar líderes escolares asumen responsabilidades allá propia escuela involucran mejora sistema educativo general ejemplo través asociaciones redes escolares amigos críticos dar dos ejemplos irlanda introducido programa desarrollo liderazgo escuelas lds brinda oportunidades desarrollo profesional enfoque mejorar enseñanza aprendizaje estudiantes líderes escolares emergentes establecidos anualmente través variedad formatos p seminarios interactivos redes aprendizaje activo entorno aprendizaje virtual noruega implementado programa nacional capacitación directores objetivo apoyar directores escuelas conviertan líderes pedagógicos trabajen mejorar enseñanza aprendizaje escuelas inicialmente dirigido nuevos directores escuela participantes participaron programa puede tomar tiempo parcial medio dos años dirección educación capacitación noruega</t>
+          <t>Involucrar a un líder escolar par en el proceso de evaluación también corresponde al desarrollo de modelos de liderazgo escolar en los que los líderes escolares asumen responsabilidades más allá de su propia escuela y se involucran en la mejora del sistema educativo en general (por ejemplo, a través de asociaciones y redes escolares y como amigos críticos). . Para dar dos ejemplos, Irlanda ha introducido un programa de Desarrollo de Liderazgo para Escuelas (LDS) que brinda oportunidades de desarrollo profesional con un enfoque en mejorar la enseñanza y el aprendizaje para todos los estudiantes para líderes escolares emergentes y establecidos anualmente a través de una variedad de formatos (p. seminarios interactivos, redes de aprendizaje activo y entorno de aprendizaje virtual).32 Noruega ha implementado un Programa Nacional de Capacitación para Directores en 2009 que tiene como objetivo apoyar a los directores de escuelas para que se conviertan en líderes pedagógicos que trabajen para mejorar la enseñanza en el aprendizaje en las escuelas. Inicialmente dirigido a los nuevos directores de escuela, 621 participantes participaron en el programa que se puede tomar a tiempo parcial durante uno y medio o dos años entre 2009 y 2011 (Dirección de Educación y Capacitación de Noruega, 2011).</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>embargo permiten formuladores políticas epidemiólogos monitorear impacto reformas políticas según rosstat b número muertes directamente relacionadas consumo alcohol disminuyó obstante personas murieron debido consumo excesivo alcohol</t>
+          <t>Sin embargo, permiten a los formuladores de políticas y epidemiólogos monitorear el impacto de las reformas y políticas. Según Rosstat (2009b), el número de muertes directamente relacionadas con el consumo de alcohol disminuyó en un 40% entre 2005 y 2008. No obstante, 76 268 personas murieron en 2008 debido al consumo excesivo de alcohol.</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>desafío relacionado radica contratación docentes calificados parte establecimientos privados problema aborda mediante inspecciones institucionales periódicas actualmente instituto capacitación desarrollo mauricio mitd trabajando red alrededor empresas proyecto aprendices inscriben cada año seguir cursos bajo esquema representa ciento total capacitación previa empleo gráfico muestra formación aprendices contribuye mejorar empleabilidad jóvenes</t>
+          <t>Un desafío relacionado radica en la contratación de docentes no calificados por parte de establecimientos privados, un problema que se aborda mediante inspecciones institucionales periódicas. Actualmente, el Instituto de Capacitación y Desarrollo de Mauricio (MITD) está trabajando con una red de alrededor de 150 empresas en este proyecto, y más de 1,000 aprendices se inscriben cada año para seguir cursos bajo el esquema, lo que representa el 30 por ciento del total de capacitación previa al empleo. . El gráfico muestra que la formación de aprendices contribuye a mejorar la empleabilidad de los jóvenes.</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>penang sede capital europeo chino comercio caucho estaño redes explotación penang decir vínculos comerciales opio llegaban saigón hong kong china apogeo periodo británico penang convertido centro educativo regional enseñanza islámica inglesa china</t>
+          <t>Penang era la sede del capital europeo y chino en el comercio del caucho y el estaño. Las redes de explotación de Penang, es decir, los vínculos comerciales con el opio, llegaban hasta Saigón, Hong Kong y China. En el apogeo del periodo británico, Penang se había convertido en un centro educativo regional para la enseñanza islámica, inglesa y china.</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>representa solo forma rentable hacer materiales aprendizaje digital disponibles país sino nueva forma mejorar habilidades digitales docentes proyecto one tablet per child país involucró producción libros electrónicos objetos aprendizaje multimedia canciones ser instalados tabletas distribuidas estudiantes proyecto obec produjo objetos aprendizaje grupos idioma tailandés idioma inglés matemáticas ciencias estudios sociales paralelos contenido libro texto claro si materiales pusieron disposición estudiantes tableta acceso computadora</t>
+          <t>Representa no solo una forma rentable de hacer que los materiales de aprendizaje digital estén disponibles en todo el país, sino también una nueva forma de mejorar las habilidades digitales de los docentes. El proyecto One Tablet Per Child del país involucró la producción de libros electrónicos, objetos de aprendizaje, multimedia y canciones para ser instalados en tabletas distribuidas a los estudiantes. Para este proyecto, OBEC produjo 336 objetos de aprendizaje en 5 grupos: idioma tailandés, idioma inglés, matemáticas, ciencias y estudios sociales, que eran paralelos al contenido del libro de texto. No está claro si estos materiales también se pusieron a disposición de los estudiantes que no tenían una tableta pero tenían acceso a una computadora.</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>exige adopción responsabilidades claras financiación inversiones cuenta panorama general reduce intervienen varios niveles gobierno decisiones clave materia asistencia sanitaria ocurre ejemplo financiación construcción nuevos hospitales equipamiento alto coste varios países polonia ocde según zukowski nfz debería desempeñar papel coordinación incluida planificación necesidades largo plazo prevención supervisión financiera calidad</t>
+          <t>Esto exige la adopción de responsabilidades claras para la financiación de inversiones que tengan más en cuenta el panorama general. Se reduce cuando intervienen varios niveles de gobierno en las decisiones clave en materia de asistencia sanitaria, como ocurre, por ejemplo, con la financiación de la construcción de nuevos hospitales y el equipamiento de alto coste en varios países, entre ellos Polonia (OCDE, 2010a). Según Zukowski, la NFZ debería desempeñar ese papel de coordinación, incluida la planificación de las necesidades a largo plazo, la prevención y la supervisión financiera y de calidad.</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ministerio salud inició desarrollo plan acción nacional ram disminución prevalencia tabaquismo introducción servicios cardíacos locales mediados década explican parte disminución constante enfermedades cardíacas embargo malta registra niveles relativamente altos muertes dentro días posteriores admisión hospital infarto agudo miocardio cada admisiones mayores años comparación ue italia registraron tasas letalidad superiores media ue personas hospitalizadas accidente cerebrovascular conjunto puede apuntar desafíos potencialmente sistémicos brindar tratamiento alta calidad sector agudo aunque necesita mayor investigación datos comprender mejor causas desempeño bajo malta indicadores</t>
+          <t>El Ministerio de Salud inició el desarrollo de un Plan de Acción Nacional sobre RAM en 2016. La disminución de la prevalencia del tabaquismo y la introducción de servicios cardíacos locales desde mediados de la década de 1990 explican parte de la disminución constante de las enfermedades cardíacas. Sin embargo, Malta registra niveles relativamente altos de muertes dentro de los 30 días posteriores a la admisión al hospital por infarto agudo de miocardio, con 9,5 por cada 100 admisiones entre los mayores de 45 años, en comparación con 7,4 en la UE y 5,5 en Italia (2013). Se registraron tasas de letalidad superiores a la media de la UE para las personas hospitalizadas por accidente cerebrovascular. En conjunto, esto puede apuntar a desafíos potencialmente sistémicos para brindar un tratamiento de alta calidad en el sector agudo, aunque se necesita una mayor investigación de los datos para comprender mejor las causas del desempeño más bajo de Malta en estos indicadores.</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>motivo posible publicaciones reflejen necesariamente políticas enfoques unicef temas opiniones expresadas autores editores publican fin estimular mayor diálogo derechos niño financiación básica proporciona gobierno italia mientras apoyo financiero proyectos específicos proporcionan gobiernos instituciones internacionales fuentes privadas incluidos comités nacionales unicef crisis financiera desencadenó primera contracción economía mundial posguerra documento investiga efecto crisis económica pobreza infantil privación material ue islandia noruega suiza</t>
+          <t>Por ese motivo, es posible que algunas publicaciones no reflejen necesariamente las políticas o los enfoques de UNICEF sobre algunos temas. Las opiniones expresadas son las de los autores y/o editores y se publican con el fin de estimular un mayor diálogo sobre los derechos del niño. La financiación básica la proporciona el Gobierno de Italia, mientras que el apoyo financiero para proyectos específicos también lo proporcionan otros gobiernos, instituciones internacionales y fuentes privadas, incluidos los Comités Nacionales de UNICEF. La crisis financiera de 2008 desencadenó la primera contracción de la economía mundial en la era de la posguerra. Este documento investiga el efecto de la crisis económica sobre la pobreza infantil y la privación material en la UE-28 más Islandia, Noruega y Suiza.</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>primer lugar indemnizaciones financian cargo presupuestos distritos reciben subvención global ministerio finanzas embargo subvención global incluye prestaciones veteranos guerra afgana fondo especial compensaciones puntuales hogares pobres nivel central existe presupuesto separado compensación efectivo niños</t>
+          <t>En primer lugar, las indemnizaciones se financian con cargo a los presupuestos de los distritos, que reciben una subvención global del Ministerio de Finanzas. Sin embargo, la subvención global también incluye prestaciones para los veteranos de la guerra afgana y un fondo especial para compensaciones puntuales para los hogares pobres. A nivel central, no existe un presupuesto separado para la compensación en efectivo a los niños.</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>internados tomaron consideración culturas indígenas fisiología psicología indígena educación ruso estancias prolongadas lejos familia dieron resultado reemplazo gradual lengua materna ruso crearon brecha generacional efecto negativo cohesión familiar provocaron privaciones psicológicas retirada redes familiares sociales interrupción mecanismos transmisión cultural dieron resultado pérdida lengua materna habilidades tradicionales prácticas curativas indígenas</t>
+          <t>Los internados no tomaron en consideración las culturas indígenas, la fisiología o psicología indígena. La educación en ruso y las estancias prolongadas lejos de la familia dieron como resultado el reemplazo gradual de la lengua materna por el ruso, crearon una brecha generacional, tuvieron un efecto negativo en la cohesión familiar y provocaron privaciones psicológicas. La retirada de las redes familiares y sociales y la interrupción de los mecanismos de transmisión cultural dieron como resultado la pérdida de la lengua materna, las habilidades tradicionales y las prácticas curativas indígenas.</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>mientras países ocde hogares pagan promedio costo productos farmacéuticos bolsillo kazajstán cifra ocde medicamentos prescritos atención primaria generalmente paga paciente solo proporcionan forma gratuita pacientes enfermedad socialmente significativa lista sabe embargo punto disponible cobertura medicamentos hospitalarios términos cantidades determinada afección aliviar carga costos medicamentos pacientes gobierno ido ampliando gradualmente paquete beneficios medicamentos ambulatorios introducción persisten altos costos bolsillo</t>
+          <t>Mientras que en los países de la OCDE los hogares pagan en promedio el 40 % del costo de los productos farmacéuticos de su bolsillo, en Kazajstán la cifra es del 84 % (OCDE, 2018). Los medicamentos prescritos en la atención primaria generalmente los paga el paciente y solo se proporcionan de forma gratuita a los pacientes con una "enfermedad socialmente significativa" de la lista. No se sabe, sin embargo, hasta qué punto está disponible la cobertura de medicamentos hospitalarios (en términos de cantidades) para una determinada afección. Para aliviar la carga de costos de los medicamentos para los pacientes, el gobierno ha ido ampliando gradualmente el paquete de beneficios de medicamentos ambulatorios desde su introducción en 2005, pero persisten los altos costos de bolsillo.</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>acuerdo medidas persona considera pobre si vive hogar nivel consumo ingreso debajo umbral establecido nivel nacional líneas pobreza nacionales estiman monedas locales reflejan estándares nacionales umbrales aún permiten participación consumo normal niveles vida país miden pobreza relación niveles ingreso promedio nacional</t>
+          <t>De acuerdo con estas medidas, una persona se considera pobre si vive en un hogar con un nivel de consumo o ingreso por debajo de un umbral establecido a nivel nacional. Las líneas de pobreza nacionales se estiman en monedas locales y reflejan los estándares nacionales. Estos umbrales aún permiten la participación en el consumo normal y los niveles de vida del país, pero miden la pobreza en relación con los niveles de ingreso promedio nacional. (</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>contribuir objetivo creó red conjunta funcionarios sanidad presupuestos ocde sostenibilidad fiscal sistemas salud red conjunta pretende identificar difundir buenas prácticas gestión presupuestos sanitarios junto políticas pueden garantizar sostenibilidad fiscal pretende mejorar diálogo institucional claridad funciones objetivos comunes funcionarios ministerios sanidad hacienda responsables políticos pertinentes</t>
+          <t>Para contribuir a este objetivo, en 2011 se creó la Red Conjunta de Funcionarios de Sanidad y Presupuestos de la OCDE sobre la Sostenibilidad Fiscal de los Sistemas de Salud. Esta red conjunta pretende identificar y difundir buenas prácticas en la gestión de los presupuestos sanitarios, junto con otras políticas que pueden garantizar la sostenibilidad fiscal. También pretende mejorar el diálogo institucional, la claridad de funciones y los objetivos comunes entre los funcionarios de los ministerios de Sanidad y Hacienda y otros responsables políticos pertinentes.</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>capítulo sugiere serie recomendaciones política mejorar gobernanza uso recursos escolares uso dichos datos parte ocde perjuicio altos golán jerusalén asentamientos israelíes cisjordania según términos derecho internacional nivel central gobierna distancia establece condiciones lineamientos centrales dentro cuales municipios escuelas ejercen autonomía</t>
+          <t>El capítulo sugiere una serie de recomendaciones de política para mejorar la gobernanza del uso de los recursos escolares. El uso de dichos datos por parte de la OCDE es sin perjuicio del estado de los Altos del Golán, Jerusalén Este y los asentamientos israelíes en Cisjordania según los términos del derecho internacional. El nivel central gobierna a distancia y establece las condiciones y lineamientos centrales dentro de los cuales los municipios y las escuelas ejercen su autonomía.</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>parte iii presenta instantáneas nacionales política educativa países miembros ocde además educación contribuye cohesión social mejor salud mayor participación aspectos cívicos democráticos sociedad garantizar educación formación alta calidad sistemas educativos equitativos puede contribuir crecimiento progreso ocde gobiernos deben realizar esfuerzos sostenidos adaptar mejorar sistemas educativos</t>
+          <t>La Parte III presenta instantáneas nacionales de política educativa para los 34 países miembros de la OCDE. Además, la educación contribuye a la cohesión social, una mejor salud y una mayor participación en los aspectos cívicos y democráticos de la sociedad. Garantizar que la educación y la formación sean de alta calidad y que los sistemas educativos sean equitativos puede contribuir al crecimiento y al progreso (OCDE, 2012a). Los gobiernos deben realizar esfuerzos sostenidos para adaptar y mejorar sus sistemas educativos.</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>según datos encuesta eusilc necesidad insatisfecha atención médica debido costo distancia razones dinamarca relativamente baja solo población informa tales necesidades insatisfechas comparación promedio ue figura decisiones cobertura nuevos productos farmacéuticos relativamente rápidas tardan dos meses dinamarca residentes derecho buscar tratamiento cualquier parte país si región origen proporciona servicio prestado lugar casos región origen debe cubrir gastos tratamiento incluye proyecto recopilar almacenar información genética personas fondo común financiación permitir investigación medicina precisión pacientes altos gastos anuales medicamentos ambulatorios dkk s eur aquellos bajos activos personales menos dkk s eur reciben reembolso medicamentos commonwealth fund</t>
+          <t>Según los datos de la encuesta EU-SILC, la necesidad insatisfecha de atención médica debido al costo, la distancia y otras razones en Dinamarca es relativamente baja, con solo el 1,3 % de la población que informa tales necesidades insatisfechas en comparación con el promedio de la UE del 3,2 % (Figura 13). Las decisiones de cobertura para nuevos productos farmacéuticos son relativamente rápidas y tardan entre uno y dos meses en Dinamarca. Los residentes tienen derecho a buscar tratamiento en cualquier parte del país si su región de origen no proporciona un servicio prestado en otro lugar (en estos casos, la región de origen debe cubrir los gastos del tratamiento). Esto incluye un proyecto para recopilar y almacenar información genética de 100 000 personas y un fondo común de financiación para permitir la investigación en medicina de precisión. Los pacientes con altos gastos anuales en medicamentos ambulatorios (más de DKK 3 04S o EUR 400) y aquellos con bajos activos personales (menos de DKK 77 S00 o EUR 10 400) reciben un reembolso del 85 % de todos los medicamentos (Commonwealth Fund, 2015).</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>evaluación alcance señaló comunidades servicio especialistas visitantes servicio salud estable brindaba continuidad pacientes problemas falta espacio físico brindar servicios problemas sociales económicos amplios afectan comunidades remotas desfavorecidas análisis políticas salud buen ejemplo aurukun extremo norte queensland médico general pediatra realizado clínicas regulares comunidad años</t>
+          <t>La evaluación del alcance señaló que en algunas comunidades, el servicio de especialistas visitantes era el servicio de salud "más estable" que brindaba continuidad a los pacientes. Otros problemas fueron la falta de espacio físico para brindar servicios y problemas sociales y económicos más amplios que afectan a las comunidades remotas más desfavorecidas (Análisis de políticas de salud, 2011). Un buen ejemplo de esto fue en Aurukun, en el extremo norte de Queensland, donde el médico general y el pediatra habían realizado clínicas regulares en la comunidad durante más de 20 años.</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>estrategia enfatiza necesidad prevención reconocimiento temprano problemas niños familias importancia servicios salud mental infantojuvenil camhs especializados gobierno sm primera vez permitió establecer estándares acceso tiempo espera servicios salud mental documento cerrando brecha nuevo plan acción salud mental establece prioridades cambio esencial salud mental áreas personas pueden esperar ver experimentar cambios rápidos muestra cómo cambios planificación prestación servicios locales marcarán diferencia próximos dos tres años vida personas problemas salud mental</t>
+          <t>Esta estrategia enfatiza la necesidad de la prevención y el reconocimiento temprano de los problemas en los niños y sus familias y la importancia de los Servicios de Salud Mental Infanto-Juvenil (CAMHS) especializados (Gobierno de SM, 2011). Por primera vez, esto permitió establecer estándares de acceso y tiempo de espera en los servicios de salud mental. El documento Cerrando la Brecha, el nuevo plan de acción de salud mental, establece nuestras prioridades para el cambio esencial en la salud mental: 25 áreas donde las personas pueden esperar ver y experimentar los cambios más rápidos. Muestra cómo los cambios en la planificación y prestación de servicios locales marcarán la diferencia, en los próximos dos o tres años, en la vida de las personas con problemas de salud mental.</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>documento investiga efecto crisis económica pobreza infantil privación material severa ue ampliada islandia noruega suiza evidencia recesiones anteriores países industrializados sugiere niños tienden sufrir manera desproporcionada embargo dado retraso dos tres años dispone datos ingresos hogares solo recientemente comenzado surgir estadísticas circunstancias niños</t>
+          <t>Este documento investiga el efecto de la crisis económica sobre la pobreza infantil y la privación material severa en la UE ampliada,31 Islandia, Noruega y Suiza. La evidencia de recesiones anteriores en países industrializados sugiere que los niños tienden a sufrir de manera desproporcionada. Sin embargo, dado el retraso de dos a tres años con el que se dispone de los datos sobre los ingresos de los hogares, solo recientemente han comenzado a surgir estadísticas sobre las circunstancias de los niños.</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>desarrollos invitan reflexión papel educación menudo considera primordialmente jóvenes capítulo termina mirada cómo uso diferentes versiones futuro puede ayudarnos prepararnos mejor desconocido uso dichos datos parte ocde perjuicio estatus altos golán jerusalén asentamientos israelíes cisjordania según términos derecho internacional</t>
+          <t>Estos desarrollos invitan a la reflexión sobre el papel de la educación, que a menudo se considera primordialmente para los jóvenes. El capítulo termina con una mirada a cómo el uso de diferentes versiones del futuro puede ayudarnos a prepararnos mejor para lo desconocido. El uso de dichos datos por parte de la OCDE es sin perjuicio del estatus de los Altos del Golán, Jerusalén Este y los asentamientos israelíes en Cisjordania según los términos del derecho internacional.</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>inglaterra ejemplo dispone datos únicos exhaustivos disponibles forma rutinaria cada consulta calidad atención marco calidad resultados qof sistemas seguimiento avanzados países ocde programa diseñado incentivar estandarizar prestación atención alta calidad basada evidencia práctica general cubra varias principales enfermedades crónicas incluidos problemas salud mental depresión incluye indicadores relativos salud pública servicios prestados atención primaria anticoncepción cribado inmunización</t>
+          <t>Inglaterra, por ejemplo, dispone de datos únicos, exhaustivos y disponibles de forma rutinaria para cada consulta sobre la calidad de la atención. Su Marco de Calidad y Resultados (QOF) es uno de los sistemas de seguimiento más avanzados de los países de la OCDE. El programa está diseñado para incentivar y estandarizar la prestación de una atención de alta calidad basada en la evidencia en la práctica general, que cubra varias de las principales enfermedades crónicas, incluidos problemas de salud mental como la depresión. También incluye indicadores relativos a la salud pública y otros servicios prestados en atención primaria (anticoncepción, cribado e inmunización).</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>proporción jóvenes años estudian trabajan debajo promedio ocde ver figura margen aumentar capacidad capacidad respuesta habilidades desarrolladas educación formación profesional desafío compartido países nivel brindar educación pertinente prepare jóvenes adultos trabajo mismo tiempo proporcione capacidad seguir aprendiendo australia personas años alcanzaron educación secundaria superior encima promedio ocde véase figura mayoría casos programas generales profesionales australianos ofrecen escuelas secundarias superiores</t>
+          <t>La proporción de jóvenes de 15 a 29 años que no estudian ni trabajan (11,5 %) está por debajo del promedio de la OCDE (ver Figura 4), pero hay margen para aumentar la capacidad y la capacidad de respuesta de las habilidades desarrolladas en la educación y formación profesional. Un desafío compartido por los países en este nivel es brindar una educación pertinente que prepare a los jóvenes adultos para el trabajo y, al mismo tiempo, les proporcione capacidad para seguir aprendiendo. En Australia, el 84 % de las personas de 25 a 34 años alcanzaron la educación secundaria superior (por encima del promedio de la OCDE del 82 %, véase la Figura 2). En la mayoría de los casos, los programas generales y profesionales australianos se ofrecen en las escuelas secundarias superiores.</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>última instancia niveles altos desigualdad podrían terminar socavando crecimiento continuo sostenibilidad cambio formuladores políticas deben prestar atención evolución desigualdad ingresos propio bien influye dividendo pobreza crecimiento política social puede limitar desigualdad resultados hoy estabilización macroeconómica educación pueden nivelar campo juego largo plazo ofrecer posibilidades pobres aprovechen oportunidades futuras</t>
+          <t>En última instancia, niveles más altos de desigualdad podrían terminar socavando el crecimiento continuo y, por lo tanto, la sostenibilidad del cambio.23 Los formuladores de políticas deben prestar atención a la evolución de la desigualdad de ingresos, tanto por su propio bien como porque influye en el dividendo de pobreza del crecimiento. La política social puede limitar la desigualdad en los resultados hoy. Pero la estabilización macroeconómica y la educación pueden nivelar el campo de juego a largo plazo y ofrecer posibilidades para que los pobres aprovechen oportunidades futuras.</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>obstante pueden identificar ciertas regularidades según cifras disponibles recientes países menos desiguales región república bolivariana venezuela costa rica uruguay posible identificar bolivia brasil colombia guatemala honduras mayor concentración ingreso región</t>
+          <t>No obstante, se pueden identificar ciertas regularidades. Según las cifras disponibles más recientes, los países menos desiguales de la región son la República Bolivariana de Venezuela, Costa Rica y Uruguay. También es posible identificar a Bolivia, Brasil, Colombia, Guatemala y Honduras como los de mayor concentración del ingreso en la región.</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>incluso después tener cuenta factores sociodemográficos sexo edad condición nacido extranjero cantidad años encuestado trabajando empleador actual trabajado cuenta propia sigue existiendo brecha habilidades alfabetización países participan estudio encuesta ocde brechas particularmente altas israel reino unido inglaterra unidos grecia república eslovaca polonia eslovenia chile ocde sugiere adultos padres educados beneficiado mejores oportunidades aprendizaje apoyo aquellos cuyos padres misma educación</t>
+          <t>Incluso después de tener en cuenta factores sociodemográficos como el sexo, la edad, la condición de nacido en el extranjero y la cantidad de años que el encuestado ha estado trabajando para un empleador actual o ha trabajado por cuenta propia, sigue existiendo una brecha en las habilidades de alfabetización en todos los países que participan en el estudio. la encuesta (OCDE, 2016a). Las brechas son particularmente altas en Israel, Reino Unido (Inglaterra), Estados Unidos, Grecia, República Eslovaca, Polonia, Eslovenia y Chile (OCDE, 2016a). Esto sugiere que los adultos con padres más educados se han beneficiado de mejores oportunidades de aprendizaje y apoyo que aquellos cuyos padres no tienen la misma educación.</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>financiación corto plazo puede crear brecha expectativas capacidad prestación impedir procesos empoderamiento largo plazo comunidades recuadro proyecto proporcionó millones dólares consejos desarrollo local creados gestionar necesidades desarrollo comunidades embargo ajustados plazos desembolsar fondos proyecto normas burocráticas impidieron consejos convirtieran estructuras participativas sólidas vieron reducidos actuar mecanismos transmisión fondos controlados bancos dada gran variación características distintos frágiles dentro esencial donantes gestores programas realicen análisis exhaustivo detallado contexto local nacional concreto pretenden implantar programa</t>
+          <t>La financiación a corto plazo puede crear una brecha entre las expectativas y la capacidad de prestación e impedir procesos de empoderamiento a más largo plazo en las comunidades (recuadro 4.1). El proyecto proporcionó 18 millones de dólares a más de 400 consejos de desarrollo local creados para gestionar las necesidades de desarrollo de sus comunidades. Sin embargo, los ajustados plazos para desembolsar los fondos del proyecto y las normas burocráticas impidieron que los consejos se convirtieran en estructuras participativas sólidas, y se vieron reducidos a actuar como mecanismos de transmisión de fondos controlados por los bancos. Dada la gran variación de las características entre los distintos Estados frágiles y dentro de ellos, es esencial que los donantes y los gestores de los programas realicen un análisis exhaustivo y detallado del contexto local o nacional concreto en el que pretenden implantar un programa.</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>hogares edad trabajar pueden darse lujo tener nadie trabajo número personas trabajo disminuido número pequeño familias trabajo pobreza profunda valor prestaciones desempleo disminuido proporción cada vez mayor pobres trabajadores pobres salarios bajos horarios trabajo reducidos sola fuente ingresos familia educación mejorado elevando ingresos mayoría</t>
+          <t>Los hogares en edad de trabajar ya no pueden darse el lujo de no tener a nadie con trabajo y el número de personas sin trabajo ha disminuido, pero para el número más pequeño de familias sin trabajo, la pobreza es mucho más profunda que antes, ya que el valor de las prestaciones por desempleo ha disminuido. Una proporción cada vez mayor de los pobres en 2030 son "trabajadores pobres", con salarios bajos, horarios de trabajo reducidos o con una sola fuente de ingresos en la familia. La educación ha mejorado, elevando los ingresos de la mayoría.</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>establecido alfabetización casi universal fines siglo xix desarrollo económico social sigue profundamente entrelazado compromiso educación medida economía desarrollado últimas décadas sistema educativo ayudó impulsar país estatus ingreso medio alto ahora debe evolucionar responder crecientes expectativas cambiantes demandas habilidades surgiendo nuevos desafíos crecimiento económico desacelerado recientemente desigualdad ampliando crecimiento productividad débil</t>
+          <t>Habiendo establecido una alfabetización casi universal a fines del siglo XIX, su desarrollo económico y social ha estado y sigue estando profundamente entrelazado con un compromiso con la educación. A medida que la economía se ha desarrollado en las últimas décadas, el sistema educativo que ayudó a impulsar al país al estatus de ingreso medio alto ahora debe evolucionar para responder a las crecientes expectativas y las cambiantes demandas de habilidades. Están surgiendo nuevos desafíos: el crecimiento económico se ha desacelerado recientemente, la desigualdad se está ampliando y el crecimiento de la productividad es débil.</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>objetivo análisis identificar puntos común divergencias siempre posible dentro datos comparativos disponibles señalado capítulo introductorio miembros commonwealth número limitado países sur global feminización profesión docente extendida cuentan indicadores justifiquen investigación existen similitudes claras estudio tratado mantener enfoque interregional dentro limitación países disponibles estudio intentado ofrecer experiencias variadas embargo cabe destacar tres países pequeños insulares commonwealth samoa dominica sri lanka hace estudio representativo mayoría países commonwealth altos porcentajes profesoras característica distintiva sistemas educativos véase capítulo</t>
+          <t>El objetivo del análisis será identificar los puntos en común y las divergencias siempre que sea posible dentro de los datos comparativos disponibles. Como ya se ha señalado en el capítulo introductorio, entre los miembros de la Commonwealth hay un número limitado de países del Sur global, donde la feminización de la profesión docente está muy extendida. De los que sí cuentan con indicadores que justifiquen una investigación, existen algunas similitudes claras entre ellos. Este estudio ha tratado de mantener un enfoque interregional y, dentro de la limitación de países disponibles para el estudio, ha intentado ofrecer experiencias variadas. Sin embargo, cabe destacar que tres de los países son pequeños Estados insulares de la Commonwealth -Samoa, Dominica y Sri Lanka-, lo que hace que el estudio sea representativo de la mayoría de los países de la Commonwealth en los que los altos porcentajes de profesoras son una característica distintiva de sus sistemas educativos (véase el capítulo 1).</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>solo entonces promesa mercado regional brindará incentivo suficientemente realista empresas originarias acepten productos disponibles precios asequibles región importante países región acuerden elección productor productores locales cualquier medicamento dependiendo patente país exportador productor genérico extranjero puede fabricar medicamento bajo licencia obligatoria exportarlo bajo sistema borrador artículo bis acuerdo trips</t>
+          <t>Solo entonces la promesa de un mercado regional brindará un incentivo suficientemente realista para que las empresas originarias acepten que sus productos estén disponibles a precios asequibles en la región. También será importante que los países de la región acuerden la elección del productor o productores locales de cualquier medicamento. Dependiendo del estado de su patente en el país exportador, el productor genérico extranjero puede fabricar el medicamento bajo una licencia obligatoria y exportarlo bajo el sistema del borrador del Artículo 31 bis del Acuerdo TRIPS.</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>municipios responsables cumplir derecho lugar jardín infancia niños partir año edad instituciones terciarias mayoría autónomas decisiones incluidas aquellas cómo asignan recursos noruega cuenta financiación generosa niveles sistema educativo instituciones educativas públicas privadas niveles obtienen mayor parte financiación fuentes públicas educación pública gratuita excepto nivel preescolar padres deben pagar tasas</t>
+          <t>Los municipios también son responsables de cumplir con el derecho a un lugar en el jardín de infancia para todos los niños a partir de 1 año de edad. Las instituciones terciarias son en su mayoría autónomas en sus decisiones, incluidas aquellas sobre cómo asignan los recursos. Noruega cuenta con una financiación generosa en todos los niveles del sistema educativo: las instituciones educativas públicas y privadas de todos los niveles obtienen la mayor parte de su financiación de fuentes públicas, y la educación pública es gratuita, excepto en el nivel preescolar, donde los padres deben pagar algunas tasas.</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>pakistán ejemplo baluchistán provincia frontera noroeste nwfp áreas tribales administración federal fata zonas predominantemente tribales desgracia mayoría muertes infantiles debieron causas evitables diarrea infecciones respiratorias tétanos así pues mejora condiciones vida acceso servicios sanitarios redundaría rápida mejora salud infantil regiones efecto trata cifra escandalosa tasa nacional mortalidad materna descendido</t>
+          <t>En Pakistán, por ejemplo, Baluchistán, en la Provincia de la Frontera del Noroeste (NWFP), y las Áreas Tribales de Administración Federal (FATA) son las zonas predominantemente tribales. Por desgracia, la mayoría de las muertes infantiles se debieron a causas evitables como la diarrea, las infecciones respiratorias, el tétanos y otras.3 Así pues, la mejora de las condiciones de vida y del acceso a los servicios sanitarios redundaría en una rápida mejora de la salud infantil en estas regiones. En efecto, se trata de una cifra escandalosa cuando la tasa nacional de mortalidad materna ha descendido de 400 por 100.000 en 2004-2005 a 276 en 2006-2007.</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>base respuestas experto cáncer cuestionario hcqi ocde sistemas atención cáncer alemania ejemplo informa cantidad especialistas medicina interna especialistas oncología radiólogos suficiente todas regiones solo cinco puestos vacantes radiólogos ejemplo corea según experto nacional escasez persistente patólogos finales década promedio solo puestos residencia patología formación hospitales llenado últimos diez años canadá informa falta patólogos grave edad promedio aumentando veces reemplazo disponible patólogos jubilan además base necesidades proyectadas puestos capacitación radiólogos redujeron principios década fines década aumento actividades diagnóstico imágenes sofisticación tecnológica llevado aumento demanda</t>
+          <t>Con base en las respuestas del experto en cáncer al Cuestionario HCQI de la OCDE sobre Sistemas de Atención del Cáncer, en Alemania, por ejemplo, se informa que la cantidad de especialistas en medicina interna y otros especialistas en oncología y radiólogos es suficiente en todas las regiones, y solo había cinco puestos vacantes para radiólogos en 2010. Por ejemplo, en Corea, según el experto nacional, ha habido una escasez persistente de patólogos desde finales de la década de 1990 y, en promedio, solo entre el 30 % y el 50 % de los puestos de residencia en patología en formación los hospitales se han llenado en los últimos diez años. Canadá informa que la falta de patólogos es grave, ya que su edad promedio está aumentando y, a veces, no hay reemplazo disponible para los patólogos que se jubilan. Además, con base en las necesidades proyectadas, los puestos de capacitación para radiólogos se redujeron a principios de la década de 2000, pero a fines de la década de 2000 un aumento en las actividades de diagnóstico por imágenes y la sofisticación tecnológica ha llevado a un aumento en la demanda.</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>usadas longitudinalmente escalas honos deberían poder medir resultados pacientes largo tiempo departamento salud encontró fideicomisos usando honos servicios implementando uso honos servicio informes recientes sugieren registros conjunto mínimo datos salud mental incluyen informes honos the centro información sanitaria social herramienta honos formado base herramienta clúster salud mental mecanismo evaluación pago resultados pbr salud mental ver sección</t>
+          <t>Usadas longitudinalmente, las escalas HoNOS deberían poder medir los resultados de los pacientes a lo largo del tiempo. En 2002, el Departamento de Salud encontró que 61 fideicomisos estaban usando HoNOS en sus servicios, con 5 implementando el uso de HoNOS en todo el servicio, los informes más recientes sugieren que el 21% de los registros del Conjunto Mínimo de Datos de Salud Mental incluyen informes de HoNOS (The Centro de Información Sanitaria y Social, 2011). La herramienta HoNOS también ha formado la base de la Herramienta de Clúster de Salud Mental, que será el mecanismo de evaluación para el Pago por Resultados (PbR) en salud mental (ver sección 5.2).</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>umbral pobreza absoluta refiere estándar establecido hogares deberían poder tener satisfacer necesidades básicas principalmente alimentarias umbral pobreza relativa define relación distribución general renta consumo país ejemplo principal umbral pobreza utilizado organización cooperación desarrollo económico ocde unión europea medida pobreza relativa basada distancia económica nivel ingresos suele fijarse mediana ingresos familiares embargo consecuencia pandemia vihsida conflictos crisis sequías recurrentes rápida urbanización muchas personas mayores áfrica subsahariana convertido principales fuentes sustento familias cuidadores nietos adultos edad madura enfermado muerto emigrado</t>
+          <t>Un umbral de pobreza absoluta se refiere a un estándar establecido de lo que los hogares deberían poder tener para satisfacer sus necesidades básicas (principalmente alimentarias). Un umbral de pobreza relativa se define en relación con la distribución general de la renta o el consumo en un país. Por ejemplo, el principal umbral de pobreza utilizado en la Organización para la Cooperación y el Desarrollo Económico (OCDE) y la Unión Europea es una medida de pobreza relativa basada en la "distancia económica", un nivel de ingresos que suele fijarse en el 50% o el 60% de la mediana de los ingresos familiares. Sin embargo, como consecuencia de la pandemia de VIH/SIDA, los conflictos, las crisis como las sequías recurrentes y la rápida urbanización, muchas personas mayores del África subsahariana se han convertido en las principales fuentes de sustento de sus familias y/o en cuidadores de sus nietos, porque los adultos en edad madura han enfermado, han muerto o han emigrado.</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>aumento riqueza significa gobiernos pueden afrontar cada vez necesidades sociales ciudadanos directamente caso objetivos políticas sociales deberían evolucionar consecuencia reflejar nueva capacidad economía garantizar mayor cohesión social crecimiento puede verse marea creciente aunque levantado barcos subido misma cantidad necesita fuerte crecimiento reducir pobreza privaciones manera sostenible países pobres puede contribuir sustancialmente reducir pobreza países medianos ingresos</t>
+          <t>El aumento de la riqueza también significa que los gobiernos pueden afrontar cada vez más las necesidades sociales de sus ciudadanos directamente. Cuando este sea el caso, los objetivos y políticas sociales deberían evolucionar en consecuencia y reflejar la nueva capacidad de la economía para garantizar una mayor cohesión social. El crecimiento puede verse como una marea creciente, pero aunque ha levantado muchos barcos, no todos han subido en la misma cantidad. Se necesita un fuerte crecimiento para reducir la pobreza y las privaciones de manera sostenible en los países pobres y puede contribuir sustancialmente a reducir la pobreza en los países de medianos ingresos.</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>economías emergentes cultura puede ser componente primer orden estrategias desarrollo literatura música videos películas incluso industria moda gastronomía importante creemos hijos aprendan disfrutar arte diviertan pintura escultura música etc apreciación implica juicio valor entender gusta gusta</t>
+          <t>Para las economías emergentes, la cultura puede ser un componente de primer orden en sus estrategias de desarrollo, ya sea literatura, música, videos y películas, o incluso la industria de la moda o la gastronomía. Lo más importante, creemos, es que nuestros hijos aprendan a disfrutar del arte: que se diviertan con la pintura, la escultura, la música, etc. La apreciación implica un juicio de valor: entender por qué me gusta lo que me gusta o por qué no.</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>curiosamente relación concentración inmigrantes centro escolar rendimiento académico similar alumnos origen inmigrante origen inmigrante tabla disponible línea australia alumnos primer grupo cuatro puntos porcentuales probabilidades decir sentían parte escuela diferencia mayor comparaban alumnos asisten centros menos cada alumnos inmigrante alumnos asisten centros cada dos alumnos inmigrante austria dinamarca francia suiza diferencia ascendía cinco puntos porcentuales</t>
+          <t>Curiosamente, la relación entre la concentración de inmigrantes en un centro escolar y el rendimiento académico fue similar entre los alumnos de origen inmigrante y los de origen no inmigrante (Tabla 7.9, disponible en línea). En Australia, los alumnos del primer grupo tenían cuatro puntos porcentuales más de probabilidades de decir que se sentían parte de la escuela. La diferencia era mayor cuando se comparaban los alumnos que asisten a centros en los que menos de uno de cada 10 alumnos es inmigrante y los alumnos que asisten a centros en los que más de uno de cada dos alumnos es inmigrante. En Austria, Dinamarca, Francia y Suiza, esta diferencia ascendía a más de cinco puntos porcentuales.</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>mayoría países ocde desempeño hospitales mide objetivos absolutos cambios observados largo tiempo estonia países bajos utilizan pp atención primaria proporcionaron información adicional países bajos reino unido utilizan pp atención especialistas ambulatorios proporcionaron información adicional categoría refiere gestión hospitalaria luxemburgo uso eficiente medicamentos francia</t>
+          <t>En la mayoría de los países de la OCDE, el desempeño de los hospitales se mide como objetivos absolutos o como cambios observados a lo largo del tiempo. Estonia y los Países Bajos también utilizan P4P en la atención primaria, pero no proporcionaron información adicional. Los Países Bajos y el Reino Unido también utilizan P4P para la atención de especialistas ambulatorios, pero no proporcionaron información adicional. La categoría "otros" se refiere a la gestión hospitalaria en Luxemburgo y al uso eficiente de medicamentos en Francia.</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>wiley comparó rea cepillo dientes solo ofrece potencial mejorar higiene dental usa thomas wiley uso tecnología educativa generalmente clasifica propósito relación entorno enseñanza aprendizaje existente utiliza modelo samr desarrollado puentedura constituye marco puede aplicar cómo utilizan rea enseñanza aprendizaje</t>
+          <t>Wiley comparó los REA con un cepillo de dientes, que solo ofrece el potencial de mejorar la higiene dental cuando se usa (Thomas, 2010, Wiley, 2011). El uso de la tecnología educativa generalmente se clasifica por su propósito en relación con el entorno de enseñanza y aprendizaje existente en el que se utiliza. El modelo SAMR desarrollado por Puentedura (2006) constituye un marco que se puede aplicar a cómo se utilizan los REA en la enseñanza y el aprendizaje.</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>gran número diferentes profesiones especializaciones existían bajo dominio soviético redujo drásticamente escuelas vocacionales pequeñas sola materia fusionaron establecimientos educativos integrales ocde embargo pib gasto público privado instituciones educativas primarias secundarias postsecundarias terciarias mantiene considerablemente debajo promedio ocde pib ocde gráfico b sección examina políticas mejorar asistencia escolar</t>
+          <t>El gran número de diferentes profesiones y especializaciones que existían bajo el dominio soviético se redujo drásticamente y las escuelas vocacionales más pequeñas y de una sola materia se fusionaron en establecimientos educativos más integrales (OCDE, 2001). Sin embargo, con un 3 % del PIB, el gasto público y privado en instituciones educativas primarias, secundarias y postsecundarias no terciarias en 2011 se mantiene considerablemente por debajo del promedio de la OCDE del 3,8 % del PIB (OCDE, 2014a, gráfico B2.2). La sección 2 examina las políticas para mejorar la asistencia escolar.</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>si bien factor redistributivo impacto tan grande aumento ingreso promedio contribución sido embargo fundamental fortalecer reducción pobreza evitar retrocesos si línea pobreza mantiene constante términos reales cambios indicador pobreza pueden analizarse perspectiva variaciones ingreso promedio distribución ingreso diferencia indicador tasa pobreza período inicial puede interpretarse efecto crecimiento posible calcular tasa pobreza corresponde ingreso promedio período inicial distribución ingreso similar período final período</t>
+          <t>Si bien el factor redistributivo no ha tenido un impacto tan grande como el aumento del ingreso promedio, su contribución ha sido sin embargo fundamental para fortalecer la reducción de la pobreza y evitar retrocesos. Por lo tanto, si la línea de pobreza se mantiene constante en términos reales, los cambios en el indicador de pobreza pueden analizarse desde la perspectiva de las variaciones en el ingreso promedio y en la distribución del ingreso. La diferencia entre este indicador y la tasa de pobreza del período inicial puede interpretarse como un efecto de crecimiento También es posible calcular la tasa de pobreza que corresponde al ingreso promedio del período inicial, pero con una distribución del ingreso similar a la del período final período.</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>final escolarización obligatoria estudiantes lituanos número ligeramente mayor horas instrucción obligatoria pares región báltico sustancialmente menos estudiantes ue ocde promedio equivale aproximadamente año menos tiempo instrucción vs estudiantes lituanos participaron evaluación pisa informan dedican media horas cada semana aprender aula horas actividades aprendizaje extraescolares incluido tiempo dedicado tarea instrucción adicional estudio privado pares países miembros ocde pasan promedio dos horas cada semana clases regulares hora menos tarea figura</t>
+          <t>Al final de la escolarización obligatoria, los estudiantes lituanos tienen un número ligeramente mayor de horas de instrucción obligatoria que sus pares en la región del Báltico, y sustancialmente menos que los estudiantes en la UE-22 o la OCDE, en promedio, lo que equivale a aproximadamente un año menos de tiempo de instrucción (6 577 vs. 7 540). Los estudiantes lituanos que participaron en la evaluación de PISA 2015 informan que dedican una media de 25 horas cada semana a aprender en un aula y 18 horas a actividades de aprendizaje extraescolares, incluido el tiempo dedicado a la tarea, la instrucción adicional y el estudio privado. Sus pares en los países miembros de la OCDE pasan en promedio dos horas más cada semana en clases regulares y una hora menos para la tarea (Figura 3.3).</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>embargo chile solidario representa enfoque innovador características idiosincrásicas convierten caso particular si modelo mismo fiszbein schady elegibilidad programa define utilizando proxymeans ficha cas clasifica familias según condiciones sociodemográficas económicas pobreza considera explícitamente experiencia multidimensional adopta específicamente enfoque capacidades asegurar mayor equidad beneficiarios barrientos palma urzua según autores última característica particularmente relevante permite protección social atienda manera efectiva necesidades niños cuya experiencia pobreza suele tener aspectos multidimensionales barrientos jong familias aceptadas programa cooperan inicialmente trabajador social evaluar condiciones acordar plan acción incluye medidas específicas salir pobreza convierten formalmente condiciones según cuales inscriben programa</t>
+          <t>Sin embargo, Chile Solidario representa un enfoque innovador con algunas características idiosincrásicas que lo convierten en un caso particular, si no en un modelo en sí mismo (Fiszbein y Schady, 2009). La elegibilidad del programa se define utilizando un proxy-means (la Ficha CAS) que clasifica a las familias según sus condiciones sociodemográficas y económicas. La pobreza se considera explícitamente como una experiencia multidimensional y se adopta específicamente un enfoque de capacidades para asegurar una mayor equidad entre los beneficiarios (Barrientos, 2010, Palma y Urzua, 2005). Según algunos autores, esta última característica es particularmente relevante ya que permite que la protección social atienda de manera más efectiva las necesidades de los niños, cuya experiencia de pobreza suele tener aspectos multidimensionales (Barrientos y De Jong, 2006). Las familias aceptadas en el programa cooperan inicialmente con un trabajador social para evaluar sus condiciones y acordar un plan de acción que incluye medidas específicas para salir de la pobreza, que se convierten formalmente en las "condiciones" según las cuales se inscriben en el programa.</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>pacientes pueden elegir cualquier médico cabecera sistema control pueden elegir visitar directamente cualquier especialista médico pocos contactos ambulatorios persona gobernanza atención primaria débil ejemplo falta inspección estatal políticas atención primaria apoyo existe relativo subdesarrollo fuerza laboral atención primaria bajos niveles ingresos relación especialistas positivamente juzgado sistema atención primaria relativamente efectivo eficiente respecto coordinación integralidad atención ktingos et kringosetal</t>
+          <t>Los pacientes pueden elegir a cualquier médico de cabecera, pero como no hay un sistema de control, también pueden elegir visitar directamente a cualquier especialista médico. Hay pocos contactos ambulatorios por persona (58 en 2015) y una gobernanza de atención primaria débil (por ejemplo, falta de inspección estatal, políticas de atención primaria de apoyo). También existe un relativo subdesarrollo de la fuerza laboral de atención primaria con bajos niveles de ingresos en relación con los especialistas. Más positivamente, se ha juzgado que el sistema de atención primaria es relativamente efectivo y eficiente con respecto a la coordinación y la integralidad de la atención (Ktingos et al, 2015, Kringosetal, 2013).</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ciertas sustancias ciertos contextos puede asumir patrón patológico debe abordarse largo historia civilización humana sociedades mostrado diferentes niveles tolerancia permisividad hacia uso sustancias psicoactivas control mismo sustancias tabaco alcohol sido reguladas menos estrictamente mayoría sociedades</t>
+          <t>Para ciertas sustancias o en ciertos contextos, puede asumir un patrón patológico que debe abordarse. A lo largo de la historia de la civilización humana, las sociedades han mostrado diferentes niveles de tolerancia y permisividad hacia el uso de sustancias psicoactivas y de control sobre el mismo. Algunas de esas sustancias, como el tabaco y el alcohol, han sido reguladas más o menos estrictamente en la mayoría de las sociedades.</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>recompensas distribuyen maestros asistentes educación dentro cada escuela premiada normas especifican subsidio desempeño excelencia distribuirá docentes proporción número horas contrato individual recursos restantes pueden distribuirse acuerdo programas incentivos especiales diseñados escuelas individuales</t>
+          <t>Las recompensas se distribuyen entre los maestros y asistentes de educación dentro de cada escuela premiada. Las normas especifican que el 90% del Subsidio por Desempeño de Excelencia se distribuirá a los docentes en proporción al número de horas de contrato individual. Los recursos restantes pueden distribuirse de acuerdo con programas de incentivos especiales diseñados por escuelas individuales.</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>figura agrega recuentos pobreza absoluta relativa países ilustrar estimación simple alcance pobreza mundo desarrollo mediados década utilizando tres tipos pobreza definidos jerarquía capacidades descrita sección anterior debe enfatizarse estimaciones aproximadas alinean estimaciones nivel país año país hacen estimaciones globales pobreza utilizan datos povcal ravallion chen sangraula obstante estimaciones corroboran resultados bien conocidos aproximadamente mundo desarrollo vivía menos dólar día</t>
+          <t>La Figura 3 agrega los recuentos de pobreza absoluta y relativa de 114 países para ilustrar una estimación simple del alcance de la pobreza en el mundo en desarrollo a mediados de la década de 2000 utilizando los tres tipos de pobreza definidos por la "jerarquía de capacidades" descrita en la sección anterior. Debe enfatizarse que estas estimaciones son aproximadas en el sentido de que no alinean las estimaciones a nivel de país por año de país, como lo hacen otras estimaciones globales de pobreza que utilizan los datos de PovCal (Ravallion, Chen y Sangraula, 2009). No obstante, estas estimaciones corroboran los resultados bien conocidos de que aproximadamente el 25% del mundo en desarrollo vivía con menos de un dólar al día en 2005.</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>empoderamiento legal pobres relación crecimiento favor pobres vez contribuyen nuevos procesos empoderamiento ejemplo través acceso servicios mejor calidad cambios legales estatus social político dan forma patrones crecimiento inclusivos equitativos donantes pueden apoyar varias acciones colectivas incluida promoción cambios legislativos sindicatos nota buenas prácticas</t>
+          <t>Empoderamiento legal de los pobres y su relación con el crecimiento a favor de los pobres). Estos, a su vez, contribuyen a nuevos procesos de empoderamiento, por ejemplo, a través del acceso a servicios de mejor calidad y cambios legales en el estatus social y político que dan forma a patrones de crecimiento que son inclusivos y equitativos. Los donantes pueden apoyar varias acciones colectivas, incluida la promoción de cambios legislativos, sindicatos (Nota de buenas prácticas 5.</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>porcentaje representa hogares islas exteriores hogares tarawa sur oit b mismo modo remesas procedentes extranjero kiribati tuvalu vanuatu limitadas últimos años aumentando países debido migración laboral nueva zelanda marco plan empleador estacional reconocido rse indicios remesas inversas familias envían dinero países origen parientes viven extranjero ayudarles hacer frente crecientes dificultades adb b remesas locales bastante comunes islas salomón</t>
+          <t>Este porcentaje representa el 20% de todos los hogares de las islas exteriores y el 30% de los hogares de Tarawa del Sur (OIT, 2006b: 45). Del mismo modo, las remesas procedentes del extranjero en Kiribati, Tuvalu y Vanuatu son limitadas, pero en los últimos años están aumentando en estos países debido a la migración laboral a Nueva Zelanda en el marco del plan de "empleador estacional reconocido" (RSE). También hay indicios de "remesas inversas", en las que las familias envían dinero desde sus países de origen a parientes que viven en el extranjero para ayudarles a hacer frente a las crecientes dificultades (ADB, 2010b: 9). Estas "remesas locales" son bastante comunes en las Islas Salomón.</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>suecia inició consejo nacional prevención suicidio convirtiéndose primeros países mundo establecer estrategia nacional integral prevención suicidio decisión parlamentaria condujo creación centro nacional investigación suicidio prevención enfermedades mentales nasp red coordina cooperación actores involucrados incluidos proveedores atención médica servicios sociales escuelas iglesias ong objetivo facilitar esfuerzos prevención suicidio integrar trabajo salud pública nacional nivel local</t>
+          <t>Suecia inició el Consejo Nacional para la Prevención del Suicidio en 1993, convirtiéndose en uno de los primeros países del mundo en establecer una estrategia nacional integral para la prevención del suicidio. En 1994, una decisión parlamentaria condujo a la creación de un Centro Nacional para la Investigación del Suicidio y Prevención de Enfermedades Mentales (NASP). Esta red coordina la cooperación entre los actores involucrados, incluidos proveedores de atención médica, servicios sociales, escuelas, iglesias y ONG, y tiene como objetivo facilitar los esfuerzos de prevención del suicidio e integrar el trabajo de salud pública nacional a nivel local.</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>figura ilustra combinación riesgos población ue actualmente revisando lista elementos privación espera nueva definición conste elementos economías prósperas incluso niveles relativos privación renta pueden captar desigualdades determinan libertad personal participación sociedad posesión riqueza métrica especialmente relevante determina potencialmente condiciones pobreza cómo hacerles frente</t>
+          <t>La figura 2.1 ilustra la combinación de esos riesgos para la población de la UE en 2015. Actualmente se está revisando la lista de elementos de privación y se espera que la nueva definición conste de 12 elementos. En las economías más prósperas, incluso los niveles relativos de privación o renta pueden no captar las desigualdades que determinan la libertad personal y la participación en la sociedad. La posesión de riqueza es una métrica especialmente relevante que determina potencialmente las condiciones de pobreza y cómo hacerles frente.</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>autores desean expresar gratitud miembros consejo asesor innocenti report card hacemos proporcionando visión general descriptiva evolución serie indicadores bienestar infantil largo tiempo países ue islandia noruega suiza turquía atención centra indicadores clave resultados niños adolescentes espera visto afectados crisis efectos relacionados economía real corto medio plazo incluyendo pobreza monetaria infantil privación material bienestar subjetivo transición edad adulta incluyendo educación empleo comparamos resultados países clasificamos según cambio experimentaron indicadores periodo analizado</t>
+          <t>Los autores también desean expresar su gratitud a todos los miembros del Consejo Asesor del Innocenti Report Card 12. Lo hacemos proporcionando una visión general descriptiva de la evolución de una serie de indicadores de bienestar infantil a lo largo del tiempo (2007/8-2012/31) en 32 países (la UE-28 más Islandia, Noruega, Suiza y Turquía). La atención se centra en indicadores clave de resultados de niños y adolescentes que se espera se hayan visto afectados por la crisis y sus efectos relacionados en la economía real a corto y medio plazo, incluyendo la pobreza monetaria infantil y la privación material, el bienestar subjetivo y la transición a la edad adulta (incluyendo la educación y el empleo). Comparamos los resultados de los países y los clasificamos según el cambio que experimentaron en estos indicadores durante el periodo analizado.</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>desajustes dimensión habilidades exceso trabajadores calificados posible falta trabajadores calificados ciertos dominios reducir cuña fiscal elevada salarios bajos evitar aumentos excesivos salario mínimo apoyaría demanda mano obra cualificada largo plazo mejorar oferta laboral requiere mejorar resultados educativos especialmente estudiantes desfavorecidos hacer transición escuela trabajo menos abrupta</t>
+          <t>Los desajustes tienen sobre todo una dimensión de habilidades, con un exceso de trabajadores poco calificados y una posible falta de trabajadores calificados en ciertos dominios. Reducir la cuña fiscal elevada sobre los salarios bajos y evitar aumentos excesivos del salario mínimo apoyaría la demanda de mano de obra poco cualificada. A más largo plazo, mejorar la oferta laboral requiere mejorar los resultados educativos, especialmente de los estudiantes desfavorecidos, y hacer que la transición de la escuela al trabajo sea menos abrupta.</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>analizan aspectos calidad docente directamente relacionados calidad instrucción cómo ésta vez relacionada aprendizaje estudiantes análisis muestran relaciones positivas competencia pedagógica docentes resultados estudiantes escuela primaria secundaria inferior mientras educación formal docentes parece ser importante grados superiores artículo analiza cómo pueden relacionar hallazgos desarrollo profesional docentes hallazgo importante cómo autoeficacia motivación docentes importantes aprendizaje estudiantes</t>
+          <t>También analizan qué aspectos de la calidad docente están directamente relacionados con la calidad de la instrucción y cómo ésta a su vez está relacionada con el aprendizaje de los estudiantes. Los análisis muestran relaciones positivas entre la competencia pedagógica de los docentes y los resultados de los estudiantes tanto en la escuela primaria como en la secundaria inferior, mientras que la educación formal de los docentes parece ser más importante en los grados superiores. El artículo también analiza cómo se pueden relacionar los hallazgos con el desarrollo profesional de los docentes. Otro hallazgo importante es cómo la autoeficacia y la motivación de los docentes son importantes para el aprendizaje de los estudiantes.</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>división población monitorea sistemáticamente políticas población incluidas relacionadas salud reproductiva políticas salud reproductiva folleto datos stesa sera específicamente meta exige garantizar acceso universal servicios salud sexual reproductiva incluida planificación familiar información educación integración salud reproductiva estrategias programas nacionales asimismo meta exige garantizar acceso universal salud sexual reproductiva derechos reproductivos</t>
+          <t>La División de Población monitorea sistemáticamente las políticas de población, incluidas las relacionadas con la salud reproductiva, desde 1974. Políticas de Salud Reproductiva 2017: Folleto de datos (ST/ESA/ SER.A/396). Específicamente, la meta 3.7 exige garantizar el acceso universal a los servicios de salud sexual y reproductiva, incluida la planificación familiar, la información y la educación, y la integración de la salud reproductiva en las estrategias y programas nacionales para 2030. Asimismo, la meta 5.6 exige garantizar el acceso universal a la salud sexual y reproductiva y derechos reproductivos.</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>mayoría niños transiciones satisfactorias gratificantes niños pueden ser desafiantes estresantes jindalsnape naturaleza fluidez transiciones pueden verse fuertemente influenciadas decisiones aspectos pedagógicos programáticos etapa transición neuman sink edwards weir literatura educativa pedagogía sido conceptualizada base científica arte enseñar definida conjunto técnicas estrategias instrucción permiten aprendizaje niños lugar entornos educativos ocde sirajblatchford pedagogía refiere solo prácticas reales acciones directas profesional sino forma profesional implementa prácticas cómo interviene participa actividades comunica niños forma organizan grupos prácticas cómo horario diario planificado</t>
+          <t>Para la mayoría de los niños, las transiciones son satisfactorias y gratificantes, pero para algunos niños pueden ser desafiantes y estresantes (Jindal-Snape, 2010). Por lo tanto, la naturaleza y la fluidez de estas transiciones pueden verse fuertemente influenciadas por decisiones sobre aspectos pedagógicos (y programáticos) durante la etapa de transición (Neuman, 2002, Sink, Edwards y Weir, 2007). En la literatura educativa, la pedagogía ha sido conceptualizada como la "base científica para el arte de enseñar" y definida como el conjunto de técnicas y estrategias de instrucción que permiten que el aprendizaje de los niños tenga lugar en entornos educativos (OCDE, 2012, Siraj-Blatchford, 2010). La pedagogía se refiere no solo a las prácticas reales y las acciones directas de un profesional, sino también a la forma en que un profesional implementa las prácticas, cómo interviene o participa en actividades y se comunica con los niños, la forma en que se organizan los grupos y las prácticas, y cómo el horario diario está planificado.</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>menos ciudades región incluidas capitales excedieron límites material particulado pm recomendados oms dice menos millones personas américa latina caribe expuestas niveles contaminación aire superan límites recomendados oms cifuentes grupos vulnerables efectos contaminación aire niños ancianos personas ciertas condiciones salud preexistentes personas situación pobreza período alrededor cuatro años menos tercio países siete lograron reducir número muertes causas relacionadas contaminación aire</t>
+          <t>En 2007-2008 al menos 27 ciudades de la región —incluidas 10 capitales— excedieron los límites de material particulado (PM10) recomendados por la OMS. Se dice que al menos 100 millones de personas en América Latina y el Caribe están expuestas a niveles de contaminación del aire que superan los límites recomendados por la OMS (Cifuentes y otros, 2005). Los grupos más vulnerables a los efectos de la contaminación del aire son los niños, los ancianos, las personas con ciertas condiciones de salud preexistentes y las personas en situación de pobreza. En un período de alrededor de cuatro años, de 2004 a 2008, menos de un tercio de los países (siete de 24) lograron reducir el número de muertes por causas relacionadas con la contaminación del aire.</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>rúbrica studio thinking probablemente enfocada hábitos pensamiento artes visuales rúbrica inicial ocde carácter general rúbrica cinco hábitos creativos mente comúnmente utilizada programas creative partnerships existía cierta alineación rúbricas desviación protocolo proyecto bien proyecto desarrollo plantearía problemas fidelidad implementación estudio validación eficacia hungría red escolar implementaba pedagogía creative partnerships propuso alternativa interesante equipo utilizó rúbrica general ocde rúbrica cinco hábitos creativos mente diferentes propósitos</t>
+          <t>La rúbrica Studio Thinking estaba probablemente más enfocada en los hábitos de pensamiento de las artes visuales que la rúbrica inicial de la OCDE de carácter general. Y la rúbrica de los “cinco hábitos creativos de la mente” era comúnmente utilizada por los programas de Creative Partnerships. Como existía cierta alineación entre esas rúbricas, esta desviación del protocolo del proyecto estaba bien para un proyecto de desarrollo, pero plantearía problemas de “fidelidad de implementación” en un estudio de validación o eficacia. En Hungría, la red escolar que implementaba la pedagogía de Creative Partnerships propuso una alternativa interesante: el equipo utilizó tanto la rúbrica general de la OCDE como la rúbrica de los “cinco hábitos creativos de la mente”, pero para diferentes propósitos.</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>consideramos educación secundaria superior postsecundaria evidencia fp asocia mayor incidencia formación brecha positiva estimada respecto educación académica oscila puntos porcentuales mujeres puntos porcentuales hombres caso brecha negativa estimada cercana puntos porcentuales</t>
+          <t>Cuando consideramos la educación secundaria superior o postsecundaria, hay evidencia de que la FP se asocia con una mayor incidencia de formación. La brecha positiva estimada con respecto a la educación académica oscila entre 2,4 puntos porcentuales para las mujeres y 4,0 puntos porcentuales para los hombres. En este caso, la brecha negativa estimada es cercana a los 10 puntos porcentuales.</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>medidas tradujeron elevada cuota mercado genéricos términos valor volumen letonia empezado reforzar infraestructura información sanitaria últimos años introducción sistema sanidad electrónica portal sanidad electrónica iniciados disponibilidad uso información sanitaria deberían seguir aumentando próximos años</t>
+          <t>Estas medidas se tradujeron en una elevada cuota del mercado de genéricos, en términos de valor y volumen. Letonia ha empezado a reforzar su infraestructura de información sanitaria en los últimos años con la introducción de un sistema de sanidad electrónica y un portal de sanidad electrónica iniciados en 2016. La disponibilidad y el uso de la información sanitaria deberían seguir aumentando en los próximos años.</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>objetivo organizaciones planificación familiar públicas privadas gubernamentales debería ser eliminar todas barreras relacionadas programas uso planificación familiar año mediante rediseño ampliación información servicios formas aumentar capacidad parejas personas tomar decisiones libres informadas número espaciamiento momento nacimientos protegerse enfermedades transmisión sexual concreto gobiernos deben facilitar parejas personas asuman responsabilidad propia salud reproductiva eliminando barreras jurídicas médicas clínicas normativas innecesarias información acceso servicios métodos planificación familiar insta dirigentes políticos comunitarios desempeñen papel firme sostenido visible promoción legitimación prestación uso servicios planificación familiar salud reproductiva</t>
+          <t>El objetivo de las organizaciones de planificación familiar públicas, privadas y no gubernamentales debería ser eliminar todas las barreras relacionadas con los programas para el uso de la planificación familiar para el año 2005, mediante el rediseño o la ampliación de la información y los servicios y otras formas de aumentar la capacidad de las parejas y las personas para tomar decisiones libres e informadas sobre el número, el espaciamiento y el momento de los nacimientos y protegerse de las enfermedades de transmisión sexual. En concreto, los gobiernos deben facilitar que las parejas y las personas asuman la responsabilidad de su propia salud reproductiva eliminando las barreras jurídicas, médicas, clínicas y normativas innecesarias a la información y al acceso a los servicios y métodos de planificación familiar. Se insta a todos los dirigentes políticos y comunitarios a que desempeñen un papel firme, sostenido y muy visible en la promoción y legitimación de la prestación y el uso de servicios de planificación familiar y salud reproductiva.</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>especialmente importante pobres dependen buena salud nutrición trabajo productivo mejorar ingresos calidad vida deben poder resistir recuperarse enfermedades mujeres deben poder contar embarazos seguros embargo describió capítulo anterior ampliado disparidades materia salud especialmente respecta mortalidad infantil niñez mortalidad materna proporción niños insuficiencia ponderal hace eco preocupaciones planteadas cumbre odm septiembre llamó atención persistentes desequilibrios funcionamiento actual economía mundial social económica ambientalmente insostenibles</t>
+          <t>Esto es especialmente importante para los pobres, que dependen de una buena salud y nutrición para el trabajo productivo. Para mejorar sus ingresos y su calidad de vida, deben poder resistir y recuperarse de las enfermedades, y las mujeres deben poder contar con embarazos seguros. Sin embargo, como se describió en el capítulo anterior, se han ampliado las disparidades en materia de salud, especialmente en lo que respecta a la mortalidad infantil y en la niñez, la mortalidad materna y la proporción de niños con insuficiencia ponderal. Esto se hace eco de las preocupaciones planteadas por la Cumbre de los ODM en septiembre de 2010, que llamó la atención sobre los persistentes desequilibrios en el funcionamiento actual de la economía mundial, que son social, económica y ambientalmente insostenibles.</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>embargo proporción mayor quintil mayores ingresos menores brecha mayor suecia dinamarca ue conjunto figura tabaquismo habitual adolescentes años disminuyó aún rápidamente sigue siendo alto varios países ue refleja resultados positivos estudio tabaco bastante completo política control ver sección</t>
+          <t>Sin embargo, la proporción es mucho mayor en el quintil de mayores ingresos (82%) que en el de menores (56%). Esta brecha es mayor que en Suecia, Dinamarca y la UE en su conjunto (Figura 4). El tabaquismo habitual entre los adolescentes de 15 años disminuyó aún más rápidamente (del 30 % en 2001-02 al 13 % en 2013-14), pero sigue siendo más alto que en varios países de la UE/1 Esto refleja los resultados positivos de un estudio sobre el tabaco bastante completo. política de control (ver Sección 5.1).</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>medida aumenta número personas mayores necesidades médicas crónicas complejas crecerá demanda integración atención tratamiento médico personalizado respuesta proveedores tal demanda probablemente dependerá reforma mecanismos pago proveedores particularmente atención secundaria actualidad suelen premiar episodios discretos atención futuro cada vez probable mecanismos pago recompensen paquetes atención incluso año completo atención personas necesidades complejas</t>
+          <t>A medida que aumenta el número de personas mayores con necesidades médicas crónicas complejas, también crecerá la demanda de integración de la atención y el tratamiento médico personalizado. La respuesta de los proveedores a tal demanda probablemente dependerá de la reforma de los mecanismos de pago a los proveedores, particularmente para la atención secundaria. En la actualidad, estos suelen premiar episodios discretos de atención. En el futuro, es cada vez más probable que los mecanismos de pago recompensen "paquetes" de atención, o incluso un año completo de atención, para personas con necesidades complejas.</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>enfermeras van extranjero recibir formación especializada avanzada enfermeras dirigen propias clínicas amplia gama condiciones incluidas complicaciones diabéticas úlceras pies anticoagulación rehabilitación cardíaca roles avanzados enfermería bien desarrollados inusuales incluso sistemas salud ocde ofrecen ejemplo buenas prácticas sistemas salud consideren financiamiento sistema salud analiza detalle sección vale pena señalar tendencia ascendente constante gasto bolsillo discusión accesibilidad</t>
+          <t>Las enfermeras también van al extranjero para recibir formación especializada avanzada. Las enfermeras dirigen sus propias clínicas para una amplia gama de condiciones, incluidas las complicaciones diabéticas (como las úlceras en los pies), la anticoagulación y la rehabilitación cardíaca. Estos roles avanzados de enfermería bien desarrollados son inusuales incluso en los sistemas de salud de la OCDE, y ofrecen un ejemplo de buenas prácticas para que otros sistemas de salud lo consideren. El financiamiento del sistema de salud se analiza en detalle en la Sección 3, pero vale la pena señalar una tendencia ascendente constante en el gasto de bolsillo durante esta discusión sobre accesibilidad.</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>útil considerar cómo dichos programas podrían orientarse mejor atender necesidades prioridades región experimentación modelos aprendizaje experiencial basado problemas entornos grupales podría proporcionar solución traería beneficios grupo amplio estudiantes además existe necesidad aumentar mejorar agresivamente educación empresarial</t>
+          <t>También sería útil considerar cómo dichos programas podrían orientarse mejor para atender las necesidades y prioridades de la región. La experimentación con modelos de aprendizaje experiencial y basado en problemas en entornos grupales podría proporcionar una solución que traería beneficios para un grupo más amplio de estudiantes. Además, existe la necesidad de aumentar y mejorar agresivamente la educación empresarial.</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>embargo países disfrutaron crecimiento económico significativo lograron reducir pobreza demuestra crecimiento económico solo puede explicar cambios pobreza desigualdad ingresos suma importancia factor reducción pobreza después descomponer cambios pobreza causados crecimiento económico cambios desigualdad concluyeron ricos beneficiaron crecimiento económico ingreso promedio rico aumentó ingreso promedio general</t>
+          <t>Sin embargo, algunos países que no disfrutaron de un crecimiento económico significativo también lograron reducir la pobreza. Esto demuestra que el crecimiento económico por sí solo no puede explicar los cambios en la pobreza y que la desigualdad de ingresos es de suma importancia como factor de reducción de la pobreza. Después de descomponer los cambios en la pobreza causados ​​por el crecimiento económico y los cambios en la desigualdad, concluyeron que fueron los ricos quienes más se beneficiaron del crecimiento económico, ya que el ingreso promedio del 20% más rico aumentó más que el ingreso promedio general.</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>trabajo consiste mantenimiento laboratorios preparación experimentos asistencia profesores realización clases laboratorio estipulan total categorías profesionales apoyar funcionamiento diario escuelas ejemplo contador psicólogo enfermero bibliotecario oficinista secretario reparador guardia portero ver anexo número puestos categoría depende tipo nivel educación número clases consolidadas escuela normas maestros proporciones estudiantes maestro condiciones sanitarias escuelas significan dentro escuelas supone mayoría estudiantes encuentran condiciones comparables</t>
+          <t>Su trabajo consiste en el mantenimiento de laboratorios, preparación de experimentos y asistencia a los profesores en la realización de clases de laboratorio. Se estipulan un total de otras 13 categorías profesionales para apoyar el funcionamiento diario de las escuelas (por ejemplo, contador, psicólogo, enfermero, bibliotecario, oficinista, secretario, reparador, guardia, portero) (Ver Anexo 4.A1). El número de puestos por categoría depende del tipo, nivel de educación y número de clases consolidadas de la escuela. Las normas para los maestros, las proporciones de estudiantes por maestro y las condiciones "sanitarias" de las escuelas significan que, dentro de las escuelas, se supone que la mayoría de los estudiantes se encuentran en condiciones comparables.</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>si bien número docentes aumentado últimos diez años porcentaje docentes calificados disminuido significativamente educación internacional podría atribuirse aumento matrícula después introducción educación primaria gratuita resultado si bien acceso aumentado tne antigua comparación respectivamente gmr problema calidad educación tema predominante</t>
+          <t>Si bien el número de docentes ha aumentado en los últimos diez años, el porcentaje de docentes calificados ha disminuido significativamente (Educación Internacional, 2007). Esto podría atribuirse al aumento de la matrícula después de la introducción de la Educación Primaria Gratuita en 2000. Como resultado, si bien el acceso ha aumentado entre 1999 y 2008 con una TNE antigua de 57 en comparación con 73 respectivamente (GMR, 2010), el problema de la calidad en la educación es un tema predominante.</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>sistema proporciona estímulo débil mejora continua calidad prestación atención mayoría profesionales pagados únicamente través salarios fijos vinculación evaluación desempeño casos contratos temporales incluyen beneficios seguridad social evidencia escenarios nacionales concluido alejarse mecanismos salariales profesionales salud estrategia exitosa aumentar eficiencia asignación ejemplo mediante fortalecimiento sistema atención primaria mejorar experiencia usuario remuneración ligada menos parte desempeño así prevención cuidados costosos incluidas hospitalizaciones evitables morenoserra proveedores tienden concentrarse gran medida áreas densamente pobladas aumento notable número proveedores privados localidades últimos diez años</t>
+          <t>Este sistema proporciona un estímulo débil para la mejora continua de la calidad en la prestación de la atención, ya que la mayoría de los profesionales son pagados únicamente a través de salarios fijos (sin vinculación con la evaluación del desempeño), y en muchos casos los contratos son temporales y no incluyen beneficios de seguridad social. La evidencia de otros escenarios nacionales ha concluido que alejarse de los mecanismos salariales para los profesionales de la salud es una estrategia exitosa para aumentar la eficiencia en la asignación, por ejemplo mediante el fortalecimiento del sistema de atención primaria, al mejorar la experiencia del usuario (cuando la remuneración está ligada, al menos en parte, al desempeño). ) así como la prevención de cuidados más costosos, incluidas las hospitalizaciones evitables (Moreno-Serra, 2014). Los proveedores tienden a concentrarse en gran medida en áreas densamente pobladas, con un aumento notable en el número de proveedores privados en esas localidades en los últimos diez años.</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>colaboraciones regionales desarrolladas embargo propios deben tomar iniciativa planificación financiación implementación gama cambios política iniciativas descritas capítulo introdujo educación primaria gratuita obligatoria abolieron todas tasas escolares</t>
+          <t>Algunas de estas colaboraciones regionales están mucho más desarrolladas que otras. Sin embargo, los propios estados deben tomar la iniciativa en la planificación, financiación e implementación de la gama de cambios de política e iniciativas descritas en este capítulo. En 2003 se introdujo la educación primaria gratuita y obligatoria y en 2008 se abolieron todas las tasas escolares.</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>sistema indicadores cubre indicadores cinco dimensiones principales limitan rendimiento académico sino incluyen desarrollo moral desarrollo físico mental fomento interés académico carga alumnos marco puso prueba áreas incluso provincia zhejiang municipio shanghái reconoce varios aspectos sistema educativo actual necesitan reformas permitir transición país hacia economía innovación carga trabajo escolar estudiantes primaria secundaria suele ser demasiado pesada existe enorme presión familiar ser admitido buenas escuelas</t>
+          <t>El sistema de indicadores cubre 20 indicadores en cinco dimensiones principales que no se limitan al rendimiento académico, sino que también incluyen el desarrollo moral, el desarrollo físico y mental, el fomento del interés académico y la carga de los alumnos. Este marco se puso a prueba en 30 áreas, incluso en la provincia de Zhejiang y el municipio de Shanghái. Se reconoce que varios aspectos del sistema educativo actual necesitan reformas para permitir la transición del país hacia una economía de innovación. La carga del trabajo escolar en los estudiantes de primaria y secundaria suele ser demasiado pesada y existe una enorme presión familiar para ser admitido en buenas escuelas.</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>pueden guiar maestros preparación programas aprendizaje lecciones podrían ser necesarios estudiantes puedan alcanzar estándares prescritos ejemplo proporciona estándares contenido describen estudiantes deben aprender cada nivel grado asigna cantidad significativa responsabilidad educadores determinar cómo debe implementar contenido</t>
+          <t>También pueden guiar a los maestros en la preparación de programas de aprendizaje y lecciones que podrían ser necesarios para que los estudiantes puedan alcanzar los estándares prescritos. Por ejemplo, proporciona estándares de contenido que describen lo que todos los estudiantes deben aprender en cada nivel de grado y asigna una cantidad significativa de responsabilidad a los educadores para determinar cómo se debe implementar el contenido.</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>salvador guatemala méxico redujeron ingresos trabajo cuenta propia aumentaron sueldos salarios mientras uruguay ocurrió contrario costa rica salvador honduras uruguay transferencias representaron aumento ingresos totales países vieron reducida pobreza brasil chile ecuador panamá transferencias representaron alrededor aumento ingreso total posible casos determinar partir datos disponibles exactamente tipos transferencias generaron aumentos ingresos encuestas realizadas alrededor tendieron capturar datos agregados</t>
+          <t>En El Salvador, Guatemala y México se redujeron los ingresos del trabajo por cuenta propia y aumentaron los sueldos y salarios, mientras que en Uruguay ocurrió lo contrario. En Costa Rica, El Salvador, Honduras y Uruguay, las transferencias representaron más del 50% del aumento de los ingresos totales. En los países que más vieron reducida su pobreza, como Brasil, Chile, Ecuador y Panamá, las transferencias representaron alrededor del 20% del aumento del ingreso total. No es posible en todos los casos determinar a partir de los datos disponibles exactamente qué tipos de transferencias generaron aumentos en los ingresos, porque las encuestas realizadas alrededor de 1990 tendieron a capturar datos agregados.</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>docentes pueden optar alinear enseñanza conocimientos habilidades evaluados prueba estandarizada descuidando así áreas currículo van ser evaluadas problemas enseñanza prueba dos primero enfatizar habilidades tomar exámenes concentrarse contenido evaluado puntajes inflarán reflejar aumento comprensión conceptos parte estudiantes hamilton stecher hout elliott</t>
+          <t>Los docentes pueden optar por alinear su enseñanza con los conocimientos y habilidades evaluados en la prueba estandarizada, descuidando así otras áreas del currículo que no van a ser evaluadas. Los problemas con la enseñanza para la prueba son dos. Primero, al enfatizar las habilidades para tomar exámenes y concentrarse en el contenido evaluado, los puntajes se inflarán sin reflejar un aumento en la comprensión de los conceptos por parte de los estudiantes (Hamilton y Stecher, 2002, Hout y Elliott, 2011).</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>análisis cohortes longitudinales basados red indepth sitios vigilancia demográfica salud wwwindepthnetworkorg muestran asociación estatus socioeconómico mortalidad menores cinco años mwageni asociación sostiene cuenta factores debpuur datos países provienen encuestas dhs recientes realizadas ponderados tamaño población cada países regresión multivariada figura presenta efecto medido riqueza hogar mortalidad infantil edades años meses tres regiones incluidas análisis riesgo relativo neto morir cumplir cinco años niño nacido áfrica hogar rico ciento niño hogar pobre región contraste riesgo relativo neto morir niño nacido asia hogar rico solo ciento niño hogar pobre</t>
+          <t>Los análisis de cohortes longitudinales basados ​​en la red INDEPTH de sitios de vigilancia demográfica y de salud (www.indepth-network.org) muestran una asociación entre el estatus socioeconómico y la mortalidad de menores de cinco años (Mwageni y otros, 2011), pero esta asociación no se sostiene. cuando se tienen en cuenta otros factores (Debpuur y otros, 2011). Los datos de los países provienen de las encuestas DHS más recientes realizadas en 2005-2013 y están ponderados por el tamaño de la población de 2005 de cada uno de los 50 países en una regresión multivariada. La Figura 9 presenta el efecto medido de la riqueza del hogar sobre la mortalidad infantil (edades 0-4 años o 0-59 meses) para las tres regiones incluidas en el análisis. El riesgo relativo neto de morir antes de cumplir los cinco años para un niño nacido en África del hogar más rico es del 89 por ciento del de un niño del hogar más pobre de la región. En contraste, el riesgo relativo neto de morir de un niño nacido en Asia del hogar más rico es solo el 52 por ciento del de un niño del hogar más pobre.</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>resultados estudio provisión efectiva educación preescolar eppe inglaterra reino unido demostrado factores explicativos clave eapi alta calidad relacionados personal calificaciones altas personal habilidades liderazgo larga experiencia personal servicio personal capacitado trabaja junto personal menos calificado apoya personal buena comprensión desarrollo aprendizaje infantil sirajblatchford mayores proporciones personal bajo nivel calificación relacionaron resultados infantiles menos favorables dominio socioemocional relaciones sociales pares cooperación existe relación simple nivel educación personal calidad aula resultados aprendizaje</t>
+          <t>Los resultados del estudio de Provisión Efectiva de Educación Preescolar (EPPE) de Inglaterra (Reino Unido) también han demostrado que los factores explicativos clave para la EAPI de alta calidad estaban relacionados con "personal con calificaciones más altas, personal con habilidades de liderazgo y larga experiencia". personal de servicio, personal capacitado que trabaja junto con el personal menos calificado y lo apoya, personal con una buena comprensión del desarrollo y el aprendizaje infantil" (Siraj-Blatchford, 2010). Mayores proporciones de personal con bajo nivel de calificación se relacionaron con resultados infantiles menos favorables en el dominio socioemocional (relaciones sociales con sus pares y cooperación). No existe una relación simple entre el nivel de educación del personal y la calidad del aula o los resultados del aprendizaje.</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>después breve descripción enfermedades cardiovasculares diabetes examinarán tendencias mortalidad morbilidad resume hallazgos recientes buscan explicar tendencias recientes capítulo evaluará carga mortalidad morbilidad países según género edad finalmente capítulo describirá carga económica términos costos directos atención médica</t>
+          <t>Después de una breve descripción de las enfermedades cardiovasculares y la diabetes, se examinarán las tendencias de la mortalidad y la morbilidad. Resume hallazgos recientes que buscan explicar algunas de estas tendencias recientes. Este capítulo también evaluará la carga de mortalidad y morbilidad en los países según el género y la edad. Finalmente, este capítulo describirá la carga económica en términos de costos directos de atención médica.</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>oms estableció red mundial respuesta brotes alertas goarn objetivo gestionar brotes alertas enfermedades nivel internacional embargo cuestionado si goarn actual pone demasiado énfasis evitar brotes epidémicos propaguen países desarrollados lugar prevenir dichos brotes países desarrollo primer lugar davies elbe aumento esperanza vida explica aumento costos atención salud experimentado décadas anteriores</t>
+          <t>La OMS también estableció en 2000 la Red mundial de respuesta ante brotes y alertas (GOARN) con el objetivo de gestionar brotes y alertas de enfermedades a nivel internacional. Sin embargo, algunos han cuestionado si el GOARN actual pone demasiado énfasis en evitar que los brotes epidémicos se propaguen a los países desarrollados en lugar de prevenir dichos brotes en los países en desarrollo en primer lugar (Davies, 2008, Elbe, 2010). El aumento de la esperanza de vida explica poco del aumento de los costos de atención de la salud experimentado en décadas anteriores.</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>república checa escuelas aprendizaje ofrecen ningún tipo formación empleadores locales escuelas menos mitad población estudiantil recibe formación empleadores locales solo escuelas aprendizaje mayoría estudiantes realizar capacitaciones empresas locales oferta formación fp técnica aún menor puede deberse programas brindan prácticas estudiantes mayores años cubiertos estudio pisa resultados pueden sobreestimados cuestionario envió escuelas vet solo respondieron escuelas</t>
+          <t>En la República Checa, el 20 % de las escuelas de aprendizaje no ofrecen ningún tipo de formación con empleadores locales, en el 40 % de las escuelas, menos de la mitad de la población estudiantil recibe formación con empleadores locales y solo en el 40 % de las escuelas de aprendizaje, la mayoría de los estudiantes realizar capacitaciones con empresas locales. La oferta de formación en FP técnica es aún menor, pero esto puede deberse a que en estos programas se brindan prácticas a estudiantes mayores de 15 años que no están cubiertos por el estudio PISA. Estos resultados pueden estar sobreestimados. El cuestionario se envió a 173 escuelas VET y solo respondieron 83 escuelas.</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>matriculación educación básica sido casi universal años tasa neta matriculación educación primaria educación secundaria inferior estadísticas lituania repetición grado comparativamente baja según encuesta pisa solo estudiantes lituanos afirma haber repetido curso comparación media ocde</t>
+          <t>La matriculación en la educación básica ha sido casi universal durante muchos años. En 2015, la tasa neta de matriculación es del 100 % en educación primaria y del 98,3 % en educación secundaria inferior (Estadísticas de Lituania, 2016). La repetición de grado es comparativamente baja. Según la encuesta PISA 2015, solo el 2,5 % de los estudiantes lituanos afirma haber repetido curso, en comparación con la media de la OCDE del 12 %.</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>centros aepi calidad responden naturaleza dinámica vida niños esfuerzos vincularán mejoras calidad aepi medidas políticas mejorarán equidad acceso calidad atención infancia educación preescolar cómo mide datos canadá refieren tasa neta escolarización ajustada año edad oficial acceso enseñanza primaria ambos sexos ciento</t>
+          <t>Los centros de AEPI de calidad responden a la naturaleza dinámica de la vida de los niños. Estos esfuerzos vincularán las mejoras de la calidad de la AEPI a las medidas políticas y mejorarán la equidad en el acceso. Calidad de la atención a la infancia y la educación preescolar: ¿Cómo se mide? Los datos de Canadá se refieren a la tasa neta de escolarización ajustada, un año antes de la edad oficial de acceso a la enseñanza primaria, ambos sexos {por ciento).</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>aunque concentración escuela suele vinculada políticas residenciales vivienda veces ve reforzada estructura sistema educativo opciones políticas integrar lugar segregar estudiantes inmigrantes incluyen gestión eficaz elección escuela replanteamiento prácticas agrupamiento capacidades garantía alto nivel curricular todas escuelas puede ser necesaria aportación adicional recursos equiparar escuelas financiar programas adicionales atender necesidades lingüísticas particulares tipo alumnos inmigrantes investigación indica financiación equidad eficaz primeros niveles educativos necesarios programas universales alumnos bajo nivel socioeconómico nse medidas específicas alumnos inmigrantes</t>
+          <t>Aunque la concentración en la escuela suele estar vinculada a las políticas residenciales y de vivienda, a veces se ve reforzada por la estructura del sistema educativo. Las opciones políticas para integrar en lugar de segregar a los estudiantes inmigrantes incluyen una gestión eficaz de la elección de escuela, el replanteamiento de las prácticas de agrupamiento por capacidades y la garantía de un alto nivel curricular en todas las escuelas. Puede ser necesaria una aportación adicional de recursos para equiparar sus escuelas y financiar programas adicionales para atender las necesidades lingüísticas particulares y de otro tipo de los alumnos inmigrantes. La investigación indica que la financiación de la equidad será más eficaz en los primeros niveles educativos, y que son necesarios tanto programas universales para los alumnos de bajo nivel socioeconómico (NSE) como medidas específicas para los alumnos inmigrantes.</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>aseguradores salud incentivos insuficientes debido sustanciales compensaciones ex post aún prevalecen falta instrumentos adecuados debido regulación gubernamental precios suministro entrada varios sectores problemas vieron agravados falta sistema adecuado clasificación productos dbc falta información calidad confiable disponible públicamente indicadores desempeño debido datos insuficientes nivel paciente infraestructura información inadecuada ocde b klazinga et último formula explícitamente manteniendo gasto público atención salud dentro tasa crecimiento anual ciento</t>
+          <t>Los aseguradores de salud tenían incentivos insuficientes debido a las sustanciales compensaciones ex post que aún prevalecen y la falta de instrumentos adecuados debido a la regulación gubernamental de precios, suministro y entrada en varios sectores. Estos problemas se vieron agravados por la falta de un sistema adecuado de clasificación de productos (DBC) y la falta de información de calidad confiable y disponible públicamente (indicadores de desempeño) debido a datos insuficientes a nivel del paciente y una infraestructura de información inadecuada (OCDE 2010b, Klazinga et al. Este último se formula explícitamente manteniendo el gasto público en atención de la salud dentro de una tasa de crecimiento anual del 3 lA por ciento.</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>existe registro línea médicos practicantes dados baja empleadores consumidores pueden usarlo verificar registro profesional salud profesionales salud deben renovar registro anualmente mediante participación cantidad prescrita cpd anual artg mantenido administración productos terapéuticos responsable salvaguardar mejorar salud comunidad través administración eficaz oportuna ley productos terapéuticos</t>
+          <t>Existe un registro en línea de médicos practicantes y dados de baja. Los empleadores y los consumidores pueden usarlo para verificar el estado de registro de un profesional de la salud. Los profesionales de la salud deben renovar su registro anualmente mediante la participación en una cantidad prescrita de CPD anual. El ARTG es mantenido por la Administración de Productos Terapéuticos, que es responsable de salvaguardar y mejorar la salud de la comunidad a través de la administración eficaz y oportuna de la Ley de Productos Terapéuticos de 1989.</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>resultado proporción general genéricos uso farmacéutico francia mantuvo torno tercio pesar tasa sustitución cercana dentro clases autorizadas medicamentos panel b útil adoptar lista amplia medicamentos genéricos pueden sustituir manera general permitir mayor uso genéricos cour des comptes c hecho autoridades planean expansión limitada lista dings genéricos pueden sustituir ministere des affaires sociales sante et des droits des femmes participación mercado farmacéutico reembolsado</t>
+          <t>Como resultado, la proporción general de genéricos en el uso farmacéutico en Francia se mantuvo en torno a un tercio en 2015, a pesar de una tasa de sustitución cercana al 80 % dentro de las clases autorizadas de medicamentos (Panel B). Sería útil adoptar una lista más amplia de medicamentos a los que los genéricos pueden sustituir y, de manera más general, permitir un mayor uso de los genéricos (Cour des comptes, 2014c). De hecho, las autoridades planean una expansión limitada de la lista de dings que los genéricos pueden sustituir (ministere des Affaires sociales, de la Sante et des Droits des femmes, 2015). Participación en el mercado farmacéutico reembolsado.</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>progreso frentes destacados llevado temas previamente pasados alto pasen primer plano ejemplo reducción muertes niños menores cinco años mayores mes sacado luz tema mortalidad neonatal pasó alto principios década progreso reflejado progreso países realizado hacia logro objetivos desarrollo milenio odm relacionados salud año</t>
+          <t>El progreso en los frentes más destacados ha llevado a que otros temas previamente pasados ​​por alto pasen a primer plano. Por ejemplo, la reducción de las muertes en niños menores de cinco años pero mayores de un mes, ha sacado a la luz el tema de la mortalidad neonatal, que se pasó por alto a principios de la década de 2000. Este progreso se ha reflejado en el progreso que los países han realizado hacia el logro de los Objetivos de Desarrollo del Milenio (ODM) relacionados con la salud desde el año 2000.</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>costo bajo rendimiento falta inversión educación aumentando fuerzas hacen partes interesadas exigentes reforma fácil emprender condiciones crisis aunque significado crisis puede ser diferente educación probable shock involucrado altere percepciones sistema educativo ver capítulo lugar evento repentinamente afecte capacidad funcionamiento</t>
+          <t>El costo del bajo rendimiento y la falta de inversión en educación está aumentando. Estas fuerzas también hacen que las partes interesadas sean más exigentes. La reforma es más fácil de emprender en condiciones de "crisis", aunque el significado de "crisis" puede ser algo diferente en educación. Es probable que el shock involucrado sea algo que altere las percepciones del sistema educativo (ver Capítulo 1) en lugar de un evento que repentinamente afecte su capacidad de funcionamiento.</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>casos mujeres deben tener acceso servicios calidad manejo complicaciones derivadas aborto deben ofrecer prontitud servicios planificación familiar educación consejería postaborto ayudará evitar abortos repetidos programas reducir morbilidad mortalidad maternas deben incluir servicios información salud reproductiva incluidos servicios planificación familiar</t>
+          <t>En todos los casos, las mujeres deben tener acceso a servicios de calidad para el manejo de las complicaciones derivadas del aborto. Se deben ofrecer con prontitud servicios de planificación familiar, educación y consejería post-aborto, lo que también ayudará a evitar abortos repetidos. Los programas para reducir la morbilidad y mortalidad maternas deben incluir servicios de información y salud reproductiva, incluidos los servicios de planificación familiar.</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>recursos brindan seguridad alimentaria medicinas materiales vivienda lugar asentamiento bienes construir riqueza económica garantías cespap bienes tierra animales utilizan moneda lugar dinero partes pacífico acceso tierra clave protección social</t>
+          <t>Estos recursos brindan seguridad alimentaria, medicinas, materiales para vivienda, un lugar para el asentamiento, bienes para construir riqueza económica y garantías (CESPAP 2012). Los bienes de la tierra y los animales también se utilizan como moneda en lugar de dinero en partes del Pacífico. El acceso a la tierra es la clave para la protección social.</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5258,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ocdeimhe lanzó segunda serie revisiones ocde educación superior desarrollo regional urbano abordar demanda gobiernos nacionales regionales locales instituciones educación superior receptivas activas resultado regiones países sometido proceso revisión ocde revisiones sido realizadas ocdeimhe colaboración organizaciones asociaciones internacionales programas direcciones ocde</t>
+          <t>En 2008, la OCDE/IMHE lanzó una segunda serie de revisiones de la OCDE sobre la educación superior en el desarrollo regional y urbano para abordar la demanda de los gobiernos nacionales, regionales y locales de instituciones de educación superior más receptivas y activas. Como resultado, 14 regiones en 11 países se han sometido al proceso de revisión de la OCDE en 2008-10. Las revisiones han sido realizadas por la OCDE/IMHE en colaboración con organizaciones y asociaciones internacionales y otros programas y direcciones de la OCDE.</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5268,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>países enfatizan instituciones cuidado infantil preescolar exhiben niveles bajos desigualdad oportunidades sugiere efectividad políticas intervención temprana reducir persistencia resultados educativos largo generaciones existe asociación positiva desigualdad oportunidades desigualdad ingresos consecuencia regresiones países sugerirían políticas redistributivas pueden ayudar reducir desigualdades oportunidades educativas asociadas entorno socioeconómico persistencia resultados educativos generaciones</t>
+          <t>Los países que enfatizan las instituciones de cuidado infantil y preescolar exhiben niveles más bajos de desigualdad de oportunidades, lo que sugiere la efectividad de las políticas de intervención temprana para reducir la persistencia de los resultados educativos a lo largo de las generaciones. También existe una asociación positiva entre la desigualdad de oportunidades y la desigualdad de ingresos. Como consecuencia, las regresiones entre países sugerirían que las políticas redistributivas pueden ayudar a reducir las desigualdades de oportunidades educativas asociadas con el entorno socioeconómico y, por lo tanto, la persistencia de los resultados educativos entre generaciones.</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>particular sistemas información institutos sp ss siguen siendo incompatibles existe registro censo nacional pacientes requisito mínimo permitir interoperabilidad trabajo cercano atención médica méxico cuenta menos recursos países ocde actualmente méxico gasta pib salud menos promedio ocde equivale usd ppa per cápita año promedio ocde usd ppp</t>
+          <t>En particular, los sistemas de información entre los institutos de la SP y la SS siguen siendo incompatibles y no existe un registro o censo nacional de pacientes (un requisito mínimo para permitir la interoperabilidad y un trabajo más cercano). La atención médica en México cuenta con menos recursos que en otros países de la OCDE. Actualmente, México gasta el 6.2% (2013) del PIB en salud, algo menos que el promedio de la OCDE de 8.9%, lo que equivale a USD 1 048 PPA per cápita por año (promedio de la OCDE USD PPP 3 453 en 2013).</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5288,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>respuesta director general presentó informe reforma trabajo oms gestión emergencias sanitarias programa emergencias sanitarias oms secretario general incluyen revisión the neglected dimension of global security framework to counter infectious disease crises academia nacional medicina nam b iniciativa conjunta universidad harvard london school of hygiene and tropical medicine moon c revisión panel independiente creado fundación bill melinda gates d revisión msf</t>
+          <t>En respuesta, el Director General presentó un informe "Reforma del trabajo de la OMS en la gestión de emergencias sanitarias: Programa de Emergencias Sanitarias de la OMS". /70/723) al Secretario General. Estos incluyen, entre otros, (a) una revisión The Neglected Dimension of Global Security: A Framework to Counter Infectious Disease Crises de la Academia Nacional de Medicina (NAM),2 (b) una iniciativa conjunta de la Universidad de Harvard y la London School of Hygiene and Tropical Medicine (Moon y otros, 2015), (c) una revisión de un panel independiente creado por la Fundación Bill y Melinda Gates y (d) una revisión de MSF (2015).</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5298,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>recientemente reforma consolidó cinco principales fondos seguridad social sistema seguridad social unificado régimen general seguro salud ghis genel saghk sigortasi ahora cubre mayoría población servicios prestados combinación sector público privado tatar et institución seguridad social ssi sosyal giivenlik kurumu convertido comprador único servicios atención médica financia contribuciones empleadores empleados contribuciones gobierno financian cobertura personas bajos ingresos personas ingresos antiguos titulares tarjeta verde funcionarios públicos</t>
+          <t>Recientemente, la reforma consolidó los cinco principales fondos de seguridad social en un sistema de seguridad social unificado, el Régimen General de Seguro de Salud (GHIS - Genel Saghk Sigortasi), que ahora cubre a la mayoría de la población para los servicios prestados por una combinación de sector público y privado. (Tatar et al., La Institución de Seguridad Social (SSI - Sosyal Giivenlik Kurumu) se ha convertido en el comprador único de los servicios de atención médica. Se financia con las contribuciones de los empleadores y empleados, y con las contribuciones del gobierno, que financian la cobertura para personas de bajos ingresos. personas de ingresos (antiguos titulares de la Tarjeta Verde) y funcionarios públicos.</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5308,7 +5308,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>embargo observan grandes diferencias país múltiples facetas pobreza niños niñas adolescentes carencias materia alimentación vivienda acceso agua potable saneamiento educación información ingresos familiares provocan efectos adversos permanentes marcan resto vidas gran medida efectos conducen transmisión intergeneracional pobreza casos sirven profundizar desigualdad</t>
+          <t>Sin embargo, se observan grandes diferencias de un país a otro. Las múltiples facetas de la pobreza de los niños, niñas y adolescentes (carencias en materia de alimentación, vivienda, acceso a agua potable y saneamiento, educación, información e ingresos familiares) provocan efectos adversos permanentes que los marcan por el resto de sus vidas. En gran medida, estos efectos también conducen a la transmisión intergeneracional de la pobreza y, en algunos casos, sirven para profundizar la desigualdad.</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -5318,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>etiquetar estudiantes acuerdo resultados evaluaciones particular hacer estudiantes repitan grado estigmatiza demostrado cómo autopercepciones estudiantes ideas percepciones demás pueden afectar negativamente motivación aprendizaje hoff pandey schunk mismo tiempo escuelas docentes deben reconocer éxito exámenes sigue siendo importante resultados vida estudiantes asumir responsabilidad conjunta aprendizaje estudiantes ejemplo ofreciendo apoyo estudiantes dificultades</t>
+          <t>Etiquetar a los estudiantes de acuerdo con los resultados de sus evaluaciones y, en particular, hacer que los estudiantes repitan un grado, los estigmatiza y se ha demostrado cómo las autopercepciones de los estudiantes y sus ideas sobre las percepciones de los demás pueden afectar negativamente su motivación y aprendizaje (Hoff &amp; Pandey, 2004). , Schunk, 1985). Al mismo tiempo, las escuelas y los docentes deben reconocer que el éxito en los exámenes sigue siendo importante para los resultados en la vida de los estudiantes y asumir la responsabilidad conjunta del aprendizaje de sus estudiantes, por ejemplo, ofreciendo más apoyo a los estudiantes con dificultades.</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>usando esperanza vida proxy resultados salud bajos esperado letonia dado nivel pib per cápita figura chile polonia hungría mayores expectativas vida pib per cápita similar países gastan mayor parte pib salud sugiere aumentar gasto salud debería ser opción letonia considere fundamental mejorar eficiencia sistema salud número camas hospital caído habitantes acercándose promedio ocde figura duración estancia hospitalaria días promedio todas causas corta promedio ocde ocde</t>
+          <t>Usando la esperanza de vida como proxy, los resultados de salud son mucho más bajos de lo esperado en Letonia dado el nivel de PIB per cápita (Figura 1.12). Chile, Polonia y Hungría tienen mayores expectativas de vida para un PIB per cápita similar, y todos estos países gastan una mayor parte del PIB en salud. Esto sugiere que aumentar el gasto en salud debería ser una opción que Letonia considere. También será fundamental mejorar la eficiencia del sistema de salud. El número de camas de hospital ha caído de 8,8 por 1 000 habitantes a 5,8, acercándose al promedio de la OCDE de 4,8 (Figura 1.14). La duración de la estancia hospitalaria es de 7,6 días en promedio para todas las causas, más corta que el promedio de la OCDE de 8,1 (OCDE, 2015e).</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>personas necesitan multiplicidad habilidades lograr diversas metas vida habilidades naturaleza general relevantes tipo ocupaciones consideradas necesarias proporcionar base participación efectiva exitosa vida social económica economías avanzadas ocde desarrollado dos importantes instrumentos datos evaluar habilidades programa ocde evaluación internacional estudiantes pisa siglas inglés evalúa jóvenes años lectura escritura aritmética ciencias encuesta habilidades adultos producto programa ocde evaluación internacional competencias adultos piaac evalúa adultos años lectoescritura aritmética resolución problemas entornos ricos tecnología llamadas habilidades procesamiento información basan taxonomías reconocidas psicología personalidad particular factores cinco grandes extraversión amabilidad escrupulosidad estabilidad emocional apertura momento existen medidas integrales realizando trabajo conceptual evaluar potencial desarrollar instrumentos medición futuro ocde c</t>
+          <t>Las personas necesitan una multiplicidad de habilidades para lograr diversas metas en la vida. Estas habilidades son de naturaleza general y relevantes para todo tipo de ocupaciones, consideradas necesarias para proporcionar una base para una participación efectiva y exitosa en la vida social y económica de las economías avanzadas. La OCDE ha desarrollado dos importantes instrumentos de datos para evaluar estas habilidades: el Programa de la OCDE para la Evaluación Internacional de Estudiantes (PISA, por sus siglas en inglés) que evalúa a jóvenes de 15 años en lectura, escritura, aritmética y ciencias, y la Encuesta de Habilidades de Adultos, un producto del Programa de la OCDE para la Evaluación Internacional de Competencias de Adultos (PIAAC) que evalúa a adultos de 16 a 65 años en lectoescritura, aritmética y resolución de problemas en entornos ricos en tecnología, también llamadas "habilidades de procesamiento de información". Se basan en taxonomías reconocidas en la psicología de la personalidad, en particular los factores de los "Cinco Grandes" (extraversión, amabilidad, escrupulosidad, estabilidad emocional y apertura). Hasta el momento, no existen medidas integrales, pero se está realizando un trabajo conceptual para evaluar el potencial de desarrollar instrumentos de medición en el futuro (OCDE, 2015c).</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>resultados logrados maestros líderes escolares otorga amplia autonomía base niveles gasto comparativamente modestos embargo existen importantes desafíos enfrenta educación primaria secundaria inferior lituania población edad escolar declive dificulta autoridades administren eficientemente red escolar nación</t>
+          <t>Estos resultados son logrados por maestros y líderes escolares a quienes se les otorga una amplia autonomía, y sobre la base de niveles de gasto comparativamente modestos. Sin embargo, existen importantes desafíos que enfrenta la educación primaria y secundaria inferior en Lituania. Una población en edad escolar en declive dificulta que las autoridades administren eficientemente la red escolar de la nación.</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5358,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>costos viaje siberia lejano oriente podrían exceder varias veces niveles salariales mensuales promedio regiones además aumento población permanente áreas industrias extractivas operan condiciones climáticas extremas plantea problemas particulares tales localidades menudo faltan servicios atención médica dieta deficiente contaminación generalizada puede reflejar diferencias organización provisión atención primaria áreas rurales urbanas ver capítulo posible personas viven áreas rurales médicos puedan consultar pacientes deben satisfechos servicios paramédicos limitados atención pueden brindar encuestas muestran acceso atención médica áreas rurales peor áreas urbanas términos presencia instalaciones médicas calidad atención médica bremzen et</t>
+          <t>Los costos de viaje desde Siberia y el Lejano Oriente podrían exceder varias veces los niveles salariales mensuales promedio en estas regiones. Además, un aumento de la población permanente en áreas con industrias extractivas que operan en condiciones climáticas extremas también plantea problemas particulares porque en tales localidades a menudo faltan servicios de atención médica, la dieta es deficiente y la contaminación es generalizada. Esto puede reflejar diferencias en la organización de la provisión de atención primaria entre áreas rurales y urbanas (ver Capítulo 1). Es posible que las personas que viven en áreas rurales no tengan médicos a los que puedan consultar y los pacientes deben estar satisfechos con los servicios paramédicos que están limitados en la atención que pueden brindar. Las encuestas muestran que el acceso a la atención médica en las áreas rurales es peor que en las áreas urbanas, tanto en términos de la presencia de instalaciones médicas como en la calidad de la atención médica (Bremzen et al.,</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5368,7 +5368,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>cinco ofrecen universidades regionales bajo consejo educación superior ort braude tel hai sakhnin western galilee sefad colleges persisten brechas socioeconómicas grupos población disparidades galilea centro israel israel necesita estrategia política continua concertada política debe garantizar infraestructura educativa ofrece niños árabes judíos incluidas cuestiones tamaño clases instalaciones educativas niveles estándares básicos inglés matemáticas ciencias nivel similar</t>
+          <t>Cinco de estos se ofrecen en universidades regionales bajo el Consejo de Educación Superior: Ort Braude, Tel Hai, Sakhnin, Western Galilee y Sefad Colleges. Persisten las brechas socioeconómicas entre los grupos de población y las disparidades entre Galilea y el centro de Israel. Israel necesita una estrategia política continua y concertada". La política debe garantizar que la infraestructura educativa que se ofrece a todos los niños árabes y judíos, incluidas cuestiones como el tamaño de las clases, las instalaciones educativas en todos los niveles, los estándares básicos en inglés, matemáticas y ciencias, sea de un nivel similar.</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -5378,7 +5378,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>pasos dirección correcta después décadas descuidó gran medida aps cambios culturales mentalidad médica política llevarán tiempo todavía requieren esfuerzos largo plazo pasar enfoque atención salud basado hospital enfermedad enfoques basados persona comunidad ocde b</t>
+          <t>Todos estos son pasos en la dirección correcta. Después de décadas en las que se descuidó en gran medida la APS, los cambios culturales en la mentalidad médica y política llevarán tiempo. Todavía se requieren esfuerzos a largo plazo para pasar de un enfoque de atención de la salud basado en el hospital y la enfermedad a enfoques basados ​​en la persona y la comunidad (OCDE, 2012b).</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -5388,7 +5388,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>grupo centró personas padecen trastornos mentales comorbilidad abuso sustancias mientras demencia discapacidad intelectual abuso sustancias s solos quedaron excluidos ámbito análisis millones euros financiación comisión dispuso tres años iniciar apoyar desarrollo proyectos niveles tratamiento médico mejora servicios proyectos vivienda mejoras legislativas organizativas proponer medidas necesarias elevar forma permanente nivel servicios salud mental</t>
+          <t xml:space="preserve">Este grupo se centró en las personas que padecen trastornos mentales con comorbilidad de abuso de sustancias (mientras que la demencia, la discapacidad intelectual y el abuso de sustancias por sà solos quedaron excluidos del ámbito de análisis). Con 90 millones de euros de financiación, la comisión dispuso de tres años para "iniciar y apoyar el desarrollo de proyectos a todos los niveles (tratamiento médico, mejora de los servicios, proyectos de vivienda, mejoras legislativas y organizativas) y proponer las medidas necesarias para elevar de forma permanente el nivel de los servicios de salud mental". </t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5398,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>adoptaron cambios legislativos relajar estándares higiene soviética permitió educación cuidado primera infancia brindaran gama amplia alojamientos estimular oferta gobierno central lituano autorizó municipios utilizar fondos recibidos través metodología financiación canasta estudiantes apoyar oferta establecimientos eapi privados así establecimientos públicos consecuencia cambios número jardines infancia privados ido constante aumento municipios país jardines infancia privados ampliar participación áreas rurales centrándose estimular demanda servicios parte padres</t>
+          <t>Se adoptaron cambios legislativos para relajar los "estándares de higiene" de la era soviética, lo que permitió que la educación y el cuidado de la primera infancia se brindaran en una gama más amplia de alojamientos. Para estimular la oferta, el gobierno central lituano autorizó a los municipios a utilizar los fondos recibidos a través de la metodología de financiación de la canasta de estudiantes para apoyar la oferta en establecimientos de EAPI privados, así como en establecimientos públicos. Como consecuencia de estos cambios, el número de jardines de infancia privados ha ido en constante aumento y en 2016, 25 de los 60 municipios del país tenían jardines de infancia privados. Ampliar la participación en áreas rurales centrándose en estimular la demanda de servicios por parte de los padres.</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5408,7 +5408,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>preocupaciones tiempos espera llevaron adopción legislación garantía atención médica contenía pautas tiempos máximos espera variedad servicios atención primaria atención especializada lograron avances sustanciales última década reducción tasas mortalidad personas ingresadas hospital condiciones potencialmente mortales tasa mortalidad días ahora baja países ue datos disponibles accidente cerebrovascular isquémico figura refleja agilización procesos atención urgencias provisión mejores tratamientos destaca mayor uso trombólisis ictus isquémicos debido diagnóstico precoz tratamientos efectivos personas finlandia diagnosticadas varios tipos cáncer cáncer mama cervical colon recto tasas supervivencia altas mayoría países ue ocde mortalidad general cáncer encuentra bajos ue</t>
+          <t>Estas preocupaciones sobre los tiempos de espera llevaron a la adopción de una legislación de Garantía de atención médica en 2005 que contenía pautas sobre los tiempos máximos de espera para una variedad de servicios de atención primaria y atención especializada. En 2011. Se lograron avances sustanciales durante la última década en la reducción de las tasas de mortalidad. para las personas ingresadas en el hospital por estas condiciones potencialmente mortales, con la tasa de mortalidad de 30 días ahora la más baja entre los países de la UE con datos disponibles para el accidente cerebrovascular isquémico (Figura 9). Esto refleja la agilización de los procesos de atención de urgencias y la provisión de mejores tratamientos, entre los que destaca un mayor uso de la trombólisis para los ictus isquémicos. Debido al diagnóstico precoz y los tratamientos efectivos, las personas en Finlandia diagnosticadas con varios tipos de cáncer, como cáncer de mama, cervical, de colon y recto, tienen tasas de supervivencia más altas que en la mayoría de los países de la UE: (OCDE, 2017) y mortalidad general por cáncer. se encuentra entre los más bajos de la UE.</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -5418,7 +5418,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>embargo país puede hacer fortalecer desarrollo profesional docente escuelas investigación confirma desarrollo profesional docente efectivo colaborativo integrado práctica aula cole particular sistema evaluación docentes fuerte podría informar progresión diferenciación carrera costa rica asignación subsidios docentes</t>
+          <t>Sin embargo, hay más que el país puede hacer para fortalecer el desarrollo profesional docente en las escuelas. Otra investigación confirma que el desarrollo profesional docente es más efectivo cuando es colaborativo e integrado en la práctica del aula (Cole, 2012). En particular, un sistema de evaluación de docentes más fuerte podría informar la progresión y diferenciación de la carrera en Costa Rica y la asignación de subsidios para docentes.</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5428,7 +5428,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>indicadores calidad deben enfocarse condiciones crónicas obesidad diabetes enfermedades cardiovasculares así salud mental dada evolución carga atención médica costa rica métricas validadas calidad atención primaria condiciones bien establecidas internacionalmente indicadores calidad atención médica ocde costa rica debería adoptarlas costa rica debe apuntar presentar datos proyecto indicadores calidad atención médica ocde</t>
+          <t>Los indicadores de calidad deben enfocarse en condiciones crónicas como la obesidad, la diabetes y las enfermedades cardiovasculares, así como en la salud mental, dada la evolución de la carga de atención médica de Costa Rica. Las métricas validadas de la calidad de la atención primaria para estas condiciones están bien establecidas internacionalmente (como los Indicadores de calidad de la atención médica de la OCDE), y Costa Rica debería adoptarlas. Costa Rica debe apuntar a presentar datos al proyecto de Indicadores de Calidad de la Atención Médica de la OCDE en 2017.</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>solo utilizan evaluaciones descriptivas retroalimentación dependiendo cómo describa evaluación estudiantes currículo escolar plan educativo municipal escuelas finlandesas aceptan puede haber limitaciones comparabilidad profesores califican alumnos hecho escuela primaria gran medida libre pruebas estandarizadas permite profesores utilizar métodos enseñanza creativos alumnos concentrarse aprender mantener curiosidad natural informe nacional pisa concluye solo estudiantes finlandeses años dijeron sentirse ansiosos trabajar tareas matemáticas casa comparación japón kupari valijarvi</t>
+          <t>Solo se utilizan evaluaciones descriptivas y retroalimentación, dependiendo de cómo se describa la evaluación de los estudiantes en el currículo escolar o el plan educativo municipal. Las escuelas finlandesas aceptan que puede haber algunas limitaciones en la comparabilidad cuando los profesores califican a todos los alumnos. Pero el hecho de que la escuela primaria esté, en gran medida, libre de pruebas estandarizadas permite a los profesores utilizar métodos de enseñanza creativos y a los alumnos concentrarse en aprender y mantener su curiosidad natural. El informe nacional PISA concluye que solo el 7% de los estudiantes finlandeses de 15 años dijeron sentirse ansiosos al trabajar en tareas de matemáticas en casa, en comparación con el 52% en Japón (Kupari &amp; Valijarvi, 2005).</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5448,7 +5448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>cambios profundos forma ver educación país seguirá bajos niveles desempeño asegurar igualdad oportunidades estudiantes educación pública privada puede hacer chile sociedad igualitaria pueda aprovechar talentos únicos ciudadanos estudiantes quintil bajo distribución ingresos aproximadamente menos probabilidades asistir escuela secundaria estudiantes quintiles desafíos relacionados alcance limitado medidas aseguramiento calidad disponibles diferentes criterios utilizados según tipo servicio prestado uso insuficiente información generada sistema fines mejora contribuyen diferencias</t>
+          <t>Sin cambios profundos en la forma de ver la educación, el país seguirá teniendo bajos niveles de desempeño. Asegurar la igualdad de oportunidades para los estudiantes tanto en la educación pública como en la privada puede hacer de Chile una sociedad más igualitaria, que pueda aprovechar los talentos únicos de todos sus ciudadanos. Los estudiantes del quintil más bajo de distribución de ingresos tienen aproximadamente un 15 % menos de probabilidades de asistir a la escuela secundaria que los estudiantes de otros quintiles. Los desafíos relacionados con el alcance limitado de las medidas de aseguramiento de la calidad disponibles, los diferentes criterios utilizados según el tipo de servicio prestado y el uso insuficiente de la información generada en el sistema para fines de mejora contribuyen a estas diferencias.</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -5458,7 +5458,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>frente exigencias sociedad conocimiento supone reto desarrollo sector educativo jensen ejemplo gobierno puede limitarse encargar cursos consultores hacer profesores directores centros absorban pasivamente conocimientos cambien práctica acuerdo intención gobierno igual educación general desarrollo profesional alumno individuo creativo participa procesos aprendizaje maneras podemos prever lillejord</t>
+          <t>Frente a las exigencias de una sociedad del conocimiento, esto supone un reto para el desarrollo del sector educativo (Jensen, 2012). Por ejemplo, el Gobierno no puede limitarse a encargar cursos a consultores y hacer que los profesores o los directores de centros absorban pasivamente estos conocimientos y cambien su práctica de acuerdo con la intención del Gobierno. Al igual que en la educación en general, en el desarrollo profesional el alumno es un individuo creativo que participa en los procesos de aprendizaje de maneras que no podemos prever (Lillejord, 2003).</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5468,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>pobreza aumentó población activa hecho pobres paro demuestra tasa pobreza trabajan explica importante número trabajadores mal remunerados cuales trabajan menos jornada completa jubilados contrario vieron disminuir niveles pobreza relativa medida bajaban ingresos medios si comparan diferentes composiciones hogares tasas pobreza elevadas aumentado familias hijos familias hijos ven especialmente afectadas pobreza umbral pobreza renta mediana disponible cada año ajustada tamaño hogar</t>
+          <t>La pobreza también aumentó entre la población activa. De hecho, no todos los pobres están en paro, como demuestra la tasa de pobreza del 10,5% entre los que trabajan. Esto se explica por el importante número de trabajadores mal remunerados, muchos de los cuales trabajan menos de la jornada completa. Los jubilados, por el contrario, vieron disminuir sus niveles de pobreza relativa a medida que bajaban los ingresos medios. Si se comparan las diferentes composiciones de los hogares, las tasas de pobreza son más elevadas y han aumentado más entre las familias con hijos, y las familias que tienen más hijos se ven especialmente afectadas por la pobreza. El umbral de pobreza es el 60% de la renta mediana disponible en cada año, ajustada al tamaño del hogar.</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5478,7 +5478,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>índices económicos tradicionales muestran relaciones comerciales país siempre reflejan cómo impactan pobreza ia permite ir allá analizar datos exportaciones empleo distribución ingresos conjunto identificando regiones grupos sociales beneficiados afectados través modelos predictivos pueden anticipar efectos negativos comunidades pobres diseñar políticas compensatorias impactos irreversibles así inteligencia artificial convierte recurso clave equilibrar economía global desarrollo social</t>
+          <t>Los índices económicos tradicionales muestran las relaciones comerciales de un país, pero no siempre reflejan cómo estas impactan en la pobreza. La IA permite ir más allá al analizar datos de exportaciones, empleo y distribución de ingresos en conjunto, identificando regiones y grupos sociales más beneficiados o afectados. A través de modelos predictivos, se pueden anticipar efectos negativos sobre comunidades pobres y diseñar políticas compensatorias antes de que los impactos sean irreversibles. Así, la inteligencia artificial se convierte en un recurso clave para equilibrar la economía global con el desarrollo social.</t>
         </is>
       </c>
       <c r="B505" t="n">
